--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409D6B8E-6F6E-410A-AC1B-08CE33B42AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068FA0A-775F-4925-8D1A-2899238C3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="DCF" sheetId="2" r:id="rId2"/>
-    <sheet name="DDM" sheetId="4" r:id="rId3"/>
-    <sheet name="WACC" sheetId="3" r:id="rId4"/>
+    <sheet name="WACC" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>Company</t>
   </si>
@@ -278,42 +277,6 @@
   </si>
   <si>
     <t>Average Price</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Discount Factor</t>
-  </si>
-  <si>
-    <t>Dividends</t>
-  </si>
-  <si>
-    <t>Discounted Dividends</t>
-  </si>
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>Dividend Growth Rate</t>
-  </si>
-  <si>
-    <t>Perpetual Growth Rate</t>
-  </si>
-  <si>
-    <t>Cost of Equity</t>
-  </si>
-  <si>
-    <t>Terminal Value</t>
-  </si>
-  <si>
-    <t>Model Price</t>
-  </si>
-  <si>
-    <t>Current</t>
   </si>
   <si>
     <t>1Q22 8K</t>
@@ -467,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,14 +477,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -615,158 +570,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -833,33 +647,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1775,86 +1569,86 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39" t="e" vm="1">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" cm="1">
+      <c r="C4" s="19" cm="1">
         <f t="array" ref="C4">_FV(C3,"Price")</f>
         <v>163.38</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="20"/>
       <c r="F4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="33">
-        <f>AVERAGE(DCF!AQ37,DDM!I10)</f>
-        <v>169.36372264313658</v>
+      <c r="G4" s="10" t="e">
+        <f>AVERAGE(DCF!AQ37,#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="7">
         <v>467.8</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>79</v>
+      <c r="D5" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="7">
         <f>C5*C4</f>
         <v>76429.164000000004</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="7">
         <v>1112</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>79</v>
+      <c r="D7" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="7">
         <f>1089+13379</f>
         <v>14468</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>79</v>
+      <c r="D8" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="23">
         <f>C6-C7+C8</f>
         <v>89785.164000000004</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA5FFC-C2FB-4DA3-BA4F-61AACB691A05}">
   <dimension ref="A1:PH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="X15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1904,1374 +1698,1374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="58"/>
-      <c r="C1" s="59">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36">
         <v>42854</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="5">
         <v>42945</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="5">
         <v>43036</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5">
         <v>43225</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="5">
         <v>43316</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="5">
         <v>43772</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5">
         <v>43589</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="5">
         <v>43680</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="5">
         <v>43771</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5">
         <v>43953</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="5">
         <v>44044</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="5">
         <v>44135</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5">
         <v>44317</v>
       </c>
-      <c r="T1" s="28">
+      <c r="T1" s="5">
         <v>44408</v>
       </c>
-      <c r="U1" s="28">
+      <c r="U1" s="5">
         <v>44499</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5">
         <v>44681</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="49" t="s">
+      <c r="S2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AE2" s="6">
+        <v>2017</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>2018</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AE2" s="29">
-        <v>2017</v>
-      </c>
-      <c r="AF2" s="29">
-        <v>2018</v>
-      </c>
-      <c r="AG2" s="29">
-        <v>2019</v>
-      </c>
-      <c r="AH2" s="29">
-        <v>2020</v>
-      </c>
-      <c r="AI2" s="29">
-        <v>2021</v>
-      </c>
-      <c r="AJ2" s="29">
-        <v>2022</v>
-      </c>
-      <c r="AK2" s="29">
-        <v>2023</v>
-      </c>
-      <c r="AL2" s="29">
-        <v>2024</v>
-      </c>
-      <c r="AM2" s="29">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="C3" s="7">
         <v>4051</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="7">
         <v>3646</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="7">
         <v>3456</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="7">
         <f>14662-SUM(C3:E3)</f>
         <v>3509</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="7">
         <v>3113</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="7">
         <v>3470</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="7">
         <v>3219</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="7">
         <f>15004-SUM(G3:I3)</f>
         <v>5202</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="7">
         <v>3290</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="7">
         <v>3656</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="7">
         <v>3564</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="7">
         <f>14304-SUM(K3:M3)</f>
         <v>3794</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="7">
         <v>2619</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="7">
         <v>4084</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="7">
         <v>3927</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="7">
         <f>14772-SUM(O3:Q3)</f>
         <v>4142</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="34">
         <v>4269</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="34">
         <v>4751</v>
       </c>
-      <c r="U3" s="57">
+      <c r="U3" s="34">
         <v>4364</v>
       </c>
-      <c r="V3" s="57">
+      <c r="V3" s="34">
         <f>17931-SUM(S3:U3)</f>
         <v>4547</v>
       </c>
-      <c r="W3" s="57">
+      <c r="W3" s="34">
         <v>4239</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AE3" s="30">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AE3" s="7">
         <f>SUM(C3:F3)</f>
         <v>14662</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="7">
         <f>SUM(G3:J3)</f>
         <v>15004</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="7">
         <f>SUM(K3:N3)</f>
         <v>14304</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AH3" s="7">
         <f>SUM(O3:R3)</f>
         <v>14772</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="7">
         <f>SUM(S3:V3)</f>
         <v>17931</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="30">
+    <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7">
         <v>3452</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="7">
         <v>4107</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="7">
         <v>4135</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="7">
         <f>17025-SUM(C4:E4)</f>
         <v>5331</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="7">
         <v>4617</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="7">
         <v>4784</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="7">
         <v>4788</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="7">
         <f>17726-SUM(G4:I4)</f>
         <v>3537</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="7">
         <v>4971</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="7">
         <v>5076</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="7">
         <v>5125</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="7">
         <f>20616-SUM(K4:M4)</f>
         <v>5444</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="7">
         <v>5911</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="7">
         <v>6158</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="7">
         <v>6103</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="7">
         <f>24461-SUM(O4:Q4)</f>
         <v>6289</v>
       </c>
-      <c r="S4" s="57">
+      <c r="S4" s="34">
         <v>6364</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="34">
         <v>6726</v>
       </c>
-      <c r="U4" s="57">
+      <c r="U4" s="34">
         <v>6980</v>
       </c>
-      <c r="V4" s="57">
+      <c r="V4" s="34">
         <f>27268-SUM(S4:U4)</f>
         <v>7198</v>
       </c>
-      <c r="W4" s="57">
+      <c r="W4" s="34">
         <v>7053</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AE4" s="30">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AE4" s="7">
         <f t="shared" ref="AE4:AE8" si="0">SUM(C4:F4)</f>
         <v>17025</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="7">
         <f t="shared" ref="AF4:AF8" si="1">SUM(G4:J4)</f>
         <v>17726</v>
       </c>
-      <c r="AG4" s="30">
+      <c r="AG4" s="7">
         <f t="shared" ref="AG4:AG8" si="2">SUM(K4:N4)</f>
         <v>20616</v>
       </c>
-      <c r="AH4" s="30">
+      <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH8" si="3">SUM(O4:R4)</f>
         <v>24461</v>
       </c>
-      <c r="AI4" s="30">
+      <c r="AI4" s="7">
         <f>SUM(S4:V4)</f>
         <v>27268</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="30">
+    <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="7">
         <v>3413</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="7">
         <v>3213</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="7">
         <v>3442</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="7">
         <f>14256-SUM(C5:E5)</f>
         <v>4188</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="7">
         <v>3587</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="7">
         <v>3372</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="7">
         <v>3611</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="7">
         <f>14585-SUM(G5:I5)</f>
         <v>4015</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="7">
         <v>3722</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="7">
         <v>3460</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="7">
         <v>3717</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="7">
         <f>15039-SUM(K5:M5)</f>
         <v>4140</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="7">
         <v>4575</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="7">
         <v>4186</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="7">
         <v>4397</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="7">
         <f>18135-SUM(O5:Q5)</f>
         <v>4977</v>
       </c>
-      <c r="S5" s="57">
+      <c r="S5" s="34">
         <v>4856</v>
       </c>
-      <c r="T5" s="57">
+      <c r="T5" s="34">
         <v>4687</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="34">
         <v>5074</v>
       </c>
-      <c r="V5" s="57">
+      <c r="V5" s="34">
         <f>20306-SUM(S5:U5)</f>
         <v>5689</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="34">
         <v>5505</v>
       </c>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AE5" s="30">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AE5" s="7">
         <f t="shared" si="0"/>
         <v>14256</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="7">
         <f t="shared" si="1"/>
         <v>14585</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="7">
         <f t="shared" si="2"/>
         <v>15039</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="7">
         <f t="shared" si="3"/>
         <v>18135</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="7">
         <f t="shared" ref="AI5:AI8" si="4">SUM(S5:V5)</f>
         <v>20306</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="30">
+    <row r="6" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7">
         <v>2747</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="7">
         <v>2311</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="7">
         <v>2278</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="7">
         <f>12062-SUM(C6:E6)</f>
         <v>4726</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="7">
         <v>2313</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="7">
         <v>2501</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="7">
         <v>2478</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="7">
         <f>12709-SUM(G6:I6)</f>
         <v>5417</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="7">
         <v>2385</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="7">
         <v>2503</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="7">
         <v>2460</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="7">
         <f>12595-SUM(K6:M6)</f>
         <v>5247</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="7">
         <v>2974</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="7">
         <v>3608</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="7">
         <v>3377</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="7">
         <f>16626-SUM(O6:Q6)</f>
         <v>6667</v>
       </c>
-      <c r="S6" s="57">
+      <c r="S6" s="34">
         <v>3946</v>
       </c>
-      <c r="T6" s="57">
+      <c r="T6" s="34">
         <v>3867</v>
       </c>
-      <c r="U6" s="57">
+      <c r="U6" s="34">
         <v>3841</v>
       </c>
-      <c r="V6" s="57">
+      <c r="V6" s="34">
         <f>18614-SUM(S6:U6)</f>
         <v>6960</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="34">
         <v>3713</v>
       </c>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AE6" s="30">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AE6" s="7">
         <f t="shared" si="0"/>
         <v>12062</v>
       </c>
-      <c r="AF6" s="30">
+      <c r="AF6" s="7">
         <f t="shared" si="1"/>
         <v>12709</v>
       </c>
-      <c r="AG6" s="30">
+      <c r="AG6" s="7">
         <f t="shared" si="2"/>
         <v>12595</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="7">
         <f t="shared" si="3"/>
         <v>16626</v>
       </c>
-      <c r="AI6" s="30">
+      <c r="AI6" s="7">
         <f t="shared" si="4"/>
         <v>18614</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="30">
+    <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7">
         <v>2310</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="7">
         <v>3111</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="7">
         <v>3316</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="7">
         <f>13672-SUM(C7:E7)</f>
         <v>4935</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="7">
         <v>2903</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="7">
         <v>3402</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="7">
         <v>3476</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="7">
         <f>14298-SUM(G7:I7)</f>
         <v>4517</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="7">
         <v>3001</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="7">
         <v>3457</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="7">
         <v>3527</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="7">
         <f>14430-SUM(K7:M7)</f>
         <v>4445</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="7">
         <v>3264</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="7">
         <v>4625</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="7">
         <v>4506</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="7">
         <f>18231-SUM(O7:Q7)</f>
         <v>5836</v>
       </c>
-      <c r="S7" s="57">
+      <c r="S7" s="34">
         <v>4410</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="34">
         <v>4748</v>
       </c>
-      <c r="U7" s="57">
+      <c r="U7" s="34">
         <v>4989</v>
       </c>
-      <c r="V7" s="57">
+      <c r="V7" s="34">
         <f>20255-SUM(S7:U7)</f>
         <v>6108</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="34">
         <v>4271</v>
       </c>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AE7" s="30">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AE7" s="7">
         <f t="shared" si="0"/>
         <v>13672</v>
       </c>
-      <c r="AF7" s="30">
+      <c r="AF7" s="7">
         <f t="shared" si="1"/>
         <v>14298</v>
       </c>
-      <c r="AG7" s="30">
+      <c r="AG7" s="7">
         <f t="shared" si="2"/>
         <v>14430</v>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="7">
         <f t="shared" si="3"/>
         <v>18231</v>
       </c>
-      <c r="AI7" s="30">
+      <c r="AI7" s="7">
         <f t="shared" si="4"/>
         <v>20255</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="30">
+    <row r="8" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="7">
         <v>22</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="7">
         <v>20</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="7">
         <f>109-SUM(C8:E8)</f>
         <v>45</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="7">
         <v>23</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="7">
         <v>23</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="7">
         <v>18</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="7">
         <f>111-SUM(G8:I8)</f>
         <v>47</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="7">
         <v>32</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="7">
         <v>31</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="7">
         <v>21</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="7">
         <f>146-SUM(K8:M8)</f>
         <v>62</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="7">
         <v>28</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="7">
         <v>35</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="7">
         <v>26</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="7">
         <f>175-SUM(O8:Q8)</f>
         <v>86</v>
       </c>
-      <c r="S8" s="57">
+      <c r="S8" s="34">
         <v>34</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="34">
         <v>47</v>
       </c>
-      <c r="U8" s="57">
+      <c r="U8" s="34">
         <v>42</v>
       </c>
-      <c r="V8" s="57">
+      <c r="V8" s="34">
         <f>237-SUM(S8:U8)</f>
         <v>114</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="34">
         <v>49</v>
       </c>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AE8" s="30">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AE8" s="7">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="AF8" s="30">
+      <c r="AF8" s="7">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="AG8" s="30">
+      <c r="AG8" s="7">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="AH8" s="30">
+      <c r="AH8" s="7">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="AI8" s="30">
+      <c r="AI8" s="7">
         <f t="shared" si="4"/>
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+    <row r="9" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="12">
         <f t="shared" ref="C9:V9" si="5">SUM(C3:C8)</f>
         <v>15995</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="12">
         <f t="shared" si="5"/>
         <v>16410</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="12">
         <f t="shared" si="5"/>
         <v>16647</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="12">
         <f t="shared" si="5"/>
         <v>22734</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="12">
         <f t="shared" si="5"/>
         <v>16556</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="12">
         <f t="shared" si="5"/>
         <v>17552</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="12">
         <f t="shared" si="5"/>
         <v>17590</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="12">
         <f t="shared" si="5"/>
         <v>22735</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="12">
         <f t="shared" si="5"/>
         <v>17401</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="12">
         <f t="shared" si="5"/>
         <v>18183</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
         <v>18414</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="12">
         <f t="shared" si="5"/>
         <v>23132</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
         <v>19371</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="12">
         <f t="shared" si="5"/>
         <v>22696</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="12">
         <f t="shared" si="5"/>
         <v>22336</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="12">
         <f t="shared" si="5"/>
         <v>27997</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="12">
         <f t="shared" si="5"/>
         <v>23879</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="12">
         <f t="shared" si="5"/>
         <v>24826</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="12">
         <f t="shared" si="5"/>
         <v>25290</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="12">
         <f t="shared" si="5"/>
         <v>30616</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="12">
         <f>SUM(W3:W8)</f>
         <v>24830</v>
       </c>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AE9" s="35">
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AE9" s="12">
         <f t="shared" ref="AE9:AI9" si="6">SUM(AE3:AE8)</f>
         <v>71786</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="12">
         <f t="shared" si="6"/>
         <v>74433</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="12">
         <f t="shared" si="6"/>
         <v>77130</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AH9" s="12">
         <f t="shared" si="6"/>
         <v>92400</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AI9" s="12">
         <f t="shared" si="6"/>
         <v>104611</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-    </row>
-    <row r="11" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="30">
+    <row r="10" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7">
         <v>171</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="7">
         <v>172</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="7">
         <v>170</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="7">
         <f>694-SUM(C11:E11)</f>
         <v>181</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="7">
         <v>167</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="7">
         <v>167</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="7">
         <v>169</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="7">
         <f>673-SUM(G11:I11)</f>
         <v>170</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="7">
         <v>160</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="7">
         <v>168</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="7">
         <v>177</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="7">
         <f>680-SUM(K11:M11)</f>
         <v>175</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="7">
         <v>166</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="7">
         <v>158</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="7">
         <v>164</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="7">
         <f>666-SUM(O11:Q11)</f>
         <v>178</v>
       </c>
-      <c r="S11" s="57">
+      <c r="S11" s="34">
         <v>171</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="34">
         <v>172</v>
       </c>
-      <c r="U11" s="57">
+      <c r="U11" s="34">
         <v>184</v>
       </c>
-      <c r="V11" s="57">
+      <c r="V11" s="34">
         <f>710-SUM(S11:U11)</f>
         <v>183</v>
       </c>
-      <c r="W11" s="57">
+      <c r="W11" s="34">
         <v>185</v>
       </c>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AE11" s="30">
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AE11" s="7">
         <f t="shared" ref="AE11:AE12" si="7">SUM(C11:F11)</f>
         <v>694</v>
       </c>
-      <c r="AF11" s="30">
+      <c r="AF11" s="7">
         <f t="shared" ref="AF11:AF12" si="8">SUM(G11:J11)</f>
         <v>673</v>
       </c>
-      <c r="AG11" s="30">
+      <c r="AG11" s="7">
         <f t="shared" ref="AG11:AG12" si="9">SUM(K11:N11)</f>
         <v>680</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AH11" s="7">
         <f>SUM(O11:R11)</f>
         <v>666</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AI11" s="7">
         <f>SUM(S11:V11)</f>
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="30">
+    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="7">
         <v>57</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="7">
         <v>52</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="7">
         <v>57</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="7">
         <f>234-SUM(C12:E12)</f>
         <v>68</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="7">
         <v>58</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="7">
         <v>57</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="7">
         <v>62</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="7">
         <f>250-SUM(G12:I12)</f>
         <v>73</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="7">
         <v>66</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="7">
         <v>71</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="7">
         <v>74</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="7">
         <f>302-SUM(K12:M12)</f>
         <v>91</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="7">
         <v>78</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="7">
         <v>121</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="7">
         <v>132</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="7">
         <f>495-SUM(O12:Q12)</f>
         <v>164</v>
       </c>
-      <c r="S12" s="57">
+      <c r="S12" s="34">
         <v>147</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T12" s="34">
         <v>162</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U12" s="34">
         <v>178</v>
       </c>
-      <c r="V12" s="57">
+      <c r="V12" s="34">
         <f>684-SUM(S12:U12)</f>
         <v>197</v>
       </c>
-      <c r="W12" s="57">
+      <c r="W12" s="34">
         <v>155</v>
       </c>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AE12" s="30">
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AE12" s="7">
         <f t="shared" si="7"/>
         <v>234</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AF12" s="7">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AG12" s="7">
         <f t="shared" si="9"/>
         <v>302</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AH12" s="7">
         <f>SUM(O12:R12)</f>
         <v>495</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AI12" s="7">
         <f>SUM(S12:V12)</f>
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="35">
+    <row r="13" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="12">
         <f t="shared" ref="C13:V13" si="10">C11+C12</f>
         <v>228</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="12">
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="12">
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="12">
         <f t="shared" si="10"/>
         <v>249</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="12">
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="12">
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="12">
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="12">
         <f t="shared" si="10"/>
         <v>243</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="12">
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="12">
         <f t="shared" si="10"/>
         <v>239</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="12">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="12">
         <f t="shared" si="10"/>
         <v>266</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="12">
         <f t="shared" si="10"/>
         <v>244</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="12">
         <f t="shared" si="10"/>
         <v>279</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="12">
         <f t="shared" si="10"/>
         <v>296</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="12">
         <f t="shared" si="10"/>
         <v>342</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="12">
         <f t="shared" si="10"/>
         <v>318</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="12">
         <f t="shared" si="10"/>
         <v>334</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="12">
         <f t="shared" si="10"/>
         <v>362</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="12">
         <f t="shared" si="10"/>
         <v>380</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="12">
         <f>W11+W12</f>
         <v>340</v>
       </c>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AE13" s="35">
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AE13" s="12">
         <f t="shared" ref="AE13:AH13" si="11">AE11+AE12</f>
         <v>928</v>
       </c>
-      <c r="AF13" s="35">
+      <c r="AF13" s="12">
         <f t="shared" si="11"/>
         <v>923</v>
       </c>
-      <c r="AG13" s="35">
+      <c r="AG13" s="12">
         <f t="shared" si="11"/>
         <v>982</v>
       </c>
-      <c r="AH13" s="35">
+      <c r="AH13" s="12">
         <f t="shared" si="11"/>
         <v>1161</v>
       </c>
-      <c r="AI13" s="35">
+      <c r="AI13" s="12">
         <f>AI11+AI12</f>
         <v>1394</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-    </row>
-    <row r="15" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
+    <row r="14" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="1:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:V15" si="12">C13+C9</f>
         <v>16223</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="9">
         <f t="shared" si="12"/>
         <v>16634</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="9">
         <f t="shared" si="12"/>
         <v>16874</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="9">
         <f t="shared" si="12"/>
         <v>22983</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="9">
         <f t="shared" si="12"/>
         <v>16781</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="9">
         <f t="shared" si="12"/>
         <v>17776</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="9">
         <f t="shared" si="12"/>
         <v>17821</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="9">
         <f t="shared" si="12"/>
         <v>22978</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="9">
         <f t="shared" si="12"/>
         <v>17627</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="9">
         <f t="shared" si="12"/>
         <v>18422</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="9">
         <f t="shared" si="12"/>
         <v>18665</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="9">
         <f t="shared" si="12"/>
         <v>23398</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="9">
         <f t="shared" si="12"/>
         <v>19615</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="9">
         <f t="shared" si="12"/>
         <v>22975</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="9">
         <f t="shared" si="12"/>
         <v>22632</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="9">
         <f t="shared" si="12"/>
         <v>28339</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="9">
         <f t="shared" si="12"/>
         <v>24197</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="9">
         <f t="shared" si="12"/>
         <v>25160</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="9">
         <f t="shared" si="12"/>
         <v>25652</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="9">
         <f t="shared" si="12"/>
         <v>30996</v>
       </c>
-      <c r="W15" s="32">
+      <c r="W15" s="9">
         <f>W13+W9</f>
         <v>25170</v>
       </c>
-      <c r="X15" s="32">
+      <c r="X15" s="9">
         <f>T15*1.04</f>
         <v>26166.400000000001</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="9">
         <f>U15*1.04</f>
         <v>26678.080000000002</v>
       </c>
-      <c r="Z15" s="32">
+      <c r="Z15" s="9">
         <f>V15*1.04</f>
         <v>32235.84</v>
       </c>
-      <c r="AE15" s="32">
+      <c r="AE15" s="9">
         <f>AE13+AE9</f>
         <v>72714</v>
       </c>
-      <c r="AF15" s="32">
+      <c r="AF15" s="9">
         <f t="shared" ref="AF15:AM15" si="13">AF13+AF9</f>
         <v>75356</v>
       </c>
-      <c r="AG15" s="32">
+      <c r="AG15" s="9">
         <f t="shared" si="13"/>
         <v>78112</v>
       </c>
-      <c r="AH15" s="32">
+      <c r="AH15" s="9">
         <f t="shared" si="13"/>
         <v>93561</v>
       </c>
-      <c r="AI15" s="32">
+      <c r="AI15" s="9">
         <f>AI13+AI9</f>
         <v>106005</v>
       </c>
-      <c r="AJ15" s="32">
+      <c r="AJ15" s="9">
         <f>SUM(W15:Z15)</f>
         <v>110250.32</v>
       </c>
-      <c r="AK15" s="32">
+      <c r="AK15" s="9">
         <f>AJ15*1.04</f>
         <v>114660.33280000002</v>
       </c>
-      <c r="AL15" s="32">
+      <c r="AL15" s="9">
         <f>AK15*1.03</f>
         <v>118100.14278400003</v>
       </c>
-      <c r="AM15" s="32">
+      <c r="AM15" s="9">
         <f>AL15*1.03</f>
         <v>121643.14706752003</v>
       </c>
@@ -3955,7 +3749,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="30">
         <v>126</v>
       </c>
       <c r="L21" s="2">
@@ -4052,8 +3846,8 @@
       </c>
     </row>
     <row r="22" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
-        <v>92</v>
+      <c r="B22" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="2">
         <v>-4</v>
@@ -4426,1680 +4220,1680 @@
         <v>1476.4508174556011</v>
       </c>
     </row>
-    <row r="25" spans="1:424" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31" t="s">
+    <row r="25" spans="1:424" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="9">
         <f t="shared" ref="C25:P25" si="33">+C23-C24</f>
         <v>1460</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="9">
         <f t="shared" si="33"/>
         <v>1391</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="9">
         <f t="shared" si="33"/>
         <v>1261</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="9">
         <f t="shared" si="33"/>
         <v>6998</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="9">
         <f t="shared" si="33"/>
         <v>1288</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="9">
         <f t="shared" si="33"/>
         <v>1338</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="9">
         <f t="shared" si="33"/>
         <v>1152</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="9">
         <f t="shared" si="33"/>
         <v>1384</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="9">
         <f t="shared" si="33"/>
         <v>1376</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="9">
         <f t="shared" si="33"/>
         <v>1499</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="9">
         <f t="shared" si="33"/>
         <v>1289</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="9">
         <f t="shared" si="33"/>
         <v>1474</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="9">
         <f t="shared" si="33"/>
         <v>861</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="9">
         <f t="shared" si="33"/>
         <v>2232</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="9">
         <f t="shared" ref="Q25:Z25" si="34">+Q23-Q24</f>
         <v>1555</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="9">
         <f t="shared" si="34"/>
         <v>1950</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="9">
         <f t="shared" si="34"/>
         <v>2695</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T25" s="9">
         <f t="shared" si="34"/>
         <v>2381</v>
       </c>
-      <c r="U25" s="32">
+      <c r="U25" s="9">
         <f t="shared" si="34"/>
         <v>2065</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V25" s="9">
         <f t="shared" si="34"/>
         <v>2149</v>
       </c>
-      <c r="W25" s="32">
+      <c r="W25" s="9">
         <f t="shared" si="34"/>
         <v>1610</v>
       </c>
-      <c r="X25" s="32">
+      <c r="X25" s="9">
         <f t="shared" si="34"/>
         <v>1079.2763999999991</v>
       </c>
-      <c r="Y25" s="32">
+      <c r="Y25" s="9">
         <f t="shared" si="34"/>
         <v>1350.9909000000016</v>
       </c>
-      <c r="Z25" s="32">
+      <c r="Z25" s="9">
         <f t="shared" si="34"/>
         <v>1981.470600000001</v>
       </c>
-      <c r="AE25" s="32">
+      <c r="AE25" s="9">
         <f>+AE23-AE24</f>
         <v>11110</v>
       </c>
-      <c r="AF25" s="32">
+      <c r="AF25" s="9">
         <f>+AF23-AF24</f>
         <v>5162</v>
       </c>
-      <c r="AG25" s="32">
+      <c r="AG25" s="9">
         <f>+AG23-AG24</f>
         <v>5638</v>
       </c>
-      <c r="AH25" s="32">
+      <c r="AH25" s="9">
         <f>+AH23-AH24</f>
         <v>6598</v>
       </c>
-      <c r="AI25" s="32">
+      <c r="AI25" s="9">
         <f>+AI23-AI24</f>
         <v>9290</v>
       </c>
-      <c r="AJ25" s="32">
+      <c r="AJ25" s="9">
         <f t="shared" ref="AJ25:AL25" si="35">+AJ23-AJ24</f>
         <v>6021.7379000000019</v>
       </c>
-      <c r="AK25" s="32">
+      <c r="AK25" s="9">
         <f t="shared" si="35"/>
         <v>5218.9589880000058</v>
       </c>
-      <c r="AL25" s="32">
+      <c r="AL25" s="9">
         <f t="shared" si="35"/>
         <v>5384.1398020200031</v>
       </c>
-      <c r="AM25" s="32">
+      <c r="AM25" s="9">
         <f>+AM23-AM24</f>
         <v>5554.2673609044041</v>
       </c>
-      <c r="AN25" s="32">
+      <c r="AN25" s="9">
         <f>AM25*(1+$AQ$32)</f>
         <v>5498.7246872953601</v>
       </c>
-      <c r="AO25" s="32">
+      <c r="AO25" s="9">
         <f>AN25*(1+$AQ$32)</f>
         <v>5443.7374404224065</v>
       </c>
-      <c r="AP25" s="32">
+      <c r="AP25" s="9">
         <f>AO25*(1+$AQ$32)</f>
         <v>5389.3000660181824</v>
       </c>
-      <c r="AQ25" s="32">
+      <c r="AQ25" s="9">
         <f>AP25*(1+$AQ$32)</f>
         <v>5335.4070653580002</v>
       </c>
-      <c r="AR25" s="32">
+      <c r="AR25" s="9">
         <f>AQ25*(1+$AQ$32)</f>
         <v>5282.0529947044197</v>
       </c>
-      <c r="AS25" s="32">
+      <c r="AS25" s="9">
         <f>AR25*(1+$AQ$32)</f>
         <v>5229.2324647573751</v>
       </c>
-      <c r="AT25" s="32">
+      <c r="AT25" s="9">
         <f>AS25*(1+$AQ$32)</f>
         <v>5176.9401401098012</v>
       </c>
-      <c r="AU25" s="32">
+      <c r="AU25" s="9">
         <f>AT25*(1+$AQ$32)</f>
         <v>5125.1707387087035</v>
       </c>
-      <c r="AV25" s="32">
+      <c r="AV25" s="9">
         <f>AU25*(1+$AQ$32)</f>
         <v>5073.9190313216168</v>
       </c>
-      <c r="AW25" s="32">
+      <c r="AW25" s="9">
         <f>AV25*(1+$AQ$32)</f>
         <v>5023.1798410084002</v>
       </c>
-      <c r="AX25" s="32">
+      <c r="AX25" s="9">
         <f>AW25*(1+$AQ$32)</f>
         <v>4972.9480425983165</v>
       </c>
-      <c r="AY25" s="32">
+      <c r="AY25" s="9">
         <f>AX25*(1+$AQ$32)</f>
         <v>4923.2185621723329</v>
       </c>
-      <c r="AZ25" s="32">
+      <c r="AZ25" s="9">
         <f>AY25*(1+$AQ$32)</f>
         <v>4873.9863765506097</v>
       </c>
-      <c r="BA25" s="32">
+      <c r="BA25" s="9">
         <f>AZ25*(1+$AQ$32)</f>
         <v>4825.2465127851037</v>
       </c>
-      <c r="BB25" s="32">
+      <c r="BB25" s="9">
         <f>BA25*(1+$AQ$32)</f>
         <v>4776.9940476572528</v>
       </c>
-      <c r="BC25" s="32">
+      <c r="BC25" s="9">
         <f>BB25*(1+$AQ$32)</f>
         <v>4729.2241071806802</v>
       </c>
-      <c r="BD25" s="32">
+      <c r="BD25" s="9">
         <f>BC25*(1+$AQ$32)</f>
         <v>4681.9318661088737</v>
       </c>
-      <c r="BE25" s="32">
+      <c r="BE25" s="9">
         <f>BD25*(1+$AQ$32)</f>
         <v>4635.1125474477849</v>
       </c>
-      <c r="BF25" s="32">
+      <c r="BF25" s="9">
         <f>BE25*(1+$AQ$32)</f>
         <v>4588.7614219733068</v>
       </c>
-      <c r="BG25" s="32">
+      <c r="BG25" s="9">
         <f>BF25*(1+$AQ$32)</f>
         <v>4542.8738077535736</v>
       </c>
-      <c r="BH25" s="32">
+      <c r="BH25" s="9">
         <f>BG25*(1+$AQ$32)</f>
         <v>4497.4450696760377</v>
       </c>
-      <c r="BI25" s="32">
+      <c r="BI25" s="9">
         <f>BH25*(1+$AQ$32)</f>
         <v>4452.4706189792769</v>
       </c>
-      <c r="BJ25" s="32">
+      <c r="BJ25" s="9">
         <f>BI25*(1+$AQ$32)</f>
         <v>4407.9459127894843</v>
       </c>
-      <c r="BK25" s="32">
+      <c r="BK25" s="9">
         <f>BJ25*(1+$AQ$32)</f>
         <v>4363.8664536615897</v>
       </c>
-      <c r="BL25" s="32">
+      <c r="BL25" s="9">
         <f>BK25*(1+$AQ$32)</f>
         <v>4320.2277891249742</v>
       </c>
-      <c r="BM25" s="32">
+      <c r="BM25" s="9">
         <f>BL25*(1+$AQ$32)</f>
         <v>4277.0255112337245</v>
       </c>
-      <c r="BN25" s="32">
+      <c r="BN25" s="9">
         <f>BM25*(1+$AQ$32)</f>
         <v>4234.255256121387</v>
       </c>
-      <c r="BO25" s="32">
+      <c r="BO25" s="9">
         <f>BN25*(1+$AQ$32)</f>
         <v>4191.9127035601732</v>
       </c>
-      <c r="BP25" s="32">
+      <c r="BP25" s="9">
         <f>BO25*(1+$AQ$32)</f>
         <v>4149.9935765245718</v>
       </c>
-      <c r="BQ25" s="32">
+      <c r="BQ25" s="9">
         <f>BP25*(1+$AQ$32)</f>
         <v>4108.4936407593259</v>
       </c>
-      <c r="BR25" s="32">
+      <c r="BR25" s="9">
         <f>BQ25*(1+$AQ$32)</f>
         <v>4067.4087043517325</v>
       </c>
-      <c r="BS25" s="32">
+      <c r="BS25" s="9">
         <f>BR25*(1+$AQ$32)</f>
         <v>4026.7346173082151</v>
       </c>
-      <c r="BT25" s="32">
+      <c r="BT25" s="9">
         <f>BS25*(1+$AQ$32)</f>
         <v>3986.4672711351327</v>
       </c>
-      <c r="BU25" s="32">
+      <c r="BU25" s="9">
         <f>BT25*(1+$AQ$32)</f>
         <v>3946.6025984237813</v>
       </c>
-      <c r="BV25" s="32">
+      <c r="BV25" s="9">
         <f>BU25*(1+$AQ$32)</f>
         <v>3907.1365724395432</v>
       </c>
-      <c r="BW25" s="32">
+      <c r="BW25" s="9">
         <f>BV25*(1+$AQ$32)</f>
         <v>3868.0652067151477</v>
       </c>
-      <c r="BX25" s="32">
+      <c r="BX25" s="9">
         <f>BW25*(1+$AQ$32)</f>
         <v>3829.3845546479961</v>
       </c>
-      <c r="BY25" s="32">
+      <c r="BY25" s="9">
         <f>BX25*(1+$AQ$32)</f>
         <v>3791.090709101516</v>
       </c>
-      <c r="BZ25" s="32">
+      <c r="BZ25" s="9">
         <f>BY25*(1+$AQ$32)</f>
         <v>3753.1798020105007</v>
       </c>
-      <c r="CA25" s="32">
+      <c r="CA25" s="9">
         <f>BZ25*(1+$AQ$32)</f>
         <v>3715.6480039903959</v>
       </c>
-      <c r="CB25" s="32">
+      <c r="CB25" s="9">
         <f>CA25*(1+$AQ$32)</f>
         <v>3678.4915239504917</v>
       </c>
-      <c r="CC25" s="32">
+      <c r="CC25" s="9">
         <f>CB25*(1+$AQ$32)</f>
         <v>3641.7066087109865</v>
       </c>
-      <c r="CD25" s="32">
+      <c r="CD25" s="9">
         <f>CC25*(1+$AQ$32)</f>
         <v>3605.2895426238765</v>
       </c>
-      <c r="CE25" s="32">
+      <c r="CE25" s="9">
         <f>CD25*(1+$AQ$32)</f>
         <v>3569.2366471976379</v>
       </c>
-      <c r="CF25" s="32">
+      <c r="CF25" s="9">
         <f>CE25*(1+$AQ$32)</f>
         <v>3533.5442807256613</v>
       </c>
-      <c r="CG25" s="32">
+      <c r="CG25" s="9">
         <f>CF25*(1+$AQ$32)</f>
         <v>3498.2088379184047</v>
       </c>
-      <c r="CH25" s="32">
+      <c r="CH25" s="9">
         <f>CG25*(1+$AQ$32)</f>
         <v>3463.2267495392207</v>
       </c>
-      <c r="CI25" s="32">
+      <c r="CI25" s="9">
         <f>CH25*(1+$AQ$32)</f>
         <v>3428.5944820438285</v>
       </c>
-      <c r="CJ25" s="32">
+      <c r="CJ25" s="9">
         <f>CI25*(1+$AQ$32)</f>
         <v>3394.3085372233904</v>
       </c>
-      <c r="CK25" s="32">
+      <c r="CK25" s="9">
         <f>CJ25*(1+$AQ$32)</f>
         <v>3360.3654518511566</v>
       </c>
-      <c r="CL25" s="32">
+      <c r="CL25" s="9">
         <f>CK25*(1+$AQ$32)</f>
         <v>3326.7617973326451</v>
       </c>
-      <c r="CM25" s="32">
+      <c r="CM25" s="9">
         <f>CL25*(1+$AQ$32)</f>
         <v>3293.4941793593184</v>
       </c>
-      <c r="CN25" s="32">
+      <c r="CN25" s="9">
         <f>CM25*(1+$AQ$32)</f>
         <v>3260.5592375657252</v>
       </c>
-      <c r="CO25" s="32">
+      <c r="CO25" s="9">
         <f>CN25*(1+$AQ$32)</f>
         <v>3227.9536451900681</v>
       </c>
-      <c r="CP25" s="32">
+      <c r="CP25" s="9">
         <f>CO25*(1+$AQ$32)</f>
         <v>3195.6741087381674</v>
       </c>
-      <c r="CQ25" s="32">
+      <c r="CQ25" s="9">
         <f>CP25*(1+$AQ$32)</f>
         <v>3163.7173676507859</v>
       </c>
-      <c r="CR25" s="32">
+      <c r="CR25" s="9">
         <f>CQ25*(1+$AQ$32)</f>
         <v>3132.0801939742782</v>
       </c>
-      <c r="CS25" s="32">
+      <c r="CS25" s="9">
         <f>CR25*(1+$AQ$32)</f>
         <v>3100.7593920345353</v>
       </c>
-      <c r="CT25" s="32">
+      <c r="CT25" s="9">
         <f>CS25*(1+$AQ$32)</f>
         <v>3069.75179811419</v>
       </c>
-      <c r="CU25" s="32">
+      <c r="CU25" s="9">
         <f>CT25*(1+$AQ$32)</f>
         <v>3039.054280133048</v>
       </c>
-      <c r="CV25" s="32">
+      <c r="CV25" s="9">
         <f>CU25*(1+$AQ$32)</f>
         <v>3008.6637373317176</v>
       </c>
-      <c r="CW25" s="32">
+      <c r="CW25" s="9">
         <f>CV25*(1+$AQ$32)</f>
         <v>2978.5770999584006</v>
       </c>
-      <c r="CX25" s="32">
+      <c r="CX25" s="9">
         <f>CW25*(1+$AQ$32)</f>
         <v>2948.7913289588164</v>
       </c>
-      <c r="CY25" s="32">
+      <c r="CY25" s="9">
         <f>CX25*(1+$AQ$32)</f>
         <v>2919.3034156692283</v>
       </c>
-      <c r="CZ25" s="32">
+      <c r="CZ25" s="9">
         <f>CY25*(1+$AQ$32)</f>
         <v>2890.1103815125362</v>
       </c>
-      <c r="DA25" s="32">
+      <c r="DA25" s="9">
         <f>CZ25*(1+$AQ$32)</f>
         <v>2861.2092776974109</v>
       </c>
-      <c r="DB25" s="32">
+      <c r="DB25" s="9">
         <f>DA25*(1+$AQ$32)</f>
         <v>2832.5971849204366</v>
       </c>
-      <c r="DC25" s="32">
+      <c r="DC25" s="9">
         <f>DB25*(1+$AQ$32)</f>
         <v>2804.2712130712321</v>
       </c>
-      <c r="DD25" s="32">
+      <c r="DD25" s="9">
         <f>DC25*(1+$AQ$32)</f>
         <v>2776.2285009405196</v>
       </c>
-      <c r="DE25" s="32">
+      <c r="DE25" s="9">
         <f>DD25*(1+$AQ$32)</f>
         <v>2748.4662159311142</v>
       </c>
-      <c r="DF25" s="32">
+      <c r="DF25" s="9">
         <f>DE25*(1+$AQ$32)</f>
         <v>2720.9815537718032</v>
       </c>
-      <c r="DG25" s="32">
+      <c r="DG25" s="9">
         <f>DF25*(1+$AQ$32)</f>
         <v>2693.7717382340852</v>
       </c>
-      <c r="DH25" s="32">
+      <c r="DH25" s="9">
         <f>DG25*(1+$AQ$32)</f>
         <v>2666.8340208517443</v>
       </c>
-      <c r="DI25" s="32">
+      <c r="DI25" s="9">
         <f>DH25*(1+$AQ$32)</f>
         <v>2640.165680643227</v>
       </c>
-      <c r="DJ25" s="32">
+      <c r="DJ25" s="9">
         <f>DI25*(1+$AQ$32)</f>
         <v>2613.7640238367949</v>
       </c>
-      <c r="DK25" s="32">
+      <c r="DK25" s="9">
         <f>DJ25*(1+$AQ$32)</f>
         <v>2587.6263835984269</v>
       </c>
-      <c r="DL25" s="32">
+      <c r="DL25" s="9">
         <f>DK25*(1+$AQ$32)</f>
         <v>2561.7501197624424</v>
       </c>
-      <c r="DM25" s="32">
+      <c r="DM25" s="9">
         <f>DL25*(1+$AQ$32)</f>
         <v>2536.1326185648181</v>
       </c>
-      <c r="DN25" s="32">
+      <c r="DN25" s="9">
         <f>DM25*(1+$AQ$32)</f>
         <v>2510.7712923791701</v>
       </c>
-      <c r="DO25" s="32">
+      <c r="DO25" s="9">
         <f>DN25*(1+$AQ$32)</f>
         <v>2485.6635794553786</v>
       </c>
-      <c r="DP25" s="32">
+      <c r="DP25" s="9">
         <f>DO25*(1+$AQ$32)</f>
         <v>2460.8069436608248</v>
       </c>
-      <c r="DQ25" s="32">
+      <c r="DQ25" s="9">
         <f>DP25*(1+$AQ$32)</f>
         <v>2436.1988742242165</v>
       </c>
-      <c r="DR25" s="32">
+      <c r="DR25" s="9">
         <f>DQ25*(1+$AQ$32)</f>
         <v>2411.8368854819742</v>
       </c>
-      <c r="DS25" s="32">
+      <c r="DS25" s="9">
         <f>DR25*(1+$AQ$32)</f>
         <v>2387.7185166271543</v>
       </c>
-      <c r="DT25" s="32">
+      <c r="DT25" s="9">
         <f>DS25*(1+$AQ$32)</f>
         <v>2363.8413314608829</v>
       </c>
-      <c r="DU25" s="32">
+      <c r="DU25" s="9">
         <f>DT25*(1+$AQ$32)</f>
         <v>2340.202918146274</v>
       </c>
-      <c r="DV25" s="32">
+      <c r="DV25" s="9">
         <f>DU25*(1+$AQ$32)</f>
         <v>2316.8008889648113</v>
       </c>
-      <c r="DW25" s="32">
+      <c r="DW25" s="9">
         <f>DV25*(1+$AQ$32)</f>
         <v>2293.632880075163</v>
       </c>
-      <c r="DX25" s="32">
+      <c r="DX25" s="9">
         <f>DW25*(1+$AQ$32)</f>
         <v>2270.6965512744114</v>
       </c>
-      <c r="DY25" s="32">
+      <c r="DY25" s="9">
         <f>DX25*(1+$AQ$32)</f>
         <v>2247.9895857616671</v>
       </c>
-      <c r="DZ25" s="32">
+      <c r="DZ25" s="9">
         <f>DY25*(1+$AQ$32)</f>
         <v>2225.5096899040504</v>
       </c>
-      <c r="EA25" s="32">
+      <c r="EA25" s="9">
         <f>DZ25*(1+$AQ$32)</f>
         <v>2203.2545930050101</v>
       </c>
-      <c r="EB25" s="32">
+      <c r="EB25" s="9">
         <f>EA25*(1+$AQ$32)</f>
         <v>2181.2220470749598</v>
       </c>
-      <c r="EC25" s="32">
+      <c r="EC25" s="9">
         <f>EB25*(1+$AQ$32)</f>
         <v>2159.4098266042101</v>
       </c>
-      <c r="ED25" s="32">
+      <c r="ED25" s="9">
         <f>EC25*(1+$AQ$32)</f>
         <v>2137.8157283381679</v>
       </c>
-      <c r="EE25" s="32">
+      <c r="EE25" s="9">
         <f>ED25*(1+$AQ$32)</f>
         <v>2116.4375710547861</v>
       </c>
-      <c r="EF25" s="32">
+      <c r="EF25" s="9">
         <f>EE25*(1+$AQ$32)</f>
         <v>2095.273195344238</v>
       </c>
-      <c r="EG25" s="32">
+      <c r="EG25" s="9">
         <f>EF25*(1+$AQ$32)</f>
         <v>2074.3204633907958</v>
       </c>
-      <c r="EH25" s="32">
+      <c r="EH25" s="9">
         <f>EG25*(1+$AQ$32)</f>
         <v>2053.5772587568877</v>
       </c>
-      <c r="EI25" s="32">
+      <c r="EI25" s="9">
         <f>EH25*(1+$AQ$32)</f>
         <v>2033.0414861693187</v>
       </c>
-      <c r="EJ25" s="32">
+      <c r="EJ25" s="9">
         <f>EI25*(1+$AQ$32)</f>
         <v>2012.7110713076254</v>
       </c>
-      <c r="EK25" s="32">
+      <c r="EK25" s="9">
         <f>EJ25*(1+$AQ$32)</f>
         <v>1992.5839605945491</v>
       </c>
-      <c r="EL25" s="32">
+      <c r="EL25" s="9">
         <f>EK25*(1+$AQ$32)</f>
         <v>1972.6581209886035</v>
       </c>
-      <c r="EM25" s="32">
+      <c r="EM25" s="9">
         <f>EL25*(1+$AQ$32)</f>
         <v>1952.9315397787175</v>
       </c>
-      <c r="EN25" s="32">
+      <c r="EN25" s="9">
         <f>EM25*(1+$AQ$32)</f>
         <v>1933.4022243809302</v>
       </c>
-      <c r="EO25" s="32">
+      <c r="EO25" s="9">
         <f>EN25*(1+$AQ$32)</f>
         <v>1914.0682021371208</v>
       </c>
-      <c r="EP25" s="32">
+      <c r="EP25" s="9">
         <f>EO25*(1+$AQ$32)</f>
         <v>1894.9275201157495</v>
       </c>
-      <c r="EQ25" s="32">
+      <c r="EQ25" s="9">
         <f>EP25*(1+$AQ$32)</f>
         <v>1875.9782449145921</v>
       </c>
-      <c r="ER25" s="32">
+      <c r="ER25" s="9">
         <f>EQ25*(1+$AQ$32)</f>
         <v>1857.2184624654462</v>
       </c>
-      <c r="ES25" s="32">
+      <c r="ES25" s="9">
         <f>ER25*(1+$AQ$32)</f>
         <v>1838.6462778407918</v>
       </c>
-      <c r="ET25" s="32">
+      <c r="ET25" s="9">
         <f>ES25*(1+$AQ$32)</f>
         <v>1820.2598150623837</v>
       </c>
-      <c r="EU25" s="32">
+      <c r="EU25" s="9">
         <f>ET25*(1+$AQ$32)</f>
         <v>1802.05721691176</v>
       </c>
-      <c r="EV25" s="32">
+      <c r="EV25" s="9">
         <f>EU25*(1+$AQ$32)</f>
         <v>1784.0366447426422</v>
       </c>
-      <c r="EW25" s="32">
+      <c r="EW25" s="9">
         <f>EV25*(1+$AQ$32)</f>
         <v>1766.1962782952157</v>
       </c>
-      <c r="EX25" s="32">
+      <c r="EX25" s="9">
         <f>EW25*(1+$AQ$32)</f>
         <v>1748.5343155122637</v>
       </c>
-      <c r="EY25" s="32">
+      <c r="EY25" s="9">
         <f>EX25*(1+$AQ$32)</f>
         <v>1731.0489723571411</v>
       </c>
-      <c r="EZ25" s="32">
+      <c r="EZ25" s="9">
         <f>EY25*(1+$AQ$32)</f>
         <v>1713.7384826335697</v>
       </c>
-      <c r="FA25" s="32">
+      <c r="FA25" s="9">
         <f>EZ25*(1+$AQ$32)</f>
         <v>1696.6010978072341</v>
       </c>
-      <c r="FB25" s="32">
+      <c r="FB25" s="9">
         <f>FA25*(1+$AQ$32)</f>
         <v>1679.6350868291618</v>
       </c>
-      <c r="FC25" s="32">
+      <c r="FC25" s="9">
         <f>FB25*(1+$AQ$32)</f>
         <v>1662.8387359608701</v>
       </c>
-      <c r="FD25" s="32">
+      <c r="FD25" s="9">
         <f>FC25*(1+$AQ$32)</f>
         <v>1646.2103486012613</v>
       </c>
-      <c r="FE25" s="32">
+      <c r="FE25" s="9">
         <f>FD25*(1+$AQ$32)</f>
         <v>1629.7482451152487</v>
       </c>
-      <c r="FF25" s="32">
+      <c r="FF25" s="9">
         <f>FE25*(1+$AQ$32)</f>
         <v>1613.4507626640961</v>
       </c>
-      <c r="FG25" s="32">
+      <c r="FG25" s="9">
         <f>FF25*(1+$AQ$32)</f>
         <v>1597.3162550374552</v>
       </c>
-      <c r="FH25" s="32">
+      <c r="FH25" s="9">
         <f>FG25*(1+$AQ$32)</f>
         <v>1581.3430924870806</v>
       </c>
-      <c r="FI25" s="32">
+      <c r="FI25" s="9">
         <f>FH25*(1+$AQ$32)</f>
         <v>1565.5296615622099</v>
       </c>
-      <c r="FJ25" s="32">
+      <c r="FJ25" s="9">
         <f>FI25*(1+$AQ$32)</f>
         <v>1549.8743649465878</v>
       </c>
-      <c r="FK25" s="32">
+      <c r="FK25" s="9">
         <f>FJ25*(1+$AQ$32)</f>
         <v>1534.3756212971218</v>
       </c>
-      <c r="FL25" s="32">
+      <c r="FL25" s="9">
         <f>FK25*(1+$AQ$32)</f>
         <v>1519.0318650841507</v>
       </c>
-      <c r="FM25" s="32">
+      <c r="FM25" s="9">
         <f>FL25*(1+$AQ$32)</f>
         <v>1503.8415464333091</v>
       </c>
-      <c r="FN25" s="32">
+      <c r="FN25" s="9">
         <f>FM25*(1+$AQ$32)</f>
         <v>1488.8031309689759</v>
       </c>
-      <c r="FO25" s="32">
+      <c r="FO25" s="9">
         <f>FN25*(1+$AQ$32)</f>
         <v>1473.9150996592862</v>
       </c>
-      <c r="FP25" s="32">
+      <c r="FP25" s="9">
         <f>FO25*(1+$AQ$32)</f>
         <v>1459.1759486626934</v>
       </c>
-      <c r="FQ25" s="32">
+      <c r="FQ25" s="9">
         <f>FP25*(1+$AQ$32)</f>
         <v>1444.5841891760665</v>
       </c>
-      <c r="FR25" s="32">
+      <c r="FR25" s="9">
         <f>FQ25*(1+$AQ$32)</f>
         <v>1430.1383472843058</v>
       </c>
-      <c r="FS25" s="32">
+      <c r="FS25" s="9">
         <f>FR25*(1+$AQ$32)</f>
         <v>1415.8369638114627</v>
       </c>
-      <c r="FT25" s="32">
+      <c r="FT25" s="9">
         <f>FS25*(1+$AQ$32)</f>
         <v>1401.6785941733481</v>
       </c>
-      <c r="FU25" s="32">
+      <c r="FU25" s="9">
         <f>FT25*(1+$AQ$32)</f>
         <v>1387.6618082316145</v>
       </c>
-      <c r="FV25" s="32">
+      <c r="FV25" s="9">
         <f>FU25*(1+$AQ$32)</f>
         <v>1373.7851901492984</v>
       </c>
-      <c r="FW25" s="32">
+      <c r="FW25" s="9">
         <f>FV25*(1+$AQ$32)</f>
         <v>1360.0473382478053</v>
       </c>
-      <c r="FX25" s="32">
+      <c r="FX25" s="9">
         <f>FW25*(1+$AQ$32)</f>
         <v>1346.4468648653274</v>
       </c>
-      <c r="FY25" s="32">
+      <c r="FY25" s="9">
         <f>FX25*(1+$AQ$32)</f>
         <v>1332.982396216674</v>
       </c>
-      <c r="FZ25" s="32">
+      <c r="FZ25" s="9">
         <f>FY25*(1+$AQ$32)</f>
         <v>1319.6525722545073</v>
       </c>
-      <c r="GA25" s="32">
+      <c r="GA25" s="9">
         <f>FZ25*(1+$AQ$32)</f>
         <v>1306.4560465319621</v>
       </c>
-      <c r="GB25" s="32">
+      <c r="GB25" s="9">
         <f>GA25*(1+$AQ$32)</f>
         <v>1293.3914860666425</v>
       </c>
-      <c r="GC25" s="32">
+      <c r="GC25" s="9">
         <f>GB25*(1+$AQ$32)</f>
         <v>1280.4575712059761</v>
       </c>
-      <c r="GD25" s="32">
+      <c r="GD25" s="9">
         <f>GC25*(1+$AQ$32)</f>
         <v>1267.6529954939165</v>
       </c>
-      <c r="GE25" s="32">
+      <c r="GE25" s="9">
         <f>GD25*(1+$AQ$32)</f>
         <v>1254.9764655389772</v>
       </c>
-      <c r="GF25" s="32">
+      <c r="GF25" s="9">
         <f>GE25*(1+$AQ$32)</f>
         <v>1242.4267008835875</v>
       </c>
-      <c r="GG25" s="32">
+      <c r="GG25" s="9">
         <f>GF25*(1+$AQ$32)</f>
         <v>1230.0024338747517</v>
       </c>
-      <c r="GH25" s="32">
+      <c r="GH25" s="9">
         <f>GG25*(1+$AQ$32)</f>
         <v>1217.7024095360041</v>
       </c>
-      <c r="GI25" s="32">
+      <c r="GI25" s="9">
         <f>GH25*(1+$AQ$32)</f>
         <v>1205.525385440644</v>
       </c>
-      <c r="GJ25" s="32">
+      <c r="GJ25" s="9">
         <f>GI25*(1+$AQ$32)</f>
         <v>1193.4701315862376</v>
       </c>
-      <c r="GK25" s="32">
+      <c r="GK25" s="9">
         <f>GJ25*(1+$AQ$32)</f>
         <v>1181.5354302703752</v>
       </c>
-      <c r="GL25" s="32">
+      <c r="GL25" s="9">
         <f>GK25*(1+$AQ$32)</f>
         <v>1169.7200759676714</v>
       </c>
-      <c r="GM25" s="32">
+      <c r="GM25" s="9">
         <f>GL25*(1+$AQ$32)</f>
         <v>1158.0228752079947</v>
       </c>
-      <c r="GN25" s="32">
+      <c r="GN25" s="9">
         <f>GM25*(1+$AQ$32)</f>
         <v>1146.4426464559149</v>
       </c>
-      <c r="GO25" s="32">
+      <c r="GO25" s="9">
         <f>GN25*(1+$AQ$32)</f>
         <v>1134.9782199913557</v>
       </c>
-      <c r="GP25" s="32">
+      <c r="GP25" s="9">
         <f>GO25*(1+$AQ$32)</f>
         <v>1123.6284377914421</v>
       </c>
-      <c r="GQ25" s="32">
+      <c r="GQ25" s="9">
         <f>GP25*(1+$AQ$32)</f>
         <v>1112.3921534135277</v>
       </c>
-      <c r="GR25" s="32">
+      <c r="GR25" s="9">
         <f>GQ25*(1+$AQ$32)</f>
         <v>1101.2682318793925</v>
       </c>
-      <c r="GS25" s="32">
+      <c r="GS25" s="9">
         <f>GR25*(1+$AQ$32)</f>
         <v>1090.2555495605986</v>
       </c>
-      <c r="GT25" s="32">
+      <c r="GT25" s="9">
         <f>GS25*(1+$AQ$32)</f>
         <v>1079.3529940649926</v>
       </c>
-      <c r="GU25" s="32">
+      <c r="GU25" s="9">
         <f>GT25*(1+$AQ$32)</f>
         <v>1068.5594641243426</v>
       </c>
-      <c r="GV25" s="32">
+      <c r="GV25" s="9">
         <f>GU25*(1+$AQ$32)</f>
         <v>1057.8738694830993</v>
       </c>
-      <c r="GW25" s="32">
+      <c r="GW25" s="9">
         <f>GV25*(1+$AQ$32)</f>
         <v>1047.2951307882684</v>
       </c>
-      <c r="GX25" s="32">
+      <c r="GX25" s="9">
         <f>GW25*(1+$AQ$32)</f>
         <v>1036.8221794803856</v>
       </c>
-      <c r="GY25" s="32">
+      <c r="GY25" s="9">
         <f>GX25*(1+$AQ$32)</f>
         <v>1026.4539576855816</v>
       </c>
-      <c r="GZ25" s="32">
+      <c r="GZ25" s="9">
         <f>GY25*(1+$AQ$32)</f>
         <v>1016.1894181087258</v>
       </c>
-      <c r="HA25" s="32">
+      <c r="HA25" s="9">
         <f>GZ25*(1+$AQ$32)</f>
         <v>1006.0275239276385</v>
       </c>
-      <c r="HB25" s="32">
+      <c r="HB25" s="9">
         <f>HA25*(1+$AQ$32)</f>
         <v>995.96724868836213</v>
       </c>
-      <c r="HC25" s="32">
+      <c r="HC25" s="9">
         <f>HB25*(1+$AQ$32)</f>
         <v>986.00757620147851</v>
       </c>
-      <c r="HD25" s="32">
+      <c r="HD25" s="9">
         <f>HC25*(1+$AQ$32)</f>
         <v>976.14750043946367</v>
       </c>
-      <c r="HE25" s="32">
+      <c r="HE25" s="9">
         <f>HD25*(1+$AQ$32)</f>
         <v>966.38602543506897</v>
       </c>
-      <c r="HF25" s="32">
+      <c r="HF25" s="9">
         <f>HE25*(1+$AQ$32)</f>
         <v>956.72216518071832</v>
       </c>
-      <c r="HG25" s="32">
+      <c r="HG25" s="9">
         <f>HF25*(1+$AQ$32)</f>
         <v>947.15494352891108</v>
       </c>
-      <c r="HH25" s="32">
+      <c r="HH25" s="9">
         <f>HG25*(1+$AQ$32)</f>
         <v>937.68339409362193</v>
       </c>
-      <c r="HI25" s="32">
+      <c r="HI25" s="9">
         <f>HH25*(1+$AQ$32)</f>
         <v>928.30656015268573</v>
       </c>
-      <c r="HJ25" s="32">
+      <c r="HJ25" s="9">
         <f>HI25*(1+$AQ$32)</f>
         <v>919.02349455115882</v>
       </c>
-      <c r="HK25" s="32">
+      <c r="HK25" s="9">
         <f>HJ25*(1+$AQ$32)</f>
         <v>909.83325960564719</v>
       </c>
-      <c r="HL25" s="32">
+      <c r="HL25" s="9">
         <f>HK25*(1+$AQ$32)</f>
         <v>900.73492700959071</v>
       </c>
-      <c r="HM25" s="32">
+      <c r="HM25" s="9">
         <f>HL25*(1+$AQ$32)</f>
         <v>891.72757773949479</v>
       </c>
-      <c r="HN25" s="32">
+      <c r="HN25" s="9">
         <f>HM25*(1+$AQ$32)</f>
         <v>882.81030196209986</v>
       </c>
-      <c r="HO25" s="32">
+      <c r="HO25" s="9">
         <f>HN25*(1+$AQ$32)</f>
         <v>873.98219894247882</v>
       </c>
-      <c r="HP25" s="32">
+      <c r="HP25" s="9">
         <f>HO25*(1+$AQ$32)</f>
         <v>865.24237695305408</v>
       </c>
-      <c r="HQ25" s="32">
+      <c r="HQ25" s="9">
         <f>HP25*(1+$AQ$32)</f>
         <v>856.58995318352356</v>
       </c>
-      <c r="HR25" s="32">
+      <c r="HR25" s="9">
         <f>HQ25*(1+$AQ$32)</f>
         <v>848.02405365168829</v>
       </c>
-      <c r="HS25" s="32">
+      <c r="HS25" s="9">
         <f>HR25*(1+$AQ$32)</f>
         <v>839.54381311517136</v>
       </c>
-      <c r="HT25" s="32">
+      <c r="HT25" s="9">
         <f>HS25*(1+$AQ$32)</f>
         <v>831.1483749840196</v>
       </c>
-      <c r="HU25" s="32">
+      <c r="HU25" s="9">
         <f>HT25*(1+$AQ$32)</f>
         <v>822.83689123417935</v>
       </c>
-      <c r="HV25" s="32">
+      <c r="HV25" s="9">
         <f>HU25*(1+$AQ$32)</f>
         <v>814.60852232183754</v>
       </c>
-      <c r="HW25" s="32">
+      <c r="HW25" s="9">
         <f>HV25*(1+$AQ$32)</f>
         <v>806.46243709861915</v>
       </c>
-      <c r="HX25" s="32">
+      <c r="HX25" s="9">
         <f>HW25*(1+$AQ$32)</f>
         <v>798.39781272763298</v>
       </c>
-      <c r="HY25" s="32">
+      <c r="HY25" s="9">
         <f>HX25*(1+$AQ$32)</f>
         <v>790.41383460035661</v>
       </c>
-      <c r="HZ25" s="32">
+      <c r="HZ25" s="9">
         <f>HY25*(1+$AQ$32)</f>
         <v>782.509696254353</v>
       </c>
-      <c r="IA25" s="32">
+      <c r="IA25" s="9">
         <f>HZ25*(1+$AQ$32)</f>
         <v>774.68459929180949</v>
       </c>
-      <c r="IB25" s="32">
+      <c r="IB25" s="9">
         <f>IA25*(1+$AQ$32)</f>
         <v>766.93775329889138</v>
       </c>
-      <c r="IC25" s="32">
+      <c r="IC25" s="9">
         <f>IB25*(1+$AQ$32)</f>
         <v>759.26837576590242</v>
       </c>
-      <c r="ID25" s="32">
+      <c r="ID25" s="9">
         <f>IC25*(1+$AQ$32)</f>
         <v>751.67569200824335</v>
       </c>
-      <c r="IE25" s="32">
+      <c r="IE25" s="9">
         <f>ID25*(1+$AQ$32)</f>
         <v>744.15893508816089</v>
       </c>
-      <c r="IF25" s="32">
+      <c r="IF25" s="9">
         <f>IE25*(1+$AQ$32)</f>
         <v>736.71734573727929</v>
       </c>
-      <c r="IG25" s="32">
+      <c r="IG25" s="9">
         <f>IF25*(1+$AQ$32)</f>
         <v>729.35017227990647</v>
       </c>
-      <c r="IH25" s="32">
+      <c r="IH25" s="9">
         <f>IG25*(1+$AQ$32)</f>
         <v>722.0566705571074</v>
       </c>
-      <c r="II25" s="32">
+      <c r="II25" s="9">
         <f>IH25*(1+$AQ$32)</f>
         <v>714.83610385153634</v>
       </c>
-      <c r="IJ25" s="32">
+      <c r="IJ25" s="9">
         <f>II25*(1+$AQ$32)</f>
         <v>707.68774281302092</v>
       </c>
-      <c r="IK25" s="32">
+      <c r="IK25" s="9">
         <f>IJ25*(1+$AQ$32)</f>
         <v>700.61086538489076</v>
       </c>
-      <c r="IL25" s="32">
+      <c r="IL25" s="9">
         <f>IK25*(1+$AQ$32)</f>
         <v>693.60475673104179</v>
       </c>
-      <c r="IM25" s="32">
+      <c r="IM25" s="9">
         <f>IL25*(1+$AQ$32)</f>
         <v>686.66870916373136</v>
       </c>
-      <c r="IN25" s="32">
+      <c r="IN25" s="9">
         <f>IM25*(1+$AQ$32)</f>
         <v>679.80202207209402</v>
       </c>
-      <c r="IO25" s="32">
+      <c r="IO25" s="9">
         <f>IN25*(1+$AQ$32)</f>
         <v>673.00400185137312</v>
       </c>
-      <c r="IP25" s="32">
+      <c r="IP25" s="9">
         <f>IO25*(1+$AQ$32)</f>
         <v>666.27396183285941</v>
       </c>
-      <c r="IQ25" s="32">
+      <c r="IQ25" s="9">
         <f>IP25*(1+$AQ$32)</f>
         <v>659.61122221453081</v>
       </c>
-      <c r="IR25" s="32">
+      <c r="IR25" s="9">
         <f>IQ25*(1+$AQ$32)</f>
         <v>653.01510999238553</v>
       </c>
-      <c r="IS25" s="32">
+      <c r="IS25" s="9">
         <f>IR25*(1+$AQ$32)</f>
         <v>646.48495889246169</v>
       </c>
-      <c r="IT25" s="32">
+      <c r="IT25" s="9">
         <f>IS25*(1+$AQ$32)</f>
         <v>640.02010930353708</v>
       </c>
-      <c r="IU25" s="32">
+      <c r="IU25" s="9">
         <f>IT25*(1+$AQ$32)</f>
         <v>633.61990821050176</v>
       </c>
-      <c r="IV25" s="32">
+      <c r="IV25" s="9">
         <f>IU25*(1+$AQ$32)</f>
         <v>627.28370912839671</v>
       </c>
-      <c r="IW25" s="32">
+      <c r="IW25" s="9">
         <f>IV25*(1+$AQ$32)</f>
         <v>621.01087203711279</v>
       </c>
-      <c r="IX25" s="32">
+      <c r="IX25" s="9">
         <f>IW25*(1+$AQ$32)</f>
         <v>614.80076331674161</v>
       </c>
-      <c r="IY25" s="32">
+      <c r="IY25" s="9">
         <f>IX25*(1+$AQ$32)</f>
         <v>608.65275568357424</v>
       </c>
-      <c r="IZ25" s="32">
+      <c r="IZ25" s="9">
         <f>IY25*(1+$AQ$32)</f>
         <v>602.56622812673845</v>
       </c>
-      <c r="JA25" s="32">
+      <c r="JA25" s="9">
         <f>IZ25*(1+$AQ$32)</f>
         <v>596.54056584547106</v>
       </c>
-      <c r="JB25" s="32">
+      <c r="JB25" s="9">
         <f>JA25*(1+$AQ$32)</f>
         <v>590.57516018701631</v>
       </c>
-      <c r="JC25" s="32">
+      <c r="JC25" s="9">
         <f>JB25*(1+$AQ$32)</f>
         <v>584.66940858514613</v>
       </c>
-      <c r="JD25" s="32">
+      <c r="JD25" s="9">
         <f>JC25*(1+$AQ$32)</f>
         <v>578.82271449929465</v>
       </c>
-      <c r="JE25" s="32">
+      <c r="JE25" s="9">
         <f>JD25*(1+$AQ$32)</f>
         <v>573.03448735430175</v>
       </c>
-      <c r="JF25" s="32">
+      <c r="JF25" s="9">
         <f>JE25*(1+$AQ$32)</f>
         <v>567.30414248075874</v>
       </c>
-      <c r="JG25" s="32">
+      <c r="JG25" s="9">
         <f>JF25*(1+$AQ$32)</f>
         <v>561.63110105595115</v>
       </c>
-      <c r="JH25" s="32">
+      <c r="JH25" s="9">
         <f>JG25*(1+$AQ$32)</f>
         <v>556.01479004539158</v>
       </c>
-      <c r="JI25" s="32">
+      <c r="JI25" s="9">
         <f>JH25*(1+$AQ$32)</f>
         <v>550.45464214493768</v>
       </c>
-      <c r="JJ25" s="32">
+      <c r="JJ25" s="9">
         <f>JI25*(1+$AQ$32)</f>
         <v>544.95009572348829</v>
       </c>
-      <c r="JK25" s="32">
+      <c r="JK25" s="9">
         <f>JJ25*(1+$AQ$32)</f>
         <v>539.50059476625336</v>
       </c>
-      <c r="JL25" s="32">
+      <c r="JL25" s="9">
         <f>JK25*(1+$AQ$32)</f>
         <v>534.10558881859083</v>
       </c>
-      <c r="JM25" s="32">
+      <c r="JM25" s="9">
         <f>JL25*(1+$AQ$32)</f>
         <v>528.76453293040493</v>
       </c>
-      <c r="JN25" s="32">
+      <c r="JN25" s="9">
         <f>JM25*(1+$AQ$32)</f>
         <v>523.47688760110088</v>
       </c>
-      <c r="JO25" s="32">
+      <c r="JO25" s="9">
         <f>JN25*(1+$AQ$32)</f>
         <v>518.24211872508988</v>
       </c>
-      <c r="JP25" s="32">
+      <c r="JP25" s="9">
         <f>JO25*(1+$AQ$32)</f>
         <v>513.05969753783893</v>
       </c>
-      <c r="JQ25" s="32">
+      <c r="JQ25" s="9">
         <f>JP25*(1+$AQ$32)</f>
         <v>507.92910056246052</v>
       </c>
-      <c r="JR25" s="32">
+      <c r="JR25" s="9">
         <f>JQ25*(1+$AQ$32)</f>
         <v>502.84980955683591</v>
       </c>
-      <c r="JS25" s="32">
+      <c r="JS25" s="9">
         <f>JR25*(1+$AQ$32)</f>
         <v>497.82131146126756</v>
       </c>
-      <c r="JT25" s="32">
+      <c r="JT25" s="9">
         <f>JS25*(1+$AQ$32)</f>
         <v>492.84309834665487</v>
       </c>
-      <c r="JU25" s="32">
+      <c r="JU25" s="9">
         <f>JT25*(1+$AQ$32)</f>
         <v>487.9146673631883</v>
       </c>
-      <c r="JV25" s="32">
+      <c r="JV25" s="9">
         <f>JU25*(1+$AQ$32)</f>
         <v>483.03552068955639</v>
       </c>
-      <c r="JW25" s="32">
+      <c r="JW25" s="9">
         <f>JV25*(1+$AQ$32)</f>
         <v>478.20516548266085</v>
       </c>
-      <c r="JX25" s="32">
+      <c r="JX25" s="9">
         <f>JW25*(1+$AQ$32)</f>
         <v>473.42311382783424</v>
       </c>
-      <c r="JY25" s="32">
+      <c r="JY25" s="9">
         <f>JX25*(1+$AQ$32)</f>
         <v>468.6888826895559</v>
       </c>
-      <c r="JZ25" s="32">
+      <c r="JZ25" s="9">
         <f>JY25*(1+$AQ$32)</f>
         <v>464.00199386266036</v>
       </c>
-      <c r="KA25" s="32">
+      <c r="KA25" s="9">
         <f>JZ25*(1+$AQ$32)</f>
         <v>459.36197392403375</v>
       </c>
-      <c r="KB25" s="32">
+      <c r="KB25" s="9">
         <f>KA25*(1+$AQ$32)</f>
         <v>454.7683541847934</v>
       </c>
-      <c r="KC25" s="32">
+      <c r="KC25" s="9">
         <f>KB25*(1+$AQ$32)</f>
         <v>450.22067064294544</v>
       </c>
-      <c r="KD25" s="32">
+      <c r="KD25" s="9">
         <f>KC25*(1+$AQ$32)</f>
         <v>445.718463936516</v>
       </c>
-      <c r="KE25" s="32">
+      <c r="KE25" s="9">
         <f>KD25*(1+$AQ$32)</f>
         <v>441.26127929715085</v>
       </c>
-      <c r="KF25" s="32">
+      <c r="KF25" s="9">
         <f>KE25*(1+$AQ$32)</f>
         <v>436.84866650417933</v>
       </c>
-      <c r="KG25" s="32">
+      <c r="KG25" s="9">
         <f>KF25*(1+$AQ$32)</f>
         <v>432.48017983913752</v>
       </c>
-      <c r="KH25" s="32">
+      <c r="KH25" s="9">
         <f>KG25*(1+$AQ$32)</f>
         <v>428.15537804074614</v>
       </c>
-      <c r="KI25" s="32">
+      <c r="KI25" s="9">
         <f>KH25*(1+$AQ$32)</f>
         <v>423.87382426033867</v>
       </c>
-      <c r="KJ25" s="32">
+      <c r="KJ25" s="9">
         <f>KI25*(1+$AQ$32)</f>
         <v>419.63508601773526</v>
       </c>
-      <c r="KK25" s="32">
+      <c r="KK25" s="9">
         <f>KJ25*(1+$AQ$32)</f>
         <v>415.43873515755791</v>
       </c>
-      <c r="KL25" s="32">
+      <c r="KL25" s="9">
         <f>KK25*(1+$AQ$32)</f>
         <v>411.28434780598235</v>
       </c>
-      <c r="KM25" s="32">
+      <c r="KM25" s="9">
         <f>KL25*(1+$AQ$32)</f>
         <v>407.17150432792255</v>
       </c>
-      <c r="KN25" s="32">
+      <c r="KN25" s="9">
         <f>KM25*(1+$AQ$32)</f>
         <v>403.09978928464329</v>
       </c>
-      <c r="KO25" s="32">
+      <c r="KO25" s="9">
         <f>KN25*(1+$AQ$32)</f>
         <v>399.06879139179688</v>
       </c>
-      <c r="KP25" s="32">
+      <c r="KP25" s="9">
         <f>KO25*(1+$AQ$32)</f>
         <v>395.07810347787893</v>
       </c>
-      <c r="KQ25" s="32">
+      <c r="KQ25" s="9">
         <f>KP25*(1+$AQ$32)</f>
         <v>391.12732244310013</v>
       </c>
-      <c r="KR25" s="32">
+      <c r="KR25" s="9">
         <f>KQ25*(1+$AQ$32)</f>
         <v>387.21604921866913</v>
       </c>
-      <c r="KS25" s="32">
+      <c r="KS25" s="9">
         <f>KR25*(1+$AQ$32)</f>
         <v>383.34388872648242</v>
       </c>
-      <c r="KT25" s="32">
+      <c r="KT25" s="9">
         <f>KS25*(1+$AQ$32)</f>
         <v>379.51044983921759</v>
       </c>
-      <c r="KU25" s="32">
+      <c r="KU25" s="9">
         <f>KT25*(1+$AQ$32)</f>
         <v>375.71534534082542</v>
       </c>
-      <c r="KV25" s="32">
+      <c r="KV25" s="9">
         <f>KU25*(1+$AQ$32)</f>
         <v>371.95819188741717</v>
       </c>
-      <c r="KW25" s="32">
+      <c r="KW25" s="9">
         <f>KV25*(1+$AQ$32)</f>
         <v>368.23860996854302</v>
       </c>
-      <c r="KX25" s="32">
+      <c r="KX25" s="9">
         <f>KW25*(1+$AQ$32)</f>
         <v>364.55622386885756</v>
       </c>
-      <c r="KY25" s="32">
+      <c r="KY25" s="9">
         <f>KX25*(1+$AQ$32)</f>
         <v>360.91066163016899</v>
       </c>
-      <c r="KZ25" s="32">
+      <c r="KZ25" s="9">
         <f>KY25*(1+$AQ$32)</f>
         <v>357.3015550138673</v>
       </c>
-      <c r="LA25" s="32">
+      <c r="LA25" s="9">
         <f>KZ25*(1+$AQ$32)</f>
         <v>353.72853946372862</v>
       </c>
-      <c r="LB25" s="32">
+      <c r="LB25" s="9">
         <f>LA25*(1+$AQ$32)</f>
         <v>350.19125406909131</v>
       </c>
-      <c r="LC25" s="32">
+      <c r="LC25" s="9">
         <f>LB25*(1+$AQ$32)</f>
         <v>346.6893415284004</v>
       </c>
-      <c r="LD25" s="32">
+      <c r="LD25" s="9">
         <f>LC25*(1+$AQ$32)</f>
         <v>343.2224481131164</v>
       </c>
-      <c r="LE25" s="32">
+      <c r="LE25" s="9">
         <f>LD25*(1+$AQ$32)</f>
         <v>339.79022363198521</v>
       </c>
-      <c r="LF25" s="32">
+      <c r="LF25" s="9">
         <f>LE25*(1+$AQ$32)</f>
         <v>336.39232139566536</v>
       </c>
-      <c r="LG25" s="32">
+      <c r="LG25" s="9">
         <f>LF25*(1+$AQ$32)</f>
         <v>333.02839818170872</v>
       </c>
-      <c r="LH25" s="32">
+      <c r="LH25" s="9">
         <f>LG25*(1+$AQ$32)</f>
         <v>329.69811419989162</v>
       </c>
-      <c r="LI25" s="32">
+      <c r="LI25" s="9">
         <f>LH25*(1+$AQ$32)</f>
         <v>326.40113305789271</v>
       </c>
-      <c r="LJ25" s="32">
+      <c r="LJ25" s="9">
         <f>LI25*(1+$AQ$32)</f>
         <v>323.1371217273138</v>
       </c>
-      <c r="LK25" s="32">
+      <c r="LK25" s="9">
         <f>LJ25*(1+$AQ$32)</f>
         <v>319.90575051004066</v>
       </c>
-      <c r="LL25" s="32">
+      <c r="LL25" s="9">
         <f>LK25*(1+$AQ$32)</f>
         <v>316.70669300494023</v>
       </c>
-      <c r="LM25" s="32">
+      <c r="LM25" s="9">
         <f>LL25*(1+$AQ$32)</f>
         <v>313.5396260748908</v>
       </c>
-      <c r="LN25" s="32">
+      <c r="LN25" s="9">
         <f>LM25*(1+$AQ$32)</f>
         <v>310.4042298141419</v>
       </c>
-      <c r="LO25" s="32">
+      <c r="LO25" s="9">
         <f>LN25*(1+$AQ$32)</f>
         <v>307.30018751600051</v>
       </c>
-      <c r="LP25" s="32">
+      <c r="LP25" s="9">
         <f>LO25*(1+$AQ$32)</f>
         <v>304.2271856408405</v>
       </c>
-      <c r="LQ25" s="32">
+      <c r="LQ25" s="9">
         <f>LP25*(1+$AQ$32)</f>
         <v>301.18491378443207</v>
       </c>
-      <c r="LR25" s="32">
+      <c r="LR25" s="9">
         <f>LQ25*(1+$AQ$32)</f>
         <v>298.17306464658776</v>
       </c>
-      <c r="LS25" s="32">
+      <c r="LS25" s="9">
         <f>LR25*(1+$AQ$32)</f>
         <v>295.19133400012186</v>
       </c>
-      <c r="LT25" s="32">
+      <c r="LT25" s="9">
         <f>LS25*(1+$AQ$32)</f>
         <v>292.23942066012063</v>
       </c>
-      <c r="LU25" s="32">
+      <c r="LU25" s="9">
         <f>LT25*(1+$AQ$32)</f>
         <v>289.31702645351942</v>
       </c>
-      <c r="LV25" s="32">
+      <c r="LV25" s="9">
         <f>LU25*(1+$AQ$32)</f>
         <v>286.42385618898425</v>
       </c>
-      <c r="LW25" s="32">
+      <c r="LW25" s="9">
         <f>LV25*(1+$AQ$32)</f>
         <v>283.55961762709438</v>
       </c>
-      <c r="LX25" s="32">
+      <c r="LX25" s="9">
         <f>LW25*(1+$AQ$32)</f>
         <v>280.72402145082344</v>
       </c>
-      <c r="LY25" s="32">
+      <c r="LY25" s="9">
         <f>LX25*(1+$AQ$32)</f>
         <v>277.91678123631522</v>
       </c>
-      <c r="LZ25" s="32">
+      <c r="LZ25" s="9">
         <f>LY25*(1+$AQ$32)</f>
         <v>275.13761342395208</v>
       </c>
-      <c r="MA25" s="32">
+      <c r="MA25" s="9">
         <f>LZ25*(1+$AQ$32)</f>
         <v>272.38623728971254</v>
       </c>
-      <c r="MB25" s="32">
+      <c r="MB25" s="9">
         <f>MA25*(1+$AQ$32)</f>
         <v>269.66237491681539</v>
       </c>
-      <c r="MC25" s="32">
+      <c r="MC25" s="9">
         <f>MB25*(1+$AQ$32)</f>
         <v>266.96575116764723</v>
       </c>
-      <c r="MD25" s="32">
+      <c r="MD25" s="9">
         <f>MC25*(1+$AQ$32)</f>
         <v>264.29609365597076</v>
       </c>
-      <c r="ME25" s="32">
+      <c r="ME25" s="9">
         <f>MD25*(1+$AQ$32)</f>
         <v>261.65313271941108</v>
       </c>
-      <c r="MF25" s="32">
+      <c r="MF25" s="9">
         <f>ME25*(1+$AQ$32)</f>
         <v>259.03660139221694</v>
       </c>
-      <c r="MG25" s="32">
+      <c r="MG25" s="9">
         <f>MF25*(1+$AQ$32)</f>
         <v>256.44623537829477</v>
       </c>
-      <c r="MH25" s="32">
+      <c r="MH25" s="9">
         <f>MG25*(1+$AQ$32)</f>
         <v>253.88177302451183</v>
       </c>
-      <c r="MI25" s="32">
+      <c r="MI25" s="9">
         <f>MH25*(1+$AQ$32)</f>
         <v>251.34295529426672</v>
       </c>
-      <c r="MJ25" s="32">
+      <c r="MJ25" s="9">
         <f>MI25*(1+$AQ$32)</f>
         <v>248.82952574132403</v>
       </c>
-      <c r="MK25" s="32">
+      <c r="MK25" s="9">
         <f>MJ25*(1+$AQ$32)</f>
         <v>246.34123048391078</v>
       </c>
-      <c r="ML25" s="32">
+      <c r="ML25" s="9">
         <f>MK25*(1+$AQ$32)</f>
         <v>243.87781817907168</v>
       </c>
-      <c r="MM25" s="32">
+      <c r="MM25" s="9">
         <f>ML25*(1+$AQ$32)</f>
         <v>241.43903999728096</v>
       </c>
-      <c r="MN25" s="32">
+      <c r="MN25" s="9">
         <f>MM25*(1+$AQ$32)</f>
         <v>239.02464959730816</v>
       </c>
-      <c r="MO25" s="32">
+      <c r="MO25" s="9">
         <f>MN25*(1+$AQ$32)</f>
         <v>236.63440310133507</v>
       </c>
-      <c r="MP25" s="32">
+      <c r="MP25" s="9">
         <f>MO25*(1+$AQ$32)</f>
         <v>234.26805907032173</v>
       </c>
-      <c r="MQ25" s="32">
+      <c r="MQ25" s="9">
         <f>MP25*(1+$AQ$32)</f>
         <v>231.9253784796185</v>
       </c>
-      <c r="MR25" s="32">
+      <c r="MR25" s="9">
         <f>MQ25*(1+$AQ$32)</f>
         <v>229.60612469482231</v>
       </c>
-      <c r="MS25" s="32">
+      <c r="MS25" s="9">
         <f>MR25*(1+$AQ$32)</f>
         <v>227.31006344787409</v>
       </c>
-      <c r="MT25" s="32">
+      <c r="MT25" s="9">
         <f>MS25*(1+$AQ$32)</f>
         <v>225.03696281339535</v>
       </c>
-      <c r="MU25" s="32">
+      <c r="MU25" s="9">
         <f>MT25*(1+$AQ$32)</f>
         <v>222.78659318526138</v>
       </c>
-      <c r="MV25" s="32">
+      <c r="MV25" s="9">
         <f>MU25*(1+$AQ$32)</f>
         <v>220.55872725340876</v>
       </c>
-      <c r="MW25" s="32">
+      <c r="MW25" s="9">
         <f>MV25*(1+$AQ$32)</f>
         <v>218.35313998087466</v>
       </c>
-      <c r="MX25" s="32">
+      <c r="MX25" s="9">
         <f>MW25*(1+$AQ$32)</f>
         <v>216.16960858106592</v>
       </c>
-      <c r="MY25" s="32">
+      <c r="MY25" s="9">
         <f>MX25*(1+$AQ$32)</f>
         <v>214.00791249525525</v>
       </c>
-      <c r="MZ25" s="32">
+      <c r="MZ25" s="9">
         <f>MY25*(1+$AQ$32)</f>
         <v>211.86783337030269</v>
       </c>
-      <c r="NA25" s="32">
+      <c r="NA25" s="9">
         <f>MZ25*(1+$AQ$32)</f>
         <v>209.74915503659966</v>
       </c>
-      <c r="NB25" s="32">
+      <c r="NB25" s="9">
         <f>NA25*(1+$AQ$32)</f>
         <v>207.65166348623367</v>
       </c>
-      <c r="NC25" s="32">
+      <c r="NC25" s="9">
         <f>NB25*(1+$AQ$32)</f>
         <v>205.57514685137133</v>
       </c>
-      <c r="ND25" s="32">
+      <c r="ND25" s="9">
         <f>NC25*(1+$AQ$32)</f>
         <v>203.51939538285762</v>
       </c>
-      <c r="NE25" s="32">
+      <c r="NE25" s="9">
         <f>ND25*(1+$AQ$32)</f>
         <v>201.48420142902904</v>
       </c>
-      <c r="NF25" s="32">
+      <c r="NF25" s="9">
         <f>NE25*(1+$AQ$32)</f>
         <v>199.46935941473876</v>
       </c>
-      <c r="NG25" s="32">
+      <c r="NG25" s="9">
         <f>NF25*(1+$AQ$32)</f>
         <v>197.47466582059138</v>
       </c>
-      <c r="NH25" s="32">
+      <c r="NH25" s="9">
         <f>NG25*(1+$AQ$32)</f>
         <v>195.49991916238548</v>
       </c>
-      <c r="NI25" s="32">
+      <c r="NI25" s="9">
         <f>NH25*(1+$AQ$32)</f>
         <v>193.54491997076161</v>
       </c>
-      <c r="NJ25" s="32">
+      <c r="NJ25" s="9">
         <f>NI25*(1+$AQ$32)</f>
         <v>191.60947077105399</v>
       </c>
-      <c r="NK25" s="32">
+      <c r="NK25" s="9">
         <f>NJ25*(1+$AQ$32)</f>
         <v>189.69337606334346</v>
       </c>
-      <c r="NL25" s="32">
+      <c r="NL25" s="9">
         <f>NK25*(1+$AQ$32)</f>
         <v>187.79644230271003</v>
       </c>
-      <c r="NM25" s="32">
+      <c r="NM25" s="9">
         <f>NL25*(1+$AQ$32)</f>
         <v>185.91847787968294</v>
       </c>
-      <c r="NN25" s="32">
+      <c r="NN25" s="9">
         <f>NM25*(1+$AQ$32)</f>
         <v>184.05929310088609</v>
       </c>
-      <c r="NO25" s="32">
+      <c r="NO25" s="9">
         <f>NN25*(1+$AQ$32)</f>
         <v>182.21870016987722</v>
       </c>
-      <c r="NP25" s="32">
+      <c r="NP25" s="9">
         <f>NO25*(1+$AQ$32)</f>
         <v>180.39651316817844</v>
       </c>
-      <c r="NQ25" s="32">
+      <c r="NQ25" s="9">
         <f>NP25*(1+$AQ$32)</f>
         <v>178.59254803649665</v>
       </c>
-      <c r="NR25" s="32">
+      <c r="NR25" s="9">
         <f>NQ25*(1+$AQ$32)</f>
         <v>176.80662255613169</v>
       </c>
-      <c r="NS25" s="32">
+      <c r="NS25" s="9">
         <f>NR25*(1+$AQ$32)</f>
         <v>175.03855633057037</v>
       </c>
-      <c r="NT25" s="32">
+      <c r="NT25" s="9">
         <f>NS25*(1+$AQ$32)</f>
         <v>173.28817076726466</v>
       </c>
-      <c r="NU25" s="32">
+      <c r="NU25" s="9">
         <f>NT25*(1+$AQ$32)</f>
         <v>171.55528905959201</v>
       </c>
-      <c r="NV25" s="32">
+      <c r="NV25" s="9">
         <f>NU25*(1+$AQ$32)</f>
         <v>169.8397361689961</v>
       </c>
-      <c r="NW25" s="32">
+      <c r="NW25" s="9">
         <f>NV25*(1+$AQ$32)</f>
         <v>168.14133880730614</v>
       </c>
-      <c r="NX25" s="32">
+      <c r="NX25" s="9">
         <f>NW25*(1+$AQ$32)</f>
         <v>166.45992541923309</v>
       </c>
-      <c r="NY25" s="32">
+      <c r="NY25" s="9">
         <f>NX25*(1+$AQ$32)</f>
         <v>164.79532616504076</v>
       </c>
-      <c r="NZ25" s="32">
+      <c r="NZ25" s="9">
         <f>NY25*(1+$AQ$32)</f>
         <v>163.14737290339036</v>
       </c>
-      <c r="OA25" s="32">
+      <c r="OA25" s="9">
         <f>NZ25*(1+$AQ$32)</f>
         <v>161.51589917435646</v>
       </c>
-      <c r="OB25" s="32">
+      <c r="OB25" s="9">
         <f>OA25*(1+$AQ$32)</f>
         <v>159.90074018261291</v>
       </c>
-      <c r="OC25" s="32">
+      <c r="OC25" s="9">
         <f>OB25*(1+$AQ$32)</f>
         <v>158.30173278078678</v>
       </c>
-      <c r="OD25" s="32">
+      <c r="OD25" s="9">
         <f>OC25*(1+$AQ$32)</f>
         <v>156.7187154529789</v>
       </c>
-      <c r="OE25" s="32">
+      <c r="OE25" s="9">
         <f>OD25*(1+$AQ$32)</f>
         <v>155.15152829844911</v>
       </c>
-      <c r="OF25" s="32">
+      <c r="OF25" s="9">
         <f>OE25*(1+$AQ$32)</f>
         <v>153.60001301546461</v>
       </c>
-      <c r="OG25" s="32">
+      <c r="OG25" s="9">
         <f>OF25*(1+$AQ$32)</f>
         <v>152.06401288530998</v>
       </c>
-      <c r="OH25" s="32">
+      <c r="OH25" s="9">
         <f>OG25*(1+$AQ$32)</f>
         <v>150.54337275645688</v>
       </c>
-      <c r="OI25" s="32">
+      <c r="OI25" s="9">
         <f>OH25*(1+$AQ$32)</f>
         <v>149.03793902889231</v>
       </c>
-      <c r="OJ25" s="32">
+      <c r="OJ25" s="9">
         <f>OI25*(1+$AQ$32)</f>
         <v>147.54755963860339</v>
       </c>
-      <c r="OK25" s="32">
+      <c r="OK25" s="9">
         <f>OJ25*(1+$AQ$32)</f>
         <v>146.07208404221734</v>
       </c>
-      <c r="OL25" s="32">
+      <c r="OL25" s="9">
         <f>OK25*(1+$AQ$32)</f>
         <v>144.61136320179517</v>
       </c>
-      <c r="OM25" s="32">
+      <c r="OM25" s="9">
         <f>OL25*(1+$AQ$32)</f>
         <v>143.16524956977722</v>
       </c>
-      <c r="ON25" s="32">
+      <c r="ON25" s="9">
         <f>OM25*(1+$AQ$32)</f>
         <v>141.73359707407946</v>
       </c>
-      <c r="OO25" s="32">
+      <c r="OO25" s="9">
         <f>ON25*(1+$AQ$32)</f>
         <v>140.31626110333866</v>
       </c>
-      <c r="OP25" s="32">
+      <c r="OP25" s="9">
         <f>OO25*(1+$AQ$32)</f>
         <v>138.91309849230527</v>
       </c>
-      <c r="OQ25" s="32">
+      <c r="OQ25" s="9">
         <f>OP25*(1+$AQ$32)</f>
         <v>137.52396750738222</v>
       </c>
-      <c r="OR25" s="32">
+      <c r="OR25" s="9">
         <f>OQ25*(1+$AQ$32)</f>
         <v>136.1487278323084</v>
       </c>
-      <c r="OS25" s="32">
+      <c r="OS25" s="9">
         <f>OR25*(1+$AQ$32)</f>
         <v>134.7872405539853</v>
       </c>
-      <c r="OT25" s="32">
+      <c r="OT25" s="9">
         <f>OS25*(1+$AQ$32)</f>
         <v>133.43936814844545</v>
       </c>
-      <c r="OU25" s="32">
+      <c r="OU25" s="9">
         <f>OT25*(1+$AQ$32)</f>
         <v>132.10497446696101</v>
       </c>
-      <c r="OV25" s="32">
+      <c r="OV25" s="9">
         <f>OU25*(1+$AQ$32)</f>
         <v>130.7839247222914</v>
       </c>
-      <c r="OW25" s="32">
+      <c r="OW25" s="9">
         <f>OV25*(1+$AQ$32)</f>
         <v>129.47608547506849</v>
       </c>
-      <c r="OX25" s="32">
+      <c r="OX25" s="9">
         <f>OW25*(1+$AQ$32)</f>
         <v>128.18132462031781</v>
       </c>
-      <c r="OY25" s="32">
+      <c r="OY25" s="9">
         <f>OX25*(1+$AQ$32)</f>
         <v>126.89951137411462</v>
       </c>
-      <c r="OZ25" s="32">
+      <c r="OZ25" s="9">
         <f>OY25*(1+$AQ$32)</f>
         <v>125.63051626037348</v>
       </c>
-      <c r="PA25" s="32">
+      <c r="PA25" s="9">
         <f>OZ25*(1+$AQ$32)</f>
         <v>124.37421109776975</v>
       </c>
-      <c r="PB25" s="32">
+      <c r="PB25" s="9">
         <f>PA25*(1+$AQ$32)</f>
         <v>123.13046898679205</v>
       </c>
-      <c r="PC25" s="32">
+      <c r="PC25" s="9">
         <f>PB25*(1+$AQ$32)</f>
         <v>121.89916429692413</v>
       </c>
-      <c r="PD25" s="32">
+      <c r="PD25" s="9">
         <f>PC25*(1+$AQ$32)</f>
         <v>120.68017265395488</v>
       </c>
-      <c r="PE25" s="32">
+      <c r="PE25" s="9">
         <f>PD25*(1+$AQ$32)</f>
         <v>119.47337092741533</v>
       </c>
-      <c r="PF25" s="32">
+      <c r="PF25" s="9">
         <f>PE25*(1+$AQ$32)</f>
         <v>118.27863721814117</v>
       </c>
-      <c r="PG25" s="32">
+      <c r="PG25" s="9">
         <f>PF25*(1+$AQ$32)</f>
         <v>117.09585084595976</v>
       </c>
-      <c r="PH25" s="32">
+      <c r="PH25" s="9">
         <f>PG25*(1+$AQ$32)</f>
         <v>115.92489233750015</v>
       </c>
@@ -6224,153 +6018,153 @@
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="10">
         <f>C25/C26</f>
         <v>2.6296829971181555</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="10">
         <f>D25/D26</f>
         <v>2.5203841275593404</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="10">
         <f>E25/E26</f>
         <v>2.3015148749771859</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="10">
         <f>F25/F26</f>
         <v>12.819197655248214</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="10">
         <f>G25/G26</f>
         <v>2.3807763401109057</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="10">
         <f>H25/H26</f>
         <v>2.4948722729815405</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="10">
         <f>I25/I26</f>
         <v>2.1686746987951806</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="10">
         <f>J25/J26</f>
         <v>2.6397100896433341</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="10">
         <f>K25/K26</f>
         <v>2.6487006737247354</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="10">
         <f>L25/L26</f>
         <v>2.9044758767680681</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="10">
         <f>M25/M26</f>
         <v>2.5038850038850042</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="10">
         <f>N25/N26</f>
         <v>2.8794686462199648</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="10">
         <f>O25/O26</f>
         <v>1.7022538552787663</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="10">
         <f>P25/P26</f>
         <v>4.4250594766058686</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="10">
         <f>Q25/Q26</f>
         <v>3.0767708745548084</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="10">
         <f>R25/R26</f>
         <v>3.8537549407114624</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="10">
         <f>S25/S26</f>
         <v>5.3535955502582437</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="10">
         <f>T25/T26</f>
         <v>4.7859296482412059</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="10">
         <f>U25/U26</f>
         <v>4.2194523906824681</v>
       </c>
-      <c r="V27" s="33">
+      <c r="V27" s="10">
         <f>V25/V26</f>
         <v>4.4714939658759878</v>
       </c>
-      <c r="W27" s="33">
+      <c r="W27" s="10">
         <f>W25/W26</f>
         <v>3.4416417272338604</v>
       </c>
-      <c r="X27" s="33">
+      <c r="X27" s="10">
         <f>X25/X26</f>
         <v>2.307872126590397</v>
       </c>
-      <c r="Y27" s="33">
+      <c r="Y27" s="10">
         <f>Y25/Y26</f>
         <v>2.9367069098940122</v>
       </c>
-      <c r="Z27" s="33">
+      <c r="Z27" s="10">
         <f>Z25/Z26</f>
         <v>4.3860745876165455</v>
       </c>
-      <c r="AE27" s="33">
+      <c r="AE27" s="10">
         <f>AE25/AE26</f>
         <v>20.351712767906211</v>
       </c>
-      <c r="AF27" s="33">
+      <c r="AF27" s="10">
         <f>AF25/AF26</f>
         <v>9.8455082967766554</v>
       </c>
-      <c r="AG27" s="33">
+      <c r="AG27" s="10">
         <f>AG25/AG26</f>
         <v>11.013869896464154</v>
       </c>
-      <c r="AH27" s="33">
+      <c r="AH27" s="10">
         <f>AH25/AH26</f>
         <v>13.039525691699605</v>
       </c>
-      <c r="AI27" s="33">
+      <c r="AI27" s="10">
         <f>AI25/AI26</f>
         <v>19.330004161464835</v>
       </c>
-      <c r="AJ27" s="33">
+      <c r="AJ27" s="10">
         <f>AJ25/AJ26</f>
         <v>13.329388574565485</v>
       </c>
-      <c r="AK27" s="33">
+      <c r="AK27" s="10">
         <f>AK25/AK26</f>
         <v>11.788164517540235</v>
       </c>
-      <c r="AL27" s="33">
+      <c r="AL27" s="10">
         <f>AL25/AL26</f>
         <v>12.409450658956256</v>
       </c>
-      <c r="AM27" s="33">
+      <c r="AM27" s="10">
         <f>AM25/AM26</f>
         <v>13.062819745083473</v>
       </c>
     </row>
     <row r="29" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B29" s="52" t="s">
-        <v>90</v>
+      <c r="B29" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B30" s="52" t="s">
-        <v>91</v>
+      <c r="B30" s="29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="AP31" s="60" t="s">
-        <v>126</v>
+      <c r="AP31" s="37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:424" x14ac:dyDescent="0.2">
@@ -6493,17 +6287,17 @@
       <c r="AP32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ32" s="34">
+      <c r="AQ32" s="11">
         <v>-0.01</v>
       </c>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="30"/>
-      <c r="AV32" s="30"/>
-      <c r="AW32" s="30"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
@@ -6627,21 +6421,21 @@
       <c r="AP33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AQ33" s="34">
+      <c r="AQ33" s="11">
         <f>WACC!C18</f>
         <v>5.3950410437967056E-2</v>
       </c>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
     </row>
     <row r="34" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -6762,21 +6556,21 @@
       <c r="AP34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ34" s="30">
+      <c r="AQ34" s="7">
         <f>NPV(AQ33,AG25:PH25)</f>
         <v>95412.82122862144</v>
       </c>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35"/>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35"/>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
     </row>
     <row r="35" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -6897,21 +6691,21 @@
       <c r="AP35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ35" s="30">
+      <c r="AQ35" s="7">
         <f>+Main!C7-Main!C8</f>
         <v>-13356</v>
       </c>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="31"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
     </row>
     <row r="36" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -7032,21 +6826,21 @@
       <c r="AP36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AQ36" s="30">
+      <c r="AQ36" s="7">
         <f>+AQ34+AQ35</f>
         <v>82056.82122862144</v>
       </c>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
     </row>
     <row r="37" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -7167,21 +6961,21 @@
       <c r="AP37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AQ37" s="36">
+      <c r="AQ37" s="13">
         <f>AQ36/Main!C5</f>
         <v>175.4100496550266</v>
       </c>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
@@ -7322,18 +7116,18 @@
       <c r="AP38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AQ38" s="29">
+      <c r="AQ38" s="6">
         <f>Main!C4</f>
         <v>163.38</v>
       </c>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30"/>
-      <c r="AU38" s="30"/>
-      <c r="AV38" s="30"/>
-      <c r="AW38" s="30"/>
-      <c r="AX38" s="30"/>
-      <c r="AY38" s="30"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
@@ -7477,21 +7271,21 @@
       <c r="AP39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ39" s="37">
+      <c r="AQ39" s="14">
         <f>AQ37/AQ38-1</f>
         <v>7.3632327427020527E-2</v>
       </c>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="8"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
@@ -7630,138 +7424,138 @@
         <v>0.21</v>
       </c>
       <c r="AP40" s="1"/>
-      <c r="AQ40" s="29"/>
-      <c r="AR40" s="30"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="30"/>
-      <c r="AU40" s="30"/>
-      <c r="AV40" s="30"/>
-      <c r="AW40" s="30"/>
-      <c r="AX40" s="30"/>
-      <c r="AY40" s="30"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="30"/>
-      <c r="AV41" s="30"/>
-      <c r="AW41" s="30"/>
-      <c r="AX41" s="30"/>
-      <c r="AY41" s="30"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
-      <c r="AU42" s="30"/>
-      <c r="AV42" s="30"/>
-      <c r="AW42" s="30"/>
-      <c r="AX42" s="30"/>
-      <c r="AY42" s="30"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="7"/>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31" t="s">
+    <row r="43" spans="1:54" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="9">
         <f t="shared" ref="C43:V43" si="51">C44-C60-C62</f>
         <v>0</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="P43" s="32">
+      <c r="P43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="32">
+      <c r="Q43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R43" s="32">
+      <c r="R43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S43" s="32">
+      <c r="S43" s="9">
         <f t="shared" si="51"/>
         <v>-4866</v>
       </c>
-      <c r="T43" s="32">
+      <c r="T43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U43" s="32">
+      <c r="U43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="V43" s="32">
+      <c r="V43" s="9">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="W43" s="32">
+      <c r="W43" s="9">
         <f>W44-W60-W62</f>
         <v>-13356</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B44" s="58" t="s">
-        <v>101</v>
+      <c r="B44" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="S44" s="2">
         <v>7816</v>
@@ -7771,8 +7565,8 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
-        <v>102</v>
+      <c r="B45" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="S45" s="2">
         <v>10539</v>
@@ -7782,8 +7576,8 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
-        <v>103</v>
+      <c r="B46" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="S46" s="2">
         <v>1576</v>
@@ -7793,8 +7587,8 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B47" s="58" t="s">
-        <v>104</v>
+      <c r="B47" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47:V47" si="52">SUM(C44:C46)</f>
@@ -7882,8 +7676,8 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
-        <v>105</v>
+      <c r="B48" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="S48" s="2">
         <v>6146</v>
@@ -7893,8 +7687,8 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
-        <v>106</v>
+      <c r="B49" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="S49" s="2">
         <v>31710</v>
@@ -7904,8 +7698,8 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="58" t="s">
-        <v>107</v>
+      <c r="B50" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="S50" s="2">
         <v>5496</v>
@@ -7915,8 +7709,8 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="58" t="s">
-        <v>108</v>
+      <c r="B51" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="S51" s="2">
         <v>2256</v>
@@ -7926,8 +7720,8 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
-        <v>109</v>
+      <c r="B52" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="S52" s="2">
         <v>973</v>
@@ -7937,8 +7731,8 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="58" t="s">
-        <v>110</v>
+      <c r="B53" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="S53" s="2">
         <v>-19777</v>
@@ -7948,8 +7742,8 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
-        <v>111</v>
+      <c r="B54" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" ref="C54:V54" si="53">SUM(C48:C53)</f>
@@ -8037,8 +7831,8 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="58" t="s">
-        <v>112</v>
+      <c r="B55" s="35" t="s">
+        <v>100</v>
       </c>
       <c r="S55" s="2">
         <v>2362</v>
@@ -8048,8 +7842,8 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="58" t="s">
-        <v>113</v>
+      <c r="B56" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="S56" s="2">
         <v>1374</v>
@@ -8058,99 +7852,99 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="32">
+    <row r="57" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="9">
         <f t="shared" ref="C57:V57" si="54">C47+C54+C55+C56</f>
         <v>0</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="J57" s="32">
+      <c r="J57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="K57" s="32">
+      <c r="K57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="L57" s="32">
+      <c r="L57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O57" s="32">
+      <c r="O57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P57" s="32">
+      <c r="P57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="32">
+      <c r="Q57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="R57" s="32">
+      <c r="R57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="S57" s="32">
+      <c r="S57" s="9">
         <f t="shared" si="54"/>
         <v>50471</v>
       </c>
-      <c r="T57" s="32">
+      <c r="T57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="U57" s="32">
+      <c r="U57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="V57" s="32">
+      <c r="V57" s="9">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="W57" s="32">
+      <c r="W57" s="9">
         <f>W47+W54+W55+W56</f>
         <v>50842</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B58" s="58" t="s">
-        <v>115</v>
+      <c r="B58" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="S58" s="2">
         <v>11637</v>
@@ -8160,8 +7954,8 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B59" s="58" t="s">
-        <v>116</v>
+      <c r="B59" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="S59" s="2">
         <v>5788</v>
@@ -8171,8 +7965,8 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B60" s="58" t="s">
-        <v>117</v>
+      <c r="B60" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="S60" s="2">
         <v>1173</v>
@@ -8182,8 +7976,8 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B61" s="58" t="s">
-        <v>118</v>
+      <c r="B61" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:V61" si="55">SUM(C58:C60)</f>
@@ -8271,8 +8065,8 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B62" s="58" t="s">
-        <v>119</v>
+      <c r="B62" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -8284,8 +8078,8 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="58" t="s">
-        <v>120</v>
+      <c r="B63" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -8297,8 +8091,8 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B64" s="58" t="s">
-        <v>121</v>
+      <c r="B64" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -8310,8 +8104,8 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="58" t="s">
-        <v>122</v>
+      <c r="B65" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -8322,99 +8116,99 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="32">
+    <row r="66" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="9">
         <f t="shared" ref="C66:V66" si="56">SUM(C61:C65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="H66" s="32">
+      <c r="H66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="J66" s="32">
+      <c r="J66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="K66" s="32">
+      <c r="K66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="L66" s="32">
+      <c r="L66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="N66" s="32">
+      <c r="N66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="O66" s="32">
+      <c r="O66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="P66" s="32">
+      <c r="P66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="32">
+      <c r="Q66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="R66" s="32">
+      <c r="R66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="S66" s="32">
+      <c r="S66" s="9">
         <f t="shared" si="56"/>
         <v>35512</v>
       </c>
-      <c r="T66" s="32">
+      <c r="T66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="U66" s="32">
+      <c r="U66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="V66" s="32">
+      <c r="V66" s="9">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W66" s="32">
+      <c r="W66" s="9">
         <f>SUM(W61:W65)</f>
         <v>40068</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="58" t="s">
-        <v>124</v>
+      <c r="B67" s="35" t="s">
+        <v>112</v>
       </c>
       <c r="S67" s="2">
         <v>14959</v>
@@ -8423,102 +8217,102 @@
         <v>10774</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="32">
+    <row r="68" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="9">
         <f t="shared" ref="C68:V68" si="57">C66+C67</f>
         <v>0</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="I68" s="32">
+      <c r="I68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="J68" s="32">
+      <c r="J68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="K68" s="32">
+      <c r="K68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="L68" s="32">
+      <c r="L68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="M68" s="32">
+      <c r="M68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="N68" s="32">
+      <c r="N68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="O68" s="32">
+      <c r="O68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="P68" s="32">
+      <c r="P68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="32">
+      <c r="Q68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="R68" s="32">
+      <c r="R68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="S68" s="32">
+      <c r="S68" s="9">
         <f t="shared" si="57"/>
         <v>50471</v>
       </c>
-      <c r="T68" s="32">
+      <c r="T68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="U68" s="32">
+      <c r="U68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="V68" s="32">
+      <c r="V68" s="9">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="W68" s="32">
+      <c r="W68" s="9">
         <f>W66+W67</f>
         <v>50842</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8529,304 +8323,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22255118-F460-4EF7-B208-39922663AB5B}">
-  <dimension ref="B3:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="8"/>
-    <col min="8" max="8" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" ref="C4:C14" si="0">1/(1+$I$7)^B4</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="D4" s="13">
-        <f>I4</f>
-        <v>4.32</v>
-      </c>
-      <c r="E4" s="14">
-        <f t="shared" ref="E4:E14" si="1">C4*D4</f>
-        <v>4.0754716981132075</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="14">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.88999644001423983</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:D13" si="2">D4*(1+$I$5)</f>
-        <v>4.7520000000000007</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="1"/>
-        <v>4.2292630829476678</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8396192830323016</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="2"/>
-        <v>5.2272000000000007</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="1"/>
-        <v>4.3888579162664474</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.79209366323802044</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="2"/>
-        <v>5.7499200000000013</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="1"/>
-        <v>4.5544751961255594</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="19">
-        <f>WACC!C16</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.74725817286605689</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="2"/>
-        <v>6.3249120000000021</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="1"/>
-        <v>4.7263421846585993</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.70496054043967626</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="2"/>
-        <v>6.9574032000000026</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="1"/>
-        <v>4.9046947199287345</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="23">
-        <f>D13*(1+I6)/(I7-I6)</f>
-        <v>205.76394730742413</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.66505711362233599</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="2"/>
-        <v>7.6531435200000031</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="1"/>
-        <v>5.0897775395486864</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="14">
-        <f>SUM(E4:E14)</f>
-        <v>163.31739563124657</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>0.62741237134182648</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="2"/>
-        <v>8.4184578720000047</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="1"/>
-        <v>5.2818446165127897</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="24">
-        <f>Main!C4</f>
-        <v>163.38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.59189846353002495</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="2"/>
-        <v>9.2603036592000052</v>
-      </c>
-      <c r="E12" s="14">
-        <f t="shared" si="1"/>
-        <v>5.4811595077019506</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="19">
-        <f>I10/I11-1</f>
-        <v>-3.8318257285729906E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.55839477691511785</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="2"/>
-        <v>10.186334025120006</v>
-      </c>
-      <c r="E13" s="14">
-        <f t="shared" si="1"/>
-        <v>5.6879957155397607</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="25">
-        <v>10</v>
-      </c>
-      <c r="C14" s="26">
-        <f t="shared" si="0"/>
-        <v>0.55839477691511785</v>
-      </c>
-      <c r="D14" s="26">
-        <f>I9</f>
-        <v>205.76394730742413</v>
-      </c>
-      <c r="E14" s="27">
-        <f t="shared" si="1"/>
-        <v>114.89751345390316</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594DC331-B18C-4295-82BA-E138709B9421}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -8892,8 +8392,8 @@
         <f>AVERAGE(DCF!AE40:AI40)</f>
         <v>0.13063560301565624</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>88</v>
+      <c r="D9" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -8903,8 +8403,8 @@
       <c r="C10" s="2">
         <v>421</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>89</v>
+      <c r="D10" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -8929,7 +8429,7 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068FA0A-775F-4925-8D1A-2899238C3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A8564-CAD6-404E-853A-E8D8F008EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A8564-CAD6-404E-853A-E8D8F008EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C81EF4-BBD0-422D-A693-7949BD58751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>4Q22</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>10K21</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Using Net Income</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -430,13 +430,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -573,81 +579,82 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1859,7 +1866,7 @@
     </row>
     <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7">
         <v>4051</v>
@@ -1958,7 +1965,7 @@
     </row>
     <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7">
         <v>3452</v>
@@ -2057,7 +2064,7 @@
     </row>
     <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="7">
         <v>3413</v>
@@ -2156,7 +2163,7 @@
     </row>
     <row r="6" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7">
         <v>2747</v>
@@ -2255,7 +2262,7 @@
     </row>
     <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7">
         <v>2310</v>
@@ -2354,7 +2361,7 @@
     </row>
     <row r="8" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7">
         <v>22</v>
@@ -2595,7 +2602,7 @@
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7">
         <v>171</v>
@@ -2694,7 +2701,7 @@
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7">
         <v>57</v>
@@ -2793,7 +2800,7 @@
     </row>
     <row r="13" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" ref="C13:V13" si="10">C11+C12</f>
@@ -3038,7 +3045,7 @@
         <v>72714</v>
       </c>
       <c r="AF15" s="9">
-        <f t="shared" ref="AF15:AM15" si="13">AF13+AF9</f>
+        <f t="shared" ref="AF15:AH15" si="13">AF13+AF9</f>
         <v>75356</v>
       </c>
       <c r="AG15" s="9">
@@ -3399,7 +3406,7 @@
         <v>5247.72</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" ref="Y18:Z18" si="18">V18*1.05</f>
+        <f t="shared" ref="Z18" si="18">V18*1.05</f>
         <v>5811.75</v>
       </c>
       <c r="AE18" s="2">
@@ -3427,7 +3434,7 @@
         <v>21203.86</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" ref="AK18:AM18" si="19">AJ18*1.05</f>
+        <f t="shared" ref="AK18" si="19">AJ18*1.05</f>
         <v>22264.053</v>
       </c>
       <c r="AL18" s="2">
@@ -3847,7 +3854,7 @@
     </row>
     <row r="22" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2">
         <v>-4</v>
@@ -4358,1543 +4365,1543 @@
         <v>5554.2673609044041</v>
       </c>
       <c r="AN25" s="9">
-        <f>AM25*(1+$AQ$32)</f>
+        <f t="shared" ref="AN25:CY25" si="36">AM25*(1+$AQ$32)</f>
         <v>5498.7246872953601</v>
       </c>
       <c r="AO25" s="9">
-        <f>AN25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5443.7374404224065</v>
       </c>
       <c r="AP25" s="9">
-        <f>AO25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5389.3000660181824</v>
       </c>
       <c r="AQ25" s="9">
-        <f>AP25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5335.4070653580002</v>
       </c>
       <c r="AR25" s="9">
-        <f>AQ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5282.0529947044197</v>
       </c>
       <c r="AS25" s="9">
-        <f>AR25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5229.2324647573751</v>
       </c>
       <c r="AT25" s="9">
-        <f>AS25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5176.9401401098012</v>
       </c>
       <c r="AU25" s="9">
-        <f>AT25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5125.1707387087035</v>
       </c>
       <c r="AV25" s="9">
-        <f>AU25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5073.9190313216168</v>
       </c>
       <c r="AW25" s="9">
-        <f>AV25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>5023.1798410084002</v>
       </c>
       <c r="AX25" s="9">
-        <f>AW25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4972.9480425983165</v>
       </c>
       <c r="AY25" s="9">
-        <f>AX25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4923.2185621723329</v>
       </c>
       <c r="AZ25" s="9">
-        <f>AY25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4873.9863765506097</v>
       </c>
       <c r="BA25" s="9">
-        <f>AZ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4825.2465127851037</v>
       </c>
       <c r="BB25" s="9">
-        <f>BA25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4776.9940476572528</v>
       </c>
       <c r="BC25" s="9">
-        <f>BB25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4729.2241071806802</v>
       </c>
       <c r="BD25" s="9">
-        <f>BC25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4681.9318661088737</v>
       </c>
       <c r="BE25" s="9">
-        <f>BD25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4635.1125474477849</v>
       </c>
       <c r="BF25" s="9">
-        <f>BE25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4588.7614219733068</v>
       </c>
       <c r="BG25" s="9">
-        <f>BF25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4542.8738077535736</v>
       </c>
       <c r="BH25" s="9">
-        <f>BG25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4497.4450696760377</v>
       </c>
       <c r="BI25" s="9">
-        <f>BH25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4452.4706189792769</v>
       </c>
       <c r="BJ25" s="9">
-        <f>BI25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4407.9459127894843</v>
       </c>
       <c r="BK25" s="9">
-        <f>BJ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4363.8664536615897</v>
       </c>
       <c r="BL25" s="9">
-        <f>BK25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4320.2277891249742</v>
       </c>
       <c r="BM25" s="9">
-        <f>BL25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4277.0255112337245</v>
       </c>
       <c r="BN25" s="9">
-        <f>BM25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4234.255256121387</v>
       </c>
       <c r="BO25" s="9">
-        <f>BN25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4191.9127035601732</v>
       </c>
       <c r="BP25" s="9">
-        <f>BO25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4149.9935765245718</v>
       </c>
       <c r="BQ25" s="9">
-        <f>BP25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4108.4936407593259</v>
       </c>
       <c r="BR25" s="9">
-        <f>BQ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4067.4087043517325</v>
       </c>
       <c r="BS25" s="9">
-        <f>BR25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>4026.7346173082151</v>
       </c>
       <c r="BT25" s="9">
-        <f>BS25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3986.4672711351327</v>
       </c>
       <c r="BU25" s="9">
-        <f>BT25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3946.6025984237813</v>
       </c>
       <c r="BV25" s="9">
-        <f>BU25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3907.1365724395432</v>
       </c>
       <c r="BW25" s="9">
-        <f>BV25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3868.0652067151477</v>
       </c>
       <c r="BX25" s="9">
-        <f>BW25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3829.3845546479961</v>
       </c>
       <c r="BY25" s="9">
-        <f>BX25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3791.090709101516</v>
       </c>
       <c r="BZ25" s="9">
-        <f>BY25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3753.1798020105007</v>
       </c>
       <c r="CA25" s="9">
-        <f>BZ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3715.6480039903959</v>
       </c>
       <c r="CB25" s="9">
-        <f>CA25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3678.4915239504917</v>
       </c>
       <c r="CC25" s="9">
-        <f>CB25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3641.7066087109865</v>
       </c>
       <c r="CD25" s="9">
-        <f>CC25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3605.2895426238765</v>
       </c>
       <c r="CE25" s="9">
-        <f>CD25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3569.2366471976379</v>
       </c>
       <c r="CF25" s="9">
-        <f>CE25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3533.5442807256613</v>
       </c>
       <c r="CG25" s="9">
-        <f>CF25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3498.2088379184047</v>
       </c>
       <c r="CH25" s="9">
-        <f>CG25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3463.2267495392207</v>
       </c>
       <c r="CI25" s="9">
-        <f>CH25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3428.5944820438285</v>
       </c>
       <c r="CJ25" s="9">
-        <f>CI25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3394.3085372233904</v>
       </c>
       <c r="CK25" s="9">
-        <f>CJ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3360.3654518511566</v>
       </c>
       <c r="CL25" s="9">
-        <f>CK25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3326.7617973326451</v>
       </c>
       <c r="CM25" s="9">
-        <f>CL25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3293.4941793593184</v>
       </c>
       <c r="CN25" s="9">
-        <f>CM25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3260.5592375657252</v>
       </c>
       <c r="CO25" s="9">
-        <f>CN25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3227.9536451900681</v>
       </c>
       <c r="CP25" s="9">
-        <f>CO25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3195.6741087381674</v>
       </c>
       <c r="CQ25" s="9">
-        <f>CP25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3163.7173676507859</v>
       </c>
       <c r="CR25" s="9">
-        <f>CQ25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3132.0801939742782</v>
       </c>
       <c r="CS25" s="9">
-        <f>CR25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3100.7593920345353</v>
       </c>
       <c r="CT25" s="9">
-        <f>CS25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3069.75179811419</v>
       </c>
       <c r="CU25" s="9">
-        <f>CT25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3039.054280133048</v>
       </c>
       <c r="CV25" s="9">
-        <f>CU25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>3008.6637373317176</v>
       </c>
       <c r="CW25" s="9">
-        <f>CV25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>2978.5770999584006</v>
       </c>
       <c r="CX25" s="9">
-        <f>CW25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>2948.7913289588164</v>
       </c>
       <c r="CY25" s="9">
-        <f>CX25*(1+$AQ$32)</f>
+        <f t="shared" si="36"/>
         <v>2919.3034156692283</v>
       </c>
       <c r="CZ25" s="9">
-        <f>CY25*(1+$AQ$32)</f>
+        <f t="shared" ref="CZ25:FK25" si="37">CY25*(1+$AQ$32)</f>
         <v>2890.1103815125362</v>
       </c>
       <c r="DA25" s="9">
-        <f>CZ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2861.2092776974109</v>
       </c>
       <c r="DB25" s="9">
-        <f>DA25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2832.5971849204366</v>
       </c>
       <c r="DC25" s="9">
-        <f>DB25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2804.2712130712321</v>
       </c>
       <c r="DD25" s="9">
-        <f>DC25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2776.2285009405196</v>
       </c>
       <c r="DE25" s="9">
-        <f>DD25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2748.4662159311142</v>
       </c>
       <c r="DF25" s="9">
-        <f>DE25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2720.9815537718032</v>
       </c>
       <c r="DG25" s="9">
-        <f>DF25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2693.7717382340852</v>
       </c>
       <c r="DH25" s="9">
-        <f>DG25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2666.8340208517443</v>
       </c>
       <c r="DI25" s="9">
-        <f>DH25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2640.165680643227</v>
       </c>
       <c r="DJ25" s="9">
-        <f>DI25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2613.7640238367949</v>
       </c>
       <c r="DK25" s="9">
-        <f>DJ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2587.6263835984269</v>
       </c>
       <c r="DL25" s="9">
-        <f>DK25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2561.7501197624424</v>
       </c>
       <c r="DM25" s="9">
-        <f>DL25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2536.1326185648181</v>
       </c>
       <c r="DN25" s="9">
-        <f>DM25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2510.7712923791701</v>
       </c>
       <c r="DO25" s="9">
-        <f>DN25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2485.6635794553786</v>
       </c>
       <c r="DP25" s="9">
-        <f>DO25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2460.8069436608248</v>
       </c>
       <c r="DQ25" s="9">
-        <f>DP25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2436.1988742242165</v>
       </c>
       <c r="DR25" s="9">
-        <f>DQ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2411.8368854819742</v>
       </c>
       <c r="DS25" s="9">
-        <f>DR25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2387.7185166271543</v>
       </c>
       <c r="DT25" s="9">
-        <f>DS25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2363.8413314608829</v>
       </c>
       <c r="DU25" s="9">
-        <f>DT25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2340.202918146274</v>
       </c>
       <c r="DV25" s="9">
-        <f>DU25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2316.8008889648113</v>
       </c>
       <c r="DW25" s="9">
-        <f>DV25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2293.632880075163</v>
       </c>
       <c r="DX25" s="9">
-        <f>DW25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2270.6965512744114</v>
       </c>
       <c r="DY25" s="9">
-        <f>DX25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2247.9895857616671</v>
       </c>
       <c r="DZ25" s="9">
-        <f>DY25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2225.5096899040504</v>
       </c>
       <c r="EA25" s="9">
-        <f>DZ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2203.2545930050101</v>
       </c>
       <c r="EB25" s="9">
-        <f>EA25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2181.2220470749598</v>
       </c>
       <c r="EC25" s="9">
-        <f>EB25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2159.4098266042101</v>
       </c>
       <c r="ED25" s="9">
-        <f>EC25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2137.8157283381679</v>
       </c>
       <c r="EE25" s="9">
-        <f>ED25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2116.4375710547861</v>
       </c>
       <c r="EF25" s="9">
-        <f>EE25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2095.273195344238</v>
       </c>
       <c r="EG25" s="9">
-        <f>EF25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2074.3204633907958</v>
       </c>
       <c r="EH25" s="9">
-        <f>EG25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2053.5772587568877</v>
       </c>
       <c r="EI25" s="9">
-        <f>EH25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2033.0414861693187</v>
       </c>
       <c r="EJ25" s="9">
-        <f>EI25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>2012.7110713076254</v>
       </c>
       <c r="EK25" s="9">
-        <f>EJ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1992.5839605945491</v>
       </c>
       <c r="EL25" s="9">
-        <f>EK25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1972.6581209886035</v>
       </c>
       <c r="EM25" s="9">
-        <f>EL25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1952.9315397787175</v>
       </c>
       <c r="EN25" s="9">
-        <f>EM25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1933.4022243809302</v>
       </c>
       <c r="EO25" s="9">
-        <f>EN25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1914.0682021371208</v>
       </c>
       <c r="EP25" s="9">
-        <f>EO25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1894.9275201157495</v>
       </c>
       <c r="EQ25" s="9">
-        <f>EP25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1875.9782449145921</v>
       </c>
       <c r="ER25" s="9">
-        <f>EQ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1857.2184624654462</v>
       </c>
       <c r="ES25" s="9">
-        <f>ER25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1838.6462778407918</v>
       </c>
       <c r="ET25" s="9">
-        <f>ES25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1820.2598150623837</v>
       </c>
       <c r="EU25" s="9">
-        <f>ET25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1802.05721691176</v>
       </c>
       <c r="EV25" s="9">
-        <f>EU25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1784.0366447426422</v>
       </c>
       <c r="EW25" s="9">
-        <f>EV25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1766.1962782952157</v>
       </c>
       <c r="EX25" s="9">
-        <f>EW25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1748.5343155122637</v>
       </c>
       <c r="EY25" s="9">
-        <f>EX25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1731.0489723571411</v>
       </c>
       <c r="EZ25" s="9">
-        <f>EY25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1713.7384826335697</v>
       </c>
       <c r="FA25" s="9">
-        <f>EZ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1696.6010978072341</v>
       </c>
       <c r="FB25" s="9">
-        <f>FA25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1679.6350868291618</v>
       </c>
       <c r="FC25" s="9">
-        <f>FB25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1662.8387359608701</v>
       </c>
       <c r="FD25" s="9">
-        <f>FC25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1646.2103486012613</v>
       </c>
       <c r="FE25" s="9">
-        <f>FD25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1629.7482451152487</v>
       </c>
       <c r="FF25" s="9">
-        <f>FE25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1613.4507626640961</v>
       </c>
       <c r="FG25" s="9">
-        <f>FF25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1597.3162550374552</v>
       </c>
       <c r="FH25" s="9">
-        <f>FG25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1581.3430924870806</v>
       </c>
       <c r="FI25" s="9">
-        <f>FH25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1565.5296615622099</v>
       </c>
       <c r="FJ25" s="9">
-        <f>FI25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1549.8743649465878</v>
       </c>
       <c r="FK25" s="9">
-        <f>FJ25*(1+$AQ$32)</f>
+        <f t="shared" si="37"/>
         <v>1534.3756212971218</v>
       </c>
       <c r="FL25" s="9">
-        <f>FK25*(1+$AQ$32)</f>
+        <f t="shared" ref="FL25:HW25" si="38">FK25*(1+$AQ$32)</f>
         <v>1519.0318650841507</v>
       </c>
       <c r="FM25" s="9">
-        <f>FL25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1503.8415464333091</v>
       </c>
       <c r="FN25" s="9">
-        <f>FM25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1488.8031309689759</v>
       </c>
       <c r="FO25" s="9">
-        <f>FN25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1473.9150996592862</v>
       </c>
       <c r="FP25" s="9">
-        <f>FO25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1459.1759486626934</v>
       </c>
       <c r="FQ25" s="9">
-        <f>FP25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1444.5841891760665</v>
       </c>
       <c r="FR25" s="9">
-        <f>FQ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1430.1383472843058</v>
       </c>
       <c r="FS25" s="9">
-        <f>FR25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1415.8369638114627</v>
       </c>
       <c r="FT25" s="9">
-        <f>FS25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1401.6785941733481</v>
       </c>
       <c r="FU25" s="9">
-        <f>FT25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1387.6618082316145</v>
       </c>
       <c r="FV25" s="9">
-        <f>FU25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1373.7851901492984</v>
       </c>
       <c r="FW25" s="9">
-        <f>FV25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1360.0473382478053</v>
       </c>
       <c r="FX25" s="9">
-        <f>FW25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1346.4468648653274</v>
       </c>
       <c r="FY25" s="9">
-        <f>FX25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1332.982396216674</v>
       </c>
       <c r="FZ25" s="9">
-        <f>FY25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1319.6525722545073</v>
       </c>
       <c r="GA25" s="9">
-        <f>FZ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1306.4560465319621</v>
       </c>
       <c r="GB25" s="9">
-        <f>GA25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1293.3914860666425</v>
       </c>
       <c r="GC25" s="9">
-        <f>GB25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1280.4575712059761</v>
       </c>
       <c r="GD25" s="9">
-        <f>GC25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1267.6529954939165</v>
       </c>
       <c r="GE25" s="9">
-        <f>GD25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1254.9764655389772</v>
       </c>
       <c r="GF25" s="9">
-        <f>GE25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1242.4267008835875</v>
       </c>
       <c r="GG25" s="9">
-        <f>GF25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1230.0024338747517</v>
       </c>
       <c r="GH25" s="9">
-        <f>GG25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1217.7024095360041</v>
       </c>
       <c r="GI25" s="9">
-        <f>GH25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1205.525385440644</v>
       </c>
       <c r="GJ25" s="9">
-        <f>GI25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1193.4701315862376</v>
       </c>
       <c r="GK25" s="9">
-        <f>GJ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1181.5354302703752</v>
       </c>
       <c r="GL25" s="9">
-        <f>GK25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1169.7200759676714</v>
       </c>
       <c r="GM25" s="9">
-        <f>GL25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1158.0228752079947</v>
       </c>
       <c r="GN25" s="9">
-        <f>GM25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1146.4426464559149</v>
       </c>
       <c r="GO25" s="9">
-        <f>GN25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1134.9782199913557</v>
       </c>
       <c r="GP25" s="9">
-        <f>GO25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1123.6284377914421</v>
       </c>
       <c r="GQ25" s="9">
-        <f>GP25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1112.3921534135277</v>
       </c>
       <c r="GR25" s="9">
-        <f>GQ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1101.2682318793925</v>
       </c>
       <c r="GS25" s="9">
-        <f>GR25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1090.2555495605986</v>
       </c>
       <c r="GT25" s="9">
-        <f>GS25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1079.3529940649926</v>
       </c>
       <c r="GU25" s="9">
-        <f>GT25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1068.5594641243426</v>
       </c>
       <c r="GV25" s="9">
-        <f>GU25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1057.8738694830993</v>
       </c>
       <c r="GW25" s="9">
-        <f>GV25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1047.2951307882684</v>
       </c>
       <c r="GX25" s="9">
-        <f>GW25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1036.8221794803856</v>
       </c>
       <c r="GY25" s="9">
-        <f>GX25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1026.4539576855816</v>
       </c>
       <c r="GZ25" s="9">
-        <f>GY25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1016.1894181087258</v>
       </c>
       <c r="HA25" s="9">
-        <f>GZ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>1006.0275239276385</v>
       </c>
       <c r="HB25" s="9">
-        <f>HA25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>995.96724868836213</v>
       </c>
       <c r="HC25" s="9">
-        <f>HB25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>986.00757620147851</v>
       </c>
       <c r="HD25" s="9">
-        <f>HC25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>976.14750043946367</v>
       </c>
       <c r="HE25" s="9">
-        <f>HD25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>966.38602543506897</v>
       </c>
       <c r="HF25" s="9">
-        <f>HE25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>956.72216518071832</v>
       </c>
       <c r="HG25" s="9">
-        <f>HF25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>947.15494352891108</v>
       </c>
       <c r="HH25" s="9">
-        <f>HG25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>937.68339409362193</v>
       </c>
       <c r="HI25" s="9">
-        <f>HH25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>928.30656015268573</v>
       </c>
       <c r="HJ25" s="9">
-        <f>HI25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>919.02349455115882</v>
       </c>
       <c r="HK25" s="9">
-        <f>HJ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>909.83325960564719</v>
       </c>
       <c r="HL25" s="9">
-        <f>HK25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>900.73492700959071</v>
       </c>
       <c r="HM25" s="9">
-        <f>HL25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>891.72757773949479</v>
       </c>
       <c r="HN25" s="9">
-        <f>HM25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>882.81030196209986</v>
       </c>
       <c r="HO25" s="9">
-        <f>HN25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>873.98219894247882</v>
       </c>
       <c r="HP25" s="9">
-        <f>HO25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>865.24237695305408</v>
       </c>
       <c r="HQ25" s="9">
-        <f>HP25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>856.58995318352356</v>
       </c>
       <c r="HR25" s="9">
-        <f>HQ25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>848.02405365168829</v>
       </c>
       <c r="HS25" s="9">
-        <f>HR25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>839.54381311517136</v>
       </c>
       <c r="HT25" s="9">
-        <f>HS25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>831.1483749840196</v>
       </c>
       <c r="HU25" s="9">
-        <f>HT25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>822.83689123417935</v>
       </c>
       <c r="HV25" s="9">
-        <f>HU25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>814.60852232183754</v>
       </c>
       <c r="HW25" s="9">
-        <f>HV25*(1+$AQ$32)</f>
+        <f t="shared" si="38"/>
         <v>806.46243709861915</v>
       </c>
       <c r="HX25" s="9">
-        <f>HW25*(1+$AQ$32)</f>
+        <f t="shared" ref="HX25:KI25" si="39">HW25*(1+$AQ$32)</f>
         <v>798.39781272763298</v>
       </c>
       <c r="HY25" s="9">
-        <f>HX25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>790.41383460035661</v>
       </c>
       <c r="HZ25" s="9">
-        <f>HY25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>782.509696254353</v>
       </c>
       <c r="IA25" s="9">
-        <f>HZ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>774.68459929180949</v>
       </c>
       <c r="IB25" s="9">
-        <f>IA25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>766.93775329889138</v>
       </c>
       <c r="IC25" s="9">
-        <f>IB25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>759.26837576590242</v>
       </c>
       <c r="ID25" s="9">
-        <f>IC25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>751.67569200824335</v>
       </c>
       <c r="IE25" s="9">
-        <f>ID25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>744.15893508816089</v>
       </c>
       <c r="IF25" s="9">
-        <f>IE25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>736.71734573727929</v>
       </c>
       <c r="IG25" s="9">
-        <f>IF25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>729.35017227990647</v>
       </c>
       <c r="IH25" s="9">
-        <f>IG25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>722.0566705571074</v>
       </c>
       <c r="II25" s="9">
-        <f>IH25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>714.83610385153634</v>
       </c>
       <c r="IJ25" s="9">
-        <f>II25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>707.68774281302092</v>
       </c>
       <c r="IK25" s="9">
-        <f>IJ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>700.61086538489076</v>
       </c>
       <c r="IL25" s="9">
-        <f>IK25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>693.60475673104179</v>
       </c>
       <c r="IM25" s="9">
-        <f>IL25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>686.66870916373136</v>
       </c>
       <c r="IN25" s="9">
-        <f>IM25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>679.80202207209402</v>
       </c>
       <c r="IO25" s="9">
-        <f>IN25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>673.00400185137312</v>
       </c>
       <c r="IP25" s="9">
-        <f>IO25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>666.27396183285941</v>
       </c>
       <c r="IQ25" s="9">
-        <f>IP25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>659.61122221453081</v>
       </c>
       <c r="IR25" s="9">
-        <f>IQ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>653.01510999238553</v>
       </c>
       <c r="IS25" s="9">
-        <f>IR25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>646.48495889246169</v>
       </c>
       <c r="IT25" s="9">
-        <f>IS25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>640.02010930353708</v>
       </c>
       <c r="IU25" s="9">
-        <f>IT25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>633.61990821050176</v>
       </c>
       <c r="IV25" s="9">
-        <f>IU25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>627.28370912839671</v>
       </c>
       <c r="IW25" s="9">
-        <f>IV25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>621.01087203711279</v>
       </c>
       <c r="IX25" s="9">
-        <f>IW25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>614.80076331674161</v>
       </c>
       <c r="IY25" s="9">
-        <f>IX25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>608.65275568357424</v>
       </c>
       <c r="IZ25" s="9">
-        <f>IY25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>602.56622812673845</v>
       </c>
       <c r="JA25" s="9">
-        <f>IZ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>596.54056584547106</v>
       </c>
       <c r="JB25" s="9">
-        <f>JA25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>590.57516018701631</v>
       </c>
       <c r="JC25" s="9">
-        <f>JB25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>584.66940858514613</v>
       </c>
       <c r="JD25" s="9">
-        <f>JC25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>578.82271449929465</v>
       </c>
       <c r="JE25" s="9">
-        <f>JD25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>573.03448735430175</v>
       </c>
       <c r="JF25" s="9">
-        <f>JE25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>567.30414248075874</v>
       </c>
       <c r="JG25" s="9">
-        <f>JF25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>561.63110105595115</v>
       </c>
       <c r="JH25" s="9">
-        <f>JG25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>556.01479004539158</v>
       </c>
       <c r="JI25" s="9">
-        <f>JH25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>550.45464214493768</v>
       </c>
       <c r="JJ25" s="9">
-        <f>JI25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>544.95009572348829</v>
       </c>
       <c r="JK25" s="9">
-        <f>JJ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>539.50059476625336</v>
       </c>
       <c r="JL25" s="9">
-        <f>JK25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>534.10558881859083</v>
       </c>
       <c r="JM25" s="9">
-        <f>JL25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>528.76453293040493</v>
       </c>
       <c r="JN25" s="9">
-        <f>JM25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>523.47688760110088</v>
       </c>
       <c r="JO25" s="9">
-        <f>JN25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>518.24211872508988</v>
       </c>
       <c r="JP25" s="9">
-        <f>JO25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>513.05969753783893</v>
       </c>
       <c r="JQ25" s="9">
-        <f>JP25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>507.92910056246052</v>
       </c>
       <c r="JR25" s="9">
-        <f>JQ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>502.84980955683591</v>
       </c>
       <c r="JS25" s="9">
-        <f>JR25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>497.82131146126756</v>
       </c>
       <c r="JT25" s="9">
-        <f>JS25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>492.84309834665487</v>
       </c>
       <c r="JU25" s="9">
-        <f>JT25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>487.9146673631883</v>
       </c>
       <c r="JV25" s="9">
-        <f>JU25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>483.03552068955639</v>
       </c>
       <c r="JW25" s="9">
-        <f>JV25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>478.20516548266085</v>
       </c>
       <c r="JX25" s="9">
-        <f>JW25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>473.42311382783424</v>
       </c>
       <c r="JY25" s="9">
-        <f>JX25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>468.6888826895559</v>
       </c>
       <c r="JZ25" s="9">
-        <f>JY25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>464.00199386266036</v>
       </c>
       <c r="KA25" s="9">
-        <f>JZ25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>459.36197392403375</v>
       </c>
       <c r="KB25" s="9">
-        <f>KA25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>454.7683541847934</v>
       </c>
       <c r="KC25" s="9">
-        <f>KB25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>450.22067064294544</v>
       </c>
       <c r="KD25" s="9">
-        <f>KC25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>445.718463936516</v>
       </c>
       <c r="KE25" s="9">
-        <f>KD25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>441.26127929715085</v>
       </c>
       <c r="KF25" s="9">
-        <f>KE25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>436.84866650417933</v>
       </c>
       <c r="KG25" s="9">
-        <f>KF25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>432.48017983913752</v>
       </c>
       <c r="KH25" s="9">
-        <f>KG25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>428.15537804074614</v>
       </c>
       <c r="KI25" s="9">
-        <f>KH25*(1+$AQ$32)</f>
+        <f t="shared" si="39"/>
         <v>423.87382426033867</v>
       </c>
       <c r="KJ25" s="9">
-        <f>KI25*(1+$AQ$32)</f>
+        <f t="shared" ref="KJ25:MU25" si="40">KI25*(1+$AQ$32)</f>
         <v>419.63508601773526</v>
       </c>
       <c r="KK25" s="9">
-        <f>KJ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>415.43873515755791</v>
       </c>
       <c r="KL25" s="9">
-        <f>KK25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>411.28434780598235</v>
       </c>
       <c r="KM25" s="9">
-        <f>KL25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>407.17150432792255</v>
       </c>
       <c r="KN25" s="9">
-        <f>KM25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>403.09978928464329</v>
       </c>
       <c r="KO25" s="9">
-        <f>KN25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>399.06879139179688</v>
       </c>
       <c r="KP25" s="9">
-        <f>KO25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>395.07810347787893</v>
       </c>
       <c r="KQ25" s="9">
-        <f>KP25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>391.12732244310013</v>
       </c>
       <c r="KR25" s="9">
-        <f>KQ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>387.21604921866913</v>
       </c>
       <c r="KS25" s="9">
-        <f>KR25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>383.34388872648242</v>
       </c>
       <c r="KT25" s="9">
-        <f>KS25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>379.51044983921759</v>
       </c>
       <c r="KU25" s="9">
-        <f>KT25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>375.71534534082542</v>
       </c>
       <c r="KV25" s="9">
-        <f>KU25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>371.95819188741717</v>
       </c>
       <c r="KW25" s="9">
-        <f>KV25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>368.23860996854302</v>
       </c>
       <c r="KX25" s="9">
-        <f>KW25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>364.55622386885756</v>
       </c>
       <c r="KY25" s="9">
-        <f>KX25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>360.91066163016899</v>
       </c>
       <c r="KZ25" s="9">
-        <f>KY25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>357.3015550138673</v>
       </c>
       <c r="LA25" s="9">
-        <f>KZ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>353.72853946372862</v>
       </c>
       <c r="LB25" s="9">
-        <f>LA25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>350.19125406909131</v>
       </c>
       <c r="LC25" s="9">
-        <f>LB25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>346.6893415284004</v>
       </c>
       <c r="LD25" s="9">
-        <f>LC25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>343.2224481131164</v>
       </c>
       <c r="LE25" s="9">
-        <f>LD25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>339.79022363198521</v>
       </c>
       <c r="LF25" s="9">
-        <f>LE25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>336.39232139566536</v>
       </c>
       <c r="LG25" s="9">
-        <f>LF25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>333.02839818170872</v>
       </c>
       <c r="LH25" s="9">
-        <f>LG25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>329.69811419989162</v>
       </c>
       <c r="LI25" s="9">
-        <f>LH25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>326.40113305789271</v>
       </c>
       <c r="LJ25" s="9">
-        <f>LI25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>323.1371217273138</v>
       </c>
       <c r="LK25" s="9">
-        <f>LJ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>319.90575051004066</v>
       </c>
       <c r="LL25" s="9">
-        <f>LK25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>316.70669300494023</v>
       </c>
       <c r="LM25" s="9">
-        <f>LL25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>313.5396260748908</v>
       </c>
       <c r="LN25" s="9">
-        <f>LM25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>310.4042298141419</v>
       </c>
       <c r="LO25" s="9">
-        <f>LN25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>307.30018751600051</v>
       </c>
       <c r="LP25" s="9">
-        <f>LO25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>304.2271856408405</v>
       </c>
       <c r="LQ25" s="9">
-        <f>LP25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>301.18491378443207</v>
       </c>
       <c r="LR25" s="9">
-        <f>LQ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>298.17306464658776</v>
       </c>
       <c r="LS25" s="9">
-        <f>LR25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>295.19133400012186</v>
       </c>
       <c r="LT25" s="9">
-        <f>LS25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>292.23942066012063</v>
       </c>
       <c r="LU25" s="9">
-        <f>LT25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>289.31702645351942</v>
       </c>
       <c r="LV25" s="9">
-        <f>LU25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>286.42385618898425</v>
       </c>
       <c r="LW25" s="9">
-        <f>LV25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>283.55961762709438</v>
       </c>
       <c r="LX25" s="9">
-        <f>LW25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>280.72402145082344</v>
       </c>
       <c r="LY25" s="9">
-        <f>LX25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>277.91678123631522</v>
       </c>
       <c r="LZ25" s="9">
-        <f>LY25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>275.13761342395208</v>
       </c>
       <c r="MA25" s="9">
-        <f>LZ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>272.38623728971254</v>
       </c>
       <c r="MB25" s="9">
-        <f>MA25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>269.66237491681539</v>
       </c>
       <c r="MC25" s="9">
-        <f>MB25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>266.96575116764723</v>
       </c>
       <c r="MD25" s="9">
-        <f>MC25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>264.29609365597076</v>
       </c>
       <c r="ME25" s="9">
-        <f>MD25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>261.65313271941108</v>
       </c>
       <c r="MF25" s="9">
-        <f>ME25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>259.03660139221694</v>
       </c>
       <c r="MG25" s="9">
-        <f>MF25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>256.44623537829477</v>
       </c>
       <c r="MH25" s="9">
-        <f>MG25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>253.88177302451183</v>
       </c>
       <c r="MI25" s="9">
-        <f>MH25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>251.34295529426672</v>
       </c>
       <c r="MJ25" s="9">
-        <f>MI25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>248.82952574132403</v>
       </c>
       <c r="MK25" s="9">
-        <f>MJ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>246.34123048391078</v>
       </c>
       <c r="ML25" s="9">
-        <f>MK25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>243.87781817907168</v>
       </c>
       <c r="MM25" s="9">
-        <f>ML25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>241.43903999728096</v>
       </c>
       <c r="MN25" s="9">
-        <f>MM25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>239.02464959730816</v>
       </c>
       <c r="MO25" s="9">
-        <f>MN25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>236.63440310133507</v>
       </c>
       <c r="MP25" s="9">
-        <f>MO25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>234.26805907032173</v>
       </c>
       <c r="MQ25" s="9">
-        <f>MP25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>231.9253784796185</v>
       </c>
       <c r="MR25" s="9">
-        <f>MQ25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>229.60612469482231</v>
       </c>
       <c r="MS25" s="9">
-        <f>MR25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>227.31006344787409</v>
       </c>
       <c r="MT25" s="9">
-        <f>MS25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>225.03696281339535</v>
       </c>
       <c r="MU25" s="9">
-        <f>MT25*(1+$AQ$32)</f>
+        <f t="shared" si="40"/>
         <v>222.78659318526138</v>
       </c>
       <c r="MV25" s="9">
-        <f>MU25*(1+$AQ$32)</f>
+        <f t="shared" ref="MV25:PH25" si="41">MU25*(1+$AQ$32)</f>
         <v>220.55872725340876</v>
       </c>
       <c r="MW25" s="9">
-        <f>MV25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>218.35313998087466</v>
       </c>
       <c r="MX25" s="9">
-        <f>MW25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>216.16960858106592</v>
       </c>
       <c r="MY25" s="9">
-        <f>MX25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>214.00791249525525</v>
       </c>
       <c r="MZ25" s="9">
-        <f>MY25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>211.86783337030269</v>
       </c>
       <c r="NA25" s="9">
-        <f>MZ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>209.74915503659966</v>
       </c>
       <c r="NB25" s="9">
-        <f>NA25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>207.65166348623367</v>
       </c>
       <c r="NC25" s="9">
-        <f>NB25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>205.57514685137133</v>
       </c>
       <c r="ND25" s="9">
-        <f>NC25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>203.51939538285762</v>
       </c>
       <c r="NE25" s="9">
-        <f>ND25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>201.48420142902904</v>
       </c>
       <c r="NF25" s="9">
-        <f>NE25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>199.46935941473876</v>
       </c>
       <c r="NG25" s="9">
-        <f>NF25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>197.47466582059138</v>
       </c>
       <c r="NH25" s="9">
-        <f>NG25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>195.49991916238548</v>
       </c>
       <c r="NI25" s="9">
-        <f>NH25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>193.54491997076161</v>
       </c>
       <c r="NJ25" s="9">
-        <f>NI25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>191.60947077105399</v>
       </c>
       <c r="NK25" s="9">
-        <f>NJ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>189.69337606334346</v>
       </c>
       <c r="NL25" s="9">
-        <f>NK25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>187.79644230271003</v>
       </c>
       <c r="NM25" s="9">
-        <f>NL25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>185.91847787968294</v>
       </c>
       <c r="NN25" s="9">
-        <f>NM25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>184.05929310088609</v>
       </c>
       <c r="NO25" s="9">
-        <f>NN25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>182.21870016987722</v>
       </c>
       <c r="NP25" s="9">
-        <f>NO25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>180.39651316817844</v>
       </c>
       <c r="NQ25" s="9">
-        <f>NP25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>178.59254803649665</v>
       </c>
       <c r="NR25" s="9">
-        <f>NQ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>176.80662255613169</v>
       </c>
       <c r="NS25" s="9">
-        <f>NR25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>175.03855633057037</v>
       </c>
       <c r="NT25" s="9">
-        <f>NS25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>173.28817076726466</v>
       </c>
       <c r="NU25" s="9">
-        <f>NT25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>171.55528905959201</v>
       </c>
       <c r="NV25" s="9">
-        <f>NU25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>169.8397361689961</v>
       </c>
       <c r="NW25" s="9">
-        <f>NV25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>168.14133880730614</v>
       </c>
       <c r="NX25" s="9">
-        <f>NW25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>166.45992541923309</v>
       </c>
       <c r="NY25" s="9">
-        <f>NX25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>164.79532616504076</v>
       </c>
       <c r="NZ25" s="9">
-        <f>NY25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>163.14737290339036</v>
       </c>
       <c r="OA25" s="9">
-        <f>NZ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>161.51589917435646</v>
       </c>
       <c r="OB25" s="9">
-        <f>OA25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>159.90074018261291</v>
       </c>
       <c r="OC25" s="9">
-        <f>OB25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>158.30173278078678</v>
       </c>
       <c r="OD25" s="9">
-        <f>OC25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>156.7187154529789</v>
       </c>
       <c r="OE25" s="9">
-        <f>OD25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>155.15152829844911</v>
       </c>
       <c r="OF25" s="9">
-        <f>OE25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>153.60001301546461</v>
       </c>
       <c r="OG25" s="9">
-        <f>OF25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>152.06401288530998</v>
       </c>
       <c r="OH25" s="9">
-        <f>OG25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>150.54337275645688</v>
       </c>
       <c r="OI25" s="9">
-        <f>OH25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>149.03793902889231</v>
       </c>
       <c r="OJ25" s="9">
-        <f>OI25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>147.54755963860339</v>
       </c>
       <c r="OK25" s="9">
-        <f>OJ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>146.07208404221734</v>
       </c>
       <c r="OL25" s="9">
-        <f>OK25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>144.61136320179517</v>
       </c>
       <c r="OM25" s="9">
-        <f>OL25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>143.16524956977722</v>
       </c>
       <c r="ON25" s="9">
-        <f>OM25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>141.73359707407946</v>
       </c>
       <c r="OO25" s="9">
-        <f>ON25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>140.31626110333866</v>
       </c>
       <c r="OP25" s="9">
-        <f>OO25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>138.91309849230527</v>
       </c>
       <c r="OQ25" s="9">
-        <f>OP25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>137.52396750738222</v>
       </c>
       <c r="OR25" s="9">
-        <f>OQ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>136.1487278323084</v>
       </c>
       <c r="OS25" s="9">
-        <f>OR25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>134.7872405539853</v>
       </c>
       <c r="OT25" s="9">
-        <f>OS25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>133.43936814844545</v>
       </c>
       <c r="OU25" s="9">
-        <f>OT25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>132.10497446696101</v>
       </c>
       <c r="OV25" s="9">
-        <f>OU25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>130.7839247222914</v>
       </c>
       <c r="OW25" s="9">
-        <f>OV25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>129.47608547506849</v>
       </c>
       <c r="OX25" s="9">
-        <f>OW25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>128.18132462031781</v>
       </c>
       <c r="OY25" s="9">
-        <f>OX25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>126.89951137411462</v>
       </c>
       <c r="OZ25" s="9">
-        <f>OY25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>125.63051626037348</v>
       </c>
       <c r="PA25" s="9">
-        <f>OZ25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>124.37421109776975</v>
       </c>
       <c r="PB25" s="9">
-        <f>PA25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>123.13046898679205</v>
       </c>
       <c r="PC25" s="9">
-        <f>PB25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>121.89916429692413</v>
       </c>
       <c r="PD25" s="9">
-        <f>PC25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>120.68017265395488</v>
       </c>
       <c r="PE25" s="9">
-        <f>PD25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>119.47337092741533</v>
       </c>
       <c r="PF25" s="9">
-        <f>PE25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>118.27863721814117</v>
       </c>
       <c r="PG25" s="9">
-        <f>PF25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>117.09585084595976</v>
       </c>
       <c r="PH25" s="9">
-        <f>PG25*(1+$AQ$32)</f>
+        <f t="shared" si="41"/>
         <v>115.92489233750015</v>
       </c>
     </row>
@@ -6002,15 +6009,15 @@
         <v>451.76400000000001</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AM26" si="36">AJ26*0.98</f>
+        <f t="shared" ref="AK26:AM26" si="42">AJ26*0.98</f>
         <v>442.72872000000001</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>433.87414560000002</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>425.196662688</v>
       </c>
     </row>
@@ -6019,152 +6026,152 @@
         <v>32</v>
       </c>
       <c r="C27" s="10">
-        <f>C25/C26</f>
+        <f t="shared" ref="C27:Z27" si="43">C25/C26</f>
         <v>2.6296829971181555</v>
       </c>
       <c r="D27" s="10">
-        <f>D25/D26</f>
+        <f t="shared" si="43"/>
         <v>2.5203841275593404</v>
       </c>
       <c r="E27" s="10">
-        <f>E25/E26</f>
+        <f t="shared" si="43"/>
         <v>2.3015148749771859</v>
       </c>
       <c r="F27" s="10">
-        <f>F25/F26</f>
+        <f t="shared" si="43"/>
         <v>12.819197655248214</v>
       </c>
       <c r="G27" s="10">
-        <f>G25/G26</f>
+        <f t="shared" si="43"/>
         <v>2.3807763401109057</v>
       </c>
       <c r="H27" s="10">
-        <f>H25/H26</f>
+        <f t="shared" si="43"/>
         <v>2.4948722729815405</v>
       </c>
       <c r="I27" s="10">
-        <f>I25/I26</f>
+        <f t="shared" si="43"/>
         <v>2.1686746987951806</v>
       </c>
       <c r="J27" s="10">
-        <f>J25/J26</f>
+        <f t="shared" si="43"/>
         <v>2.6397100896433341</v>
       </c>
       <c r="K27" s="10">
-        <f>K25/K26</f>
+        <f t="shared" si="43"/>
         <v>2.6487006737247354</v>
       </c>
       <c r="L27" s="10">
-        <f>L25/L26</f>
+        <f t="shared" si="43"/>
         <v>2.9044758767680681</v>
       </c>
       <c r="M27" s="10">
-        <f>M25/M26</f>
+        <f t="shared" si="43"/>
         <v>2.5038850038850042</v>
       </c>
       <c r="N27" s="10">
-        <f>N25/N26</f>
+        <f t="shared" si="43"/>
         <v>2.8794686462199648</v>
       </c>
       <c r="O27" s="10">
-        <f>O25/O26</f>
+        <f t="shared" si="43"/>
         <v>1.7022538552787663</v>
       </c>
       <c r="P27" s="10">
-        <f>P25/P26</f>
+        <f t="shared" si="43"/>
         <v>4.4250594766058686</v>
       </c>
       <c r="Q27" s="10">
-        <f>Q25/Q26</f>
+        <f t="shared" si="43"/>
         <v>3.0767708745548084</v>
       </c>
       <c r="R27" s="10">
-        <f>R25/R26</f>
+        <f t="shared" si="43"/>
         <v>3.8537549407114624</v>
       </c>
       <c r="S27" s="10">
-        <f>S25/S26</f>
+        <f t="shared" si="43"/>
         <v>5.3535955502582437</v>
       </c>
       <c r="T27" s="10">
-        <f>T25/T26</f>
+        <f t="shared" si="43"/>
         <v>4.7859296482412059</v>
       </c>
       <c r="U27" s="10">
-        <f>U25/U26</f>
+        <f t="shared" si="43"/>
         <v>4.2194523906824681</v>
       </c>
       <c r="V27" s="10">
-        <f>V25/V26</f>
+        <f t="shared" si="43"/>
         <v>4.4714939658759878</v>
       </c>
       <c r="W27" s="10">
-        <f>W25/W26</f>
+        <f t="shared" si="43"/>
         <v>3.4416417272338604</v>
       </c>
       <c r="X27" s="10">
-        <f>X25/X26</f>
+        <f t="shared" si="43"/>
         <v>2.307872126590397</v>
       </c>
       <c r="Y27" s="10">
-        <f>Y25/Y26</f>
+        <f t="shared" si="43"/>
         <v>2.9367069098940122</v>
       </c>
       <c r="Z27" s="10">
-        <f>Z25/Z26</f>
+        <f t="shared" si="43"/>
         <v>4.3860745876165455</v>
       </c>
       <c r="AE27" s="10">
-        <f>AE25/AE26</f>
+        <f t="shared" ref="AE27:AM27" si="44">AE25/AE26</f>
         <v>20.351712767906211</v>
       </c>
       <c r="AF27" s="10">
-        <f>AF25/AF26</f>
+        <f t="shared" si="44"/>
         <v>9.8455082967766554</v>
       </c>
       <c r="AG27" s="10">
-        <f>AG25/AG26</f>
+        <f t="shared" si="44"/>
         <v>11.013869896464154</v>
       </c>
       <c r="AH27" s="10">
-        <f>AH25/AH26</f>
+        <f t="shared" si="44"/>
         <v>13.039525691699605</v>
       </c>
       <c r="AI27" s="10">
-        <f>AI25/AI26</f>
+        <f t="shared" si="44"/>
         <v>19.330004161464835</v>
       </c>
       <c r="AJ27" s="10">
-        <f>AJ25/AJ26</f>
+        <f t="shared" si="44"/>
         <v>13.329388574565485</v>
       </c>
       <c r="AK27" s="10">
-        <f>AK25/AK26</f>
+        <f t="shared" si="44"/>
         <v>11.788164517540235</v>
       </c>
       <c r="AL27" s="10">
-        <f>AL25/AL26</f>
+        <f t="shared" si="44"/>
         <v>12.409450658956256</v>
       </c>
       <c r="AM27" s="10">
-        <f>AM25/AM26</f>
+        <f t="shared" si="44"/>
         <v>13.062819745083473</v>
       </c>
     </row>
     <row r="29" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:424" x14ac:dyDescent="0.2">
       <c r="AP31" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:424" x14ac:dyDescent="0.2">
@@ -6172,116 +6179,116 @@
         <v>49</v>
       </c>
       <c r="G32" s="4">
-        <f>G15/C15-1</f>
+        <f t="shared" ref="G32:P33" si="45">G15/C15-1</f>
         <v>3.4395611169327545E-2</v>
       </c>
       <c r="H32" s="4">
-        <f>H15/D15-1</f>
+        <f t="shared" si="45"/>
         <v>6.8654562943369024E-2</v>
       </c>
       <c r="I32" s="4">
-        <f>I15/E15-1</f>
+        <f t="shared" si="45"/>
         <v>5.6121844257437381E-2</v>
       </c>
       <c r="J32" s="4">
-        <f>J15/F15-1</f>
+        <f t="shared" si="45"/>
         <v>-2.1755210372886857E-4</v>
       </c>
       <c r="K32" s="4">
-        <f>K15/G15-1</f>
+        <f t="shared" si="45"/>
         <v>5.0414158870150771E-2</v>
       </c>
       <c r="L32" s="4">
-        <f>L15/H15-1</f>
+        <f t="shared" si="45"/>
         <v>3.6341134113411444E-2</v>
       </c>
       <c r="M32" s="4">
-        <f>M15/I15-1</f>
+        <f t="shared" si="45"/>
         <v>4.7359856349250773E-2</v>
       </c>
       <c r="N32" s="4">
-        <f>N15/J15-1</f>
+        <f t="shared" si="45"/>
         <v>1.8278353207415776E-2</v>
       </c>
       <c r="O32" s="4">
-        <f>O15/K15-1</f>
+        <f t="shared" si="45"/>
         <v>0.11278152833721</v>
       </c>
       <c r="P32" s="4">
-        <f>P15/L15-1</f>
+        <f t="shared" si="45"/>
         <v>0.247150146563891</v>
       </c>
       <c r="Q32" s="4">
-        <f>Q15/M15-1</f>
+        <f t="shared" ref="Q32:Z33" si="46">Q15/M15-1</f>
         <v>0.21253683364586129</v>
       </c>
       <c r="R32" s="4">
-        <f>R15/N15-1</f>
+        <f t="shared" si="46"/>
         <v>0.21117189503376355</v>
       </c>
       <c r="S32" s="4">
-        <f>S15/O15-1</f>
+        <f t="shared" si="46"/>
         <v>0.23359673719092533</v>
       </c>
       <c r="T32" s="4">
-        <f>T15/P15-1</f>
+        <f t="shared" si="46"/>
         <v>9.5103373231773647E-2</v>
       </c>
       <c r="U32" s="4">
-        <f>U15/Q15-1</f>
+        <f t="shared" si="46"/>
         <v>0.13343937787203952</v>
       </c>
       <c r="V32" s="4">
-        <f>V15/R15-1</f>
+        <f t="shared" si="46"/>
         <v>9.3757719044426313E-2</v>
       </c>
       <c r="W32" s="4">
-        <f>W15/S15-1</f>
+        <f t="shared" si="46"/>
         <v>4.0211596478902267E-2</v>
       </c>
       <c r="X32" s="4">
-        <f>X15/T15-1</f>
+        <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y32" s="4">
-        <f>Y15/U15-1</f>
+        <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Z32" s="4">
-        <f>Z15/V15-1</f>
+        <f t="shared" si="46"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4">
-        <f>AF15/AE15-1</f>
+        <f t="shared" ref="AF32:AM33" si="47">AF15/AE15-1</f>
         <v>3.6334130978903589E-2</v>
       </c>
       <c r="AG32" s="4">
-        <f>AG15/AF15-1</f>
+        <f t="shared" si="47"/>
         <v>3.6573066510961372E-2</v>
       </c>
       <c r="AH32" s="4">
-        <f>AH15/AG15-1</f>
+        <f t="shared" si="47"/>
         <v>0.19778011061040557</v>
       </c>
       <c r="AI32" s="4">
-        <f>AI15/AH15-1</f>
+        <f t="shared" si="47"/>
         <v>0.13300413633885921</v>
       </c>
       <c r="AJ32" s="4">
-        <f>AJ15/AI15-1</f>
+        <f t="shared" si="47"/>
         <v>4.0048299608509197E-2</v>
       </c>
       <c r="AK32" s="4">
-        <f>AK15/AJ15-1</f>
+        <f t="shared" si="47"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AL32" s="4">
-        <f>AL15/AK15-1</f>
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM32" s="4">
-        <f>AM15/AL15-1</f>
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP32" s="1" t="s">
@@ -6307,115 +6314,115 @@
         <v>50</v>
       </c>
       <c r="G33" s="4">
-        <f>G16/C16-1</f>
+        <f t="shared" si="45"/>
         <v>4.409915573917722E-2</v>
       </c>
       <c r="H33" s="4">
-        <f>H16/D16-1</f>
+        <f t="shared" si="45"/>
         <v>7.1810140993081806E-2</v>
       </c>
       <c r="I33" s="4">
-        <f>I16/E16-1</f>
+        <f t="shared" si="45"/>
         <v>7.026980874316946E-2</v>
       </c>
       <c r="J33" s="4">
-        <f>J16/F16-1</f>
+        <f t="shared" si="45"/>
         <v>0.44284128745837958</v>
       </c>
       <c r="K33" s="4">
-        <f>K16/G16-1</f>
+        <f t="shared" si="45"/>
         <v>5.359139784946243E-2</v>
       </c>
       <c r="L33" s="4">
-        <f>L16/H16-1</f>
+        <f t="shared" si="45"/>
         <v>3.1538524389247424E-2</v>
       </c>
       <c r="M33" s="4">
-        <f>M16/I16-1</f>
+        <f t="shared" si="45"/>
         <v>3.1910650179497457E-2</v>
       </c>
       <c r="N33" s="4">
-        <f>N16/J16-1</f>
+        <f t="shared" si="45"/>
         <v>9.2307692307691536E-3</v>
       </c>
       <c r="O33" s="4">
-        <f>O16/K16-1</f>
+        <f t="shared" si="45"/>
         <v>0.18468321358589157</v>
       </c>
       <c r="P33" s="4">
-        <f>P16/L16-1</f>
+        <f t="shared" si="45"/>
         <v>0.24142574257425742</v>
       </c>
       <c r="Q33" s="4">
-        <f>Q16/M16-1</f>
+        <f t="shared" si="46"/>
         <v>0.19899497487437179</v>
       </c>
       <c r="R33" s="4">
-        <f>R16/N16-1</f>
+        <f t="shared" si="46"/>
         <v>0.20104362101313322</v>
       </c>
       <c r="S33" s="4">
-        <f>S16/O16-1</f>
+        <f t="shared" si="46"/>
         <v>0.15203308063404553</v>
       </c>
       <c r="T33" s="4">
-        <f>T16/P16-1</f>
+        <f t="shared" si="46"/>
         <v>0.1025330185669624</v>
       </c>
       <c r="U33" s="4">
-        <f>U16/Q16-1</f>
+        <f t="shared" si="46"/>
         <v>0.17389902637178412</v>
       </c>
       <c r="V33" s="4">
-        <f>V16/R16-1</f>
+        <f t="shared" si="46"/>
         <v>0.1111056870881133</v>
       </c>
       <c r="W33" s="4">
-        <f>W16/S16-1</f>
+        <f t="shared" si="46"/>
         <v>0.10439100263220857</v>
       </c>
       <c r="X33" s="4">
-        <f>X16/T16-1</f>
+        <f t="shared" si="46"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="Y33" s="4">
-        <f>Y16/U16-1</f>
+        <f t="shared" si="46"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Z33" s="4">
-        <f>Z16/V16-1</f>
+        <f t="shared" si="46"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AF33" s="4">
-        <f>AF16/AE16-1</f>
+        <f t="shared" si="47"/>
         <v>0.15922832659097819</v>
       </c>
       <c r="AG33" s="4">
-        <f>AG16/AF16-1</f>
+        <f t="shared" si="47"/>
         <v>2.9362652207358453E-2</v>
       </c>
       <c r="AH33" s="4">
-        <f>AH16/AG16-1</f>
+        <f t="shared" si="47"/>
         <v>0.20620078740157477</v>
       </c>
       <c r="AI33" s="4">
-        <f>AI16/AH16-1</f>
+        <f t="shared" si="47"/>
         <v>0.13276516010094142</v>
       </c>
       <c r="AJ33" s="4">
-        <f>AJ16/AI16-1</f>
+        <f t="shared" si="47"/>
         <v>8.5550604965116239E-2</v>
       </c>
       <c r="AK33" s="4">
-        <f>AK16/AJ16-1</f>
+        <f t="shared" si="47"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AL33" s="4">
-        <f>AL16/AK16-1</f>
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM33" s="4">
-        <f>AM16/AL16-1</f>
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP33" s="1" t="s">
@@ -6442,115 +6449,115 @@
         <v>51</v>
       </c>
       <c r="G34" s="4">
-        <f>G18/C18-1</f>
+        <f t="shared" ref="G34:Z34" si="48">G18/C18-1</f>
         <v>0.13186462324393355</v>
       </c>
       <c r="H34" s="4">
-        <f>H18/D18-1</f>
+        <f t="shared" si="48"/>
         <v>0.14281490242460082</v>
       </c>
       <c r="I34" s="4">
-        <f>I18/E18-1</f>
+        <f t="shared" si="48"/>
         <v>0.12101366742596809</v>
       </c>
       <c r="J34" s="4">
-        <f>J18/F18-1</f>
+        <f t="shared" si="48"/>
         <v>3.6721156124141174E-2</v>
       </c>
       <c r="K34" s="4">
-        <f>K18/G18-1</f>
+        <f t="shared" si="48"/>
         <v>3.328631875881527E-2</v>
       </c>
       <c r="L34" s="4">
-        <f>L18/H18-1</f>
+        <f t="shared" si="48"/>
         <v>1.2160413971539441E-2</v>
       </c>
       <c r="M34" s="4">
-        <f>M18/I18-1</f>
+        <f t="shared" si="48"/>
         <v>5.4864109728219423E-2</v>
       </c>
       <c r="N34" s="4">
-        <f>N18/J18-1</f>
+        <f t="shared" si="48"/>
         <v>2.9250457038391131E-2</v>
       </c>
       <c r="O34" s="4">
-        <f>O18/K18-1</f>
+        <f t="shared" si="48"/>
         <v>0.10838110838110837</v>
       </c>
       <c r="P34" s="4">
-        <f>P18/L18-1</f>
+        <f t="shared" si="48"/>
         <v>0.14008179959100198</v>
       </c>
       <c r="Q34" s="4">
-        <f>Q18/M18-1</f>
+        <f t="shared" si="48"/>
         <v>0.11895015651336394</v>
       </c>
       <c r="R34" s="4">
-        <f>R18/N18-1</f>
+        <f t="shared" si="48"/>
         <v>0.20959147424511548</v>
       </c>
       <c r="S34" s="4">
-        <f>S18/O18-1</f>
+        <f t="shared" si="48"/>
         <v>0.11059113300492607</v>
       </c>
       <c r="T34" s="4">
-        <f>T18/P18-1</f>
+        <f t="shared" si="48"/>
         <v>8.7219730941703988E-2</v>
       </c>
       <c r="U34" s="4">
-        <f>U18/Q18-1</f>
+        <f t="shared" si="48"/>
         <v>4.5620830643425814E-2</v>
       </c>
       <c r="V34" s="4">
-        <f>V18/R18-1</f>
+        <f t="shared" si="48"/>
         <v>1.5969162995594699E-2</v>
       </c>
       <c r="W34" s="4">
-        <f>W18/S18-1</f>
+        <f t="shared" si="48"/>
         <v>5.6110002217786725E-2</v>
       </c>
       <c r="X34" s="4">
-        <f>X18/T18-1</f>
+        <f t="shared" si="48"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="Y34" s="4">
-        <f>Y18/U18-1</f>
+        <f t="shared" si="48"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Z34" s="4">
-        <f>Z18/V18-1</f>
+        <f t="shared" si="48"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AF34" s="4">
-        <f>AF18/AE18-1</f>
+        <f t="shared" ref="AF34:AM34" si="49">AF18/AE18-1</f>
         <v>0.10360075805432722</v>
       </c>
       <c r="AG34" s="4">
-        <f>AG18/AF18-1</f>
+        <f t="shared" si="49"/>
         <v>3.237295681485719E-2</v>
       </c>
       <c r="AH34" s="4">
-        <f>AH18/AG18-1</f>
+        <f t="shared" si="49"/>
         <v>0.14680877279448001</v>
       </c>
       <c r="AI34" s="4">
-        <f>AI18/AH18-1</f>
+        <f t="shared" si="49"/>
         <v>6.1079774375503604E-2</v>
       </c>
       <c r="AJ34" s="4">
-        <f>AJ18/AI18-1</f>
+        <f t="shared" si="49"/>
         <v>7.3504455245038569E-2</v>
       </c>
       <c r="AK34" s="4">
-        <f>AK18/AJ18-1</f>
+        <f t="shared" si="49"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AL34" s="4">
-        <f>AL18/AK18-1</f>
+        <f t="shared" si="49"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM34" s="4">
-        <f>AM18/AL18-1</f>
+        <f t="shared" si="49"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP34" s="1" t="s">
@@ -6577,115 +6584,115 @@
         <v>52</v>
       </c>
       <c r="G35" s="4">
-        <f>G25/C25-1</f>
+        <f t="shared" ref="G35:Z35" si="50">G25/C25-1</f>
         <v>-0.11780821917808215</v>
       </c>
       <c r="H35" s="4">
-        <f>H25/D25-1</f>
+        <f t="shared" si="50"/>
         <v>-3.8102084831056815E-2</v>
       </c>
       <c r="I35" s="4">
-        <f>I25/E25-1</f>
+        <f t="shared" si="50"/>
         <v>-8.64393338620143E-2</v>
       </c>
       <c r="J35" s="4">
-        <f>J25/F25-1</f>
+        <f t="shared" si="50"/>
         <v>-0.80222920834524147</v>
       </c>
       <c r="K35" s="4">
-        <f>K25/G25-1</f>
+        <f t="shared" si="50"/>
         <v>6.8322981366459645E-2</v>
       </c>
       <c r="L35" s="4">
-        <f>L25/H25-1</f>
+        <f t="shared" si="50"/>
         <v>0.12032884902840069</v>
       </c>
       <c r="M35" s="4">
-        <f>M25/I25-1</f>
+        <f t="shared" si="50"/>
         <v>0.11892361111111116</v>
       </c>
       <c r="N35" s="4">
-        <f>N25/J25-1</f>
+        <f t="shared" si="50"/>
         <v>6.5028901734104139E-2</v>
       </c>
       <c r="O35" s="4">
-        <f>O25/K25-1</f>
+        <f t="shared" si="50"/>
         <v>-0.37427325581395354</v>
       </c>
       <c r="P35" s="4">
-        <f>P25/L25-1</f>
+        <f t="shared" si="50"/>
         <v>0.48899266177451639</v>
       </c>
       <c r="Q35" s="4">
-        <f>Q25/M25-1</f>
+        <f t="shared" si="50"/>
         <v>0.20636152055857249</v>
       </c>
       <c r="R35" s="4">
-        <f>R25/N25-1</f>
+        <f t="shared" si="50"/>
         <v>0.32293080054274093</v>
       </c>
       <c r="S35" s="4">
-        <f>S25/O25-1</f>
+        <f t="shared" si="50"/>
         <v>2.1300813008130079</v>
       </c>
       <c r="T35" s="4">
-        <f>T25/P25-1</f>
+        <f t="shared" si="50"/>
         <v>6.6756272401433669E-2</v>
       </c>
       <c r="U35" s="4">
-        <f>U25/Q25-1</f>
+        <f t="shared" si="50"/>
         <v>0.32797427652733124</v>
       </c>
       <c r="V35" s="4">
-        <f>V25/R25-1</f>
+        <f t="shared" si="50"/>
         <v>0.102051282051282</v>
       </c>
       <c r="W35" s="4">
-        <f>W25/S25-1</f>
+        <f t="shared" si="50"/>
         <v>-0.40259740259740262</v>
       </c>
       <c r="X35" s="4">
-        <f>X25/T25-1</f>
+        <f t="shared" si="50"/>
         <v>-0.54671297774044558</v>
       </c>
       <c r="Y35" s="4">
-        <f>Y25/U25-1</f>
+        <f t="shared" si="50"/>
         <v>-0.34576711864406706</v>
       </c>
       <c r="Z35" s="4">
-        <f>Z25/V25-1</f>
+        <f t="shared" si="50"/>
         <v>-7.7956910190785988E-2</v>
       </c>
       <c r="AF35" s="4">
-        <f>AF25/AE25-1</f>
+        <f t="shared" ref="AF35:AM35" si="51">AF25/AE25-1</f>
         <v>-0.53537353735373538</v>
       </c>
       <c r="AG35" s="4">
-        <f>AG25/AF25-1</f>
+        <f t="shared" si="51"/>
         <v>9.2212320805889147E-2</v>
       </c>
       <c r="AH35" s="4">
-        <f>AH25/AG25-1</f>
+        <f t="shared" si="51"/>
         <v>0.17027314650585312</v>
       </c>
       <c r="AI35" s="4">
-        <f>AI25/AH25-1</f>
+        <f t="shared" si="51"/>
         <v>0.4080024249772658</v>
       </c>
       <c r="AJ35" s="4">
-        <f>AJ25/AI25-1</f>
+        <f t="shared" si="51"/>
         <v>-0.35180431646932164</v>
       </c>
       <c r="AK35" s="4">
-        <f>AK25/AJ25-1</f>
+        <f t="shared" si="51"/>
         <v>-0.1333134927709152</v>
       </c>
       <c r="AL35" s="4">
-        <f>AL25/AK25-1</f>
+        <f t="shared" si="51"/>
         <v>3.1650146015670844E-2</v>
       </c>
       <c r="AM35" s="4">
-        <f>AM25/AL25-1</f>
+        <f t="shared" si="51"/>
         <v>3.1597908884270165E-2</v>
       </c>
       <c r="AP35" s="1" t="s">
@@ -6716,111 +6723,111 @@
         <v>-2.5576368876080724E-2</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:R36" si="37">H26/D26-1</f>
+        <f t="shared" ref="H36:R36" si="52">H26/D26-1</f>
         <v>-2.8265990215618819E-2</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-3.048001460120453E-2</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-3.9567686389448631E-2</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-3.9741219963031371E-2</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-3.7665485735595583E-2</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-3.0873493975903776E-2</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-2.3650581728018261E-2</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-2.6371511068334907E-2</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-2.267002518891692E-2</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-1.8259518259518215E-2</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-1.152568861105685E-2</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" ref="S36:S37" si="38">S26/O26-1</f>
+        <f t="shared" ref="S36:S37" si="53">S26/O26-1</f>
         <v>-4.7449584816133816E-3</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" ref="T36:T37" si="39">T26/P26-1</f>
+        <f t="shared" ref="T36:T37" si="54">T26/P26-1</f>
         <v>-1.3679619349722394E-2</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" ref="U36:U37" si="40">U26/Q26-1</f>
+        <f t="shared" ref="U36:U37" si="55">U26/Q26-1</f>
         <v>-3.1658092599920806E-2</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" ref="V36:V37" si="41">V26/R26-1</f>
+        <f t="shared" ref="V36:V37" si="56">V26/R26-1</f>
         <v>-5.0197628458497956E-2</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" ref="W36:W37" si="42">W26/S26-1</f>
+        <f t="shared" ref="W36:W37" si="57">W26/S26-1</f>
         <v>-7.071911005164877E-2</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" ref="X36:X37" si="43">X26/T26-1</f>
+        <f t="shared" ref="X36:X37" si="58">X26/T26-1</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" ref="Y36:Y37" si="44">Y26/U26-1</f>
+        <f t="shared" ref="Y36:Y37" si="59">Y26/U26-1</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" ref="Z36:Z37" si="45">Z26/V26-1</f>
+        <f t="shared" ref="Z36:Z37" si="60">Z26/V26-1</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="AF36" s="4">
-        <f t="shared" ref="AF36:AH36" si="46">AF26/AE26-1</f>
+        <f t="shared" ref="AF36:AH36" si="61">AF26/AE26-1</f>
         <v>-3.9567686389448631E-2</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>-2.3650581728018261E-2</v>
       </c>
       <c r="AH36" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>-1.152568861105685E-2</v>
       </c>
       <c r="AI36" s="4">
-        <f t="shared" ref="AI36:AM36" si="47">AI26/AH26-1</f>
+        <f t="shared" ref="AI36:AM36" si="62">AI26/AH26-1</f>
         <v>-5.0197628458497956E-2</v>
       </c>
       <c r="AJ36" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="AK36" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AL36" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AM36" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AP36" s="1" t="s">
@@ -6851,95 +6858,95 @@
         <v>-9.4652723267414474E-2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" ref="H37:R37" si="48">H27/D27-1</f>
+        <f t="shared" ref="H37:R37" si="63">H27/D27-1</f>
         <v>-1.012220887238513E-2</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>-5.7718582498113125E-2</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>-0.79408148929175537</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.1125365407492871</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.16417818588244759</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.15456919623586307</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>9.082760925804001E-2</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>-0.35732494344671584</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.52353115135176043</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.22879879458558183</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.33835627825657921</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>2.1450042152388149</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>8.15514850236847E-2</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>0.37138986382695771</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>0.16029535729910238</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>-0.35713452857531525</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>-0.5177797635536654</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-0.30400757302560311</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>-1.9103095947644477E-2</v>
       </c>
       <c r="AF37" s="4">
-        <f t="shared" ref="AF37:AH37" si="49">AF27/AE27-1</f>
+        <f t="shared" ref="AF37:AH37" si="64">AF27/AE27-1</f>
         <v>-0.51623195506657282</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.11866950536926679</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.18391862390582259</v>
       </c>
       <c r="AI37" s="4">
-        <f t="shared" ref="AI37:AM37" si="50">AI27/AH27-1</f>
+        <f t="shared" ref="AI37:AM37" si="65">AI27/AH27-1</f>
         <v>0.48241620274343822</v>
       </c>
       <c r="AJ37" s="4">
@@ -6947,15 +6954,15 @@
         <v>-0.31043012390353364</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>-0.11562601303154607</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>5.2704230628235482E-2</v>
       </c>
       <c r="AM37" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>5.2650927432928762E-2</v>
       </c>
       <c r="AP37" s="1" t="s">
@@ -6982,135 +6989,135 @@
         <v>55</v>
       </c>
       <c r="C38" s="4">
-        <f>C17/C15</f>
+        <f t="shared" ref="C38:Z38" si="66">C17/C15</f>
         <v>0.31369043949947606</v>
       </c>
       <c r="D38" s="4">
-        <f>D17/D15</f>
+        <f t="shared" si="66"/>
         <v>0.31351448839725865</v>
       </c>
       <c r="E38" s="4">
-        <f>E17/E15</f>
+        <f t="shared" si="66"/>
         <v>0.30591442455849238</v>
       </c>
       <c r="F38" s="4">
-        <f>F17/F15</f>
+        <f t="shared" si="66"/>
         <v>0.49036244180481225</v>
       </c>
       <c r="G38" s="4">
-        <f>G17/G15</f>
+        <f t="shared" si="66"/>
         <v>0.30725224956796376</v>
       </c>
       <c r="H38" s="4">
-        <f>H17/H15</f>
+        <f t="shared" si="66"/>
         <v>0.31148739873987397</v>
       </c>
       <c r="I38" s="4">
-        <f>I17/I15</f>
+        <f t="shared" si="66"/>
         <v>0.29661635149542676</v>
       </c>
       <c r="J38" s="4">
-        <f>J17/J15</f>
+        <f t="shared" si="66"/>
         <v>0.26451388284445992</v>
       </c>
       <c r="K38" s="4">
-        <f>K17/K15</f>
+        <f t="shared" si="66"/>
         <v>0.30515686163272254</v>
       </c>
       <c r="L38" s="4">
-        <f>L17/L15</f>
+        <f t="shared" si="66"/>
         <v>0.31467810226902615</v>
       </c>
       <c r="M38" s="4">
-        <f>M17/M15</f>
+        <f t="shared" si="66"/>
         <v>0.30699169568711493</v>
       </c>
       <c r="N38" s="4">
-        <f>N17/N15</f>
+        <f t="shared" si="66"/>
         <v>0.27104880759039235</v>
       </c>
       <c r="O38" s="4">
-        <f>O17/O15</f>
+        <f t="shared" si="66"/>
         <v>0.26026000509813918</v>
       </c>
       <c r="P38" s="4">
-        <f>P17/P15</f>
+        <f t="shared" si="66"/>
         <v>0.31782372143634385</v>
       </c>
       <c r="Q38" s="4">
-        <f>Q17/Q15</f>
+        <f t="shared" si="66"/>
         <v>0.31473135383527751</v>
       </c>
       <c r="R38" s="4">
-        <f>R17/R15</f>
+        <f t="shared" si="66"/>
         <v>0.27714457108578283</v>
       </c>
       <c r="S38" s="4">
-        <f>S17/S15</f>
+        <f t="shared" si="66"/>
         <v>0.30917055833367774</v>
       </c>
       <c r="T38" s="4">
-        <f>T17/T15</f>
+        <f t="shared" si="66"/>
         <v>0.31319554848966613</v>
       </c>
       <c r="U38" s="4">
-        <f>U17/U15</f>
+        <f t="shared" si="66"/>
         <v>0.29026976454077652</v>
       </c>
       <c r="V38" s="4">
-        <f>V17/V15</f>
+        <f t="shared" si="66"/>
         <v>0.26567944250871078</v>
       </c>
       <c r="W38" s="4">
-        <f>W17/W15</f>
+        <f t="shared" si="66"/>
         <v>0.26654747715534366</v>
       </c>
       <c r="X38" s="4">
-        <f>X17/X15</f>
+        <f t="shared" si="66"/>
         <v>0.26036443683502503</v>
       </c>
       <c r="Y38" s="4">
-        <f>Y17/Y15</f>
+        <f t="shared" si="66"/>
         <v>0.26297244779234497</v>
       </c>
       <c r="Z38" s="4">
-        <f>Z17/Z15</f>
+        <f t="shared" si="66"/>
         <v>0.25861866791744842</v>
       </c>
       <c r="AE38" s="4">
-        <f>AE17/AE15</f>
+        <f t="shared" ref="AE38:AM38" si="67">AE17/AE15</f>
         <v>0.36768710289627859</v>
       </c>
       <c r="AF38" s="4">
-        <f>AF17/AF15</f>
+        <f t="shared" si="67"/>
         <v>0.2927039651786188</v>
       </c>
       <c r="AG38" s="4">
-        <f>AG17/AG15</f>
+        <f t="shared" si="67"/>
         <v>0.29762392462105697</v>
       </c>
       <c r="AH38" s="4">
-        <f>AH17/AH15</f>
+        <f t="shared" si="67"/>
         <v>0.29268605508705553</v>
       </c>
       <c r="AI38" s="4">
-        <f>AI17/AI15</f>
+        <f t="shared" si="67"/>
         <v>0.29283524362058394</v>
       </c>
       <c r="AJ38" s="4">
-        <f>AJ17/AJ15</f>
+        <f t="shared" si="67"/>
         <v>0.26189665481243046</v>
       </c>
       <c r="AK38" s="4">
-        <f>AK17/AK15</f>
+        <f t="shared" si="67"/>
         <v>0.25479950726255002</v>
       </c>
       <c r="AL38" s="4">
-        <f>AL17/AL15</f>
+        <f t="shared" si="67"/>
         <v>0.25479950726255002</v>
       </c>
       <c r="AM38" s="4">
-        <f>AM17/AM15</f>
+        <f t="shared" si="67"/>
         <v>0.25479950726255002</v>
       </c>
       <c r="AP38" s="1" t="s">
@@ -7137,135 +7144,135 @@
         <v>56</v>
       </c>
       <c r="C39" s="4">
-        <f>C20/C15</f>
+        <f t="shared" ref="C39:Z39" si="68">C20/C15</f>
         <v>0.12063120261357332</v>
       </c>
       <c r="D39" s="4">
-        <f>D20/D15</f>
+        <f t="shared" si="68"/>
         <v>0.11019598412889263</v>
       </c>
       <c r="E39" s="4">
-        <f>E20/E15</f>
+        <f t="shared" si="68"/>
         <v>9.7783572359843543E-2</v>
       </c>
       <c r="F39" s="4">
-        <f>F20/F15</f>
+        <f t="shared" si="68"/>
         <v>0.30670495583692292</v>
       </c>
       <c r="G39" s="4">
-        <f>G20/G15</f>
+        <f t="shared" si="68"/>
         <v>9.6001430188904113E-2</v>
       </c>
       <c r="H39" s="4">
-        <f>H20/H15</f>
+        <f t="shared" si="68"/>
         <v>9.405940594059406E-2</v>
       </c>
       <c r="I39" s="4">
-        <f>I20/I15</f>
+        <f t="shared" si="68"/>
         <v>7.5697211155378488E-2</v>
       </c>
       <c r="J39" s="4">
-        <f>J20/J15</f>
+        <f t="shared" si="68"/>
         <v>7.4070850378623029E-2</v>
       </c>
       <c r="K39" s="4">
-        <f>K20/K15</f>
+        <f t="shared" si="68"/>
         <v>9.7350655244794915E-2</v>
       </c>
       <c r="L39" s="4">
-        <f>L20/L15</f>
+        <f t="shared" si="68"/>
         <v>0.10232330908696124</v>
       </c>
       <c r="M39" s="4">
-        <f>M20/M15</f>
+        <f t="shared" si="68"/>
         <v>8.4489686579158854E-2</v>
       </c>
       <c r="N39" s="4">
-        <f>N20/N15</f>
+        <f t="shared" si="68"/>
         <v>7.8553722540388074E-2</v>
       </c>
       <c r="O39" s="4">
-        <f>O20/O15</f>
+        <f t="shared" si="68"/>
         <v>5.3275554422635735E-2</v>
       </c>
       <c r="P39" s="4">
-        <f>P20/P15</f>
+        <f t="shared" si="68"/>
         <v>0.12369967355821546</v>
       </c>
       <c r="Q39" s="4">
-        <f>Q20/Q15</f>
+        <f t="shared" si="68"/>
         <v>0.10940261576528809</v>
       </c>
       <c r="R39" s="4">
-        <f>R20/R15</f>
+        <f t="shared" si="68"/>
         <v>8.4900666925438448E-2</v>
       </c>
       <c r="S39" s="4">
-        <f>S20/S15</f>
+        <f t="shared" si="68"/>
         <v>0.12282514361284456</v>
       </c>
       <c r="T39" s="4">
-        <f>T20/T15</f>
+        <f t="shared" si="68"/>
         <v>0.12046899841017487</v>
       </c>
       <c r="U39" s="4">
-        <f>U20/U15</f>
+        <f t="shared" si="68"/>
         <v>0.1008498362700764</v>
       </c>
       <c r="V39" s="4">
-        <f>V20/V15</f>
+        <f t="shared" si="68"/>
         <v>8.7108013937282236E-2</v>
       </c>
       <c r="W39" s="4">
-        <f>W20/W15</f>
+        <f t="shared" si="68"/>
         <v>7.7353992848629316E-2</v>
       </c>
       <c r="X39" s="4">
-        <f>X20/X15</f>
+        <f t="shared" si="68"/>
         <v>5.4665907423260322E-2</v>
       </c>
       <c r="Y39" s="4">
-        <f>Y20/Y15</f>
+        <f t="shared" si="68"/>
         <v>6.6267137665079412E-2</v>
       </c>
       <c r="Z39" s="4">
-        <f>Z20/Z15</f>
+        <f t="shared" si="68"/>
         <v>7.8330206378986897E-2</v>
       </c>
       <c r="AE39" s="4">
-        <f>AE20/AE15</f>
+        <f t="shared" ref="AE39:AM39" si="69">AE20/AE15</f>
         <v>0.17175509530489314</v>
       </c>
       <c r="AF39" s="4">
-        <f>AF20/AF15</f>
+        <f t="shared" si="69"/>
         <v>8.405435532671586E-2</v>
       </c>
       <c r="AG39" s="4">
-        <f>AG20/AG15</f>
+        <f t="shared" si="69"/>
         <v>8.9819746005735349E-2</v>
       </c>
       <c r="AH39" s="4">
-        <f>AH20/AH15</f>
+        <f t="shared" si="69"/>
         <v>9.3724949498188354E-2</v>
       </c>
       <c r="AI39" s="4">
-        <f>AI20/AI15</f>
+        <f t="shared" si="69"/>
         <v>0.10650441016933164</v>
       </c>
       <c r="AJ39" s="4">
-        <f>AJ20/AJ15</f>
+        <f t="shared" si="69"/>
         <v>6.9571952262814304E-2</v>
       </c>
       <c r="AK39" s="4">
-        <f>AK20/AK15</f>
+        <f t="shared" si="69"/>
         <v>6.0625528726879874E-2</v>
       </c>
       <c r="AL39" s="4">
-        <f>AL20/AL15</f>
+        <f t="shared" si="69"/>
         <v>6.0625528726879839E-2</v>
       </c>
       <c r="AM39" s="4">
-        <f>AM20/AM15</f>
+        <f t="shared" si="69"/>
         <v>6.0625528726879846E-2</v>
       </c>
       <c r="AP39" s="1" t="s">
@@ -7292,135 +7299,135 @@
         <v>30</v>
       </c>
       <c r="C40" s="4">
-        <f>C24/C23</f>
+        <f t="shared" ref="C40:Z40" si="70">C24/C23</f>
         <v>0.19647771051183269</v>
       </c>
       <c r="D40" s="4">
-        <f>D24/D23</f>
+        <f t="shared" si="70"/>
         <v>0.18128310771041789</v>
       </c>
       <c r="E40" s="4">
-        <f>E24/E23</f>
+        <f t="shared" si="70"/>
         <v>9.7997138769670963E-2</v>
       </c>
       <c r="F40" s="4">
-        <f>F24/F23</f>
+        <f t="shared" si="70"/>
         <v>-1.2149262366213481E-2</v>
       </c>
       <c r="G40" s="4">
-        <f>G24/G23</f>
+        <f t="shared" si="70"/>
         <v>0.14018691588785046</v>
       </c>
       <c r="H40" s="4">
-        <f>H24/H23</f>
+        <f t="shared" si="70"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I40" s="4">
-        <f>I24/I23</f>
+        <f t="shared" si="70"/>
         <v>7.7662129703763016E-2</v>
       </c>
       <c r="J40" s="4">
-        <f>J24/J23</f>
+        <f t="shared" si="70"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="K40" s="4">
-        <f>K24/K23</f>
+        <f t="shared" si="70"/>
         <v>0.1426791277258567</v>
       </c>
       <c r="L40" s="4">
-        <f>L24/L23</f>
+        <f t="shared" si="70"/>
         <v>0.15691788526434194</v>
       </c>
       <c r="M40" s="4">
-        <f>M24/M23</f>
+        <f t="shared" si="70"/>
         <v>0.13140161725067384</v>
       </c>
       <c r="N40" s="4">
-        <f>N24/N23</f>
+        <f t="shared" si="70"/>
         <v>0.12884160756501181</v>
       </c>
       <c r="O40" s="4">
-        <f>O24/O23</f>
+        <f t="shared" si="70"/>
         <v>4.9668874172185427E-2</v>
       </c>
       <c r="P40" s="4">
-        <f>P24/P23</f>
+        <f t="shared" si="70"/>
         <v>0.18271695349688757</v>
       </c>
       <c r="Q40" s="4">
-        <f>Q24/Q23</f>
+        <f t="shared" si="70"/>
         <v>0.15443175638934203</v>
       </c>
       <c r="R40" s="4">
-        <f>R24/R23</f>
+        <f t="shared" si="70"/>
         <v>0.15217391304347827</v>
       </c>
       <c r="S40" s="4">
-        <f>S24/S23</f>
+        <f t="shared" si="70"/>
         <v>0.15965076395385094</v>
       </c>
       <c r="T40" s="4">
-        <f>T24/T23</f>
+        <f t="shared" si="70"/>
         <v>0.18847989093387865</v>
       </c>
       <c r="U40" s="4">
-        <f>U24/U23</f>
+        <f t="shared" si="70"/>
         <v>0.170016077170418</v>
       </c>
       <c r="V40" s="4">
-        <f>V24/V23</f>
+        <f t="shared" si="70"/>
         <v>0.18039664378337147</v>
       </c>
       <c r="W40" s="4">
-        <f>W24/W23</f>
+        <f t="shared" si="70"/>
         <v>0.12972972972972974</v>
       </c>
       <c r="X40" s="4">
-        <f>X24/X23</f>
+        <f t="shared" si="70"/>
         <v>0.19</v>
       </c>
       <c r="Y40" s="4">
-        <f>Y24/Y23</f>
+        <f t="shared" si="70"/>
         <v>0.19</v>
       </c>
       <c r="Z40" s="4">
-        <f>Z24/Z23</f>
+        <f t="shared" si="70"/>
         <v>0.19</v>
       </c>
       <c r="AE40" s="4">
-        <f>AE24/AE23</f>
+        <f t="shared" ref="AE40:AM40" si="71">AE24/AE23</f>
         <v>6.0703415623943185E-2</v>
       </c>
       <c r="AF40" s="4">
-        <f>AF24/AF23</f>
+        <f t="shared" si="71"/>
         <v>0.12626946513202436</v>
       </c>
       <c r="AG40" s="4">
-        <f>AG24/AG23</f>
+        <f t="shared" si="71"/>
         <v>0.14041774660771458</v>
       </c>
       <c r="AH40" s="4">
-        <f>AH24/AH23</f>
+        <f t="shared" si="71"/>
         <v>0.1514917695473251</v>
       </c>
       <c r="AI40" s="4">
-        <f>AI24/AI23</f>
+        <f t="shared" si="71"/>
         <v>0.17429561816727401</v>
       </c>
       <c r="AJ40" s="4">
-        <f>AJ24/AJ23</f>
+        <f t="shared" si="71"/>
         <v>0.17471888923456028</v>
       </c>
       <c r="AK40" s="4">
-        <f>AK24/AK23</f>
+        <f t="shared" si="71"/>
         <v>0.21</v>
       </c>
       <c r="AL40" s="4">
-        <f>AL24/AL23</f>
+        <f t="shared" si="71"/>
         <v>0.21</v>
       </c>
       <c r="AM40" s="4">
-        <f>AM24/AM23</f>
+        <f t="shared" si="71"/>
         <v>0.21</v>
       </c>
       <c r="AP40" s="1"/>
@@ -7469,83 +7476,83 @@
         <v>60</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:V43" si="51">C44-C60-C62</f>
+        <f t="shared" ref="C43:V43" si="72">C44-C60-C62</f>
         <v>0</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>-4866</v>
       </c>
       <c r="T43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="U43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="W43" s="9">
@@ -7555,7 +7562,7 @@
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B44" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S44" s="2">
         <v>7816</v>
@@ -7566,7 +7573,7 @@
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B45" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S45" s="2">
         <v>10539</v>
@@ -7577,7 +7584,7 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S46" s="2">
         <v>1576</v>
@@ -7588,86 +7595,86 @@
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B47" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ref="C47:V47" si="52">SUM(C44:C46)</f>
+        <f t="shared" ref="C47:V47" si="73">SUM(C44:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>19931</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W47" s="2">
@@ -7677,7 +7684,7 @@
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B48" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S48" s="2">
         <v>6146</v>
@@ -7688,7 +7695,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B49" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S49" s="2">
         <v>31710</v>
@@ -7699,7 +7706,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S50" s="2">
         <v>5496</v>
@@ -7710,7 +7717,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S51" s="2">
         <v>2256</v>
@@ -7721,7 +7728,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B52" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S52" s="2">
         <v>973</v>
@@ -7732,7 +7739,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B53" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S53" s="2">
         <v>-19777</v>
@@ -7743,86 +7750,86 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B54" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" ref="C54:V54" si="53">SUM(C48:C53)</f>
+        <f t="shared" ref="C54:V54" si="74">SUM(C48:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>26804</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="W54" s="2">
@@ -7832,7 +7839,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B55" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S55" s="2">
         <v>2362</v>
@@ -7843,7 +7850,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B56" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S56" s="2">
         <v>1374</v>
@@ -7855,86 +7862,86 @@
     <row r="57" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:V57" si="54">C47+C54+C55+C56</f>
+        <f t="shared" ref="C57:V57" si="75">C47+C54+C55+C56</f>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>50471</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="W57" s="9">
@@ -7944,7 +7951,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B58" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S58" s="2">
         <v>11637</v>
@@ -7955,7 +7962,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S59" s="2">
         <v>5788</v>
@@ -7966,7 +7973,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B60" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S60" s="2">
         <v>1173</v>
@@ -7977,86 +7984,86 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ref="C61:V61" si="55">SUM(C58:C60)</f>
+        <f t="shared" ref="C61:V61" si="76">SUM(C58:C60)</f>
         <v>0</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>18598</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="W61" s="2">
@@ -8066,7 +8073,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B62" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -8079,7 +8086,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B63" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -8092,7 +8099,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B64" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -8105,7 +8112,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -8119,86 +8126,86 @@
     <row r="66" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ref="C66:V66" si="56">SUM(C61:C65)</f>
+        <f t="shared" ref="C66:V66" si="77">SUM(C61:C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>35512</v>
       </c>
       <c r="T66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="U66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="W66" s="9">
@@ -8208,7 +8215,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B67" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S67" s="2">
         <v>14959</v>
@@ -8220,86 +8227,86 @@
     <row r="68" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" ref="C68:V68" si="57">C66+C67</f>
+        <f t="shared" ref="C68:V68" si="78">C66+C67</f>
         <v>0</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="S68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>50471</v>
       </c>
       <c r="T68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="W68" s="9">
@@ -8327,7 +8334,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8392,8 +8399,8 @@
         <f>AVERAGE(DCF!AE40:AI40)</f>
         <v>0.13063560301565624</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>76</v>
+      <c r="D9" s="38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -8404,7 +8411,7 @@
         <v>421</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C81EF4-BBD0-422D-A693-7949BD58751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F43887-FD1A-4B91-BDA5-52B615D6F8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>Interest/other expense (income)</t>
-  </si>
-  <si>
     <t>Pretax Income</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
     <t>4Q22</t>
   </si>
   <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
     <t>10K21</t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>Using Net Income</t>
   </si>
   <si>
-    <t>average</t>
+    <t>Interest Expense/(income)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1596,7 +1616,7 @@
       </c>
       <c r="D4" s="20"/>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="10" t="e">
         <f>AVERAGE(DCF!AQ37,#REF!)</f>
@@ -1611,7 +1631,7 @@
         <v>467.8</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1632,7 +1652,7 @@
         <v>1112</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1644,7 +1664,7 @@
         <v>14468</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -1666,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA5FFC-C2FB-4DA3-BA4F-61AACB691A05}">
   <dimension ref="A1:PH68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AQ39" sqref="AQ39"/>
@@ -1680,7 +1700,7 @@
     <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1690,12 +1710,11 @@
     <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="2"/>
-    <col min="23" max="23" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="30" width="9.140625" style="2"/>
     <col min="31" max="41" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1715,7 +1734,9 @@
       <c r="E1" s="5">
         <v>43036</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5">
+        <v>43134</v>
+      </c>
       <c r="G1" s="5">
         <v>43225</v>
       </c>
@@ -1723,9 +1744,11 @@
         <v>43316</v>
       </c>
       <c r="I1" s="5">
-        <v>43772</v>
-      </c>
-      <c r="J1" s="5"/>
+        <v>43407</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43498</v>
+      </c>
       <c r="K1" s="5">
         <v>43589</v>
       </c>
@@ -1735,7 +1758,9 @@
       <c r="M1" s="5">
         <v>43771</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="5">
+        <v>43862</v>
+      </c>
       <c r="O1" s="5">
         <v>43953</v>
       </c>
@@ -1745,7 +1770,9 @@
       <c r="Q1" s="5">
         <v>44135</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="5">
+        <v>44226</v>
+      </c>
       <c r="S1" s="5">
         <v>44317</v>
       </c>
@@ -1755,83 +1782,85 @@
       <c r="U1" s="5">
         <v>44499</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="5">
+        <v>44590</v>
+      </c>
       <c r="W1" s="5">
         <v>44681</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="AA2" s="26"/>
       <c r="AB2" s="26"/>
@@ -3195,7 +3224,7 @@
     </row>
     <row r="17" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ref="C17:P17" si="15">+C15-C16</f>
@@ -3721,8 +3750,8 @@
       </c>
     </row>
     <row r="21" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>28</v>
+      <c r="B21" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="C21" s="2">
         <f>144</f>
@@ -3976,7 +4005,7 @@
     </row>
     <row r="23" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <f>+C20-C21-C22</f>
@@ -4113,7 +4142,7 @@
     </row>
     <row r="24" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>357</v>
@@ -4230,7 +4259,7 @@
     <row r="25" spans="1:424" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:P25" si="33">+C23-C24</f>
@@ -6023,7 +6052,7 @@
     </row>
     <row r="27" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" ref="C27:Z27" si="43">C25/C26</f>
@@ -6176,7 +6205,7 @@
     </row>
     <row r="32" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" ref="G32:P33" si="45">G15/C15-1</f>
@@ -6292,7 +6321,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ32" s="11">
         <v>-0.01</v>
@@ -6311,7 +6340,7 @@
     </row>
     <row r="33" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="45"/>
@@ -6426,7 +6455,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AQ33" s="11">
         <f>WACC!C18</f>
@@ -6446,7 +6475,7 @@
     </row>
     <row r="34" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" ref="G34:Z34" si="48">G18/C18-1</f>
@@ -6561,7 +6590,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AQ34" s="7">
         <f>NPV(AQ33,AG25:PH25)</f>
@@ -6581,7 +6610,7 @@
     </row>
     <row r="35" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" ref="G35:Z35" si="50">G25/C25-1</f>
@@ -6696,7 +6725,7 @@
         <v>3.1597908884270165E-2</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ35" s="7">
         <f>+Main!C7-Main!C8</f>
@@ -6716,7 +6745,7 @@
     </row>
     <row r="36" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4">
         <f>G26/C26-1</f>
@@ -6831,7 +6860,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ36" s="7">
         <f>+AQ34+AQ35</f>
@@ -6851,7 +6880,7 @@
     </row>
     <row r="37" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="4">
         <f>G27/C27-1</f>
@@ -6966,7 +6995,7 @@
         <v>5.2650927432928762E-2</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ37" s="13">
         <f>AQ36/Main!C5</f>
@@ -6986,7 +7015,7 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:Z38" si="66">C17/C15</f>
@@ -7121,7 +7150,7 @@
         <v>0.25479950726255002</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ38" s="6">
         <f>Main!C4</f>
@@ -7141,7 +7170,7 @@
     </row>
     <row r="39" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" ref="C39:Z39" si="68">C20/C15</f>
@@ -7276,7 +7305,7 @@
         <v>6.0625528726879846E-2</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AQ39" s="14">
         <f>AQ37/AQ38-1</f>
@@ -7296,7 +7325,7 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" ref="C40:Z40" si="70">C24/C23</f>
@@ -7473,71 +7502,71 @@
     <row r="43" spans="1:54" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" ref="C43:V43" si="72">C44-C60-C62</f>
-        <v>0</v>
+        <v>-9965</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9780</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9731</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-8755</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-10330</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9972</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-10814</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9719</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9862</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-10703</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-8922</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-9675</v>
       </c>
       <c r="P43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-7013</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-6625</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-4169</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="72"/>
@@ -7545,15 +7574,15 @@
       </c>
       <c r="T43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-5411</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-7009</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>-7809</v>
       </c>
       <c r="W43" s="9">
         <f>W44-W60-W62</f>
@@ -7564,8 +7593,65 @@
       <c r="B44" s="35" t="s">
         <v>88</v>
       </c>
+      <c r="C44" s="2">
+        <v>2680</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2291</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2725</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2643</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1180</v>
+      </c>
+      <c r="I44" s="2">
+        <v>825</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1556</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1173</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1656</v>
+      </c>
+      <c r="M44" s="2">
+        <v>969</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2577</v>
+      </c>
+      <c r="O44" s="2">
+        <v>4566</v>
+      </c>
+      <c r="P44" s="2">
+        <v>7284</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>5996</v>
+      </c>
+      <c r="R44" s="2">
+        <v>8511</v>
+      </c>
       <c r="S44" s="2">
         <v>7816</v>
+      </c>
+      <c r="T44" s="2">
+        <v>7368</v>
+      </c>
+      <c r="U44" s="2">
+        <v>5753</v>
+      </c>
+      <c r="V44" s="2">
+        <v>5911</v>
       </c>
       <c r="W44" s="2">
         <v>1112</v>
@@ -7575,8 +7661,65 @@
       <c r="B45" s="35" t="s">
         <v>89</v>
       </c>
+      <c r="C45" s="2">
+        <v>7920</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8192</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10517</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8597</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8652</v>
+      </c>
+      <c r="H45" s="2">
+        <v>9112</v>
+      </c>
+      <c r="I45" s="2">
+        <v>12393</v>
+      </c>
+      <c r="J45" s="2">
+        <v>9497</v>
+      </c>
+      <c r="K45" s="2">
+        <v>9060</v>
+      </c>
+      <c r="L45" s="2">
+        <v>9122</v>
+      </c>
+      <c r="M45" s="2">
+        <v>11396</v>
+      </c>
+      <c r="N45" s="2">
+        <v>8992</v>
+      </c>
+      <c r="O45" s="2">
+        <v>8584</v>
+      </c>
+      <c r="P45" s="2">
+        <v>8876</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>12712</v>
+      </c>
+      <c r="R45" s="2">
+        <v>10653</v>
+      </c>
       <c r="S45" s="2">
         <v>10539</v>
+      </c>
+      <c r="T45" s="2">
+        <v>11259</v>
+      </c>
+      <c r="U45" s="2">
+        <v>14958</v>
+      </c>
+      <c r="V45" s="2">
+        <v>13902</v>
       </c>
       <c r="W45" s="2">
         <v>15083</v>
@@ -7586,8 +7729,65 @@
       <c r="B46" s="35" t="s">
         <v>90</v>
       </c>
+      <c r="C46" s="2">
+        <v>1116</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1114</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1444</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1164</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1211</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1421</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1466</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1341</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1440</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1333</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1465</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1463</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1601</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1592</v>
+      </c>
       <c r="S46" s="2">
         <v>1576</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1604</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1865</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1760</v>
       </c>
       <c r="W46" s="2">
         <v>1758</v>
@@ -7599,67 +7799,67 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47:V47" si="73">SUM(C44:C46)</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>11597</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>14686</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>12540</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>10876</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>11503</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>14639</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>12519</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>11607</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>12119</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>12902</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>14615</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>17623</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>20309</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>20756</v>
       </c>
       <c r="S47" s="2">
         <f t="shared" si="73"/>
@@ -7667,15 +7867,15 @@
       </c>
       <c r="T47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>20231</v>
       </c>
       <c r="U47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>22576</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>21573</v>
       </c>
       <c r="W47" s="2">
         <f>SUM(W44:W46)</f>
@@ -7686,8 +7886,65 @@
       <c r="B48" s="35" t="s">
         <v>92</v>
       </c>
+      <c r="C48" s="2">
+        <v>6105</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6089</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6087</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6095</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6090</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6074</v>
+      </c>
+      <c r="I48" s="2">
+        <v>6069</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6064</v>
+      </c>
+      <c r="K48" s="2">
+        <v>6061</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6054</v>
+      </c>
+      <c r="M48" s="2">
+        <v>6040</v>
+      </c>
+      <c r="N48" s="2">
+        <v>6036</v>
+      </c>
+      <c r="O48" s="2">
+        <v>6034</v>
+      </c>
+      <c r="P48" s="2">
+        <v>6027</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>6063</v>
+      </c>
+      <c r="R48" s="2">
+        <v>6141</v>
+      </c>
       <c r="S48" s="2">
         <v>6146</v>
+      </c>
+      <c r="T48" s="2">
+        <v>6148</v>
+      </c>
+      <c r="U48" s="2">
+        <v>6146</v>
+      </c>
+      <c r="V48" s="2">
+        <v>6164</v>
       </c>
       <c r="W48" s="2">
         <v>6164</v>
@@ -7697,8 +7954,65 @@
       <c r="B49" s="35" t="s">
         <v>93</v>
       </c>
+      <c r="C49" s="2">
+        <v>27320</v>
+      </c>
+      <c r="D49" s="2">
+        <v>27616</v>
+      </c>
+      <c r="E49" s="2">
+        <v>27946</v>
+      </c>
+      <c r="F49" s="2">
+        <v>28131</v>
+      </c>
+      <c r="G49" s="2">
+        <v>28363</v>
+      </c>
+      <c r="H49" s="2">
+        <v>28629</v>
+      </c>
+      <c r="I49" s="2">
+        <v>29090</v>
+      </c>
+      <c r="J49" s="2">
+        <v>29240</v>
+      </c>
+      <c r="K49" s="2">
+        <v>29573</v>
+      </c>
+      <c r="L49" s="2">
+        <v>29908</v>
+      </c>
+      <c r="M49" s="2">
+        <v>30467</v>
+      </c>
+      <c r="N49" s="2">
+        <v>30603</v>
+      </c>
+      <c r="O49" s="2">
+        <v>30756</v>
+      </c>
+      <c r="P49" s="2">
+        <v>30946</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>31398</v>
+      </c>
+      <c r="R49" s="2">
+        <v>31557</v>
+      </c>
       <c r="S49" s="2">
         <v>31710</v>
+      </c>
+      <c r="T49" s="2">
+        <v>32133</v>
+      </c>
+      <c r="U49" s="2">
+        <v>32478</v>
+      </c>
+      <c r="V49" s="2">
+        <v>32985</v>
       </c>
       <c r="W49" s="2">
         <v>33300</v>
@@ -7708,8 +8022,65 @@
       <c r="B50" s="35" t="s">
         <v>94</v>
       </c>
+      <c r="C50" s="2">
+        <v>5177</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5361</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5548</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5623</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5135</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5356</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5784</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5912</v>
+      </c>
+      <c r="K50" s="2">
+        <v>5401</v>
+      </c>
+      <c r="L50" s="2">
+        <v>5622</v>
+      </c>
+      <c r="M50" s="2">
+        <v>6032</v>
+      </c>
+      <c r="N50" s="2">
+        <v>6083</v>
+      </c>
+      <c r="O50" s="2">
+        <v>5486</v>
+      </c>
+      <c r="P50" s="2">
+        <v>5665</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>5843</v>
+      </c>
+      <c r="R50" s="2">
+        <v>5914</v>
+      </c>
       <c r="S50" s="2">
         <v>5496</v>
+      </c>
+      <c r="T50" s="2">
+        <v>5892</v>
+      </c>
+      <c r="U50" s="2">
+        <v>6144</v>
+      </c>
+      <c r="V50" s="2">
+        <v>6407</v>
       </c>
       <c r="W50" s="2">
         <v>6459</v>
@@ -7719,8 +8090,65 @@
       <c r="B51" s="35" t="s">
         <v>95</v>
       </c>
+      <c r="C51" s="2">
+        <v>2546</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2518</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2658</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2645</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2511</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2575</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2660</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2544</v>
+      </c>
+      <c r="K51" s="2">
+        <v>2553</v>
+      </c>
+      <c r="L51" s="2">
+        <v>2627</v>
+      </c>
+      <c r="M51" s="2">
+        <v>2636</v>
+      </c>
+      <c r="N51" s="2">
+        <v>2692</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2597</v>
+      </c>
+      <c r="P51" s="2">
+        <v>2631</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>2706</v>
+      </c>
+      <c r="R51" s="2">
+        <v>2765</v>
+      </c>
       <c r="S51" s="2">
         <v>2256</v>
+      </c>
+      <c r="T51" s="2">
+        <v>2260</v>
+      </c>
+      <c r="U51" s="2">
+        <v>2447</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2505</v>
       </c>
       <c r="W51" s="2">
         <v>2588</v>
@@ -7730,8 +8158,65 @@
       <c r="B52" s="35" t="s">
         <v>96</v>
       </c>
+      <c r="C52" s="2">
+        <v>379</v>
+      </c>
+      <c r="D52" s="2">
+        <v>423</v>
+      </c>
+      <c r="E52" s="2">
+        <v>389</v>
+      </c>
+      <c r="F52" s="2">
+        <v>440</v>
+      </c>
+      <c r="G52" s="2">
+        <v>639</v>
+      </c>
+      <c r="H52" s="2">
+        <v>685</v>
+      </c>
+      <c r="I52" s="2">
+        <v>384</v>
+      </c>
+      <c r="J52" s="2">
+        <v>460</v>
+      </c>
+      <c r="K52" s="2">
+        <v>574</v>
+      </c>
+      <c r="L52" s="2">
+        <v>667</v>
+      </c>
+      <c r="M52" s="2">
+        <v>298</v>
+      </c>
+      <c r="N52" s="2">
+        <v>533</v>
+      </c>
+      <c r="O52" s="2">
+        <v>803</v>
+      </c>
+      <c r="P52" s="2">
+        <v>811</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>518</v>
+      </c>
+      <c r="R52" s="2">
+        <v>780</v>
+      </c>
       <c r="S52" s="2">
         <v>973</v>
+      </c>
+      <c r="T52" s="2">
+        <v>944</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1302</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1257</v>
       </c>
       <c r="W52" s="2">
         <v>1444</v>
@@ -7741,8 +8226,65 @@
       <c r="B53" s="35" t="s">
         <v>97</v>
       </c>
+      <c r="C53" s="2">
+        <v>-17285</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-17603</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-17979</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-18398</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-17971</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-18147</v>
+      </c>
+      <c r="I53" s="2">
+        <v>-18380</v>
+      </c>
+      <c r="J53" s="2">
+        <v>-18687</v>
+      </c>
+      <c r="K53" s="2">
+        <v>-18456</v>
+      </c>
+      <c r="L53" s="2">
+        <v>-18866</v>
+      </c>
+      <c r="M53" s="2">
+        <v>-19089</v>
+      </c>
+      <c r="N53" s="2">
+        <v>-19664</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-19087</v>
+      </c>
+      <c r="P53" s="2">
+        <v>-19341</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>-19755</v>
+      </c>
+      <c r="R53" s="2">
+        <v>-20278</v>
+      </c>
       <c r="S53" s="2">
         <v>-19777</v>
+      </c>
+      <c r="T53" s="2">
+        <v>-20133</v>
+      </c>
+      <c r="U53" s="2">
+        <v>-20602</v>
+      </c>
+      <c r="V53" s="2">
+        <v>-21137</v>
       </c>
       <c r="W53" s="2">
         <v>-21285</v>
@@ -7754,67 +8296,67 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ref="C54:V54" si="74">SUM(C48:C53)</f>
-        <v>0</v>
+        <v>24242</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>24404</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>24649</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>24536</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>24767</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>25172</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>25607</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>25533</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>25706</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26012</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26384</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26283</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26589</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26739</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26773</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>26879</v>
       </c>
       <c r="S54" s="2">
         <f t="shared" si="74"/>
@@ -7822,15 +8364,15 @@
       </c>
       <c r="T54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>27244</v>
       </c>
       <c r="U54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>27915</v>
       </c>
       <c r="V54" s="2">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>28181</v>
       </c>
       <c r="W54" s="2">
         <f>SUM(W48:W53)</f>
@@ -7841,8 +8383,65 @@
       <c r="B55" s="35" t="s">
         <v>99</v>
       </c>
+      <c r="C55" s="2">
+        <v>1879</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1857</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1861</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1884</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1958</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1976</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1997</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1965</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2019</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2062</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2151</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2236</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2235</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2233</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2208</v>
+      </c>
+      <c r="R55" s="2">
+        <v>2227</v>
+      </c>
       <c r="S55" s="2">
         <v>2362</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2503</v>
+      </c>
+      <c r="U55" s="2">
+        <v>2539</v>
+      </c>
+      <c r="V55" s="2">
+        <v>2556</v>
       </c>
       <c r="W55" s="2">
         <v>2571</v>
@@ -7852,8 +8451,65 @@
       <c r="B56" s="35" t="s">
         <v>100</v>
       </c>
+      <c r="C56" s="2">
+        <v>723</v>
+      </c>
+      <c r="D56" s="2">
+        <v>809</v>
+      </c>
+      <c r="E56" s="2">
+        <v>813</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1343</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1328</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1345</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1329</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1273</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1287</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1373</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1401</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1358</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1367</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1405</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1371</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1386</v>
+      </c>
       <c r="S56" s="2">
         <v>1374</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1407</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1381</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1501</v>
       </c>
       <c r="W56" s="2">
         <v>1648</v>
@@ -7866,67 +8522,67 @@
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:V57" si="75">C47+C54+C55+C56</f>
-        <v>0</v>
+        <v>38560</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>38667</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>42009</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>40303</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>38929</v>
       </c>
       <c r="H57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>39996</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>43572</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>41290</v>
       </c>
       <c r="K57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>40619</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>41566</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>43741</v>
       </c>
       <c r="N57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>42779</v>
       </c>
       <c r="O57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>44806</v>
       </c>
       <c r="P57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Q57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>50661</v>
       </c>
       <c r="R57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>51248</v>
       </c>
       <c r="S57" s="9">
         <f t="shared" si="75"/>
@@ -7934,15 +8590,15 @@
       </c>
       <c r="T57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>51385</v>
       </c>
       <c r="U57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>54411</v>
       </c>
       <c r="V57" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>53811</v>
       </c>
       <c r="W57" s="9">
         <f>W47+W54+W55+W56</f>
@@ -7953,8 +8609,65 @@
       <c r="B58" s="35" t="s">
         <v>102</v>
       </c>
+      <c r="C58" s="2">
+        <v>6537</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7584</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9986</v>
+      </c>
+      <c r="F58" s="2">
+        <v>8677</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8131</v>
+      </c>
+      <c r="H58" s="2">
+        <v>9116</v>
+      </c>
+      <c r="I58" s="2">
+        <v>11959</v>
+      </c>
+      <c r="J58" s="2">
+        <v>9761</v>
+      </c>
+      <c r="K58" s="2">
+        <v>8360</v>
+      </c>
+      <c r="L58" s="2">
+        <v>9152</v>
+      </c>
+      <c r="M58" s="2">
+        <v>11258</v>
+      </c>
+      <c r="N58" s="2">
+        <v>9920</v>
+      </c>
+      <c r="O58" s="2">
+        <v>9625</v>
+      </c>
+      <c r="P58" s="2">
+        <v>10726</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>14203</v>
+      </c>
+      <c r="R58" s="2">
+        <v>12859</v>
+      </c>
       <c r="S58" s="2">
         <v>11637</v>
+      </c>
+      <c r="T58" s="2">
+        <v>12632</v>
+      </c>
+      <c r="U58" s="2">
+        <v>16250</v>
+      </c>
+      <c r="V58" s="2">
+        <v>15478</v>
       </c>
       <c r="W58" s="2">
         <v>14053</v>
@@ -7964,8 +8677,65 @@
       <c r="B59" s="35" t="s">
         <v>103</v>
       </c>
+      <c r="C59" s="2">
+        <v>3973</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3627</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3875</v>
+      </c>
+      <c r="F59" s="2">
+        <v>4094</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3630</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3878</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4096</v>
+      </c>
+      <c r="J59" s="2">
+        <v>4201</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3823</v>
+      </c>
+      <c r="L59" s="2">
+        <v>4059</v>
+      </c>
+      <c r="M59" s="2">
+        <v>4191</v>
+      </c>
+      <c r="N59" s="2">
+        <v>4406</v>
+      </c>
+      <c r="O59" s="2">
+        <v>4619</v>
+      </c>
+      <c r="P59" s="2">
+        <v>5057</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>5023</v>
+      </c>
+      <c r="R59" s="2">
+        <v>6122</v>
+      </c>
       <c r="S59" s="2">
         <v>5788</v>
+      </c>
+      <c r="T59" s="2">
+        <v>5600</v>
+      </c>
+      <c r="U59" s="2">
+        <v>5925</v>
+      </c>
+      <c r="V59" s="2">
+        <v>6098</v>
       </c>
       <c r="W59" s="2">
         <v>5582</v>
@@ -7975,8 +8745,65 @@
       <c r="B60" s="35" t="s">
         <v>104</v>
       </c>
+      <c r="C60" s="2">
+        <v>1729</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1365</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1366</v>
+      </c>
+      <c r="F60" s="2">
+        <v>281</v>
+      </c>
+      <c r="G60" s="2">
+        <v>283</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1044</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1535</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1052</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1153</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1159</v>
+      </c>
+      <c r="N60" s="2">
+        <v>161</v>
+      </c>
+      <c r="O60" s="2">
+        <v>168</v>
+      </c>
+      <c r="P60" s="2">
+        <v>109</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>131</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1144</v>
+      </c>
       <c r="S60" s="2">
         <v>1173</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1190</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1176</v>
+      </c>
+      <c r="V60" s="2">
+        <v>171</v>
       </c>
       <c r="W60" s="2">
         <v>1089</v>
@@ -7988,67 +8815,67 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:V61" si="76">SUM(C58:C60)</f>
-        <v>0</v>
+        <v>12239</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>12576</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>15227</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>13052</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>14038</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>17590</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>15014</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>13239</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>14364</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>16608</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>14412</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>15892</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>19357</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>20125</v>
       </c>
       <c r="S61" s="2">
         <f t="shared" si="76"/>
@@ -8056,15 +8883,15 @@
       </c>
       <c r="T61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>19422</v>
       </c>
       <c r="U61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>23351</v>
       </c>
       <c r="V61" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>21747</v>
       </c>
       <c r="W61" s="2">
         <f>SUM(W58:W60)</f>
@@ -8075,10 +8902,65 @@
       <c r="B62" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2">
+        <v>10916</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10706</v>
+      </c>
+      <c r="E62" s="2">
+        <v>11090</v>
+      </c>
+      <c r="F62" s="2">
+        <v>11117</v>
+      </c>
+      <c r="G62" s="2">
+        <v>11107</v>
+      </c>
+      <c r="H62" s="2">
+        <v>10108</v>
+      </c>
+      <c r="I62" s="2">
+        <v>10104</v>
+      </c>
+      <c r="J62" s="2">
+        <v>10223</v>
+      </c>
+      <c r="K62" s="2">
+        <v>11357</v>
+      </c>
+      <c r="L62" s="2">
+        <v>10365</v>
+      </c>
+      <c r="M62" s="2">
+        <v>10513</v>
+      </c>
+      <c r="N62" s="2">
+        <v>11338</v>
+      </c>
+      <c r="O62" s="2">
+        <v>14073</v>
+      </c>
+      <c r="P62" s="2">
+        <v>14188</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>12490</v>
+      </c>
+      <c r="R62" s="2">
+        <v>11536</v>
+      </c>
       <c r="S62" s="2">
         <v>11509</v>
+      </c>
+      <c r="T62" s="2">
+        <v>11589</v>
+      </c>
+      <c r="U62" s="2">
+        <v>11586</v>
+      </c>
+      <c r="V62" s="2">
+        <v>13549</v>
       </c>
       <c r="W62" s="2">
         <v>13379</v>
@@ -8088,10 +8970,65 @@
       <c r="B63" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="2">
+        <v>1923</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1897</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1901</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1924</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2007</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2028</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2046</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K63" s="2">
+        <v>2064</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2111</v>
+      </c>
+      <c r="M63" s="2">
+        <v>2208</v>
+      </c>
+      <c r="N63" s="2">
+        <v>2275</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2249</v>
+      </c>
+      <c r="P63" s="2">
+        <v>2241</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>2196</v>
+      </c>
+      <c r="R63" s="2">
+        <v>2218</v>
+      </c>
       <c r="S63" s="2">
         <v>2337</v>
+      </c>
+      <c r="T63" s="2">
+        <v>2462</v>
+      </c>
+      <c r="U63" s="2">
+        <v>2494</v>
+      </c>
+      <c r="V63" s="2">
+        <v>2493</v>
       </c>
       <c r="W63" s="2">
         <v>2581</v>
@@ -8101,10 +9038,65 @@
       <c r="B64" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="C64" s="2">
+        <v>843</v>
+      </c>
+      <c r="D64" s="2">
+        <v>757</v>
+      </c>
+      <c r="E64" s="2">
+        <v>915</v>
+      </c>
+      <c r="F64" s="2">
+        <v>693</v>
+      </c>
+      <c r="G64" s="2">
+        <v>744</v>
+      </c>
+      <c r="H64" s="2">
+        <v>828</v>
+      </c>
+      <c r="I64" s="2">
+        <v>970</v>
+      </c>
+      <c r="J64" s="2">
+        <v>972</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1082</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1215</v>
+      </c>
+      <c r="N64" s="2">
+        <v>1122</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1122</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1121</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>1171</v>
+      </c>
+      <c r="R64" s="2">
+        <v>990</v>
+      </c>
       <c r="S64" s="2">
         <v>1169</v>
+      </c>
+      <c r="T64" s="2">
+        <v>1146</v>
+      </c>
+      <c r="U64" s="2">
+        <v>1246</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1566</v>
       </c>
       <c r="W64" s="2">
         <v>1752</v>
@@ -8114,10 +9106,65 @@
       <c r="B65" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="2">
+        <v>1660</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1676</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1784</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1866</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1827</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1782</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1780</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1808</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1808</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1652</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1724</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1781</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1980</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>2128</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1939</v>
+      </c>
       <c r="S65" s="2">
         <v>1899</v>
+      </c>
+      <c r="T65" s="2">
+        <v>1906</v>
+      </c>
+      <c r="U65" s="2">
+        <v>1931</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1629</v>
       </c>
       <c r="W65" s="2">
         <v>1632</v>
@@ -8130,67 +9177,67 @@
       </c>
       <c r="C66" s="9">
         <f t="shared" ref="C66:V66" si="77">SUM(C61:C65)</f>
-        <v>0</v>
+        <v>27581</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>27612</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>30917</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>28652</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>27771</v>
       </c>
       <c r="H66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>28829</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>32492</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>29993</v>
       </c>
       <c r="K66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>29502</v>
       </c>
       <c r="L66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>29730</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>32196</v>
       </c>
       <c r="N66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>30946</v>
       </c>
       <c r="O66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>33637</v>
       </c>
       <c r="P66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>35422</v>
       </c>
       <c r="Q66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>37342</v>
       </c>
       <c r="R66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>36808</v>
       </c>
       <c r="S66" s="9">
         <f t="shared" si="77"/>
@@ -8198,15 +9245,15 @@
       </c>
       <c r="T66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>36525</v>
       </c>
       <c r="U66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>40608</v>
       </c>
       <c r="V66" s="9">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>40984</v>
       </c>
       <c r="W66" s="9">
         <f>SUM(W61:W65)</f>
@@ -8217,8 +9264,65 @@
       <c r="B67" s="35" t="s">
         <v>111</v>
       </c>
+      <c r="C67" s="2">
+        <v>10979</v>
+      </c>
+      <c r="D67" s="2">
+        <v>11055</v>
+      </c>
+      <c r="E67" s="2">
+        <v>11092</v>
+      </c>
+      <c r="F67" s="2">
+        <v>11651</v>
+      </c>
+      <c r="G67" s="2">
+        <v>11158</v>
+      </c>
+      <c r="H67" s="2">
+        <v>11167</v>
+      </c>
+      <c r="I67" s="2">
+        <v>11080</v>
+      </c>
+      <c r="J67" s="2">
+        <v>11297</v>
+      </c>
+      <c r="K67" s="2">
+        <v>11117</v>
+      </c>
+      <c r="L67" s="2">
+        <v>11836</v>
+      </c>
+      <c r="M67" s="2">
+        <v>11545</v>
+      </c>
+      <c r="N67" s="2">
+        <v>11833</v>
+      </c>
+      <c r="O67" s="2">
+        <v>11169</v>
+      </c>
+      <c r="P67" s="2">
+        <v>12578</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>13319</v>
+      </c>
+      <c r="R67" s="2">
+        <v>14440</v>
+      </c>
       <c r="S67" s="2">
         <v>14959</v>
+      </c>
+      <c r="T67" s="2">
+        <v>14860</v>
+      </c>
+      <c r="U67" s="2">
+        <v>13803</v>
+      </c>
+      <c r="V67" s="2">
+        <v>12827</v>
       </c>
       <c r="W67" s="2">
         <v>10774</v>
@@ -8231,67 +9335,67 @@
       </c>
       <c r="C68" s="9">
         <f t="shared" ref="C68:V68" si="78">C66+C67</f>
-        <v>0</v>
+        <v>38560</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>38667</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>42009</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>40303</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>38929</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>39996</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>43572</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>41290</v>
       </c>
       <c r="K68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>40619</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>41566</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>43741</v>
       </c>
       <c r="N68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>42779</v>
       </c>
       <c r="O68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>44806</v>
       </c>
       <c r="P68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Q68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>50661</v>
       </c>
       <c r="R68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>51248</v>
       </c>
       <c r="S68" s="9">
         <f t="shared" si="78"/>
@@ -8299,15 +9403,15 @@
       </c>
       <c r="T68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>51385</v>
       </c>
       <c r="U68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>54411</v>
       </c>
       <c r="V68" s="9">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>53811</v>
       </c>
       <c r="W68" s="9">
         <f>W66+W67</f>
@@ -8316,10 +9420,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:Z37">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8333,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594DC331-B18C-4295-82BA-E138709B9421}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8399,8 +9511,8 @@
         <f>AVERAGE(DCF!AE40:AI40)</f>
         <v>0.13063560301565624</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>114</v>
+      <c r="D9" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -8440,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F43887-FD1A-4B91-BDA5-52B615D6F8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B25ED-3F50-425A-B75A-443148DE4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
   <si>
     <t>Company</t>
   </si>
@@ -273,9 +273,6 @@
     <t>finviz</t>
   </si>
   <si>
-    <t>Average Price</t>
-  </si>
-  <si>
     <t>1Q22 8K</t>
   </si>
   <si>
@@ -421,6 +418,84 @@
   </si>
   <si>
     <t>Interest Expense/(income)</t>
+  </si>
+  <si>
+    <t>Model Net Income</t>
+  </si>
+  <si>
+    <t>Reported Net Income</t>
+  </si>
+  <si>
+    <t>Stock Based Comp. Expense</t>
+  </si>
+  <si>
+    <t>Gain on Dermstore Sale</t>
+  </si>
+  <si>
+    <t>Noncash Losses/(Gains) and Other</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Accrued &amp; Other Liabilities</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Proceeds from Disposal of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Proceeds from Dermstore Sale</t>
+  </si>
+  <si>
+    <t>Other Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Commercial Paper</t>
+  </si>
+  <si>
+    <t>Reductions of LT Debt</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Repurchase of Stock</t>
+  </si>
+  <si>
+    <t>Accelerated Share Repurchase Pending Final Settlement</t>
+  </si>
+  <si>
+    <t>Stock Options Exercises</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Loss on Debt Extinguishment</t>
+  </si>
+  <si>
+    <t>Additions to LT Debt</t>
+  </si>
+  <si>
+    <t>Using FCF</t>
+  </si>
+  <si>
+    <t>FCF Y/Y</t>
   </si>
 </sst>
 </file>
@@ -498,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -576,12 +651,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -655,12 +792,276 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -726,8 +1127,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -742,8 +1143,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18297525" y="66675"/>
-          <a:ext cx="0" cy="12544425"/>
+          <a:off x="18468975" y="66675"/>
+          <a:ext cx="0" cy="17878425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -776,8 +1177,8 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -792,8 +1193,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21469350" y="95250"/>
-          <a:ext cx="0" cy="6153150"/>
+          <a:off x="25860375" y="95250"/>
+          <a:ext cx="0" cy="18173700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1577,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD8FB6-9B3F-4613-8123-B39F0D5EDE91}">
-  <dimension ref="B3:G9"/>
+  <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1590,12 +1991,15 @@
     <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1605,8 +2009,17 @@
       <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -1615,15 +2028,23 @@
         <v>163.38</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="10" t="e">
-        <f>AVERAGE(DCF!AQ37,#REF!)</f>
-        <v>#REF!</v>
+      <c r="F4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="47">
+        <f>DCF!AQ32</f>
+        <v>-0.01</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="47">
+        <f>DCF!AT32</f>
+        <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1631,10 +2052,25 @@
         <v>467.8</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="47">
+        <f>WACC!C18</f>
+        <v>5.3850700241781214E-2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="47">
+        <f>DCF!AT33</f>
+        <v>5.3850700241781214E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
@@ -1643,8 +2079,23 @@
         <v>76429.164000000004</v>
       </c>
       <c r="D6" s="21"/>
+      <c r="F6" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="48">
+        <f>NPV(G5,DCF!AI25:PH25)</f>
+        <v>93586.865214316334</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="48">
+        <f>NPV(J5,DCF!AI98:PH98)</f>
+        <v>190632.20847372137</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1652,10 +2103,25 @@
         <v>1112</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="48">
+        <f>C7-C8</f>
+        <v>-13356</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="48">
+        <f>C7-C8</f>
+        <v>-13356</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
@@ -1664,10 +2130,25 @@
         <v>14468</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="48">
+        <f>G6+G7</f>
+        <v>80230.865214316334</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="48">
+        <f>J6+J7</f>
+        <v>177276.20847372137</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
@@ -1676,6 +2157,54 @@
         <v>89785.164000000004</v>
       </c>
       <c r="D9" s="24"/>
+      <c r="F9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="49">
+        <f>G8/C5</f>
+        <v>171.50676616997933</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="49">
+        <f>J8/C5</f>
+        <v>378.95726480060148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="49">
+        <v>163.38</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="49">
+        <f>C4</f>
+        <v>163.38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="51">
+        <f>(G9-G10)/G10</f>
+        <v>4.9741499387803485E-2</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="51">
+        <f>(J9-J10)/J10</f>
+        <v>1.319483809527491</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,13 +2213,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA5FFC-C2FB-4DA3-BA4F-61AACB691A05}">
-  <dimension ref="A1:PH68"/>
+  <dimension ref="A1:PH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="ON64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ39" sqref="AQ39"/>
+      <selection pane="bottomRight" activeCell="AQ35" sqref="AQ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1719,7 +2248,9 @@
     <col min="31" max="41" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="424" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="424" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="425" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1839,28 +2370,28 @@
         <v>4</v>
       </c>
       <c r="S2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="AA2" s="26"/>
       <c r="AB2" s="26"/>
@@ -1895,7 +2426,7 @@
     </row>
     <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7">
         <v>4051</v>
@@ -1994,7 +2525,7 @@
     </row>
     <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7">
         <v>3452</v>
@@ -2093,7 +2624,7 @@
     </row>
     <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7">
         <v>3413</v>
@@ -2192,7 +2723,7 @@
     </row>
     <row r="6" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7">
         <v>2747</v>
@@ -2291,7 +2822,7 @@
     </row>
     <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7">
         <v>2310</v>
@@ -2390,7 +2921,7 @@
     </row>
     <row r="8" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7">
         <v>22</v>
@@ -2631,7 +3162,7 @@
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="7">
         <v>171</v>
@@ -2730,7 +3261,7 @@
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7">
         <v>57</v>
@@ -2829,7 +3360,7 @@
     </row>
     <row r="13" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" ref="C13:V13" si="10">C11+C12</f>
@@ -3111,7 +3642,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>11134</v>
+        <v>11199</v>
       </c>
       <c r="D16" s="2">
         <v>11419</v>
@@ -3120,7 +3651,7 @@
         <v>11712</v>
       </c>
       <c r="F16" s="2">
-        <v>11713</v>
+        <v>16795</v>
       </c>
       <c r="G16" s="2">
         <v>11625</v>
@@ -3187,7 +3718,7 @@
       </c>
       <c r="AE16" s="2">
         <f>SUM(C16:F16)</f>
-        <v>45978</v>
+        <v>51125</v>
       </c>
       <c r="AF16" s="2">
         <f>SUM(G16:J16)</f>
@@ -3227,11 +3758,11 @@
         <v>47</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:P17" si="15">+C15-C16</f>
-        <v>5089</v>
+        <f>+C15-C16</f>
+        <v>5024</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C17:P17" si="15">+D15-D16</f>
         <v>5215</v>
       </c>
       <c r="E17" s="2">
@@ -3240,7 +3771,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="15"/>
-        <v>11270</v>
+        <v>6188</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="15"/>
@@ -3324,7 +3855,7 @@
       </c>
       <c r="AE17" s="2">
         <f>+AE15-AE16</f>
-        <v>26736</v>
+        <v>21589</v>
       </c>
       <c r="AF17" s="2">
         <f>+AF15-AF16</f>
@@ -3364,16 +3895,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>3132</v>
+        <v>3353</v>
       </c>
       <c r="D18" s="2">
-        <v>3382</v>
+        <v>3601</v>
       </c>
       <c r="E18" s="2">
-        <v>3512</v>
+        <v>3733</v>
       </c>
       <c r="F18" s="2">
-        <v>4221</v>
+        <v>4454</v>
       </c>
       <c r="G18" s="2">
         <v>3545</v>
@@ -3440,7 +3971,7 @@
       </c>
       <c r="AE18" s="2">
         <f>SUM(C18:F18)</f>
-        <v>14247</v>
+        <v>15141</v>
       </c>
       <c r="AF18" s="2">
         <f>SUM(G18:J18)</f>
@@ -3481,19 +4012,19 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ref="C19:P19" si="21">+C18</f>
-        <v>3132</v>
+        <v>3353</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="21"/>
-        <v>3382</v>
+        <v>3601</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="21"/>
-        <v>3512</v>
+        <v>3733</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="21"/>
-        <v>4221</v>
+        <v>4454</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="21"/>
@@ -3577,7 +4108,7 @@
       </c>
       <c r="AE19" s="2">
         <f>+AE18</f>
-        <v>14247</v>
+        <v>15141</v>
       </c>
       <c r="AF19" s="2">
         <f>+AF18</f>
@@ -3618,19 +4149,19 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ref="C20:P20" si="25">+C17-C19</f>
-        <v>1957</v>
+        <v>1671</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="25"/>
-        <v>1833</v>
+        <v>1614</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="25"/>
-        <v>1650</v>
+        <v>1429</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="25"/>
-        <v>7049</v>
+        <v>1734</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="25"/>
@@ -3714,7 +4245,7 @@
       </c>
       <c r="AE20" s="2">
         <f>+AE17-AE19</f>
-        <v>12489</v>
+        <v>6448</v>
       </c>
       <c r="AF20" s="2">
         <f>+AF17-AF19</f>
@@ -3751,23 +4282,19 @@
     </row>
     <row r="21" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
-        <f>144</f>
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2">
-        <f>135</f>
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
-        <f>254</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F21" s="2">
-        <f>134</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="2">
         <f>121</f>
@@ -3849,7 +4376,7 @@
       </c>
       <c r="AE21" s="2">
         <f>SUM(C21:F21)</f>
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="AF21" s="2">
         <f>SUM(G21:J21)</f>
@@ -3883,19 +4410,23 @@
     </row>
     <row r="22" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2">
-        <v>-4</v>
+        <f>-15-3</f>
+        <v>-18</v>
       </c>
       <c r="D22" s="2">
-        <v>-1</v>
+        <f>-15-1</f>
+        <v>-16</v>
       </c>
       <c r="E22" s="2">
-        <v>-2</v>
+        <f>-15-2</f>
+        <v>-17</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <f>-14+1</f>
+        <v>-13</v>
       </c>
       <c r="G22" s="2">
         <f>-7-1</f>
@@ -3968,7 +4499,7 @@
       </c>
       <c r="AE22" s="2">
         <f>SUM(C22:F22)</f>
-        <v>-6</v>
+        <v>-64</v>
       </c>
       <c r="AF22" s="2">
         <f>SUM(G22:J22)</f>
@@ -4009,19 +4540,19 @@
       </c>
       <c r="C23" s="2">
         <f>+C20-C21-C22</f>
-        <v>1817</v>
+        <v>1549</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23:AM23" si="30">+D20-D21-D22</f>
-        <v>1699</v>
+        <v>1499</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="30"/>
-        <v>1398</v>
+        <v>1195</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="30"/>
-        <v>6914</v>
+        <v>1616</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="30"/>
@@ -4105,7 +4636,7 @@
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="30"/>
-        <v>11828</v>
+        <v>5859</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="30"/>
@@ -4145,16 +4676,16 @@
         <v>29</v>
       </c>
       <c r="C24" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D24" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="2">
-        <v>-84</v>
+        <v>-76</v>
       </c>
       <c r="G24" s="2">
         <v>210</v>
@@ -4221,7 +4752,7 @@
       </c>
       <c r="AE24" s="2">
         <f>SUM(C24:F24)</f>
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AF24" s="2">
         <f>SUM(G24:J24)</f>
@@ -4263,19 +4794,19 @@
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:P25" si="33">+C23-C24</f>
-        <v>1460</v>
+        <v>1194</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="33"/>
-        <v>1391</v>
+        <v>1192</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="33"/>
-        <v>1261</v>
+        <v>1060</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="33"/>
-        <v>6998</v>
+        <v>1692</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="33"/>
@@ -4359,7 +4890,7 @@
       </c>
       <c r="AE25" s="9">
         <f>+AE23-AE24</f>
-        <v>11110</v>
+        <v>5138</v>
       </c>
       <c r="AF25" s="9">
         <f>+AF23-AF24</f>
@@ -6056,19 +6587,19 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" ref="C27:Z27" si="43">C25/C26</f>
-        <v>2.6296829971181555</v>
+        <v>2.1505763688760804</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="43"/>
-        <v>2.5203841275593404</v>
+        <v>2.1598115600652292</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="43"/>
-        <v>2.3015148749771859</v>
+        <v>1.934659609417777</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="43"/>
-        <v>12.819197655248214</v>
+        <v>3.0994687671734753</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="43"/>
@@ -6152,7 +6683,7 @@
       </c>
       <c r="AE27" s="10">
         <f t="shared" ref="AE27:AM27" si="44">AE25/AE26</f>
-        <v>20.351712767906211</v>
+        <v>9.411980216156806</v>
       </c>
       <c r="AF27" s="10">
         <f t="shared" si="44"/>
@@ -6187,20 +6718,27 @@
         <v>13.062819745083473</v>
       </c>
     </row>
+    <row r="28" spans="1:424" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
     <row r="29" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:424" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:424" x14ac:dyDescent="0.2">
       <c r="AP31" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AS31" s="37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:424" x14ac:dyDescent="0.2">
@@ -6327,8 +6865,12 @@
         <v>-0.01</v>
       </c>
       <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
+      <c r="AS32" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>-0.01</v>
+      </c>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
@@ -6344,7 +6886,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="45"/>
-        <v>4.409915573917722E-2</v>
+        <v>3.8039110634878082E-2</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="45"/>
@@ -6356,7 +6898,7 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" si="45"/>
-        <v>0.44284128745837958</v>
+        <v>6.2518606728192427E-3</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="45"/>
@@ -6424,7 +6966,7 @@
       </c>
       <c r="AF33" s="4">
         <f t="shared" si="47"/>
-        <v>0.15922832659097819</v>
+        <v>4.252322738386316E-2</v>
       </c>
       <c r="AG33" s="4">
         <f t="shared" si="47"/>
@@ -6459,11 +7001,16 @@
       </c>
       <c r="AQ33" s="11">
         <f>WACC!C18</f>
-        <v>5.3950410437967056E-2</v>
+        <v>5.3850700241781214E-2</v>
       </c>
       <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
+      <c r="AS33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT33" s="42">
+        <f>WACC!C18</f>
+        <v>5.3850700241781214E-2</v>
+      </c>
       <c r="AU33" s="12"/>
       <c r="AV33" s="12"/>
       <c r="AW33" s="12"/>
@@ -6479,19 +7026,19 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ref="G34:Z34" si="48">G18/C18-1</f>
-        <v>0.13186462324393355</v>
+        <v>5.7262153295556173E-2</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="48"/>
-        <v>0.14281490242460082</v>
+        <v>7.3312968619827723E-2</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="48"/>
-        <v>0.12101366742596809</v>
+        <v>5.4647736405036174E-2</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="48"/>
-        <v>3.6721156124141174E-2</v>
+        <v>-1.7512348450830717E-2</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="48"/>
@@ -6559,7 +7106,7 @@
       </c>
       <c r="AF34" s="4">
         <f t="shared" ref="AF34:AM34" si="49">AF18/AE18-1</f>
-        <v>0.10360075805432722</v>
+        <v>3.8438676441450381E-2</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="49"/>
@@ -6593,12 +7140,17 @@
         <v>58</v>
       </c>
       <c r="AQ34" s="7">
-        <f>NPV(AQ33,AG25:PH25)</f>
-        <v>95412.82122862144</v>
+        <f>NPV(AQ33,AI25:PH25)</f>
+        <v>93586.865214316334</v>
       </c>
       <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
+      <c r="AS34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT34" s="40">
+        <f>NPV(AT33,AI98:PH98)</f>
+        <v>190632.20847372137</v>
+      </c>
       <c r="AU34" s="12"/>
       <c r="AV34" s="12"/>
       <c r="AW34" s="12"/>
@@ -6614,19 +7166,19 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ref="G35:Z35" si="50">G25/C25-1</f>
-        <v>-0.11780821917808215</v>
+        <v>7.8726968174204437E-2</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="50"/>
-        <v>-3.8102084831056815E-2</v>
+        <v>0.12248322147651014</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="50"/>
-        <v>-8.64393338620143E-2</v>
+        <v>8.679245283018866E-2</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="50"/>
-        <v>-0.80222920834524147</v>
+        <v>-0.18203309692671399</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="50"/>
@@ -6694,7 +7246,7 @@
       </c>
       <c r="AF35" s="4">
         <f t="shared" ref="AF35:AM35" si="51">AF25/AE25-1</f>
-        <v>-0.53537353735373538</v>
+        <v>4.6710782405605666E-3</v>
       </c>
       <c r="AG35" s="4">
         <f t="shared" si="51"/>
@@ -6732,8 +7284,13 @@
         <v>-13356</v>
       </c>
       <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
+      <c r="AS35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT35" s="40">
+        <f>Main!C7-Main!C8</f>
+        <v>-13356</v>
+      </c>
       <c r="AU35" s="12"/>
       <c r="AV35" s="12"/>
       <c r="AW35" s="12"/>
@@ -6864,11 +7421,16 @@
       </c>
       <c r="AQ36" s="7">
         <f>+AQ34+AQ35</f>
-        <v>82056.82122862144</v>
+        <v>80230.865214316334</v>
       </c>
       <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
+      <c r="AS36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT36" s="40">
+        <f>AT34+AT35</f>
+        <v>177276.20847372137</v>
+      </c>
       <c r="AU36" s="12"/>
       <c r="AV36" s="12"/>
       <c r="AW36" s="12"/>
@@ -6884,19 +7446,19 @@
       </c>
       <c r="G37" s="4">
         <f>G27/C27-1</f>
-        <v>-9.4652723267414474E-2</v>
+        <v>0.10704105865123537</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" ref="H37:R37" si="63">H27/D27-1</f>
-        <v>-1.012220887238513E-2</v>
+        <v>0.15513423444506058</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="63"/>
-        <v>-5.7718582498113125E-2</v>
+        <v>0.12095930893384854</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="63"/>
-        <v>-0.79408148929175537</v>
+        <v>-0.14833467025041613</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="63"/>
@@ -6964,7 +7526,7 @@
       </c>
       <c r="AF37" s="4">
         <f t="shared" ref="AF37:AH37" si="64">AF27/AE27-1</f>
-        <v>-0.51623195506657282</v>
+        <v>4.6061303855658986E-2</v>
       </c>
       <c r="AG37" s="4">
         <f t="shared" si="64"/>
@@ -6999,11 +7561,16 @@
       </c>
       <c r="AQ37" s="13">
         <f>AQ36/Main!C5</f>
-        <v>175.4100496550266</v>
+        <v>171.50676616997933</v>
       </c>
       <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
+      <c r="AS37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT37" s="43">
+        <f>AT36/Main!C5</f>
+        <v>378.95726480060148</v>
+      </c>
       <c r="AU37" s="12"/>
       <c r="AV37" s="12"/>
       <c r="AW37" s="12"/>
@@ -7019,7 +7586,7 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:Z38" si="66">C17/C15</f>
-        <v>0.31369043949947606</v>
+        <v>0.30968378228441101</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="66"/>
@@ -7031,7 +7598,7 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="66"/>
-        <v>0.49036244180481225</v>
+        <v>0.26924248357481617</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="66"/>
@@ -7115,7 +7682,7 @@
       </c>
       <c r="AE38" s="4">
         <f t="shared" ref="AE38:AM38" si="67">AE17/AE15</f>
-        <v>0.36768710289627859</v>
+        <v>0.29690293478559837</v>
       </c>
       <c r="AF38" s="4">
         <f t="shared" si="67"/>
@@ -7157,8 +7724,13 @@
         <v>163.38</v>
       </c>
       <c r="AR38" s="7"/>
-      <c r="AS38" s="7"/>
-      <c r="AT38" s="7"/>
+      <c r="AS38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT38" s="44">
+        <f>Main!C4</f>
+        <v>163.38</v>
+      </c>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
       <c r="AW38" s="7"/>
@@ -7174,19 +7746,19 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ref="C39:Z39" si="68">C20/C15</f>
-        <v>0.12063120261357332</v>
+        <v>0.10300191086728719</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="68"/>
-        <v>0.11019598412889263</v>
+        <v>9.7030179151136223E-2</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="68"/>
-        <v>9.7783572359843543E-2</v>
+        <v>8.4686499940737223E-2</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="68"/>
-        <v>0.30670495583692292</v>
+        <v>7.5447069573162773E-2</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="68"/>
@@ -7270,7 +7842,7 @@
       </c>
       <c r="AE39" s="4">
         <f t="shared" ref="AE39:AM39" si="69">AE20/AE15</f>
-        <v>0.17175509530489314</v>
+        <v>8.8676183403471137E-2</v>
       </c>
       <c r="AF39" s="4">
         <f t="shared" si="69"/>
@@ -7309,11 +7881,16 @@
       </c>
       <c r="AQ39" s="14">
         <f>AQ37/AQ38-1</f>
-        <v>7.3632327427020527E-2</v>
+        <v>4.9741499387803589E-2</v>
       </c>
       <c r="AR39" s="12"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
+      <c r="AS39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT39" s="14">
+        <f>AT37/AT38-1</f>
+        <v>1.3194838095274912</v>
+      </c>
       <c r="AU39" s="12"/>
       <c r="AV39" s="12"/>
       <c r="AW39" s="12"/>
@@ -7329,19 +7906,19 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ref="C40:Z40" si="70">C24/C23</f>
-        <v>0.19647771051183269</v>
+        <v>0.22918011620400258</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="70"/>
-        <v>0.18128310771041789</v>
+        <v>0.2048032021347565</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="70"/>
-        <v>9.7997138769670963E-2</v>
+        <v>0.11297071129707113</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="70"/>
-        <v>-1.2149262366213481E-2</v>
+        <v>-4.702970297029703E-2</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="70"/>
@@ -7425,7 +8002,7 @@
       </c>
       <c r="AE40" s="4">
         <f t="shared" ref="AE40:AM40" si="71">AE24/AE23</f>
-        <v>6.0703415623943185E-2</v>
+        <v>0.12305854241338113</v>
       </c>
       <c r="AF40" s="4">
         <f t="shared" si="71"/>
@@ -7588,10 +8165,30 @@
         <f>W44-W60-W62</f>
         <v>-13356</v>
       </c>
+      <c r="AE43" s="9">
+        <f t="shared" ref="AE43:AI43" si="73">AE44-AE60-AE62</f>
+        <v>-8755</v>
+      </c>
+      <c r="AF43" s="9">
+        <f t="shared" si="73"/>
+        <v>-9719</v>
+      </c>
+      <c r="AG43" s="9">
+        <f t="shared" si="73"/>
+        <v>-8922</v>
+      </c>
+      <c r="AH43" s="9">
+        <f t="shared" si="73"/>
+        <v>-4169</v>
+      </c>
+      <c r="AI43" s="9">
+        <f t="shared" si="73"/>
+        <v>-7809</v>
+      </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B44" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2">
         <v>2680</v>
@@ -7655,11 +8252,31 @@
       </c>
       <c r="W44" s="2">
         <v>1112</v>
+      </c>
+      <c r="AE44" s="2">
+        <f>F44</f>
+        <v>2643</v>
+      </c>
+      <c r="AF44" s="2">
+        <f>J44</f>
+        <v>1556</v>
+      </c>
+      <c r="AG44" s="2">
+        <f>N44</f>
+        <v>2577</v>
+      </c>
+      <c r="AH44" s="2">
+        <f>R44</f>
+        <v>8511</v>
+      </c>
+      <c r="AI44" s="2">
+        <f>V44</f>
+        <v>5911</v>
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B45" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2">
         <v>7920</v>
@@ -7723,11 +8340,31 @@
       </c>
       <c r="W45" s="2">
         <v>15083</v>
+      </c>
+      <c r="AE45" s="2">
+        <f>F45</f>
+        <v>8597</v>
+      </c>
+      <c r="AF45" s="2">
+        <f t="shared" ref="AF45:AF46" si="74">J45</f>
+        <v>9497</v>
+      </c>
+      <c r="AG45" s="2">
+        <f>N45</f>
+        <v>8992</v>
+      </c>
+      <c r="AH45" s="2">
+        <f t="shared" ref="AH45:AH46" si="75">R45</f>
+        <v>10653</v>
+      </c>
+      <c r="AI45" s="2">
+        <f>V45</f>
+        <v>13902</v>
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2">
         <v>1116</v>
@@ -7791,100 +8428,140 @@
       </c>
       <c r="W46" s="2">
         <v>1758</v>
+      </c>
+      <c r="AE46" s="2">
+        <f t="shared" ref="AE46:AE56" si="76">F46</f>
+        <v>1300</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" si="74"/>
+        <v>1466</v>
+      </c>
+      <c r="AG46" s="2">
+        <f>N46</f>
+        <v>1333</v>
+      </c>
+      <c r="AH46" s="2">
+        <f t="shared" si="75"/>
+        <v>1592</v>
+      </c>
+      <c r="AI46" s="2">
+        <f>V46</f>
+        <v>1760</v>
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B47" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ref="C47:V47" si="73">SUM(C44:C46)</f>
+        <f t="shared" ref="C47:V47" si="77">SUM(C44:C46)</f>
         <v>11716</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>11597</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>14686</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12540</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>10876</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>11503</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>14639</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12519</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>11607</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12119</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>13805</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12902</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>14615</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>17623</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>20309</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>20756</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>19931</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>20231</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>22576</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>21573</v>
       </c>
       <c r="W47" s="2">
         <f>SUM(W44:W46)</f>
         <v>17953</v>
       </c>
+      <c r="AE47" s="2">
+        <f>SUM(AE44:AE46)</f>
+        <v>12540</v>
+      </c>
+      <c r="AF47" s="2">
+        <f t="shared" ref="AF47:AI47" si="78">SUM(AF44:AF46)</f>
+        <v>12519</v>
+      </c>
+      <c r="AG47" s="2">
+        <f t="shared" si="78"/>
+        <v>12902</v>
+      </c>
+      <c r="AH47" s="2">
+        <f t="shared" si="78"/>
+        <v>20756</v>
+      </c>
+      <c r="AI47" s="2">
+        <f t="shared" si="78"/>
+        <v>21573</v>
+      </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B48" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2">
         <v>6105</v>
@@ -7949,10 +8626,30 @@
       <c r="W48" s="2">
         <v>6164</v>
       </c>
+      <c r="AE48" s="2">
+        <f t="shared" si="76"/>
+        <v>6095</v>
+      </c>
+      <c r="AF48" s="2">
+        <f t="shared" ref="AF48:AF56" si="79">J48</f>
+        <v>6064</v>
+      </c>
+      <c r="AG48" s="2">
+        <f t="shared" ref="AG48:AG56" si="80">N48</f>
+        <v>6036</v>
+      </c>
+      <c r="AH48" s="2">
+        <f t="shared" ref="AH48:AH56" si="81">R48</f>
+        <v>6141</v>
+      </c>
+      <c r="AI48" s="2">
+        <f t="shared" ref="AI48:AI56" si="82">V48</f>
+        <v>6164</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B49" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2">
         <v>27320</v>
@@ -8017,10 +8714,30 @@
       <c r="W49" s="2">
         <v>33300</v>
       </c>
+      <c r="AE49" s="2">
+        <f t="shared" si="76"/>
+        <v>28131</v>
+      </c>
+      <c r="AF49" s="2">
+        <f t="shared" si="79"/>
+        <v>29240</v>
+      </c>
+      <c r="AG49" s="2">
+        <f t="shared" si="80"/>
+        <v>30603</v>
+      </c>
+      <c r="AH49" s="2">
+        <f t="shared" si="81"/>
+        <v>31557</v>
+      </c>
+      <c r="AI49" s="2">
+        <f t="shared" si="82"/>
+        <v>32985</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2">
         <v>5177</v>
@@ -8085,10 +8802,30 @@
       <c r="W50" s="2">
         <v>6459</v>
       </c>
+      <c r="AE50" s="2">
+        <f t="shared" si="76"/>
+        <v>5623</v>
+      </c>
+      <c r="AF50" s="2">
+        <f t="shared" si="79"/>
+        <v>5912</v>
+      </c>
+      <c r="AG50" s="2">
+        <f t="shared" si="80"/>
+        <v>6083</v>
+      </c>
+      <c r="AH50" s="2">
+        <f t="shared" si="81"/>
+        <v>5914</v>
+      </c>
+      <c r="AI50" s="2">
+        <f t="shared" si="82"/>
+        <v>6407</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B51" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2">
         <v>2546</v>
@@ -8153,10 +8890,30 @@
       <c r="W51" s="2">
         <v>2588</v>
       </c>
+      <c r="AE51" s="2">
+        <f t="shared" si="76"/>
+        <v>2645</v>
+      </c>
+      <c r="AF51" s="2">
+        <f t="shared" si="79"/>
+        <v>2544</v>
+      </c>
+      <c r="AG51" s="2">
+        <f t="shared" si="80"/>
+        <v>2692</v>
+      </c>
+      <c r="AH51" s="2">
+        <f t="shared" si="81"/>
+        <v>2765</v>
+      </c>
+      <c r="AI51" s="2">
+        <f t="shared" si="82"/>
+        <v>2505</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B52" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2">
         <v>379</v>
@@ -8221,10 +8978,30 @@
       <c r="W52" s="2">
         <v>1444</v>
       </c>
+      <c r="AE52" s="2">
+        <f t="shared" si="76"/>
+        <v>440</v>
+      </c>
+      <c r="AF52" s="2">
+        <f t="shared" si="79"/>
+        <v>460</v>
+      </c>
+      <c r="AG52" s="2">
+        <f t="shared" si="80"/>
+        <v>533</v>
+      </c>
+      <c r="AH52" s="2">
+        <f t="shared" si="81"/>
+        <v>780</v>
+      </c>
+      <c r="AI52" s="2">
+        <f t="shared" si="82"/>
+        <v>1257</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B53" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2">
         <v>-17285</v>
@@ -8289,99 +9066,139 @@
       <c r="W53" s="2">
         <v>-21285</v>
       </c>
+      <c r="AE53" s="2">
+        <f t="shared" si="76"/>
+        <v>-18398</v>
+      </c>
+      <c r="AF53" s="2">
+        <f t="shared" si="79"/>
+        <v>-18687</v>
+      </c>
+      <c r="AG53" s="2">
+        <f t="shared" si="80"/>
+        <v>-19664</v>
+      </c>
+      <c r="AH53" s="2">
+        <f t="shared" si="81"/>
+        <v>-20278</v>
+      </c>
+      <c r="AI53" s="2">
+        <f t="shared" si="82"/>
+        <v>-21137</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B54" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" ref="C54:V54" si="74">SUM(C48:C53)</f>
+        <f t="shared" ref="C54:V54" si="83">SUM(C48:C53)</f>
         <v>24242</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>24404</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>24649</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>24536</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>24767</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>25172</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>25607</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>25533</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>25706</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26012</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26384</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26283</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26589</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26739</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26773</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26879</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>26804</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>27244</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>27915</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>28181</v>
       </c>
       <c r="W54" s="2">
         <f>SUM(W48:W53)</f>
         <v>28670</v>
       </c>
+      <c r="AE54" s="2">
+        <f t="shared" si="76"/>
+        <v>24536</v>
+      </c>
+      <c r="AF54" s="2">
+        <f t="shared" si="79"/>
+        <v>25533</v>
+      </c>
+      <c r="AG54" s="2">
+        <f t="shared" si="80"/>
+        <v>26283</v>
+      </c>
+      <c r="AH54" s="2">
+        <f t="shared" si="81"/>
+        <v>26879</v>
+      </c>
+      <c r="AI54" s="2">
+        <f t="shared" si="82"/>
+        <v>28181</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B55" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2">
         <v>1879</v>
@@ -8446,10 +9263,30 @@
       <c r="W55" s="2">
         <v>2571</v>
       </c>
+      <c r="AE55" s="2">
+        <f t="shared" si="76"/>
+        <v>1884</v>
+      </c>
+      <c r="AF55" s="2">
+        <f t="shared" si="79"/>
+        <v>1965</v>
+      </c>
+      <c r="AG55" s="2">
+        <f t="shared" si="80"/>
+        <v>2236</v>
+      </c>
+      <c r="AH55" s="2">
+        <f t="shared" si="81"/>
+        <v>2227</v>
+      </c>
+      <c r="AI55" s="2">
+        <f t="shared" si="82"/>
+        <v>2556</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B56" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2">
         <v>723</v>
@@ -8514,100 +9351,140 @@
       <c r="W56" s="2">
         <v>1648</v>
       </c>
+      <c r="AE56" s="2">
+        <f t="shared" si="76"/>
+        <v>1343</v>
+      </c>
+      <c r="AF56" s="2">
+        <f t="shared" si="79"/>
+        <v>1273</v>
+      </c>
+      <c r="AG56" s="2">
+        <f t="shared" si="80"/>
+        <v>1358</v>
+      </c>
+      <c r="AH56" s="2">
+        <f t="shared" si="81"/>
+        <v>1386</v>
+      </c>
+      <c r="AI56" s="2">
+        <f t="shared" si="82"/>
+        <v>1501</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:V57" si="75">C47+C54+C55+C56</f>
+        <f t="shared" ref="C57:V57" si="84">C47+C54+C55+C56</f>
         <v>38560</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>38667</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>42009</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>40303</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>38929</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>39996</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>43572</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>41290</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>40619</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>41566</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>43741</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>42779</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>44806</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>48000</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>50661</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>51248</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>50471</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>51385</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>54411</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>53811</v>
       </c>
       <c r="W57" s="9">
         <f>W47+W54+W55+W56</f>
         <v>50842</v>
       </c>
+      <c r="AE57" s="9">
+        <f>AE47+AE54+AE55+AE56</f>
+        <v>40303</v>
+      </c>
+      <c r="AF57" s="9">
+        <f t="shared" ref="AF57:AI57" si="85">AF47+AF54+AF55+AF56</f>
+        <v>41290</v>
+      </c>
+      <c r="AG57" s="9">
+        <f t="shared" si="85"/>
+        <v>42779</v>
+      </c>
+      <c r="AH57" s="9">
+        <f t="shared" si="85"/>
+        <v>51248</v>
+      </c>
+      <c r="AI57" s="9">
+        <f t="shared" si="85"/>
+        <v>53811</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B58" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2">
         <v>6537</v>
@@ -8672,10 +9549,30 @@
       <c r="W58" s="2">
         <v>14053</v>
       </c>
+      <c r="AE58" s="2">
+        <f t="shared" ref="AE58:AE67" si="86">F58</f>
+        <v>8677</v>
+      </c>
+      <c r="AF58" s="2">
+        <f t="shared" ref="AF58:AF65" si="87">J58</f>
+        <v>9761</v>
+      </c>
+      <c r="AG58" s="2">
+        <f t="shared" ref="AG58:AG65" si="88">N58</f>
+        <v>9920</v>
+      </c>
+      <c r="AH58" s="2">
+        <f t="shared" ref="AH58:AH65" si="89">R58</f>
+        <v>12859</v>
+      </c>
+      <c r="AI58" s="2">
+        <f t="shared" ref="AI58:AI65" si="90">V58</f>
+        <v>15478</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2">
         <v>3973</v>
@@ -8740,10 +9637,30 @@
       <c r="W59" s="2">
         <v>5582</v>
       </c>
+      <c r="AE59" s="2">
+        <f t="shared" si="86"/>
+        <v>4094</v>
+      </c>
+      <c r="AF59" s="2">
+        <f t="shared" si="87"/>
+        <v>4201</v>
+      </c>
+      <c r="AG59" s="2">
+        <f t="shared" si="88"/>
+        <v>4406</v>
+      </c>
+      <c r="AH59" s="2">
+        <f t="shared" si="89"/>
+        <v>6122</v>
+      </c>
+      <c r="AI59" s="2">
+        <f t="shared" si="90"/>
+        <v>6098</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B60" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2">
         <v>1729</v>
@@ -8808,99 +9725,139 @@
       <c r="W60" s="2">
         <v>1089</v>
       </c>
+      <c r="AE60" s="2">
+        <f t="shared" si="86"/>
+        <v>281</v>
+      </c>
+      <c r="AF60" s="2">
+        <f t="shared" si="87"/>
+        <v>1052</v>
+      </c>
+      <c r="AG60" s="2">
+        <f t="shared" si="88"/>
+        <v>161</v>
+      </c>
+      <c r="AH60" s="2">
+        <f t="shared" si="89"/>
+        <v>1144</v>
+      </c>
+      <c r="AI60" s="2">
+        <f t="shared" si="90"/>
+        <v>171</v>
+      </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ref="C61:V61" si="76">SUM(C58:C60)</f>
+        <f t="shared" ref="C61:V61" si="91">SUM(C58:C60)</f>
         <v>12239</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>12576</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>15227</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>13052</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>12044</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>14038</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>17590</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>15014</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>13239</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>14364</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>16608</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>14487</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>14412</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>15892</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>19357</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>20125</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>18598</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>19422</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>23351</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>21747</v>
       </c>
       <c r="W61" s="2">
         <f>SUM(W58:W60)</f>
         <v>20724</v>
       </c>
+      <c r="AE61" s="2">
+        <f t="shared" si="86"/>
+        <v>13052</v>
+      </c>
+      <c r="AF61" s="2">
+        <f t="shared" si="87"/>
+        <v>15014</v>
+      </c>
+      <c r="AG61" s="2">
+        <f t="shared" si="88"/>
+        <v>14487</v>
+      </c>
+      <c r="AH61" s="2">
+        <f t="shared" si="89"/>
+        <v>20125</v>
+      </c>
+      <c r="AI61" s="2">
+        <f t="shared" si="90"/>
+        <v>21747</v>
+      </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B62" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2">
         <v>10916</v>
@@ -8965,10 +9922,30 @@
       <c r="W62" s="2">
         <v>13379</v>
       </c>
+      <c r="AE62" s="2">
+        <f t="shared" si="86"/>
+        <v>11117</v>
+      </c>
+      <c r="AF62" s="2">
+        <f t="shared" si="87"/>
+        <v>10223</v>
+      </c>
+      <c r="AG62" s="2">
+        <f t="shared" si="88"/>
+        <v>11338</v>
+      </c>
+      <c r="AH62" s="2">
+        <f t="shared" si="89"/>
+        <v>11536</v>
+      </c>
+      <c r="AI62" s="2">
+        <f t="shared" si="90"/>
+        <v>13549</v>
+      </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B63" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2">
         <v>1923</v>
@@ -9033,10 +10010,30 @@
       <c r="W63" s="2">
         <v>2581</v>
       </c>
+      <c r="AE63" s="2">
+        <f t="shared" si="86"/>
+        <v>1924</v>
+      </c>
+      <c r="AF63" s="2">
+        <f t="shared" si="87"/>
+        <v>2004</v>
+      </c>
+      <c r="AG63" s="2">
+        <f t="shared" si="88"/>
+        <v>2275</v>
+      </c>
+      <c r="AH63" s="2">
+        <f t="shared" si="89"/>
+        <v>2218</v>
+      </c>
+      <c r="AI63" s="2">
+        <f t="shared" si="90"/>
+        <v>2493</v>
+      </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B64" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2">
         <v>843</v>
@@ -9101,10 +10098,30 @@
       <c r="W64" s="2">
         <v>1752</v>
       </c>
+      <c r="AE64" s="2">
+        <f t="shared" si="86"/>
+        <v>693</v>
+      </c>
+      <c r="AF64" s="2">
+        <f t="shared" si="87"/>
+        <v>972</v>
+      </c>
+      <c r="AG64" s="2">
+        <f t="shared" si="88"/>
+        <v>1122</v>
+      </c>
+      <c r="AH64" s="2">
+        <f t="shared" si="89"/>
+        <v>990</v>
+      </c>
+      <c r="AI64" s="2">
+        <f t="shared" si="90"/>
+        <v>1566</v>
+      </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B65" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2">
         <v>1660</v>
@@ -9169,100 +10186,140 @@
       <c r="W65" s="2">
         <v>1632</v>
       </c>
+      <c r="AE65" s="2">
+        <f t="shared" si="86"/>
+        <v>1866</v>
+      </c>
+      <c r="AF65" s="2">
+        <f t="shared" si="87"/>
+        <v>1780</v>
+      </c>
+      <c r="AG65" s="2">
+        <f t="shared" si="88"/>
+        <v>1724</v>
+      </c>
+      <c r="AH65" s="2">
+        <f t="shared" si="89"/>
+        <v>1939</v>
+      </c>
+      <c r="AI65" s="2">
+        <f t="shared" si="90"/>
+        <v>1629</v>
+      </c>
     </row>
-    <row r="66" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ref="C66:V66" si="77">SUM(C61:C65)</f>
+        <f t="shared" ref="C66:V66" si="92">SUM(C61:C65)</f>
         <v>27581</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>27612</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>30917</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>28652</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>27771</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>28829</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>32492</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>29993</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>29502</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>29730</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>32196</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>30946</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>33637</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>35422</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>37342</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>36808</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>35512</v>
       </c>
       <c r="T66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>36525</v>
       </c>
       <c r="U66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>40608</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>40984</v>
       </c>
       <c r="W66" s="9">
         <f>SUM(W61:W65)</f>
         <v>40068</v>
       </c>
+      <c r="AE66" s="9">
+        <f>SUM(AE61:AE65)</f>
+        <v>28652</v>
+      </c>
+      <c r="AF66" s="9">
+        <f t="shared" ref="AF66:AI66" si="93">SUM(AF61:AF65)</f>
+        <v>29993</v>
+      </c>
+      <c r="AG66" s="9">
+        <f t="shared" si="93"/>
+        <v>30946</v>
+      </c>
+      <c r="AH66" s="9">
+        <f t="shared" si="93"/>
+        <v>36808</v>
+      </c>
+      <c r="AI66" s="9">
+        <f t="shared" si="93"/>
+        <v>40984</v>
+      </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B67" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2">
         <v>10979</v>
@@ -9327,111 +10384,3099 @@
       <c r="W67" s="2">
         <v>10774</v>
       </c>
+      <c r="AE67" s="2">
+        <f t="shared" si="86"/>
+        <v>11651</v>
+      </c>
+      <c r="AF67" s="2">
+        <f>J67</f>
+        <v>11297</v>
+      </c>
+      <c r="AG67" s="2">
+        <f>N67</f>
+        <v>11833</v>
+      </c>
+      <c r="AH67" s="2">
+        <f>R67</f>
+        <v>14440</v>
+      </c>
+      <c r="AI67" s="2">
+        <f>V67</f>
+        <v>12827</v>
+      </c>
     </row>
-    <row r="68" spans="1:23" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" ref="C68:V68" si="78">C66+C67</f>
+        <f t="shared" ref="C68:V68" si="94">C66+C67</f>
         <v>38560</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>38667</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>42009</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>40303</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>38929</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>39996</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>43572</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>41290</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>40619</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>41566</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>43741</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>42779</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>44806</v>
       </c>
       <c r="P68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>48000</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>50661</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>51248</v>
       </c>
       <c r="S68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>50471</v>
       </c>
       <c r="T68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>51385</v>
       </c>
       <c r="U68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>54411</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>53811</v>
       </c>
       <c r="W68" s="9">
         <f>W66+W67</f>
         <v>50842</v>
       </c>
+      <c r="AE68" s="9">
+        <f>AE66+AE67</f>
+        <v>40303</v>
+      </c>
+      <c r="AF68" s="9">
+        <f t="shared" ref="AF68:AI68" si="95">AF66+AF67</f>
+        <v>41290</v>
+      </c>
+      <c r="AG68" s="9">
+        <f t="shared" si="95"/>
+        <v>42779</v>
+      </c>
+      <c r="AH68" s="9">
+        <f t="shared" si="95"/>
+        <v>51248</v>
+      </c>
+      <c r="AI68" s="9">
+        <f t="shared" si="95"/>
+        <v>53811</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B71" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2">
+        <f>C25</f>
+        <v>1194</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" ref="D71:W71" si="96">D25</f>
+        <v>1192</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="96"/>
+        <v>1060</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="96"/>
+        <v>1692</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="96"/>
+        <v>1288</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="96"/>
+        <v>1338</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="96"/>
+        <v>1152</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="96"/>
+        <v>1384</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="96"/>
+        <v>1376</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="96"/>
+        <v>1499</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="96"/>
+        <v>1289</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="96"/>
+        <v>1474</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="96"/>
+        <v>861</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="96"/>
+        <v>2232</v>
+      </c>
+      <c r="Q71" s="2">
+        <f t="shared" si="96"/>
+        <v>1555</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="96"/>
+        <v>1950</v>
+      </c>
+      <c r="S71" s="2">
+        <f t="shared" si="96"/>
+        <v>2695</v>
+      </c>
+      <c r="T71" s="2">
+        <f t="shared" si="96"/>
+        <v>2381</v>
+      </c>
+      <c r="U71" s="2">
+        <f t="shared" si="96"/>
+        <v>2065</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" si="96"/>
+        <v>2149</v>
+      </c>
+      <c r="W71" s="2">
+        <f t="shared" si="96"/>
+        <v>1610</v>
+      </c>
+      <c r="AE71" s="2">
+        <f>AE25</f>
+        <v>5138</v>
+      </c>
+      <c r="AF71" s="2">
+        <f t="shared" ref="AF71:AI71" si="97">AF25</f>
+        <v>5162</v>
+      </c>
+      <c r="AG71" s="2">
+        <f t="shared" si="97"/>
+        <v>5638</v>
+      </c>
+      <c r="AH71" s="2">
+        <f>AH25</f>
+        <v>6598</v>
+      </c>
+      <c r="AI71" s="2">
+        <f t="shared" si="97"/>
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B72" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="N72" s="2">
+        <v>3269</v>
+      </c>
+      <c r="R72" s="2">
+        <f>R25</f>
+        <v>1950</v>
+      </c>
+      <c r="S72" s="2">
+        <v>2097</v>
+      </c>
+      <c r="W72" s="2">
+        <v>1009</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>2908</v>
+      </c>
+      <c r="AF72" s="2">
+        <v>2930</v>
+      </c>
+      <c r="AG72" s="2">
+        <f>N72</f>
+        <v>3269</v>
+      </c>
+      <c r="AH72" s="2">
+        <v>4368</v>
+      </c>
+      <c r="AI72" s="2">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B73" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="N73" s="2">
+        <v>2604</v>
+      </c>
+      <c r="S73" s="2">
+        <v>667</v>
+      </c>
+      <c r="W73" s="2">
+        <v>679</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>2476</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>2474</v>
+      </c>
+      <c r="AG73" s="2">
+        <f t="shared" ref="AG73:AG82" si="98">N73</f>
+        <v>2604</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>2485</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B74" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="N74" s="2">
+        <v>147</v>
+      </c>
+      <c r="S74" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF74" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG74" s="2">
+        <f t="shared" si="98"/>
+        <v>147</v>
+      </c>
+      <c r="AH74" s="2">
+        <v>200</v>
+      </c>
+      <c r="AI74" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B75" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="N75" s="2">
+        <v>178</v>
+      </c>
+      <c r="S75" s="2">
+        <v>170</v>
+      </c>
+      <c r="W75" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE75" s="2">
+        <v>-188</v>
+      </c>
+      <c r="AF75" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG75" s="2">
+        <f t="shared" si="98"/>
+        <v>178</v>
+      </c>
+      <c r="AH75" s="2">
+        <v>-184</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B76" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="S76" s="2">
+        <v>-335</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>-335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B77" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="N77" s="2">
+        <v>10</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="2">
+        <f t="shared" si="98"/>
+        <v>10</v>
+      </c>
+      <c r="AH77" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B78" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="N78" s="2">
+        <v>29</v>
+      </c>
+      <c r="S78" s="2">
+        <v>-30</v>
+      </c>
+      <c r="W78" s="2">
+        <v>52</v>
+      </c>
+      <c r="AE78" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG78" s="2">
+        <f t="shared" si="98"/>
+        <v>29</v>
+      </c>
+      <c r="AH78" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B79" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="N79" s="2">
+        <v>505</v>
+      </c>
+      <c r="S79" s="2">
+        <v>114</v>
+      </c>
+      <c r="W79" s="2">
+        <v>-1181</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>-348</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>-900</v>
+      </c>
+      <c r="AG79" s="2">
+        <f t="shared" si="98"/>
+        <v>505</v>
+      </c>
+      <c r="AH79" s="2">
+        <v>-1661</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>-3249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B80" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="N80" s="2">
+        <v>18</v>
+      </c>
+      <c r="S80" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W80" s="2">
+        <v>-86</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>-156</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>-299</v>
+      </c>
+      <c r="AG80" s="2">
+        <f t="shared" si="98"/>
+        <v>18</v>
+      </c>
+      <c r="AH80" s="2">
+        <v>-137</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B81" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="N81" s="2">
+        <v>140</v>
+      </c>
+      <c r="S81" s="2">
+        <v>-1205</v>
+      </c>
+      <c r="W81" s="2">
+        <v>-1560</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>1307</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>1127</v>
+      </c>
+      <c r="AG81" s="2">
+        <f t="shared" si="98"/>
+        <v>140</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>2925</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B82" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="N82" s="2">
+        <v>199</v>
+      </c>
+      <c r="S82" s="2">
+        <v>-413</v>
+      </c>
+      <c r="W82" s="2">
+        <v>-505</v>
+      </c>
+      <c r="AE82" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG82" s="2">
+        <f t="shared" si="98"/>
+        <v>199</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>1931</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>-746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="9">
+        <f>SUM(C72:C82)</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="9">
+        <f>SUM(D72:D82)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="9">
+        <f>SUM(E72:E82)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
+        <f>SUM(F72:F82)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
+        <f>SUM(G72:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <f>SUM(H72:H82)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <f>SUM(I72:I82)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <f>SUM(J72:J82)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <f>SUM(K72:K82)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <f>SUM(L72:L82)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <f>SUM(M72:M82)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <f>SUM(N72:N82)</f>
+        <v>7099</v>
+      </c>
+      <c r="O83" s="9">
+        <f>SUM(O72:O82)</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="9">
+        <f>SUM(P72:P82)</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="9">
+        <f>SUM(Q72:Q82)</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="9">
+        <f>SUM(R72:R82)</f>
+        <v>1950</v>
+      </c>
+      <c r="S83" s="9">
+        <f>SUM(S72:S82)</f>
+        <v>1139</v>
+      </c>
+      <c r="T83" s="9">
+        <f>SUM(T72:T82)</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="9">
+        <f>SUM(U72:U82)</f>
+        <v>0</v>
+      </c>
+      <c r="V83" s="9">
+        <f>SUM(V72:V82)</f>
+        <v>0</v>
+      </c>
+      <c r="W83" s="9">
+        <f>SUM(W72:W82)</f>
+        <v>-1394</v>
+      </c>
+      <c r="AE83" s="9">
+        <f>SUM(AE72:AE82)</f>
+        <v>6861</v>
+      </c>
+      <c r="AF83" s="9">
+        <f>SUM(AF72:AF82)</f>
+        <v>5970</v>
+      </c>
+      <c r="AG83" s="9">
+        <f>SUM(AG72:AG82)</f>
+        <v>7099</v>
+      </c>
+      <c r="AH83" s="9">
+        <f>SUM(AH72:AH82)</f>
+        <v>10525</v>
+      </c>
+      <c r="AI83" s="9">
+        <f>SUM(AI72:AI82)</f>
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="N84" s="39">
+        <v>-3027</v>
+      </c>
+      <c r="S84" s="39">
+        <v>-540</v>
+      </c>
+      <c r="W84" s="39">
+        <v>-952</v>
+      </c>
+      <c r="AE84" s="39">
+        <v>-2533</v>
+      </c>
+      <c r="AF84" s="39">
+        <v>-3516</v>
+      </c>
+      <c r="AG84" s="2">
+        <f t="shared" ref="AG84:AG87" si="99">N84</f>
+        <v>-3027</v>
+      </c>
+      <c r="AH84" s="39">
+        <v>-2649</v>
+      </c>
+      <c r="AI84" s="39">
+        <v>-3544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="N85" s="39">
+        <v>63</v>
+      </c>
+      <c r="S85" s="39">
+        <v>12</v>
+      </c>
+      <c r="W85" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE85" s="39">
+        <v>31</v>
+      </c>
+      <c r="AF85" s="39">
+        <v>85</v>
+      </c>
+      <c r="AG85" s="2">
+        <f t="shared" si="99"/>
+        <v>63</v>
+      </c>
+      <c r="AH85" s="39">
+        <v>42</v>
+      </c>
+      <c r="AI85" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B86" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>356</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>-518</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AH86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N87" s="39">
+        <v>20</v>
+      </c>
+      <c r="S87" s="39">
+        <v>7</v>
+      </c>
+      <c r="W87" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE87" s="39">
+        <v>-55</v>
+      </c>
+      <c r="AF87" s="39">
+        <v>15</v>
+      </c>
+      <c r="AG87" s="39">
+        <f t="shared" si="99"/>
+        <v>20</v>
+      </c>
+      <c r="AH87" s="39">
+        <v>16</v>
+      </c>
+      <c r="AI87" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="9">
+        <f>SUM(C84:C87)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" ref="D88:W88" si="100">SUM(D84:D87)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="9">
+        <f t="shared" si="100"/>
+        <v>-2944</v>
+      </c>
+      <c r="O88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="9">
+        <f t="shared" si="100"/>
+        <v>-165</v>
+      </c>
+      <c r="T88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="9">
+        <f t="shared" si="100"/>
+        <v>-948</v>
+      </c>
+      <c r="AE88" s="9">
+        <f t="shared" ref="AE88" si="101">SUM(AE84:AE87)</f>
+        <v>-3075</v>
+      </c>
+      <c r="AF88" s="9">
+        <f t="shared" ref="AF88" si="102">SUM(AF84:AF87)</f>
+        <v>-3416</v>
+      </c>
+      <c r="AG88" s="9">
+        <f t="shared" ref="AG88" si="103">SUM(AG84:AG87)</f>
+        <v>-2944</v>
+      </c>
+      <c r="AH88" s="9">
+        <f t="shared" ref="AH88" si="104">SUM(AH84:AH87)</f>
+        <v>-2591</v>
+      </c>
+      <c r="AI88" s="9">
+        <f t="shared" ref="AI88" si="105">SUM(AI84:AI87)</f>
+        <v>-3154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B89" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2">
+        <v>945</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="2">
+        <f t="shared" ref="AG89:AG95" si="106">N89</f>
+        <v>0</v>
+      </c>
+      <c r="AH89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B90" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="N90" s="2">
+        <v>1739</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="2">
+        <v>739</v>
+      </c>
+      <c r="AF90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="2">
+        <f t="shared" si="106"/>
+        <v>1739</v>
+      </c>
+      <c r="AH90" s="2">
+        <v>2480</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B91" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="N91" s="2">
+        <v>-2069</v>
+      </c>
+      <c r="S91" s="2">
+        <v>-21</v>
+      </c>
+      <c r="W91" s="2">
+        <v>-48</v>
+      </c>
+      <c r="AE91" s="2">
+        <v>-2192</v>
+      </c>
+      <c r="AF91" s="2">
+        <v>-281</v>
+      </c>
+      <c r="AG91" s="2">
+        <f t="shared" si="106"/>
+        <v>-2069</v>
+      </c>
+      <c r="AH91" s="2">
+        <v>-2415</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>-1147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B92" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="N92" s="2">
+        <v>-1330</v>
+      </c>
+      <c r="S92" s="2">
+        <v>-340</v>
+      </c>
+      <c r="W92" s="2">
+        <v>-424</v>
+      </c>
+      <c r="AE92" s="2">
+        <v>-1338</v>
+      </c>
+      <c r="AF92" s="2">
+        <v>-1335</v>
+      </c>
+      <c r="AG92" s="2">
+        <f t="shared" si="106"/>
+        <v>-1330</v>
+      </c>
+      <c r="AH92" s="2">
+        <v>-1343</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>-1548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B93" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="N93" s="2">
+        <v>-1565</v>
+      </c>
+      <c r="S93" s="2">
+        <v>-1310</v>
+      </c>
+      <c r="W93" s="2">
+        <v>-181</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>-1046</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>-2124</v>
+      </c>
+      <c r="AG93" s="2">
+        <f t="shared" si="106"/>
+        <v>-1565</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>-745</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>-7356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B94" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>-2750</v>
+      </c>
+      <c r="AE94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B95" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="N95" s="2">
+        <v>73</v>
+      </c>
+      <c r="S95" s="2">
+        <v>2</v>
+      </c>
+      <c r="W95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG95" s="2">
+        <f t="shared" si="106"/>
+        <v>73</v>
+      </c>
+      <c r="AH95" s="2">
+        <v>23</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="9">
+        <f>SUM(C89:C95)</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="9">
+        <f t="shared" ref="D96:V96" si="107">SUM(D89:D95)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="9">
+        <f t="shared" si="107"/>
+        <v>-3152</v>
+      </c>
+      <c r="O96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="9">
+        <f t="shared" si="107"/>
+        <v>-1669</v>
+      </c>
+      <c r="T96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="W96" s="9">
+        <f>SUM(W89:W95)</f>
+        <v>-2457</v>
+      </c>
+      <c r="AE96" s="9">
+        <f t="shared" ref="AE96" si="108">SUM(AE89:AE95)</f>
+        <v>-3729</v>
+      </c>
+      <c r="AF96" s="9">
+        <f t="shared" ref="AF96" si="109">SUM(AF89:AF95)</f>
+        <v>-3644</v>
+      </c>
+      <c r="AG96" s="9">
+        <f t="shared" ref="AG96" si="110">SUM(AG89:AG95)</f>
+        <v>-3152</v>
+      </c>
+      <c r="AH96" s="9">
+        <f t="shared" ref="AH96" si="111">SUM(AH89:AH95)</f>
+        <v>-2000</v>
+      </c>
+      <c r="AI96" s="9">
+        <f>SUM(AI89:AI95)</f>
+        <v>-8071</v>
+      </c>
+    </row>
+    <row r="97" spans="1:424" x14ac:dyDescent="0.2">
+      <c r="B97" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2">
+        <f>C96+C88+C83</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" ref="D97:W97" si="112">D96+D88+D83</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="112"/>
+        <v>1003</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <f t="shared" si="112"/>
+        <v>1950</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" si="112"/>
+        <v>-695</v>
+      </c>
+      <c r="T97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="2">
+        <f t="shared" si="112"/>
+        <v>-4799</v>
+      </c>
+      <c r="AE97" s="2">
+        <f t="shared" ref="AE97" si="113">AE96+AE88+AE83</f>
+        <v>57</v>
+      </c>
+      <c r="AF97" s="2">
+        <f t="shared" ref="AF97" si="114">AF96+AF88+AF83</f>
+        <v>-1090</v>
+      </c>
+      <c r="AG97" s="2">
+        <f t="shared" ref="AG97" si="115">AG96+AG88+AG83</f>
+        <v>1003</v>
+      </c>
+      <c r="AH97" s="2">
+        <f t="shared" ref="AH97" si="116">AH96+AH88+AH83</f>
+        <v>5934</v>
+      </c>
+      <c r="AI97" s="2">
+        <f t="shared" ref="AI97" si="117">AI96+AI88+AI83</f>
+        <v>-2597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:424" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="9">
+        <f>C83-C84</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="9">
+        <f t="shared" ref="D98:W98" si="118">D83-D84</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="9">
+        <f t="shared" si="118"/>
+        <v>10126</v>
+      </c>
+      <c r="O98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="9">
+        <f t="shared" si="118"/>
+        <v>1950</v>
+      </c>
+      <c r="S98" s="9">
+        <f t="shared" si="118"/>
+        <v>1679</v>
+      </c>
+      <c r="T98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="9">
+        <f t="shared" si="118"/>
+        <v>-442</v>
+      </c>
+      <c r="AE98" s="9">
+        <f t="shared" ref="AE98:AI98" si="119">AE83-AE84</f>
+        <v>9394</v>
+      </c>
+      <c r="AF98" s="9">
+        <f t="shared" si="119"/>
+        <v>9486</v>
+      </c>
+      <c r="AG98" s="9">
+        <f t="shared" si="119"/>
+        <v>10126</v>
+      </c>
+      <c r="AH98" s="9">
+        <f t="shared" si="119"/>
+        <v>13174</v>
+      </c>
+      <c r="AI98" s="9">
+        <f t="shared" si="119"/>
+        <v>12172</v>
+      </c>
+      <c r="AJ98" s="9">
+        <f>AI98*(1+$AT$32)</f>
+        <v>12050.28</v>
+      </c>
+      <c r="AK98" s="9">
+        <f t="shared" ref="AK98:CV98" si="120">AJ98*(1+$AQ$32)</f>
+        <v>11929.7772</v>
+      </c>
+      <c r="AL98" s="9">
+        <f t="shared" si="120"/>
+        <v>11810.479428000001</v>
+      </c>
+      <c r="AM98" s="9">
+        <f t="shared" si="120"/>
+        <v>11692.374633720001</v>
+      </c>
+      <c r="AN98" s="9">
+        <f t="shared" si="120"/>
+        <v>11575.4508873828</v>
+      </c>
+      <c r="AO98" s="9">
+        <f t="shared" si="120"/>
+        <v>11459.696378508972</v>
+      </c>
+      <c r="AP98" s="9">
+        <f t="shared" si="120"/>
+        <v>11345.099414723882</v>
+      </c>
+      <c r="AQ98" s="9">
+        <f t="shared" si="120"/>
+        <v>11231.648420576643</v>
+      </c>
+      <c r="AR98" s="9">
+        <f t="shared" si="120"/>
+        <v>11119.331936370876</v>
+      </c>
+      <c r="AS98" s="9">
+        <f t="shared" si="120"/>
+        <v>11008.138617007167</v>
+      </c>
+      <c r="AT98" s="9">
+        <f t="shared" si="120"/>
+        <v>10898.057230837096</v>
+      </c>
+      <c r="AU98" s="9">
+        <f t="shared" si="120"/>
+        <v>10789.076658528724</v>
+      </c>
+      <c r="AV98" s="9">
+        <f t="shared" si="120"/>
+        <v>10681.185891943436</v>
+      </c>
+      <c r="AW98" s="9">
+        <f t="shared" si="120"/>
+        <v>10574.374033024002</v>
+      </c>
+      <c r="AX98" s="9">
+        <f t="shared" si="120"/>
+        <v>10468.630292693762</v>
+      </c>
+      <c r="AY98" s="9">
+        <f t="shared" si="120"/>
+        <v>10363.943989766825</v>
+      </c>
+      <c r="AZ98" s="9">
+        <f t="shared" si="120"/>
+        <v>10260.304549869157</v>
+      </c>
+      <c r="BA98" s="9">
+        <f t="shared" si="120"/>
+        <v>10157.701504370465</v>
+      </c>
+      <c r="BB98" s="9">
+        <f t="shared" si="120"/>
+        <v>10056.124489326759</v>
+      </c>
+      <c r="BC98" s="9">
+        <f t="shared" si="120"/>
+        <v>9955.5632444334915</v>
+      </c>
+      <c r="BD98" s="9">
+        <f t="shared" si="120"/>
+        <v>9856.0076119891564</v>
+      </c>
+      <c r="BE98" s="9">
+        <f t="shared" si="120"/>
+        <v>9757.4475358692653</v>
+      </c>
+      <c r="BF98" s="9">
+        <f t="shared" si="120"/>
+        <v>9659.873060510572</v>
+      </c>
+      <c r="BG98" s="9">
+        <f t="shared" si="120"/>
+        <v>9563.2743299054655</v>
+      </c>
+      <c r="BH98" s="9">
+        <f t="shared" si="120"/>
+        <v>9467.6415866064108</v>
+      </c>
+      <c r="BI98" s="9">
+        <f t="shared" si="120"/>
+        <v>9372.9651707403464</v>
+      </c>
+      <c r="BJ98" s="9">
+        <f t="shared" si="120"/>
+        <v>9279.2355190329436</v>
+      </c>
+      <c r="BK98" s="9">
+        <f t="shared" si="120"/>
+        <v>9186.443163842614</v>
+      </c>
+      <c r="BL98" s="9">
+        <f t="shared" si="120"/>
+        <v>9094.578732204187</v>
+      </c>
+      <c r="BM98" s="9">
+        <f t="shared" si="120"/>
+        <v>9003.6329448821452</v>
+      </c>
+      <c r="BN98" s="9">
+        <f t="shared" si="120"/>
+        <v>8913.5966154333237</v>
+      </c>
+      <c r="BO98" s="9">
+        <f t="shared" si="120"/>
+        <v>8824.4606492789899</v>
+      </c>
+      <c r="BP98" s="9">
+        <f t="shared" si="120"/>
+        <v>8736.2160427862</v>
+      </c>
+      <c r="BQ98" s="9">
+        <f t="shared" si="120"/>
+        <v>8648.8538823583385</v>
+      </c>
+      <c r="BR98" s="9">
+        <f t="shared" si="120"/>
+        <v>8562.3653435347551</v>
+      </c>
+      <c r="BS98" s="9">
+        <f t="shared" si="120"/>
+        <v>8476.7416900994067</v>
+      </c>
+      <c r="BT98" s="9">
+        <f t="shared" si="120"/>
+        <v>8391.9742731984134</v>
+      </c>
+      <c r="BU98" s="9">
+        <f t="shared" si="120"/>
+        <v>8308.0545304664283</v>
+      </c>
+      <c r="BV98" s="9">
+        <f t="shared" si="120"/>
+        <v>8224.9739851617633</v>
+      </c>
+      <c r="BW98" s="9">
+        <f t="shared" si="120"/>
+        <v>8142.7242453101453</v>
+      </c>
+      <c r="BX98" s="9">
+        <f t="shared" si="120"/>
+        <v>8061.2970028570435</v>
+      </c>
+      <c r="BY98" s="9">
+        <f t="shared" si="120"/>
+        <v>7980.6840328284734</v>
+      </c>
+      <c r="BZ98" s="9">
+        <f t="shared" si="120"/>
+        <v>7900.8771925001884</v>
+      </c>
+      <c r="CA98" s="9">
+        <f t="shared" si="120"/>
+        <v>7821.8684205751861</v>
+      </c>
+      <c r="CB98" s="9">
+        <f t="shared" si="120"/>
+        <v>7743.6497363694343</v>
+      </c>
+      <c r="CC98" s="9">
+        <f t="shared" si="120"/>
+        <v>7666.2132390057395</v>
+      </c>
+      <c r="CD98" s="9">
+        <f t="shared" si="120"/>
+        <v>7589.5511066156823</v>
+      </c>
+      <c r="CE98" s="9">
+        <f t="shared" si="120"/>
+        <v>7513.6555955495251</v>
+      </c>
+      <c r="CF98" s="9">
+        <f t="shared" si="120"/>
+        <v>7438.5190395940299</v>
+      </c>
+      <c r="CG98" s="9">
+        <f t="shared" si="120"/>
+        <v>7364.1338491980896</v>
+      </c>
+      <c r="CH98" s="9">
+        <f t="shared" si="120"/>
+        <v>7290.492510706109</v>
+      </c>
+      <c r="CI98" s="9">
+        <f t="shared" si="120"/>
+        <v>7217.587585599048</v>
+      </c>
+      <c r="CJ98" s="9">
+        <f t="shared" si="120"/>
+        <v>7145.4117097430571</v>
+      </c>
+      <c r="CK98" s="9">
+        <f t="shared" si="120"/>
+        <v>7073.9575926456264</v>
+      </c>
+      <c r="CL98" s="9">
+        <f t="shared" si="120"/>
+        <v>7003.21801671917</v>
+      </c>
+      <c r="CM98" s="9">
+        <f t="shared" si="120"/>
+        <v>6933.1858365519784</v>
+      </c>
+      <c r="CN98" s="9">
+        <f t="shared" si="120"/>
+        <v>6863.8539781864583</v>
+      </c>
+      <c r="CO98" s="9">
+        <f t="shared" si="120"/>
+        <v>6795.2154384045934</v>
+      </c>
+      <c r="CP98" s="9">
+        <f t="shared" si="120"/>
+        <v>6727.2632840205479</v>
+      </c>
+      <c r="CQ98" s="9">
+        <f t="shared" si="120"/>
+        <v>6659.990651180342</v>
+      </c>
+      <c r="CR98" s="9">
+        <f t="shared" si="120"/>
+        <v>6593.3907446685389</v>
+      </c>
+      <c r="CS98" s="9">
+        <f t="shared" si="120"/>
+        <v>6527.4568372218537</v>
+      </c>
+      <c r="CT98" s="9">
+        <f t="shared" si="120"/>
+        <v>6462.182268849635</v>
+      </c>
+      <c r="CU98" s="9">
+        <f t="shared" si="120"/>
+        <v>6397.5604461611383</v>
+      </c>
+      <c r="CV98" s="9">
+        <f t="shared" si="120"/>
+        <v>6333.5848416995268</v>
+      </c>
+      <c r="CW98" s="9">
+        <f t="shared" ref="CW98:FH98" si="121">CV98*(1+$AQ$32)</f>
+        <v>6270.248993282531</v>
+      </c>
+      <c r="CX98" s="9">
+        <f t="shared" si="121"/>
+        <v>6207.5465033497057</v>
+      </c>
+      <c r="CY98" s="9">
+        <f t="shared" si="121"/>
+        <v>6145.4710383162083</v>
+      </c>
+      <c r="CZ98" s="9">
+        <f t="shared" si="121"/>
+        <v>6084.0163279330463</v>
+      </c>
+      <c r="DA98" s="9">
+        <f t="shared" si="121"/>
+        <v>6023.1761646537161</v>
+      </c>
+      <c r="DB98" s="9">
+        <f t="shared" si="121"/>
+        <v>5962.9444030071791</v>
+      </c>
+      <c r="DC98" s="9">
+        <f t="shared" si="121"/>
+        <v>5903.3149589771074</v>
+      </c>
+      <c r="DD98" s="9">
+        <f t="shared" si="121"/>
+        <v>5844.2818093873366</v>
+      </c>
+      <c r="DE98" s="9">
+        <f t="shared" si="121"/>
+        <v>5785.8389912934636</v>
+      </c>
+      <c r="DF98" s="9">
+        <f t="shared" si="121"/>
+        <v>5727.9806013805292</v>
+      </c>
+      <c r="DG98" s="9">
+        <f t="shared" si="121"/>
+        <v>5670.7007953667235</v>
+      </c>
+      <c r="DH98" s="9">
+        <f t="shared" si="121"/>
+        <v>5613.9937874130565</v>
+      </c>
+      <c r="DI98" s="9">
+        <f t="shared" si="121"/>
+        <v>5557.8538495389257</v>
+      </c>
+      <c r="DJ98" s="9">
+        <f t="shared" si="121"/>
+        <v>5502.275311043536</v>
+      </c>
+      <c r="DK98" s="9">
+        <f t="shared" si="121"/>
+        <v>5447.2525579331004</v>
+      </c>
+      <c r="DL98" s="9">
+        <f t="shared" si="121"/>
+        <v>5392.7800323537695</v>
+      </c>
+      <c r="DM98" s="9">
+        <f t="shared" si="121"/>
+        <v>5338.8522320302318</v>
+      </c>
+      <c r="DN98" s="9">
+        <f t="shared" si="121"/>
+        <v>5285.4637097099294</v>
+      </c>
+      <c r="DO98" s="9">
+        <f t="shared" si="121"/>
+        <v>5232.6090726128305</v>
+      </c>
+      <c r="DP98" s="9">
+        <f t="shared" si="121"/>
+        <v>5180.2829818867021</v>
+      </c>
+      <c r="DQ98" s="9">
+        <f t="shared" si="121"/>
+        <v>5128.4801520678348</v>
+      </c>
+      <c r="DR98" s="9">
+        <f t="shared" si="121"/>
+        <v>5077.1953505471565</v>
+      </c>
+      <c r="DS98" s="9">
+        <f t="shared" si="121"/>
+        <v>5026.4233970416853</v>
+      </c>
+      <c r="DT98" s="9">
+        <f t="shared" si="121"/>
+        <v>4976.1591630712683</v>
+      </c>
+      <c r="DU98" s="9">
+        <f t="shared" si="121"/>
+        <v>4926.3975714405551</v>
+      </c>
+      <c r="DV98" s="9">
+        <f t="shared" si="121"/>
+        <v>4877.1335957261499</v>
+      </c>
+      <c r="DW98" s="9">
+        <f t="shared" si="121"/>
+        <v>4828.3622597688882</v>
+      </c>
+      <c r="DX98" s="9">
+        <f t="shared" si="121"/>
+        <v>4780.0786371711993</v>
+      </c>
+      <c r="DY98" s="9">
+        <f t="shared" si="121"/>
+        <v>4732.2778507994872</v>
+      </c>
+      <c r="DZ98" s="9">
+        <f t="shared" si="121"/>
+        <v>4684.9550722914919</v>
+      </c>
+      <c r="EA98" s="9">
+        <f t="shared" si="121"/>
+        <v>4638.1055215685765</v>
+      </c>
+      <c r="EB98" s="9">
+        <f t="shared" si="121"/>
+        <v>4591.7244663528909</v>
+      </c>
+      <c r="EC98" s="9">
+        <f t="shared" si="121"/>
+        <v>4545.8072216893615</v>
+      </c>
+      <c r="ED98" s="9">
+        <f t="shared" si="121"/>
+        <v>4500.3491494724676</v>
+      </c>
+      <c r="EE98" s="9">
+        <f t="shared" si="121"/>
+        <v>4455.345657977743</v>
+      </c>
+      <c r="EF98" s="9">
+        <f t="shared" si="121"/>
+        <v>4410.792201397966</v>
+      </c>
+      <c r="EG98" s="9">
+        <f t="shared" si="121"/>
+        <v>4366.684279383986</v>
+      </c>
+      <c r="EH98" s="9">
+        <f t="shared" si="121"/>
+        <v>4323.0174365901457</v>
+      </c>
+      <c r="EI98" s="9">
+        <f t="shared" si="121"/>
+        <v>4279.7872622242439</v>
+      </c>
+      <c r="EJ98" s="9">
+        <f t="shared" si="121"/>
+        <v>4236.9893896020012</v>
+      </c>
+      <c r="EK98" s="9">
+        <f t="shared" si="121"/>
+        <v>4194.6194957059815</v>
+      </c>
+      <c r="EL98" s="9">
+        <f t="shared" si="121"/>
+        <v>4152.673300748922</v>
+      </c>
+      <c r="EM98" s="9">
+        <f t="shared" si="121"/>
+        <v>4111.1465677414326</v>
+      </c>
+      <c r="EN98" s="9">
+        <f t="shared" si="121"/>
+        <v>4070.0351020640182</v>
+      </c>
+      <c r="EO98" s="9">
+        <f t="shared" si="121"/>
+        <v>4029.3347510433782</v>
+      </c>
+      <c r="EP98" s="9">
+        <f t="shared" si="121"/>
+        <v>3989.0414035329445</v>
+      </c>
+      <c r="EQ98" s="9">
+        <f t="shared" si="121"/>
+        <v>3949.1509894976152</v>
+      </c>
+      <c r="ER98" s="9">
+        <f t="shared" si="121"/>
+        <v>3909.6594796026388</v>
+      </c>
+      <c r="ES98" s="9">
+        <f t="shared" si="121"/>
+        <v>3870.5628848066126</v>
+      </c>
+      <c r="ET98" s="9">
+        <f t="shared" si="121"/>
+        <v>3831.8572559585464</v>
+      </c>
+      <c r="EU98" s="9">
+        <f t="shared" si="121"/>
+        <v>3793.538683398961</v>
+      </c>
+      <c r="EV98" s="9">
+        <f t="shared" si="121"/>
+        <v>3755.6032965649715</v>
+      </c>
+      <c r="EW98" s="9">
+        <f t="shared" si="121"/>
+        <v>3718.0472635993219</v>
+      </c>
+      <c r="EX98" s="9">
+        <f t="shared" si="121"/>
+        <v>3680.8667909633286</v>
+      </c>
+      <c r="EY98" s="9">
+        <f t="shared" si="121"/>
+        <v>3644.0581230536955</v>
+      </c>
+      <c r="EZ98" s="9">
+        <f t="shared" si="121"/>
+        <v>3607.6175418231583</v>
+      </c>
+      <c r="FA98" s="9">
+        <f t="shared" si="121"/>
+        <v>3571.5413664049265</v>
+      </c>
+      <c r="FB98" s="9">
+        <f t="shared" si="121"/>
+        <v>3535.8259527408773</v>
+      </c>
+      <c r="FC98" s="9">
+        <f t="shared" si="121"/>
+        <v>3500.4676932134685</v>
+      </c>
+      <c r="FD98" s="9">
+        <f t="shared" si="121"/>
+        <v>3465.4630162813337</v>
+      </c>
+      <c r="FE98" s="9">
+        <f t="shared" si="121"/>
+        <v>3430.8083861185205</v>
+      </c>
+      <c r="FF98" s="9">
+        <f t="shared" si="121"/>
+        <v>3396.5003022573351</v>
+      </c>
+      <c r="FG98" s="9">
+        <f t="shared" si="121"/>
+        <v>3362.5352992347616</v>
+      </c>
+      <c r="FH98" s="9">
+        <f t="shared" si="121"/>
+        <v>3328.9099462424138</v>
+      </c>
+      <c r="FI98" s="9">
+        <f t="shared" ref="FI98:HT98" si="122">FH98*(1+$AQ$32)</f>
+        <v>3295.6208467799897</v>
+      </c>
+      <c r="FJ98" s="9">
+        <f t="shared" si="122"/>
+        <v>3262.6646383121897</v>
+      </c>
+      <c r="FK98" s="9">
+        <f t="shared" si="122"/>
+        <v>3230.0379919290676</v>
+      </c>
+      <c r="FL98" s="9">
+        <f t="shared" si="122"/>
+        <v>3197.737612009777</v>
+      </c>
+      <c r="FM98" s="9">
+        <f t="shared" si="122"/>
+        <v>3165.7602358896793</v>
+      </c>
+      <c r="FN98" s="9">
+        <f t="shared" si="122"/>
+        <v>3134.1026335307824</v>
+      </c>
+      <c r="FO98" s="9">
+        <f t="shared" si="122"/>
+        <v>3102.7616071954744</v>
+      </c>
+      <c r="FP98" s="9">
+        <f t="shared" si="122"/>
+        <v>3071.7339911235194</v>
+      </c>
+      <c r="FQ98" s="9">
+        <f t="shared" si="122"/>
+        <v>3041.0166512122842</v>
+      </c>
+      <c r="FR98" s="9">
+        <f t="shared" si="122"/>
+        <v>3010.6064847001612</v>
+      </c>
+      <c r="FS98" s="9">
+        <f t="shared" si="122"/>
+        <v>2980.5004198531597</v>
+      </c>
+      <c r="FT98" s="9">
+        <f t="shared" si="122"/>
+        <v>2950.6954156546281</v>
+      </c>
+      <c r="FU98" s="9">
+        <f t="shared" si="122"/>
+        <v>2921.1884614980818</v>
+      </c>
+      <c r="FV98" s="9">
+        <f t="shared" si="122"/>
+        <v>2891.9765768831007</v>
+      </c>
+      <c r="FW98" s="9">
+        <f t="shared" si="122"/>
+        <v>2863.0568111142697</v>
+      </c>
+      <c r="FX98" s="9">
+        <f t="shared" si="122"/>
+        <v>2834.4262430031272</v>
+      </c>
+      <c r="FY98" s="9">
+        <f t="shared" si="122"/>
+        <v>2806.0819805730957</v>
+      </c>
+      <c r="FZ98" s="9">
+        <f t="shared" si="122"/>
+        <v>2778.0211607673646</v>
+      </c>
+      <c r="GA98" s="9">
+        <f t="shared" si="122"/>
+        <v>2750.2409491596909</v>
+      </c>
+      <c r="GB98" s="9">
+        <f t="shared" si="122"/>
+        <v>2722.7385396680938</v>
+      </c>
+      <c r="GC98" s="9">
+        <f t="shared" si="122"/>
+        <v>2695.511154271413</v>
+      </c>
+      <c r="GD98" s="9">
+        <f t="shared" si="122"/>
+        <v>2668.5560427286987</v>
+      </c>
+      <c r="GE98" s="9">
+        <f t="shared" si="122"/>
+        <v>2641.8704823014118</v>
+      </c>
+      <c r="GF98" s="9">
+        <f t="shared" si="122"/>
+        <v>2615.4517774783976</v>
+      </c>
+      <c r="GG98" s="9">
+        <f t="shared" si="122"/>
+        <v>2589.2972597036137</v>
+      </c>
+      <c r="GH98" s="9">
+        <f t="shared" si="122"/>
+        <v>2563.4042871065776</v>
+      </c>
+      <c r="GI98" s="9">
+        <f t="shared" si="122"/>
+        <v>2537.7702442355117</v>
+      </c>
+      <c r="GJ98" s="9">
+        <f t="shared" si="122"/>
+        <v>2512.3925417931564</v>
+      </c>
+      <c r="GK98" s="9">
+        <f t="shared" si="122"/>
+        <v>2487.2686163752246</v>
+      </c>
+      <c r="GL98" s="9">
+        <f t="shared" si="122"/>
+        <v>2462.3959302114722</v>
+      </c>
+      <c r="GM98" s="9">
+        <f t="shared" si="122"/>
+        <v>2437.7719709093576</v>
+      </c>
+      <c r="GN98" s="9">
+        <f t="shared" si="122"/>
+        <v>2413.3942512002641</v>
+      </c>
+      <c r="GO98" s="9">
+        <f t="shared" si="122"/>
+        <v>2389.2603086882614</v>
+      </c>
+      <c r="GP98" s="9">
+        <f t="shared" si="122"/>
+        <v>2365.3677056013789</v>
+      </c>
+      <c r="GQ98" s="9">
+        <f t="shared" si="122"/>
+        <v>2341.7140285453652</v>
+      </c>
+      <c r="GR98" s="9">
+        <f t="shared" si="122"/>
+        <v>2318.2968882599116</v>
+      </c>
+      <c r="GS98" s="9">
+        <f t="shared" si="122"/>
+        <v>2295.1139193773124</v>
+      </c>
+      <c r="GT98" s="9">
+        <f t="shared" si="122"/>
+        <v>2272.1627801835393</v>
+      </c>
+      <c r="GU98" s="9">
+        <f t="shared" si="122"/>
+        <v>2249.4411523817039</v>
+      </c>
+      <c r="GV98" s="9">
+        <f t="shared" si="122"/>
+        <v>2226.9467408578867</v>
+      </c>
+      <c r="GW98" s="9">
+        <f t="shared" si="122"/>
+        <v>2204.6772734493079</v>
+      </c>
+      <c r="GX98" s="9">
+        <f t="shared" si="122"/>
+        <v>2182.6305007148148</v>
+      </c>
+      <c r="GY98" s="9">
+        <f t="shared" si="122"/>
+        <v>2160.8041957076666</v>
+      </c>
+      <c r="GZ98" s="9">
+        <f t="shared" si="122"/>
+        <v>2139.1961537505899</v>
+      </c>
+      <c r="HA98" s="9">
+        <f t="shared" si="122"/>
+        <v>2117.8041922130842</v>
+      </c>
+      <c r="HB98" s="9">
+        <f t="shared" si="122"/>
+        <v>2096.6261502909533</v>
+      </c>
+      <c r="HC98" s="9">
+        <f t="shared" si="122"/>
+        <v>2075.6598887880436</v>
+      </c>
+      <c r="HD98" s="9">
+        <f t="shared" si="122"/>
+        <v>2054.9032899001631</v>
+      </c>
+      <c r="HE98" s="9">
+        <f t="shared" si="122"/>
+        <v>2034.3542570011614</v>
+      </c>
+      <c r="HF98" s="9">
+        <f t="shared" si="122"/>
+        <v>2014.0107144311498</v>
+      </c>
+      <c r="HG98" s="9">
+        <f t="shared" si="122"/>
+        <v>1993.8706072868383</v>
+      </c>
+      <c r="HH98" s="9">
+        <f t="shared" si="122"/>
+        <v>1973.9319012139699</v>
+      </c>
+      <c r="HI98" s="9">
+        <f t="shared" si="122"/>
+        <v>1954.1925822018302</v>
+      </c>
+      <c r="HJ98" s="9">
+        <f t="shared" si="122"/>
+        <v>1934.6506563798118</v>
+      </c>
+      <c r="HK98" s="9">
+        <f t="shared" si="122"/>
+        <v>1915.3041498160137</v>
+      </c>
+      <c r="HL98" s="9">
+        <f t="shared" si="122"/>
+        <v>1896.1511083178536</v>
+      </c>
+      <c r="HM98" s="9">
+        <f t="shared" si="122"/>
+        <v>1877.1895972346751</v>
+      </c>
+      <c r="HN98" s="9">
+        <f t="shared" si="122"/>
+        <v>1858.4177012623284</v>
+      </c>
+      <c r="HO98" s="9">
+        <f t="shared" si="122"/>
+        <v>1839.8335242497051</v>
+      </c>
+      <c r="HP98" s="9">
+        <f t="shared" si="122"/>
+        <v>1821.435189007208</v>
+      </c>
+      <c r="HQ98" s="9">
+        <f t="shared" si="122"/>
+        <v>1803.2208371171359</v>
+      </c>
+      <c r="HR98" s="9">
+        <f t="shared" si="122"/>
+        <v>1785.1886287459645</v>
+      </c>
+      <c r="HS98" s="9">
+        <f t="shared" si="122"/>
+        <v>1767.3367424585049</v>
+      </c>
+      <c r="HT98" s="9">
+        <f t="shared" si="122"/>
+        <v>1749.6633750339199</v>
+      </c>
+      <c r="HU98" s="9">
+        <f t="shared" ref="HU98:KF98" si="123">HT98*(1+$AQ$32)</f>
+        <v>1732.1667412835807</v>
+      </c>
+      <c r="HV98" s="9">
+        <f t="shared" si="123"/>
+        <v>1714.845073870745</v>
+      </c>
+      <c r="HW98" s="9">
+        <f t="shared" si="123"/>
+        <v>1697.6966231320375</v>
+      </c>
+      <c r="HX98" s="9">
+        <f t="shared" si="123"/>
+        <v>1680.7196569007172</v>
+      </c>
+      <c r="HY98" s="9">
+        <f t="shared" si="123"/>
+        <v>1663.91246033171</v>
+      </c>
+      <c r="HZ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1647.2733357283928</v>
+      </c>
+      <c r="IA98" s="9">
+        <f t="shared" si="123"/>
+        <v>1630.8006023711089</v>
+      </c>
+      <c r="IB98" s="9">
+        <f t="shared" si="123"/>
+        <v>1614.4925963473977</v>
+      </c>
+      <c r="IC98" s="9">
+        <f t="shared" si="123"/>
+        <v>1598.3476703839237</v>
+      </c>
+      <c r="ID98" s="9">
+        <f t="shared" si="123"/>
+        <v>1582.3641936800846</v>
+      </c>
+      <c r="IE98" s="9">
+        <f t="shared" si="123"/>
+        <v>1566.5405517432837</v>
+      </c>
+      <c r="IF98" s="9">
+        <f t="shared" si="123"/>
+        <v>1550.8751462258508</v>
+      </c>
+      <c r="IG98" s="9">
+        <f t="shared" si="123"/>
+        <v>1535.3663947635923</v>
+      </c>
+      <c r="IH98" s="9">
+        <f t="shared" si="123"/>
+        <v>1520.0127308159563</v>
+      </c>
+      <c r="II98" s="9">
+        <f t="shared" si="123"/>
+        <v>1504.8126035077967</v>
+      </c>
+      <c r="IJ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1489.7644774727187</v>
+      </c>
+      <c r="IK98" s="9">
+        <f t="shared" si="123"/>
+        <v>1474.8668326979914</v>
+      </c>
+      <c r="IL98" s="9">
+        <f t="shared" si="123"/>
+        <v>1460.1181643710115</v>
+      </c>
+      <c r="IM98" s="9">
+        <f t="shared" si="123"/>
+        <v>1445.5169827273014</v>
+      </c>
+      <c r="IN98" s="9">
+        <f t="shared" si="123"/>
+        <v>1431.0618129000284</v>
+      </c>
+      <c r="IO98" s="9">
+        <f t="shared" si="123"/>
+        <v>1416.7511947710282</v>
+      </c>
+      <c r="IP98" s="9">
+        <f t="shared" si="123"/>
+        <v>1402.583682823318</v>
+      </c>
+      <c r="IQ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1388.5578459950848</v>
+      </c>
+      <c r="IR98" s="9">
+        <f t="shared" si="123"/>
+        <v>1374.6722675351339</v>
+      </c>
+      <c r="IS98" s="9">
+        <f t="shared" si="123"/>
+        <v>1360.9255448597826</v>
+      </c>
+      <c r="IT98" s="9">
+        <f t="shared" si="123"/>
+        <v>1347.3162894111847</v>
+      </c>
+      <c r="IU98" s="9">
+        <f t="shared" si="123"/>
+        <v>1333.8431265170727</v>
+      </c>
+      <c r="IV98" s="9">
+        <f t="shared" si="123"/>
+        <v>1320.5046952519019</v>
+      </c>
+      <c r="IW98" s="9">
+        <f t="shared" si="123"/>
+        <v>1307.2996482993829</v>
+      </c>
+      <c r="IX98" s="9">
+        <f t="shared" si="123"/>
+        <v>1294.226651816389</v>
+      </c>
+      <c r="IY98" s="9">
+        <f t="shared" si="123"/>
+        <v>1281.2843852982251</v>
+      </c>
+      <c r="IZ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1268.4715414452428</v>
+      </c>
+      <c r="JA98" s="9">
+        <f t="shared" si="123"/>
+        <v>1255.7868260307903</v>
+      </c>
+      <c r="JB98" s="9">
+        <f t="shared" si="123"/>
+        <v>1243.2289577704823</v>
+      </c>
+      <c r="JC98" s="9">
+        <f t="shared" si="123"/>
+        <v>1230.7966681927776</v>
+      </c>
+      <c r="JD98" s="9">
+        <f t="shared" si="123"/>
+        <v>1218.4887015108498</v>
+      </c>
+      <c r="JE98" s="9">
+        <f t="shared" si="123"/>
+        <v>1206.3038144957413</v>
+      </c>
+      <c r="JF98" s="9">
+        <f t="shared" si="123"/>
+        <v>1194.240776350784</v>
+      </c>
+      <c r="JG98" s="9">
+        <f t="shared" si="123"/>
+        <v>1182.2983685872762</v>
+      </c>
+      <c r="JH98" s="9">
+        <f t="shared" si="123"/>
+        <v>1170.4753849014035</v>
+      </c>
+      <c r="JI98" s="9">
+        <f t="shared" si="123"/>
+        <v>1158.7706310523895</v>
+      </c>
+      <c r="JJ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1147.1829247418657</v>
+      </c>
+      <c r="JK98" s="9">
+        <f t="shared" si="123"/>
+        <v>1135.7110954944471</v>
+      </c>
+      <c r="JL98" s="9">
+        <f t="shared" si="123"/>
+        <v>1124.3539845395026</v>
+      </c>
+      <c r="JM98" s="9">
+        <f t="shared" si="123"/>
+        <v>1113.1104446941076</v>
+      </c>
+      <c r="JN98" s="9">
+        <f t="shared" si="123"/>
+        <v>1101.9793402471666</v>
+      </c>
+      <c r="JO98" s="9">
+        <f t="shared" si="123"/>
+        <v>1090.9595468446951</v>
+      </c>
+      <c r="JP98" s="9">
+        <f t="shared" si="123"/>
+        <v>1080.0499513762481</v>
+      </c>
+      <c r="JQ98" s="9">
+        <f t="shared" si="123"/>
+        <v>1069.2494518624856</v>
+      </c>
+      <c r="JR98" s="9">
+        <f t="shared" si="123"/>
+        <v>1058.5569573438606</v>
+      </c>
+      <c r="JS98" s="9">
+        <f t="shared" si="123"/>
+        <v>1047.9713877704221</v>
+      </c>
+      <c r="JT98" s="9">
+        <f t="shared" si="123"/>
+        <v>1037.4916738927179</v>
+      </c>
+      <c r="JU98" s="9">
+        <f t="shared" si="123"/>
+        <v>1027.1167571537908</v>
+      </c>
+      <c r="JV98" s="9">
+        <f t="shared" si="123"/>
+        <v>1016.8455895822528</v>
+      </c>
+      <c r="JW98" s="9">
+        <f t="shared" si="123"/>
+        <v>1006.6771336864304</v>
+      </c>
+      <c r="JX98" s="9">
+        <f t="shared" si="123"/>
+        <v>996.610362349566</v>
+      </c>
+      <c r="JY98" s="9">
+        <f t="shared" si="123"/>
+        <v>986.64425872607035</v>
+      </c>
+      <c r="JZ98" s="9">
+        <f t="shared" si="123"/>
+        <v>976.77781613880961</v>
+      </c>
+      <c r="KA98" s="9">
+        <f t="shared" si="123"/>
+        <v>967.01003797742146</v>
+      </c>
+      <c r="KB98" s="9">
+        <f t="shared" si="123"/>
+        <v>957.33993759764724</v>
+      </c>
+      <c r="KC98" s="9">
+        <f t="shared" si="123"/>
+        <v>947.76653822167077</v>
+      </c>
+      <c r="KD98" s="9">
+        <f t="shared" si="123"/>
+        <v>938.28887283945403</v>
+      </c>
+      <c r="KE98" s="9">
+        <f t="shared" si="123"/>
+        <v>928.90598411105952</v>
+      </c>
+      <c r="KF98" s="9">
+        <f t="shared" si="123"/>
+        <v>919.61692426994887</v>
+      </c>
+      <c r="KG98" s="9">
+        <f t="shared" ref="KG98:MR98" si="124">KF98*(1+$AQ$32)</f>
+        <v>910.42075502724936</v>
+      </c>
+      <c r="KH98" s="9">
+        <f t="shared" si="124"/>
+        <v>901.31654747697689</v>
+      </c>
+      <c r="KI98" s="9">
+        <f t="shared" si="124"/>
+        <v>892.30338200220717</v>
+      </c>
+      <c r="KJ98" s="9">
+        <f t="shared" si="124"/>
+        <v>883.38034818218512</v>
+      </c>
+      <c r="KK98" s="9">
+        <f t="shared" si="124"/>
+        <v>874.54654470036326</v>
+      </c>
+      <c r="KL98" s="9">
+        <f t="shared" si="124"/>
+        <v>865.8010792533596</v>
+      </c>
+      <c r="KM98" s="9">
+        <f t="shared" si="124"/>
+        <v>857.14306846082604</v>
+      </c>
+      <c r="KN98" s="9">
+        <f t="shared" si="124"/>
+        <v>848.57163777621781</v>
+      </c>
+      <c r="KO98" s="9">
+        <f t="shared" si="124"/>
+        <v>840.08592139845564</v>
+      </c>
+      <c r="KP98" s="9">
+        <f t="shared" si="124"/>
+        <v>831.68506218447112</v>
+      </c>
+      <c r="KQ98" s="9">
+        <f t="shared" si="124"/>
+        <v>823.36821156262636</v>
+      </c>
+      <c r="KR98" s="9">
+        <f t="shared" si="124"/>
+        <v>815.13452944700009</v>
+      </c>
+      <c r="KS98" s="9">
+        <f t="shared" si="124"/>
+        <v>806.98318415253004</v>
+      </c>
+      <c r="KT98" s="9">
+        <f t="shared" si="124"/>
+        <v>798.9133523110047</v>
+      </c>
+      <c r="KU98" s="9">
+        <f t="shared" si="124"/>
+        <v>790.92421878789469</v>
+      </c>
+      <c r="KV98" s="9">
+        <f t="shared" si="124"/>
+        <v>783.01497660001576</v>
+      </c>
+      <c r="KW98" s="9">
+        <f t="shared" si="124"/>
+        <v>775.18482683401555</v>
+      </c>
+      <c r="KX98" s="9">
+        <f t="shared" si="124"/>
+        <v>767.4329785656754</v>
+      </c>
+      <c r="KY98" s="9">
+        <f t="shared" si="124"/>
+        <v>759.75864878001869</v>
+      </c>
+      <c r="KZ98" s="9">
+        <f t="shared" si="124"/>
+        <v>752.1610622922185</v>
+      </c>
+      <c r="LA98" s="9">
+        <f t="shared" si="124"/>
+        <v>744.63945166929636</v>
+      </c>
+      <c r="LB98" s="9">
+        <f t="shared" si="124"/>
+        <v>737.19305715260339</v>
+      </c>
+      <c r="LC98" s="9">
+        <f t="shared" si="124"/>
+        <v>729.82112658107735</v>
+      </c>
+      <c r="LD98" s="9">
+        <f t="shared" si="124"/>
+        <v>722.52291531526657</v>
+      </c>
+      <c r="LE98" s="9">
+        <f t="shared" si="124"/>
+        <v>715.29768616211391</v>
+      </c>
+      <c r="LF98" s="9">
+        <f t="shared" si="124"/>
+        <v>708.14470930049276</v>
+      </c>
+      <c r="LG98" s="9">
+        <f t="shared" si="124"/>
+        <v>701.06326220748781</v>
+      </c>
+      <c r="LH98" s="9">
+        <f t="shared" si="124"/>
+        <v>694.05262958541289</v>
+      </c>
+      <c r="LI98" s="9">
+        <f t="shared" si="124"/>
+        <v>687.11210328955872</v>
+      </c>
+      <c r="LJ98" s="9">
+        <f t="shared" si="124"/>
+        <v>680.24098225666307</v>
+      </c>
+      <c r="LK98" s="9">
+        <f t="shared" si="124"/>
+        <v>673.43857243409639</v>
+      </c>
+      <c r="LL98" s="9">
+        <f t="shared" si="124"/>
+        <v>666.70418670975539</v>
+      </c>
+      <c r="LM98" s="9">
+        <f t="shared" si="124"/>
+        <v>660.03714484265788</v>
+      </c>
+      <c r="LN98" s="9">
+        <f t="shared" si="124"/>
+        <v>653.4367733942313</v>
+      </c>
+      <c r="LO98" s="9">
+        <f t="shared" si="124"/>
+        <v>646.90240566028899</v>
+      </c>
+      <c r="LP98" s="9">
+        <f t="shared" si="124"/>
+        <v>640.43338160368614</v>
+      </c>
+      <c r="LQ98" s="9">
+        <f t="shared" si="124"/>
+        <v>634.02904778764923</v>
+      </c>
+      <c r="LR98" s="9">
+        <f t="shared" si="124"/>
+        <v>627.68875730977277</v>
+      </c>
+      <c r="LS98" s="9">
+        <f t="shared" si="124"/>
+        <v>621.41186973667504</v>
+      </c>
+      <c r="LT98" s="9">
+        <f t="shared" si="124"/>
+        <v>615.19775103930829</v>
+      </c>
+      <c r="LU98" s="9">
+        <f t="shared" si="124"/>
+        <v>609.04577352891522</v>
+      </c>
+      <c r="LV98" s="9">
+        <f t="shared" si="124"/>
+        <v>602.95531579362603</v>
+      </c>
+      <c r="LW98" s="9">
+        <f t="shared" si="124"/>
+        <v>596.92576263568981</v>
+      </c>
+      <c r="LX98" s="9">
+        <f t="shared" si="124"/>
+        <v>590.95650500933289</v>
+      </c>
+      <c r="LY98" s="9">
+        <f t="shared" si="124"/>
+        <v>585.04693995923958</v>
+      </c>
+      <c r="LZ98" s="9">
+        <f t="shared" si="124"/>
+        <v>579.1964705596472</v>
+      </c>
+      <c r="MA98" s="9">
+        <f t="shared" si="124"/>
+        <v>573.40450585405074</v>
+      </c>
+      <c r="MB98" s="9">
+        <f t="shared" si="124"/>
+        <v>567.67046079551028</v>
+      </c>
+      <c r="MC98" s="9">
+        <f t="shared" si="124"/>
+        <v>561.99375618755516</v>
+      </c>
+      <c r="MD98" s="9">
+        <f t="shared" si="124"/>
+        <v>556.37381862567963</v>
+      </c>
+      <c r="ME98" s="9">
+        <f t="shared" si="124"/>
+        <v>550.81008043942279</v>
+      </c>
+      <c r="MF98" s="9">
+        <f t="shared" si="124"/>
+        <v>545.3019796350286</v>
+      </c>
+      <c r="MG98" s="9">
+        <f t="shared" si="124"/>
+        <v>539.8489598386783</v>
+      </c>
+      <c r="MH98" s="9">
+        <f t="shared" si="124"/>
+        <v>534.45047024029157</v>
+      </c>
+      <c r="MI98" s="9">
+        <f t="shared" si="124"/>
+        <v>529.10596553788866</v>
+      </c>
+      <c r="MJ98" s="9">
+        <f t="shared" si="124"/>
+        <v>523.81490588250972</v>
+      </c>
+      <c r="MK98" s="9">
+        <f t="shared" si="124"/>
+        <v>518.5767568236846</v>
+      </c>
+      <c r="ML98" s="9">
+        <f t="shared" si="124"/>
+        <v>513.39098925544772</v>
+      </c>
+      <c r="MM98" s="9">
+        <f t="shared" si="124"/>
+        <v>508.25707936289325</v>
+      </c>
+      <c r="MN98" s="9">
+        <f t="shared" si="124"/>
+        <v>503.17450856926433</v>
+      </c>
+      <c r="MO98" s="9">
+        <f t="shared" si="124"/>
+        <v>498.14276348357168</v>
+      </c>
+      <c r="MP98" s="9">
+        <f t="shared" si="124"/>
+        <v>493.16133584873597</v>
+      </c>
+      <c r="MQ98" s="9">
+        <f t="shared" si="124"/>
+        <v>488.22972249024861</v>
+      </c>
+      <c r="MR98" s="9">
+        <f t="shared" si="124"/>
+        <v>483.34742526534609</v>
+      </c>
+      <c r="MS98" s="9">
+        <f t="shared" ref="MS98:PD98" si="125">MR98*(1+$AQ$32)</f>
+        <v>478.51395101269264</v>
+      </c>
+      <c r="MT98" s="9">
+        <f t="shared" si="125"/>
+        <v>473.72881150256569</v>
+      </c>
+      <c r="MU98" s="9">
+        <f t="shared" si="125"/>
+        <v>468.99152338754004</v>
+      </c>
+      <c r="MV98" s="9">
+        <f t="shared" si="125"/>
+        <v>464.30160815366463</v>
+      </c>
+      <c r="MW98" s="9">
+        <f t="shared" si="125"/>
+        <v>459.65859207212799</v>
+      </c>
+      <c r="MX98" s="9">
+        <f t="shared" si="125"/>
+        <v>455.06200615140671</v>
+      </c>
+      <c r="MY98" s="9">
+        <f t="shared" si="125"/>
+        <v>450.51138608989265</v>
+      </c>
+      <c r="MZ98" s="9">
+        <f t="shared" si="125"/>
+        <v>446.00627222899374</v>
+      </c>
+      <c r="NA98" s="9">
+        <f t="shared" si="125"/>
+        <v>441.5462095067038</v>
+      </c>
+      <c r="NB98" s="9">
+        <f t="shared" si="125"/>
+        <v>437.13074741163678</v>
+      </c>
+      <c r="NC98" s="9">
+        <f t="shared" si="125"/>
+        <v>432.75943993752043</v>
+      </c>
+      <c r="ND98" s="9">
+        <f t="shared" si="125"/>
+        <v>428.43184553814524</v>
+      </c>
+      <c r="NE98" s="9">
+        <f t="shared" si="125"/>
+        <v>424.14752708276376</v>
+      </c>
+      <c r="NF98" s="9">
+        <f t="shared" si="125"/>
+        <v>419.90605181193609</v>
+      </c>
+      <c r="NG98" s="9">
+        <f t="shared" si="125"/>
+        <v>415.70699129381671</v>
+      </c>
+      <c r="NH98" s="9">
+        <f t="shared" si="125"/>
+        <v>411.54992138087852</v>
+      </c>
+      <c r="NI98" s="9">
+        <f t="shared" si="125"/>
+        <v>407.43442216706973</v>
+      </c>
+      <c r="NJ98" s="9">
+        <f t="shared" si="125"/>
+        <v>403.36007794539904</v>
+      </c>
+      <c r="NK98" s="9">
+        <f t="shared" si="125"/>
+        <v>399.32647716594505</v>
+      </c>
+      <c r="NL98" s="9">
+        <f t="shared" si="125"/>
+        <v>395.33321239428562</v>
+      </c>
+      <c r="NM98" s="9">
+        <f t="shared" si="125"/>
+        <v>391.37988027034277</v>
+      </c>
+      <c r="NN98" s="9">
+        <f t="shared" si="125"/>
+        <v>387.46608146763936</v>
+      </c>
+      <c r="NO98" s="9">
+        <f t="shared" si="125"/>
+        <v>383.59142065296294</v>
+      </c>
+      <c r="NP98" s="9">
+        <f t="shared" si="125"/>
+        <v>379.75550644643329</v>
+      </c>
+      <c r="NQ98" s="9">
+        <f t="shared" si="125"/>
+        <v>375.95795138196894</v>
+      </c>
+      <c r="NR98" s="9">
+        <f t="shared" si="125"/>
+        <v>372.19837186814925</v>
+      </c>
+      <c r="NS98" s="9">
+        <f t="shared" si="125"/>
+        <v>368.47638814946777</v>
+      </c>
+      <c r="NT98" s="9">
+        <f t="shared" si="125"/>
+        <v>364.79162426797308</v>
+      </c>
+      <c r="NU98" s="9">
+        <f t="shared" si="125"/>
+        <v>361.14370802529334</v>
+      </c>
+      <c r="NV98" s="9">
+        <f t="shared" si="125"/>
+        <v>357.53227094504041</v>
+      </c>
+      <c r="NW98" s="9">
+        <f t="shared" si="125"/>
+        <v>353.95694823559</v>
+      </c>
+      <c r="NX98" s="9">
+        <f t="shared" si="125"/>
+        <v>350.41737875323412</v>
+      </c>
+      <c r="NY98" s="9">
+        <f t="shared" si="125"/>
+        <v>346.91320496570177</v>
+      </c>
+      <c r="NZ98" s="9">
+        <f t="shared" si="125"/>
+        <v>343.44407291604472</v>
+      </c>
+      <c r="OA98" s="9">
+        <f t="shared" si="125"/>
+        <v>340.00963218688429</v>
+      </c>
+      <c r="OB98" s="9">
+        <f t="shared" si="125"/>
+        <v>336.60953586501546</v>
+      </c>
+      <c r="OC98" s="9">
+        <f t="shared" si="125"/>
+        <v>333.24344050636529</v>
+      </c>
+      <c r="OD98" s="9">
+        <f t="shared" si="125"/>
+        <v>329.91100610130161</v>
+      </c>
+      <c r="OE98" s="9">
+        <f t="shared" si="125"/>
+        <v>326.61189604028857</v>
+      </c>
+      <c r="OF98" s="9">
+        <f t="shared" si="125"/>
+        <v>323.34577707988569</v>
+      </c>
+      <c r="OG98" s="9">
+        <f t="shared" si="125"/>
+        <v>320.11231930908684</v>
+      </c>
+      <c r="OH98" s="9">
+        <f t="shared" si="125"/>
+        <v>316.91119611599595</v>
+      </c>
+      <c r="OI98" s="9">
+        <f t="shared" si="125"/>
+        <v>313.74208415483599</v>
+      </c>
+      <c r="OJ98" s="9">
+        <f t="shared" si="125"/>
+        <v>310.60466331328763</v>
+      </c>
+      <c r="OK98" s="9">
+        <f t="shared" si="125"/>
+        <v>307.49861668015473</v>
+      </c>
+      <c r="OL98" s="9">
+        <f t="shared" si="125"/>
+        <v>304.4236305133532</v>
+      </c>
+      <c r="OM98" s="9">
+        <f t="shared" si="125"/>
+        <v>301.37939420821965</v>
+      </c>
+      <c r="ON98" s="9">
+        <f t="shared" si="125"/>
+        <v>298.36560026613745</v>
+      </c>
+      <c r="OO98" s="9">
+        <f t="shared" si="125"/>
+        <v>295.38194426347604</v>
+      </c>
+      <c r="OP98" s="9">
+        <f t="shared" si="125"/>
+        <v>292.42812482084128</v>
+      </c>
+      <c r="OQ98" s="9">
+        <f t="shared" si="125"/>
+        <v>289.50384357263289</v>
+      </c>
+      <c r="OR98" s="9">
+        <f t="shared" si="125"/>
+        <v>286.60880513690654</v>
+      </c>
+      <c r="OS98" s="9">
+        <f t="shared" si="125"/>
+        <v>283.74271708553749</v>
+      </c>
+      <c r="OT98" s="9">
+        <f t="shared" si="125"/>
+        <v>280.9052899146821</v>
+      </c>
+      <c r="OU98" s="9">
+        <f t="shared" si="125"/>
+        <v>278.09623701553528</v>
+      </c>
+      <c r="OV98" s="9">
+        <f t="shared" si="125"/>
+        <v>275.31527464537993</v>
+      </c>
+      <c r="OW98" s="9">
+        <f t="shared" si="125"/>
+        <v>272.56212189892614</v>
+      </c>
+      <c r="OX98" s="9">
+        <f t="shared" si="125"/>
+        <v>269.83650067993688</v>
+      </c>
+      <c r="OY98" s="9">
+        <f t="shared" si="125"/>
+        <v>267.13813567313753</v>
+      </c>
+      <c r="OZ98" s="9">
+        <f t="shared" si="125"/>
+        <v>264.46675431640614</v>
+      </c>
+      <c r="PA98" s="9">
+        <f t="shared" si="125"/>
+        <v>261.82208677324206</v>
+      </c>
+      <c r="PB98" s="9">
+        <f t="shared" si="125"/>
+        <v>259.20386590550964</v>
+      </c>
+      <c r="PC98" s="9">
+        <f t="shared" si="125"/>
+        <v>256.61182724645454</v>
+      </c>
+      <c r="PD98" s="9">
+        <f t="shared" si="125"/>
+        <v>254.04570897399</v>
+      </c>
+      <c r="PE98" s="9">
+        <f t="shared" ref="PE98:PH98" si="126">PD98*(1+$AQ$32)</f>
+        <v>251.5052518842501</v>
+      </c>
+      <c r="PF98" s="9">
+        <f t="shared" si="126"/>
+        <v>248.99019936540759</v>
+      </c>
+      <c r="PG98" s="9">
+        <f t="shared" si="126"/>
+        <v>246.5002973717535</v>
+      </c>
+      <c r="PH98" s="9">
+        <f t="shared" si="126"/>
+        <v>244.03529439803597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:424" x14ac:dyDescent="0.2">
+      <c r="B100" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF100" s="4">
+        <f>AF98/AE98-1</f>
+        <v>9.7934852033212394E-3</v>
+      </c>
+      <c r="AG100" s="4">
+        <f t="shared" ref="AG100:AI100" si="127">AG98/AF98-1</f>
+        <v>6.7467847353995358E-2</v>
+      </c>
+      <c r="AH100" s="4">
+        <f t="shared" si="127"/>
+        <v>0.30100730792020536</v>
+      </c>
+      <c r="AI100" s="4">
+        <f t="shared" si="127"/>
+        <v>-7.6058903901624397E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:Z37">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT39">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9509,10 +13554,10 @@
       </c>
       <c r="C9" s="4">
         <f>AVERAGE(DCF!AE40:AI40)</f>
-        <v>0.13063560301565624</v>
+        <v>0.14310662837354385</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -9523,7 +13568,7 @@
         <v>421</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -9532,7 +13577,7 @@
       </c>
       <c r="C11" s="3">
         <f>(C10*(1-C9))/C3</f>
-        <v>2.5297374283274037E-2</v>
+        <v>2.4934483650451898E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
@@ -9581,7 +13626,7 @@
       </c>
       <c r="C18" s="3">
         <f>(C7*C16)+(C6*C11)*(1-C9)</f>
-        <v>5.3950410437967056E-2</v>
+        <v>5.3850700241781214E-2</v>
       </c>
     </row>
   </sheetData>

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B25ED-3F50-425A-B75A-443148DE4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DDA9F-3BEA-41C6-986D-3FFBD5BEC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
   <si>
     <t>Company</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>FCF Y/Y</t>
+  </si>
+  <si>
+    <t>Average DCF Price</t>
+  </si>
+  <si>
+    <t>Current Price</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1385,7 +1421,7 @@
     <v>TARGET CORPORATION</v>
     <v>TARGET CORPORATION</v>
     <v>160</v>
-    <v>13.2149</v>
+    <v>13.543200000000001</v>
     <v>159.41999999999999</v>
     <v>163.38</v>
     <v>163.35</v>
@@ -1978,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD8FB6-9B3F-4613-8123-B39F0D5EDE91}">
-  <dimension ref="B3:J11"/>
+  <dimension ref="B3:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1996,10 +2032,13 @@
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -2018,8 +2057,15 @@
         <v>138</v>
       </c>
       <c r="J3" s="45"/>
+      <c r="L3" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="10">
+        <f>AVERAGE(G9,J9)</f>
+        <v>275.23201548529039</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2043,8 +2089,15 @@
         <f>DCF!AT32</f>
         <v>-0.01</v>
       </c>
+      <c r="L4" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="44">
+        <f>C4</f>
+        <v>163.38</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2122,15 @@
         <f>DCF!AT33</f>
         <v>5.3850700241781214E-2</v>
       </c>
+      <c r="L5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="4">
+        <f>(M3-M4)/M4</f>
+        <v>0.68461265445764719</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2155,7 @@
         <v>190632.20847372137</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2181,7 @@
         <v>-13356</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2208,7 @@
         <v>177276.20847372137</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2233,7 @@
         <v>378.95726480060148</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F10" s="46" t="s">
         <v>62</v>
       </c>
@@ -2189,7 +2249,7 @@
         <v>163.38</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F11" s="50" t="s">
         <v>63</v>
       </c>
@@ -2207,6 +2267,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M5 J11 G11">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2215,11 +2283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA5FFC-C2FB-4DA3-BA4F-61AACB691A05}">
   <dimension ref="A1:PH100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="ON64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AH15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ35" sqref="AQ35"/>
+      <selection pane="bottomRight" activeCell="AZ31" sqref="AZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13457,26 +13525,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:Z37">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TGT.xlsx
+++ b/TGT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DDA9F-3BEA-41C6-986D-3FFBD5BEC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D399BC8-1ABC-4407-A065-2EE12C8C0F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FA88B4-C151-4007-87D5-293FBDCB5EFE}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>finviz</t>
   </si>
   <si>
-    <t>1Q22 8K</t>
-  </si>
-  <si>
     <t>1Q21</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Current Price</t>
+  </si>
+  <si>
+    <t>2Q22 8K</t>
   </si>
 </sst>
 </file>
@@ -511,13 +511,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -722,142 +728,112 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -920,16 +896,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -945,196 +911,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1155,16 +931,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1179,8 +955,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18468975" y="66675"/>
-          <a:ext cx="0" cy="17878425"/>
+          <a:off x="19202400" y="57150"/>
+          <a:ext cx="0" cy="18240375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1399,11 +1175,11 @@
     <v>4</v>
     <v>268.98</v>
     <v>137.16</v>
-    <v>1.0288999999999999</v>
-    <v>3.96</v>
-    <v>-1.8360000000000002E-4</v>
-    <v>2.4840000000000001E-2</v>
-    <v>-0.03</v>
+    <v>1.0243</v>
+    <v>-6.01</v>
+    <v>-1.7360000000000001E-3</v>
+    <v>-3.4729999999999997E-2</v>
+    <v>-0.28999999999999998</v>
     <v>USD</v>
     <v>Target Corporation (Target) is a general merchandise retailer selling products through its stores and digital channels. The Company sells an assortment of general merchandise and food. The Company’s product category includes apparel and accessories, beauty and household essentials, food and beverage, hardlines, and home furnishing and decor. Its general merchandise stores offer an edited food assortment, including perishables, dry grocery, dairy and frozen items. The Company has stores of approximately 170,000 square feet offer a full line of food items comparable to traditional supermarkets. Its small-format stores have over 50,000 square feet that offer curated general merchandise and food assortments. Its brands include Art Class, Smartly, Auden, JoyLab, Smith &amp; Hawken, Ava &amp; Viv, Kindfull, Sonia Kashuk, Casaluna, Market Pantry, Threshold, Cat &amp; Jack, Mondo Llama, Universal Thread, Cloud Island, More Than Magic, up &amp; up, Colsie, Opalhouse, Wild Fable and Open Story, Wondershop.</v>
     <v>450000</v>
@@ -1411,25 +1187,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Nicollet Mall, MINNEAPOLIS, MN, 55403 US</v>
-    <v>164.04</v>
+    <v>171.92</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44771.998580508596</v>
+    <v>44792.999946145312</v>
     <v>0</v>
-    <v>158.53</v>
-    <v>75758717832</v>
+    <v>166.7901</v>
+    <v>76877888256</v>
     <v>TARGET CORPORATION</v>
     <v>TARGET CORPORATION</v>
-    <v>160</v>
-    <v>13.543200000000001</v>
-    <v>159.41999999999999</v>
-    <v>163.38</v>
-    <v>163.35</v>
-    <v>463696400</v>
+    <v>171.83</v>
+    <v>19.651199999999999</v>
+    <v>173.05</v>
+    <v>167.04</v>
+    <v>166.75</v>
+    <v>460236400</v>
     <v>TGT</v>
     <v>TARGET CORPORATION (XNYS:TGT)</v>
-    <v>5522969</v>
-    <v>3649046</v>
+    <v>5015791</v>
+    <v>4153247</v>
     <v>1902</v>
   </rv>
   <rv s="2">
@@ -2017,7 +1793,7 @@
   <dimension ref="B3:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,21 +1824,21 @@
       <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="45"/>
+      <c r="F3" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="44"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="L3" s="38" t="s">
-        <v>140</v>
+      <c r="I3" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="L3" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="M3" s="10">
         <f>AVERAGE(G9,J9)</f>
-        <v>275.23201548529039</v>
+        <v>270.19513930330527</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2071,30 +1847,30 @@
       </c>
       <c r="C4" s="19" cm="1">
         <f t="array" ref="C4">_FV(C3,"Price")</f>
-        <v>163.38</v>
+        <v>167.04</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f>DCF!AQ32</f>
         <v>-0.01</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <f>DCF!AT32</f>
         <v>-0.01</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="44">
+      <c r="L4" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="43">
         <f>C4</f>
-        <v>163.38</v>
+        <v>167.04</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2102,32 +1878,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>467.8</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="46" t="s">
+        <v>463.6</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <f>WACC!C18</f>
-        <v>5.3850700241781214E-2</v>
+        <v>5.3548923082668794E-2</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <f>DCF!AT33</f>
-        <v>5.3850700241781214E-2</v>
-      </c>
-      <c r="L5" s="38" t="s">
+        <v>5.3548923082668794E-2</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>63</v>
       </c>
       <c r="M5" s="4">
         <f>(M3-M4)/M4</f>
-        <v>0.68461265445764719</v>
+        <v>0.61754752935407853</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -2136,23 +1912,23 @@
       </c>
       <c r="C6" s="7">
         <f>C5*C4</f>
-        <v>76429.164000000004</v>
+        <v>77439.744000000006</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <f>NPV(G5,DCF!AI25:PH25)</f>
-        <v>93586.865214316334</v>
+        <v>86957.462356849326</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="47">
         <f>NPV(J5,DCF!AI98:PH98)</f>
-        <v>190632.20847372137</v>
+        <v>191537.47080517531</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -2160,25 +1936,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="7">
-        <v>1112</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="46" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <f>C7-C8</f>
-        <v>-13356</v>
+        <v>-13985</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="47">
         <f>C7-C8</f>
-        <v>-13356</v>
+        <v>-13985</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2186,26 +1962,26 @@
         <v>7</v>
       </c>
       <c r="C8" s="7">
-        <f>1089+13379</f>
-        <v>14468</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="46" t="s">
+        <f>1649+13453</f>
+        <v>15102</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <f>G6+G7</f>
-        <v>80230.865214316334</v>
+        <v>72972.462356849326</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="47">
         <f>J6+J7</f>
-        <v>177276.20847372137</v>
+        <v>177552.47080517531</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -2214,64 +1990,64 @@
       </c>
       <c r="C9" s="23">
         <f>C6-C7+C8</f>
-        <v>89785.164000000004</v>
+        <v>91424.744000000006</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>G8/C5</f>
-        <v>171.50676616997933</v>
+        <v>157.40393088190103</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>J8/C5</f>
-        <v>378.95726480060148</v>
+        <v>382.98634772470945</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <v>163.38</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <f>C4</f>
-        <v>163.38</v>
+        <v>167.04</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f>(G9-G10)/G10</f>
-        <v>4.9741499387803485E-2</v>
+        <v>-3.6577727494791053E-2</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="50">
         <f>(J9-J10)/J10</f>
-        <v>1.319483809527491</v>
+        <v>1.2927822540990748</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M5 J11 G11">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2284,10 +2060,10 @@
   <dimension ref="A1:PH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ31" sqref="AZ31"/>
+      <selection pane="bottomRight" activeCell="AQ37" sqref="AQ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2311,8 +2087,8 @@
     <col min="19" max="19" width="9.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="9.140625" style="2"/>
+    <col min="22" max="24" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="9.140625" style="2"/>
     <col min="31" max="41" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2323,8 +2099,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="35"/>
-      <c r="C1" s="36">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35">
         <v>42854</v>
       </c>
       <c r="D1" s="5">
@@ -2386,6 +2162,9 @@
       </c>
       <c r="W1" s="5">
         <v>44681</v>
+      </c>
+      <c r="X1" s="5">
+        <v>44772</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2437,33 +2216,33 @@
       <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
       <c r="AE2" s="6">
         <v>2017</v>
       </c>
@@ -2493,8 +2272,8 @@
       </c>
     </row>
     <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
-        <v>79</v>
+      <c r="B3" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="7">
         <v>4051</v>
@@ -2548,28 +2327,28 @@
         <f>14772-SUM(O3:Q3)</f>
         <v>4142</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="33">
         <v>4269</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="33">
         <v>4751</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="33">
         <v>4364</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="33">
         <f>17931-SUM(S3:U3)</f>
         <v>4547</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="33">
         <v>4239</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
       <c r="AE3" s="7">
         <f>SUM(C3:F3)</f>
         <v>14662</v>
@@ -2592,8 +2371,8 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
-        <v>80</v>
+      <c r="B4" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="7">
         <v>3452</v>
@@ -2647,28 +2426,28 @@
         <f>24461-SUM(O4:Q4)</f>
         <v>6289</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="33">
         <v>6364</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="33">
         <v>6726</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="33">
         <v>6980</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="33">
         <f>27268-SUM(S4:U4)</f>
         <v>7198</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="33">
         <v>7053</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
       <c r="AE4" s="7">
         <f t="shared" ref="AE4:AE8" si="0">SUM(C4:F4)</f>
         <v>17025</v>
@@ -2691,8 +2470,8 @@
       </c>
     </row>
     <row r="5" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
-        <v>81</v>
+      <c r="B5" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="7">
         <v>3413</v>
@@ -2746,28 +2525,28 @@
         <f>18135-SUM(O5:Q5)</f>
         <v>4977</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <v>4856</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="33">
         <v>4687</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="33">
         <v>5074</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="33">
         <f>20306-SUM(S5:U5)</f>
         <v>5689</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="33">
         <v>5505</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
       <c r="AE5" s="7">
         <f t="shared" si="0"/>
         <v>14256</v>
@@ -2790,8 +2569,8 @@
       </c>
     </row>
     <row r="6" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
-        <v>82</v>
+      <c r="B6" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="7">
         <v>2747</v>
@@ -2845,28 +2624,28 @@
         <f>16626-SUM(O6:Q6)</f>
         <v>6667</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="33">
         <v>3946</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <v>3867</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="33">
         <v>3841</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="33">
         <f>18614-SUM(S6:U6)</f>
         <v>6960</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="33">
         <v>3713</v>
       </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
       <c r="AE6" s="7">
         <f t="shared" si="0"/>
         <v>12062</v>
@@ -2889,8 +2668,8 @@
       </c>
     </row>
     <row r="7" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
-        <v>83</v>
+      <c r="B7" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="C7" s="7">
         <v>2310</v>
@@ -2944,28 +2723,28 @@
         <f>18231-SUM(O7:Q7)</f>
         <v>5836</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <v>4410</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="33">
         <v>4748</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="33">
         <v>4989</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="33">
         <f>20255-SUM(S7:U7)</f>
         <v>6108</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="33">
         <v>4271</v>
       </c>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
       <c r="AE7" s="7">
         <f t="shared" si="0"/>
         <v>13672</v>
@@ -2988,8 +2767,8 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
-        <v>84</v>
+      <c r="B8" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="7">
         <v>22</v>
@@ -3043,28 +2822,28 @@
         <f>175-SUM(O8:Q8)</f>
         <v>86</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="33">
         <v>34</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="33">
         <v>47</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="33">
         <v>42</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="33">
         <f>237-SUM(S8:U8)</f>
         <v>114</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="33">
         <v>49</v>
       </c>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
       <c r="AE8" s="7">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -3086,8 +2865,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:39" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12">
@@ -3174,7 +2953,9 @@
         <f>SUM(W3:W8)</f>
         <v>24830</v>
       </c>
-      <c r="X9" s="12"/>
+      <c r="X9" s="12">
+        <v>25653</v>
+      </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AE9" s="12">
@@ -3199,7 +2980,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3216,21 +2997,21 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
-        <v>85</v>
+      <c r="B11" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="7">
         <v>171</v>
@@ -3284,28 +3065,28 @@
         <f>666-SUM(O11:Q11)</f>
         <v>178</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <v>171</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="33">
         <v>172</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="33">
         <v>184</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="33">
         <f>710-SUM(S11:U11)</f>
         <v>183</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="33">
         <v>185</v>
       </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
       <c r="AE11" s="7">
         <f t="shared" ref="AE11:AE12" si="7">SUM(C11:F11)</f>
         <v>694</v>
@@ -3328,8 +3109,8 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
-        <v>84</v>
+      <c r="B12" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="C12" s="7">
         <v>57</v>
@@ -3383,28 +3164,28 @@
         <f>495-SUM(O12:Q12)</f>
         <v>164</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="33">
         <v>147</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="33">
         <v>162</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="33">
         <v>178</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="33">
         <f>684-SUM(S12:U12)</f>
         <v>197</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="33">
         <v>155</v>
       </c>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
       <c r="AE12" s="7">
         <f t="shared" si="7"/>
         <v>234</v>
@@ -3426,9 +3207,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>86</v>
+    <row r="13" spans="1:39" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" ref="C13:V13" si="10">C11+C12</f>
@@ -3514,7 +3295,9 @@
         <f>W11+W12</f>
         <v>340</v>
       </c>
-      <c r="X13" s="12"/>
+      <c r="X13" s="12">
+        <v>384</v>
+      </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AE13" s="12">
@@ -3555,17 +3338,17 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
     </row>
     <row r="15" spans="1:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3657,8 +3440,8 @@
         <v>25170</v>
       </c>
       <c r="X15" s="9">
-        <f>T15*1.04</f>
-        <v>26166.400000000001</v>
+        <f>X13+X9</f>
+        <v>26037</v>
       </c>
       <c r="Y15" s="9">
         <f>U15*1.04</f>
@@ -3690,19 +3473,19 @@
       </c>
       <c r="AJ15" s="9">
         <f>SUM(W15:Z15)</f>
-        <v>110250.32</v>
+        <v>110120.92</v>
       </c>
       <c r="AK15" s="9">
         <f>AJ15*1.04</f>
-        <v>114660.33280000002</v>
+        <v>114525.7568</v>
       </c>
       <c r="AL15" s="9">
         <f>AK15*1.03</f>
-        <v>118100.14278400003</v>
+        <v>117961.52950400001</v>
       </c>
       <c r="AM15" s="9">
         <f>AL15*1.03</f>
-        <v>121643.14706752003</v>
+        <v>121500.37538912</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
@@ -3773,8 +3556,7 @@
         <v>18461</v>
       </c>
       <c r="X16" s="2">
-        <f>T16*1.12</f>
-        <v>19353.600000000002</v>
+        <v>20142</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" ref="Y16" si="14">U16*1.08</f>
@@ -3806,19 +3588,19 @@
       </c>
       <c r="AJ16" s="2">
         <f>SUM(W16:Z16)</f>
-        <v>81376.13</v>
+        <v>82164.53</v>
       </c>
       <c r="AK16" s="2">
         <f>AJ16*1.05</f>
-        <v>85444.936500000011</v>
+        <v>86272.756500000003</v>
       </c>
       <c r="AL16" s="2">
         <f>AK16*1.03</f>
-        <v>88008.284595000019</v>
+        <v>88860.939194999999</v>
       </c>
       <c r="AM16" s="2">
         <f>AL16*1.03</f>
-        <v>90648.533132850018</v>
+        <v>91526.767370850008</v>
       </c>
     </row>
     <row r="17" spans="1:424" x14ac:dyDescent="0.2">
@@ -3830,7 +3612,7 @@
         <v>5024</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="C17:P17" si="15">+D15-D16</f>
+        <f t="shared" ref="D17:P17" si="15">+D15-D16</f>
         <v>5215</v>
       </c>
       <c r="E17" s="2">
@@ -3911,7 +3693,7 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="16"/>
-        <v>6812.7999999999993</v>
+        <v>5895</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="16"/>
@@ -3943,19 +3725,19 @@
       </c>
       <c r="AJ17" s="2">
         <f t="shared" ref="AJ17:AM17" si="17">+AJ15-AJ16</f>
-        <v>28874.190000000002</v>
+        <v>27956.39</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="17"/>
-        <v>29215.396300000008</v>
+        <v>28253.0003</v>
       </c>
       <c r="AL17" s="2">
         <f t="shared" si="17"/>
-        <v>30091.858189000006</v>
+        <v>29100.590309000007</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="17"/>
-        <v>30994.613934670007</v>
+        <v>29973.608018269995</v>
       </c>
     </row>
     <row r="18" spans="1:424" x14ac:dyDescent="0.2">
@@ -4026,8 +3808,7 @@
         <v>4762</v>
       </c>
       <c r="X18" s="2">
-        <f>T18*1.11</f>
-        <v>5382.39</v>
+        <v>5002</v>
       </c>
       <c r="Y18" s="2">
         <f>U18*1.08</f>
@@ -4059,19 +3840,19 @@
       </c>
       <c r="AJ18" s="2">
         <f>SUM(W18:Z18)</f>
-        <v>21203.86</v>
+        <v>20823.47</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" ref="AK18" si="19">AJ18*1.05</f>
-        <v>22264.053</v>
+        <v>21864.643500000002</v>
       </c>
       <c r="AL18" s="2">
         <f t="shared" ref="AL18:AM18" si="20">AK18*1.03</f>
-        <v>22931.974590000002</v>
+        <v>22520.582805000002</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="20"/>
-        <v>23619.933827700002</v>
+        <v>23196.200289150001</v>
       </c>
     </row>
     <row r="19" spans="1:424" x14ac:dyDescent="0.2">
@@ -4164,7 +3945,7 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" ref="X19:Z19" si="23">+X18</f>
-        <v>5382.39</v>
+        <v>5002</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="23"/>
@@ -4196,19 +3977,19 @@
       </c>
       <c r="AJ19" s="2">
         <f t="shared" ref="AJ19:AM19" si="24">+AJ18</f>
-        <v>21203.86</v>
+        <v>20823.47</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="24"/>
-        <v>22264.053</v>
+        <v>21864.643500000002</v>
       </c>
       <c r="AL19" s="2">
         <f t="shared" si="24"/>
-        <v>22931.974590000002</v>
+        <v>22520.582805000002</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="24"/>
-        <v>23619.933827700002</v>
+        <v>23196.200289150001</v>
       </c>
     </row>
     <row r="20" spans="1:424" x14ac:dyDescent="0.2">
@@ -4301,7 +4082,7 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" ref="X20:Z20" si="27">+X17-X19</f>
-        <v>1430.4099999999989</v>
+        <v>893</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="27"/>
@@ -4333,24 +4114,24 @@
       </c>
       <c r="AJ20" s="2">
         <f t="shared" ref="AJ20:AM20" si="28">+AJ17-AJ19</f>
-        <v>7670.3300000000017</v>
+        <v>7132.9199999999983</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="28"/>
-        <v>6951.3433000000077</v>
+        <v>6388.3567999999977</v>
       </c>
       <c r="AL20" s="2">
         <f t="shared" si="28"/>
-        <v>7159.8835990000043</v>
+        <v>6580.0075040000047</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="28"/>
-        <v>7374.680106970005</v>
+        <v>6777.4077291199937</v>
       </c>
     </row>
     <row r="21" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
-        <v>113</v>
+      <c r="B21" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>140</v>
@@ -4380,7 +4161,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>126</v>
       </c>
       <c r="L21" s="2">
@@ -4431,8 +4212,7 @@
         <v>112</v>
       </c>
       <c r="X21" s="2">
-        <f>T21*1.01</f>
-        <v>105.04</v>
+        <v>112</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" ref="Y21:Z21" si="29">U21*1.01</f>
@@ -4464,7 +4244,7 @@
       </c>
       <c r="AJ21" s="2">
         <f>SUM(W21:Z21)</f>
-        <v>428.13000000000005</v>
+        <v>435.09000000000003</v>
       </c>
       <c r="AK21" s="2">
         <v>400</v>
@@ -4477,8 +4257,8 @@
       </c>
     </row>
     <row r="22" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
-        <v>78</v>
+      <c r="B22" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="2">
         <f>-15-3</f>
@@ -4554,8 +4334,7 @@
         <v>-15</v>
       </c>
       <c r="X22" s="2">
-        <f>T22*1.01</f>
-        <v>-7.07</v>
+        <v>-8</v>
       </c>
       <c r="Y22" s="2">
         <f>U22*1.01</f>
@@ -4587,19 +4366,19 @@
       </c>
       <c r="AJ22" s="2">
         <f>SUM(W22:Z22)</f>
-        <v>-54.39</v>
+        <v>-55.320000000000007</v>
       </c>
       <c r="AK22" s="2">
         <f>AJ22*1.01</f>
-        <v>-54.933900000000001</v>
+        <v>-55.873200000000011</v>
       </c>
       <c r="AL22" s="2">
         <f>AK22*1.01</f>
-        <v>-55.483239000000005</v>
+        <v>-56.43193200000001</v>
       </c>
       <c r="AM22" s="2">
         <f>AL22*1.01</f>
-        <v>-56.038071390000006</v>
+        <v>-56.996251320000013</v>
       </c>
     </row>
     <row r="23" spans="1:424" x14ac:dyDescent="0.2">
@@ -4692,7 +4471,7 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="30"/>
-        <v>1332.4399999999989</v>
+        <v>789</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="30"/>
@@ -4724,19 +4503,19 @@
       </c>
       <c r="AJ23" s="2">
         <f t="shared" si="30"/>
-        <v>7296.590000000002</v>
+        <v>6753.1499999999978</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="30"/>
-        <v>6606.2772000000077</v>
+        <v>6044.2299999999977</v>
       </c>
       <c r="AL23" s="2">
         <f t="shared" si="30"/>
-        <v>6815.3668380000045</v>
+        <v>6236.4394360000051</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="30"/>
-        <v>7030.7181783600054</v>
+        <v>6434.4039804399936</v>
       </c>
     </row>
     <row r="24" spans="1:424" x14ac:dyDescent="0.2">
@@ -4807,8 +4586,7 @@
         <v>240</v>
       </c>
       <c r="X24" s="2">
-        <f>X23*0.19</f>
-        <v>253.1635999999998</v>
+        <v>34</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" ref="Y24:Z24" si="31">Y23*0.19</f>
@@ -4840,19 +4618,19 @@
       </c>
       <c r="AJ24" s="2">
         <f>SUM(W24:Z24)</f>
-        <v>1274.8521000000005</v>
+        <v>1055.6885000000007</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" ref="AK24:AM24" si="32">AK23*0.21</f>
-        <v>1387.3182120000015</v>
+        <v>1269.2882999999995</v>
       </c>
       <c r="AL24" s="2">
         <f t="shared" si="32"/>
-        <v>1431.2270359800009</v>
+        <v>1309.652281560001</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="32"/>
-        <v>1476.4508174556011</v>
+        <v>1351.2248358923987</v>
       </c>
     </row>
     <row r="25" spans="1:424" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4946,7 +4724,7 @@
       </c>
       <c r="X25" s="9">
         <f t="shared" si="34"/>
-        <v>1079.2763999999991</v>
+        <v>755</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="34"/>
@@ -4978,1559 +4756,1559 @@
       </c>
       <c r="AJ25" s="9">
         <f t="shared" ref="AJ25:AL25" si="35">+AJ23-AJ24</f>
-        <v>6021.7379000000019</v>
+        <v>5697.4614999999976</v>
       </c>
       <c r="AK25" s="9">
         <f t="shared" si="35"/>
-        <v>5218.9589880000058</v>
+        <v>4774.9416999999985</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" si="35"/>
-        <v>5384.1398020200031</v>
+        <v>4926.7871544400041</v>
       </c>
       <c r="AM25" s="9">
         <f>+AM23-AM24</f>
-        <v>5554.2673609044041</v>
+        <v>5083.1791445475947</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" ref="AN25:CY25" si="36">AM25*(1+$AQ$32)</f>
-        <v>5498.7246872953601</v>
+        <v>5032.3473531021191</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="36"/>
-        <v>5443.7374404224065</v>
+        <v>4982.0238795710975</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="36"/>
-        <v>5389.3000660181824</v>
+        <v>4932.2036407753867</v>
       </c>
       <c r="AQ25" s="9">
         <f t="shared" si="36"/>
-        <v>5335.4070653580002</v>
+        <v>4882.8816043676325</v>
       </c>
       <c r="AR25" s="9">
         <f t="shared" si="36"/>
-        <v>5282.0529947044197</v>
+        <v>4834.0527883239565</v>
       </c>
       <c r="AS25" s="9">
         <f t="shared" si="36"/>
-        <v>5229.2324647573751</v>
+        <v>4785.7122604407168</v>
       </c>
       <c r="AT25" s="9">
         <f t="shared" si="36"/>
-        <v>5176.9401401098012</v>
+        <v>4737.85513783631</v>
       </c>
       <c r="AU25" s="9">
         <f t="shared" si="36"/>
-        <v>5125.1707387087035</v>
+        <v>4690.4765864579467</v>
       </c>
       <c r="AV25" s="9">
         <f t="shared" si="36"/>
-        <v>5073.9190313216168</v>
+        <v>4643.5718205933672</v>
       </c>
       <c r="AW25" s="9">
         <f t="shared" si="36"/>
-        <v>5023.1798410084002</v>
+        <v>4597.1361023874333</v>
       </c>
       <c r="AX25" s="9">
         <f t="shared" si="36"/>
-        <v>4972.9480425983165</v>
+        <v>4551.1647413635592</v>
       </c>
       <c r="AY25" s="9">
         <f t="shared" si="36"/>
-        <v>4923.2185621723329</v>
+        <v>4505.6530939499235</v>
       </c>
       <c r="AZ25" s="9">
         <f t="shared" si="36"/>
-        <v>4873.9863765506097</v>
+        <v>4460.5965630104238</v>
       </c>
       <c r="BA25" s="9">
         <f t="shared" si="36"/>
-        <v>4825.2465127851037</v>
+        <v>4415.9905973803197</v>
       </c>
       <c r="BB25" s="9">
         <f t="shared" si="36"/>
-        <v>4776.9940476572528</v>
+        <v>4371.8306914065161</v>
       </c>
       <c r="BC25" s="9">
         <f t="shared" si="36"/>
-        <v>4729.2241071806802</v>
+        <v>4328.1123844924505</v>
       </c>
       <c r="BD25" s="9">
         <f t="shared" si="36"/>
-        <v>4681.9318661088737</v>
+        <v>4284.8312606475256</v>
       </c>
       <c r="BE25" s="9">
         <f t="shared" si="36"/>
-        <v>4635.1125474477849</v>
+        <v>4241.9829480410499</v>
       </c>
       <c r="BF25" s="9">
         <f t="shared" si="36"/>
-        <v>4588.7614219733068</v>
+        <v>4199.5631185606389</v>
       </c>
       <c r="BG25" s="9">
         <f t="shared" si="36"/>
-        <v>4542.8738077535736</v>
+        <v>4157.5674873750322</v>
       </c>
       <c r="BH25" s="9">
         <f t="shared" si="36"/>
-        <v>4497.4450696760377</v>
+        <v>4115.9918125012819</v>
       </c>
       <c r="BI25" s="9">
         <f t="shared" si="36"/>
-        <v>4452.4706189792769</v>
+        <v>4074.8318943762688</v>
       </c>
       <c r="BJ25" s="9">
         <f t="shared" si="36"/>
-        <v>4407.9459127894843</v>
+        <v>4034.0835754325062</v>
       </c>
       <c r="BK25" s="9">
         <f t="shared" si="36"/>
-        <v>4363.8664536615897</v>
+        <v>3993.7427396781814</v>
       </c>
       <c r="BL25" s="9">
         <f t="shared" si="36"/>
-        <v>4320.2277891249742</v>
+        <v>3953.8053122813994</v>
       </c>
       <c r="BM25" s="9">
         <f t="shared" si="36"/>
-        <v>4277.0255112337245</v>
+        <v>3914.2672591585856</v>
       </c>
       <c r="BN25" s="9">
         <f t="shared" si="36"/>
-        <v>4234.255256121387</v>
+        <v>3875.1245865669998</v>
       </c>
       <c r="BO25" s="9">
         <f t="shared" si="36"/>
-        <v>4191.9127035601732</v>
+        <v>3836.3733407013297</v>
       </c>
       <c r="BP25" s="9">
         <f t="shared" si="36"/>
-        <v>4149.9935765245718</v>
+        <v>3798.0096072943165</v>
       </c>
       <c r="BQ25" s="9">
         <f t="shared" si="36"/>
-        <v>4108.4936407593259</v>
+        <v>3760.0295112213735</v>
       </c>
       <c r="BR25" s="9">
         <f t="shared" si="36"/>
-        <v>4067.4087043517325</v>
+        <v>3722.4292161091598</v>
       </c>
       <c r="BS25" s="9">
         <f t="shared" si="36"/>
-        <v>4026.7346173082151</v>
+        <v>3685.204923948068</v>
       </c>
       <c r="BT25" s="9">
         <f t="shared" si="36"/>
-        <v>3986.4672711351327</v>
+        <v>3648.3528747085875</v>
       </c>
       <c r="BU25" s="9">
         <f t="shared" si="36"/>
-        <v>3946.6025984237813</v>
+        <v>3611.8693459615015</v>
       </c>
       <c r="BV25" s="9">
         <f t="shared" si="36"/>
-        <v>3907.1365724395432</v>
+        <v>3575.7506525018866</v>
       </c>
       <c r="BW25" s="9">
         <f t="shared" si="36"/>
-        <v>3868.0652067151477</v>
+        <v>3539.9931459768677</v>
       </c>
       <c r="BX25" s="9">
         <f t="shared" si="36"/>
-        <v>3829.3845546479961</v>
+        <v>3504.5932145170991</v>
       </c>
       <c r="BY25" s="9">
         <f t="shared" si="36"/>
-        <v>3791.090709101516</v>
+        <v>3469.5472823719283</v>
       </c>
       <c r="BZ25" s="9">
         <f t="shared" si="36"/>
-        <v>3753.1798020105007</v>
+        <v>3434.8518095482091</v>
       </c>
       <c r="CA25" s="9">
         <f t="shared" si="36"/>
-        <v>3715.6480039903959</v>
+        <v>3400.5032914527269</v>
       </c>
       <c r="CB25" s="9">
         <f t="shared" si="36"/>
-        <v>3678.4915239504917</v>
+        <v>3366.4982585381995</v>
       </c>
       <c r="CC25" s="9">
         <f t="shared" si="36"/>
-        <v>3641.7066087109865</v>
+        <v>3332.8332759528175</v>
       </c>
       <c r="CD25" s="9">
         <f t="shared" si="36"/>
-        <v>3605.2895426238765</v>
+        <v>3299.5049431932894</v>
       </c>
       <c r="CE25" s="9">
         <f t="shared" si="36"/>
-        <v>3569.2366471976379</v>
+        <v>3266.5098937613566</v>
       </c>
       <c r="CF25" s="9">
         <f t="shared" si="36"/>
-        <v>3533.5442807256613</v>
+        <v>3233.8447948237431</v>
       </c>
       <c r="CG25" s="9">
         <f t="shared" si="36"/>
-        <v>3498.2088379184047</v>
+        <v>3201.5063468755056</v>
       </c>
       <c r="CH25" s="9">
         <f t="shared" si="36"/>
-        <v>3463.2267495392207</v>
+        <v>3169.4912834067504</v>
       </c>
       <c r="CI25" s="9">
         <f t="shared" si="36"/>
-        <v>3428.5944820438285</v>
+        <v>3137.7963705726829</v>
       </c>
       <c r="CJ25" s="9">
         <f t="shared" si="36"/>
-        <v>3394.3085372233904</v>
+        <v>3106.418406866956</v>
       </c>
       <c r="CK25" s="9">
         <f t="shared" si="36"/>
-        <v>3360.3654518511566</v>
+        <v>3075.3542227982866</v>
       </c>
       <c r="CL25" s="9">
         <f t="shared" si="36"/>
-        <v>3326.7617973326451</v>
+        <v>3044.6006805703037</v>
       </c>
       <c r="CM25" s="9">
         <f t="shared" si="36"/>
-        <v>3293.4941793593184</v>
+        <v>3014.1546737646008</v>
       </c>
       <c r="CN25" s="9">
         <f t="shared" si="36"/>
-        <v>3260.5592375657252</v>
+        <v>2984.0131270269549</v>
       </c>
       <c r="CO25" s="9">
         <f t="shared" si="36"/>
-        <v>3227.9536451900681</v>
+        <v>2954.1729957566854</v>
       </c>
       <c r="CP25" s="9">
         <f t="shared" si="36"/>
-        <v>3195.6741087381674</v>
+        <v>2924.6312657991184</v>
       </c>
       <c r="CQ25" s="9">
         <f t="shared" si="36"/>
-        <v>3163.7173676507859</v>
+        <v>2895.3849531411274</v>
       </c>
       <c r="CR25" s="9">
         <f t="shared" si="36"/>
-        <v>3132.0801939742782</v>
+        <v>2866.431103609716</v>
       </c>
       <c r="CS25" s="9">
         <f t="shared" si="36"/>
-        <v>3100.7593920345353</v>
+        <v>2837.7667925736187</v>
       </c>
       <c r="CT25" s="9">
         <f t="shared" si="36"/>
-        <v>3069.75179811419</v>
+        <v>2809.3891246478825</v>
       </c>
       <c r="CU25" s="9">
         <f t="shared" si="36"/>
-        <v>3039.054280133048</v>
+        <v>2781.2952334014035</v>
       </c>
       <c r="CV25" s="9">
         <f t="shared" si="36"/>
-        <v>3008.6637373317176</v>
+        <v>2753.4822810673895</v>
       </c>
       <c r="CW25" s="9">
         <f t="shared" si="36"/>
-        <v>2978.5770999584006</v>
+        <v>2725.9474582567154</v>
       </c>
       <c r="CX25" s="9">
         <f t="shared" si="36"/>
-        <v>2948.7913289588164</v>
+        <v>2698.6879836741482</v>
       </c>
       <c r="CY25" s="9">
         <f t="shared" si="36"/>
-        <v>2919.3034156692283</v>
+        <v>2671.7011038374067</v>
       </c>
       <c r="CZ25" s="9">
         <f t="shared" ref="CZ25:FK25" si="37">CY25*(1+$AQ$32)</f>
-        <v>2890.1103815125362</v>
+        <v>2644.9840927990326</v>
       </c>
       <c r="DA25" s="9">
         <f t="shared" si="37"/>
-        <v>2861.2092776974109</v>
+        <v>2618.5342518710422</v>
       </c>
       <c r="DB25" s="9">
         <f t="shared" si="37"/>
-        <v>2832.5971849204366</v>
+        <v>2592.3489093523317</v>
       </c>
       <c r="DC25" s="9">
         <f t="shared" si="37"/>
-        <v>2804.2712130712321</v>
+        <v>2566.4254202588086</v>
       </c>
       <c r="DD25" s="9">
         <f t="shared" si="37"/>
-        <v>2776.2285009405196</v>
+        <v>2540.7611660562206</v>
       </c>
       <c r="DE25" s="9">
         <f t="shared" si="37"/>
-        <v>2748.4662159311142</v>
+        <v>2515.3535543956582</v>
       </c>
       <c r="DF25" s="9">
         <f t="shared" si="37"/>
-        <v>2720.9815537718032</v>
+        <v>2490.2000188517018</v>
       </c>
       <c r="DG25" s="9">
         <f t="shared" si="37"/>
-        <v>2693.7717382340852</v>
+        <v>2465.2980186631848</v>
       </c>
       <c r="DH25" s="9">
         <f t="shared" si="37"/>
-        <v>2666.8340208517443</v>
+        <v>2440.6450384765531</v>
       </c>
       <c r="DI25" s="9">
         <f t="shared" si="37"/>
-        <v>2640.165680643227</v>
+        <v>2416.2385880917873</v>
       </c>
       <c r="DJ25" s="9">
         <f t="shared" si="37"/>
-        <v>2613.7640238367949</v>
+        <v>2392.0762022108693</v>
       </c>
       <c r="DK25" s="9">
         <f t="shared" si="37"/>
-        <v>2587.6263835984269</v>
+        <v>2368.1554401887606</v>
       </c>
       <c r="DL25" s="9">
         <f t="shared" si="37"/>
-        <v>2561.7501197624424</v>
+        <v>2344.4738857868729</v>
       </c>
       <c r="DM25" s="9">
         <f t="shared" si="37"/>
-        <v>2536.1326185648181</v>
+        <v>2321.0291469290041</v>
       </c>
       <c r="DN25" s="9">
         <f t="shared" si="37"/>
-        <v>2510.7712923791701</v>
+        <v>2297.8188554597141</v>
       </c>
       <c r="DO25" s="9">
         <f t="shared" si="37"/>
-        <v>2485.6635794553786</v>
+        <v>2274.8406669051169</v>
       </c>
       <c r="DP25" s="9">
         <f t="shared" si="37"/>
-        <v>2460.8069436608248</v>
+        <v>2252.0922602360656</v>
       </c>
       <c r="DQ25" s="9">
         <f t="shared" si="37"/>
-        <v>2436.1988742242165</v>
+        <v>2229.5713376337048</v>
       </c>
       <c r="DR25" s="9">
         <f t="shared" si="37"/>
-        <v>2411.8368854819742</v>
+        <v>2207.2756242573678</v>
       </c>
       <c r="DS25" s="9">
         <f t="shared" si="37"/>
-        <v>2387.7185166271543</v>
+        <v>2185.2028680147941</v>
       </c>
       <c r="DT25" s="9">
         <f t="shared" si="37"/>
-        <v>2363.8413314608829</v>
+        <v>2163.350839334646</v>
       </c>
       <c r="DU25" s="9">
         <f t="shared" si="37"/>
-        <v>2340.202918146274</v>
+        <v>2141.7173309412997</v>
       </c>
       <c r="DV25" s="9">
         <f t="shared" si="37"/>
-        <v>2316.8008889648113</v>
+        <v>2120.3001576318866</v>
       </c>
       <c r="DW25" s="9">
         <f t="shared" si="37"/>
-        <v>2293.632880075163</v>
+        <v>2099.0971560555677</v>
       </c>
       <c r="DX25" s="9">
         <f t="shared" si="37"/>
-        <v>2270.6965512744114</v>
+        <v>2078.1061844950118</v>
       </c>
       <c r="DY25" s="9">
         <f t="shared" si="37"/>
-        <v>2247.9895857616671</v>
+        <v>2057.3251226500615</v>
       </c>
       <c r="DZ25" s="9">
         <f t="shared" si="37"/>
-        <v>2225.5096899040504</v>
+        <v>2036.7518714235609</v>
       </c>
       <c r="EA25" s="9">
         <f t="shared" si="37"/>
-        <v>2203.2545930050101</v>
+        <v>2016.3843527093254</v>
       </c>
       <c r="EB25" s="9">
         <f t="shared" si="37"/>
-        <v>2181.2220470749598</v>
+        <v>1996.220509182232</v>
       </c>
       <c r="EC25" s="9">
         <f t="shared" si="37"/>
-        <v>2159.4098266042101</v>
+        <v>1976.2583040904096</v>
       </c>
       <c r="ED25" s="9">
         <f t="shared" si="37"/>
-        <v>2137.8157283381679</v>
+        <v>1956.4957210495056</v>
       </c>
       <c r="EE25" s="9">
         <f t="shared" si="37"/>
-        <v>2116.4375710547861</v>
+        <v>1936.9307638390105</v>
       </c>
       <c r="EF25" s="9">
         <f t="shared" si="37"/>
-        <v>2095.273195344238</v>
+        <v>1917.5614562006203</v>
       </c>
       <c r="EG25" s="9">
         <f t="shared" si="37"/>
-        <v>2074.3204633907958</v>
+        <v>1898.385841638614</v>
       </c>
       <c r="EH25" s="9">
         <f t="shared" si="37"/>
-        <v>2053.5772587568877</v>
+        <v>1879.401983222228</v>
       </c>
       <c r="EI25" s="9">
         <f t="shared" si="37"/>
-        <v>2033.0414861693187</v>
+        <v>1860.6079633900056</v>
       </c>
       <c r="EJ25" s="9">
         <f t="shared" si="37"/>
-        <v>2012.7110713076254</v>
+        <v>1842.0018837561056</v>
       </c>
       <c r="EK25" s="9">
         <f t="shared" si="37"/>
-        <v>1992.5839605945491</v>
+        <v>1823.5818649185446</v>
       </c>
       <c r="EL25" s="9">
         <f t="shared" si="37"/>
-        <v>1972.6581209886035</v>
+        <v>1805.3460462693592</v>
       </c>
       <c r="EM25" s="9">
         <f t="shared" si="37"/>
-        <v>1952.9315397787175</v>
+        <v>1787.2925858066656</v>
       </c>
       <c r="EN25" s="9">
         <f t="shared" si="37"/>
-        <v>1933.4022243809302</v>
+        <v>1769.4196599485988</v>
       </c>
       <c r="EO25" s="9">
         <f t="shared" si="37"/>
-        <v>1914.0682021371208</v>
+        <v>1751.7254633491127</v>
       </c>
       <c r="EP25" s="9">
         <f t="shared" si="37"/>
-        <v>1894.9275201157495</v>
+        <v>1734.2082087156216</v>
       </c>
       <c r="EQ25" s="9">
         <f t="shared" si="37"/>
-        <v>1875.9782449145921</v>
+        <v>1716.8661266284653</v>
       </c>
       <c r="ER25" s="9">
         <f t="shared" si="37"/>
-        <v>1857.2184624654462</v>
+        <v>1699.6974653621805</v>
       </c>
       <c r="ES25" s="9">
         <f t="shared" si="37"/>
-        <v>1838.6462778407918</v>
+        <v>1682.7004907085586</v>
       </c>
       <c r="ET25" s="9">
         <f t="shared" si="37"/>
-        <v>1820.2598150623837</v>
+        <v>1665.873485801473</v>
       </c>
       <c r="EU25" s="9">
         <f t="shared" si="37"/>
-        <v>1802.05721691176</v>
+        <v>1649.2147509434583</v>
       </c>
       <c r="EV25" s="9">
         <f t="shared" si="37"/>
-        <v>1784.0366447426422</v>
+        <v>1632.7226034340238</v>
       </c>
       <c r="EW25" s="9">
         <f t="shared" si="37"/>
-        <v>1766.1962782952157</v>
+        <v>1616.3953773996834</v>
       </c>
       <c r="EX25" s="9">
         <f t="shared" si="37"/>
-        <v>1748.5343155122637</v>
+        <v>1600.2314236256866</v>
       </c>
       <c r="EY25" s="9">
         <f t="shared" si="37"/>
-        <v>1731.0489723571411</v>
+        <v>1584.2291093894298</v>
       </c>
       <c r="EZ25" s="9">
         <f t="shared" si="37"/>
-        <v>1713.7384826335697</v>
+        <v>1568.3868182955355</v>
       </c>
       <c r="FA25" s="9">
         <f t="shared" si="37"/>
-        <v>1696.6010978072341</v>
+        <v>1552.7029501125801</v>
       </c>
       <c r="FB25" s="9">
         <f t="shared" si="37"/>
-        <v>1679.6350868291618</v>
+        <v>1537.1759206114543</v>
       </c>
       <c r="FC25" s="9">
         <f t="shared" si="37"/>
-        <v>1662.8387359608701</v>
+        <v>1521.8041614053398</v>
       </c>
       <c r="FD25" s="9">
         <f t="shared" si="37"/>
-        <v>1646.2103486012613</v>
+        <v>1506.5861197912864</v>
       </c>
       <c r="FE25" s="9">
         <f t="shared" si="37"/>
-        <v>1629.7482451152487</v>
+        <v>1491.5202585933735</v>
       </c>
       <c r="FF25" s="9">
         <f t="shared" si="37"/>
-        <v>1613.4507626640961</v>
+        <v>1476.6050560074398</v>
       </c>
       <c r="FG25" s="9">
         <f t="shared" si="37"/>
-        <v>1597.3162550374552</v>
+        <v>1461.8390054473653</v>
       </c>
       <c r="FH25" s="9">
         <f t="shared" si="37"/>
-        <v>1581.3430924870806</v>
+        <v>1447.2206153928917</v>
       </c>
       <c r="FI25" s="9">
         <f t="shared" si="37"/>
-        <v>1565.5296615622099</v>
+        <v>1432.7484092389627</v>
       </c>
       <c r="FJ25" s="9">
         <f t="shared" si="37"/>
-        <v>1549.8743649465878</v>
+        <v>1418.4209251465732</v>
       </c>
       <c r="FK25" s="9">
         <f t="shared" si="37"/>
-        <v>1534.3756212971218</v>
+        <v>1404.2367158951074</v>
       </c>
       <c r="FL25" s="9">
         <f t="shared" ref="FL25:HW25" si="38">FK25*(1+$AQ$32)</f>
-        <v>1519.0318650841507</v>
+        <v>1390.1943487361564</v>
       </c>
       <c r="FM25" s="9">
         <f t="shared" si="38"/>
-        <v>1503.8415464333091</v>
+        <v>1376.2924052487947</v>
       </c>
       <c r="FN25" s="9">
         <f t="shared" si="38"/>
-        <v>1488.8031309689759</v>
+        <v>1362.5294811963067</v>
       </c>
       <c r="FO25" s="9">
         <f t="shared" si="38"/>
-        <v>1473.9150996592862</v>
+        <v>1348.9041863843436</v>
       </c>
       <c r="FP25" s="9">
         <f t="shared" si="38"/>
-        <v>1459.1759486626934</v>
+        <v>1335.4151445205002</v>
       </c>
       <c r="FQ25" s="9">
         <f t="shared" si="38"/>
-        <v>1444.5841891760665</v>
+        <v>1322.0609930752953</v>
       </c>
       <c r="FR25" s="9">
         <f t="shared" si="38"/>
-        <v>1430.1383472843058</v>
+        <v>1308.8403831445423</v>
       </c>
       <c r="FS25" s="9">
         <f t="shared" si="38"/>
-        <v>1415.8369638114627</v>
+        <v>1295.7519793130969</v>
       </c>
       <c r="FT25" s="9">
         <f t="shared" si="38"/>
-        <v>1401.6785941733481</v>
+        <v>1282.7944595199658</v>
       </c>
       <c r="FU25" s="9">
         <f t="shared" si="38"/>
-        <v>1387.6618082316145</v>
+        <v>1269.9665149247662</v>
       </c>
       <c r="FV25" s="9">
         <f t="shared" si="38"/>
-        <v>1373.7851901492984</v>
+        <v>1257.2668497755185</v>
       </c>
       <c r="FW25" s="9">
         <f t="shared" si="38"/>
-        <v>1360.0473382478053</v>
+        <v>1244.6941812777634</v>
       </c>
       <c r="FX25" s="9">
         <f t="shared" si="38"/>
-        <v>1346.4468648653274</v>
+        <v>1232.2472394649858</v>
       </c>
       <c r="FY25" s="9">
         <f t="shared" si="38"/>
-        <v>1332.982396216674</v>
+        <v>1219.924767070336</v>
       </c>
       <c r="FZ25" s="9">
         <f t="shared" si="38"/>
-        <v>1319.6525722545073</v>
+        <v>1207.7255193996325</v>
       </c>
       <c r="GA25" s="9">
         <f t="shared" si="38"/>
-        <v>1306.4560465319621</v>
+        <v>1195.6482642056362</v>
       </c>
       <c r="GB25" s="9">
         <f t="shared" si="38"/>
-        <v>1293.3914860666425</v>
+        <v>1183.6917815635798</v>
       </c>
       <c r="GC25" s="9">
         <f t="shared" si="38"/>
-        <v>1280.4575712059761</v>
+        <v>1171.8548637479439</v>
       </c>
       <c r="GD25" s="9">
         <f t="shared" si="38"/>
-        <v>1267.6529954939165</v>
+        <v>1160.1363151104645</v>
       </c>
       <c r="GE25" s="9">
         <f t="shared" si="38"/>
-        <v>1254.9764655389772</v>
+        <v>1148.5349519593599</v>
       </c>
       <c r="GF25" s="9">
         <f t="shared" si="38"/>
-        <v>1242.4267008835875</v>
+        <v>1137.0496024397662</v>
       </c>
       <c r="GG25" s="9">
         <f t="shared" si="38"/>
-        <v>1230.0024338747517</v>
+        <v>1125.6791064153686</v>
       </c>
       <c r="GH25" s="9">
         <f t="shared" si="38"/>
-        <v>1217.7024095360041</v>
+        <v>1114.4223153512148</v>
       </c>
       <c r="GI25" s="9">
         <f t="shared" si="38"/>
-        <v>1205.525385440644</v>
+        <v>1103.2780921977026</v>
       </c>
       <c r="GJ25" s="9">
         <f t="shared" si="38"/>
-        <v>1193.4701315862376</v>
+        <v>1092.2453112757255</v>
       </c>
       <c r="GK25" s="9">
         <f t="shared" si="38"/>
-        <v>1181.5354302703752</v>
+        <v>1081.3228581629683</v>
       </c>
       <c r="GL25" s="9">
         <f t="shared" si="38"/>
-        <v>1169.7200759676714</v>
+        <v>1070.5096295813385</v>
       </c>
       <c r="GM25" s="9">
         <f t="shared" si="38"/>
-        <v>1158.0228752079947</v>
+        <v>1059.8045332855252</v>
       </c>
       <c r="GN25" s="9">
         <f t="shared" si="38"/>
-        <v>1146.4426464559149</v>
+        <v>1049.2064879526699</v>
       </c>
       <c r="GO25" s="9">
         <f t="shared" si="38"/>
-        <v>1134.9782199913557</v>
+        <v>1038.7144230731433</v>
       </c>
       <c r="GP25" s="9">
         <f t="shared" si="38"/>
-        <v>1123.6284377914421</v>
+        <v>1028.3272788424119</v>
       </c>
       <c r="GQ25" s="9">
         <f t="shared" si="38"/>
-        <v>1112.3921534135277</v>
+        <v>1018.0440060539878</v>
       </c>
       <c r="GR25" s="9">
         <f t="shared" si="38"/>
-        <v>1101.2682318793925</v>
+        <v>1007.8635659934479</v>
       </c>
       <c r="GS25" s="9">
         <f t="shared" si="38"/>
-        <v>1090.2555495605986</v>
+        <v>997.78493033351344</v>
       </c>
       <c r="GT25" s="9">
         <f t="shared" si="38"/>
-        <v>1079.3529940649926</v>
+        <v>987.80708103017832</v>
       </c>
       <c r="GU25" s="9">
         <f t="shared" si="38"/>
-        <v>1068.5594641243426</v>
+        <v>977.92901021987655</v>
       </c>
       <c r="GV25" s="9">
         <f t="shared" si="38"/>
-        <v>1057.8738694830993</v>
+        <v>968.14972011767782</v>
       </c>
       <c r="GW25" s="9">
         <f t="shared" si="38"/>
-        <v>1047.2951307882684</v>
+        <v>958.46822291650108</v>
       </c>
       <c r="GX25" s="9">
         <f t="shared" si="38"/>
-        <v>1036.8221794803856</v>
+        <v>948.88354068733611</v>
       </c>
       <c r="GY25" s="9">
         <f t="shared" si="38"/>
-        <v>1026.4539576855816</v>
+        <v>939.39470528046274</v>
       </c>
       <c r="GZ25" s="9">
         <f t="shared" si="38"/>
-        <v>1016.1894181087258</v>
+        <v>930.00075822765814</v>
       </c>
       <c r="HA25" s="9">
         <f t="shared" si="38"/>
-        <v>1006.0275239276385</v>
+        <v>920.7007506453815</v>
       </c>
       <c r="HB25" s="9">
         <f t="shared" si="38"/>
-        <v>995.96724868836213</v>
+        <v>911.4937431389277</v>
       </c>
       <c r="HC25" s="9">
         <f t="shared" si="38"/>
-        <v>986.00757620147851</v>
+        <v>902.37880570753839</v>
       </c>
       <c r="HD25" s="9">
         <f t="shared" si="38"/>
-        <v>976.14750043946367</v>
+        <v>893.35501765046297</v>
       </c>
       <c r="HE25" s="9">
         <f t="shared" si="38"/>
-        <v>966.38602543506897</v>
+        <v>884.42146747395839</v>
       </c>
       <c r="HF25" s="9">
         <f t="shared" si="38"/>
-        <v>956.72216518071832</v>
+        <v>875.57725279921874</v>
       </c>
       <c r="HG25" s="9">
         <f t="shared" si="38"/>
-        <v>947.15494352891108</v>
+        <v>866.82148027122651</v>
       </c>
       <c r="HH25" s="9">
         <f t="shared" si="38"/>
-        <v>937.68339409362193</v>
+        <v>858.15326546851418</v>
       </c>
       <c r="HI25" s="9">
         <f t="shared" si="38"/>
-        <v>928.30656015268573</v>
+        <v>849.57173281382904</v>
       </c>
       <c r="HJ25" s="9">
         <f t="shared" si="38"/>
-        <v>919.02349455115882</v>
+        <v>841.07601548569073</v>
       </c>
       <c r="HK25" s="9">
         <f t="shared" si="38"/>
-        <v>909.83325960564719</v>
+        <v>832.66525533083382</v>
       </c>
       <c r="HL25" s="9">
         <f t="shared" si="38"/>
-        <v>900.73492700959071</v>
+        <v>824.33860277752547</v>
       </c>
       <c r="HM25" s="9">
         <f t="shared" si="38"/>
-        <v>891.72757773949479</v>
+        <v>816.09521674975019</v>
       </c>
       <c r="HN25" s="9">
         <f t="shared" si="38"/>
-        <v>882.81030196209986</v>
+        <v>807.93426458225269</v>
       </c>
       <c r="HO25" s="9">
         <f t="shared" si="38"/>
-        <v>873.98219894247882</v>
+        <v>799.85492193643017</v>
       </c>
       <c r="HP25" s="9">
         <f t="shared" si="38"/>
-        <v>865.24237695305408</v>
+        <v>791.85637271706582</v>
       </c>
       <c r="HQ25" s="9">
         <f t="shared" si="38"/>
-        <v>856.58995318352356</v>
+        <v>783.93780898989519</v>
       </c>
       <c r="HR25" s="9">
         <f t="shared" si="38"/>
-        <v>848.02405365168829</v>
+        <v>776.09843089999617</v>
       </c>
       <c r="HS25" s="9">
         <f t="shared" si="38"/>
-        <v>839.54381311517136</v>
+        <v>768.33744659099625</v>
       </c>
       <c r="HT25" s="9">
         <f t="shared" si="38"/>
-        <v>831.1483749840196</v>
+        <v>760.65407212508626</v>
       </c>
       <c r="HU25" s="9">
         <f t="shared" si="38"/>
-        <v>822.83689123417935</v>
+        <v>753.04753140383536</v>
       </c>
       <c r="HV25" s="9">
         <f t="shared" si="38"/>
-        <v>814.60852232183754</v>
+        <v>745.51705608979705</v>
       </c>
       <c r="HW25" s="9">
         <f t="shared" si="38"/>
-        <v>806.46243709861915</v>
+        <v>738.0618855288991</v>
       </c>
       <c r="HX25" s="9">
         <f t="shared" ref="HX25:KI25" si="39">HW25*(1+$AQ$32)</f>
-        <v>798.39781272763298</v>
+        <v>730.68126667361014</v>
       </c>
       <c r="HY25" s="9">
         <f t="shared" si="39"/>
-        <v>790.41383460035661</v>
+        <v>723.37445400687398</v>
       </c>
       <c r="HZ25" s="9">
         <f t="shared" si="39"/>
-        <v>782.509696254353</v>
+        <v>716.14070946680522</v>
       </c>
       <c r="IA25" s="9">
         <f t="shared" si="39"/>
-        <v>774.68459929180949</v>
+        <v>708.97930237213711</v>
       </c>
       <c r="IB25" s="9">
         <f t="shared" si="39"/>
-        <v>766.93775329889138</v>
+        <v>701.88950934841569</v>
       </c>
       <c r="IC25" s="9">
         <f t="shared" si="39"/>
-        <v>759.26837576590242</v>
+        <v>694.87061425493152</v>
       </c>
       <c r="ID25" s="9">
         <f t="shared" si="39"/>
-        <v>751.67569200824335</v>
+        <v>687.9219081123822</v>
       </c>
       <c r="IE25" s="9">
         <f t="shared" si="39"/>
-        <v>744.15893508816089</v>
+        <v>681.04268903125842</v>
       </c>
       <c r="IF25" s="9">
         <f t="shared" si="39"/>
-        <v>736.71734573727929</v>
+        <v>674.23226214094586</v>
       </c>
       <c r="IG25" s="9">
         <f t="shared" si="39"/>
-        <v>729.35017227990647</v>
+        <v>667.48993951953639</v>
       </c>
       <c r="IH25" s="9">
         <f t="shared" si="39"/>
-        <v>722.0566705571074</v>
+        <v>660.81504012434107</v>
       </c>
       <c r="II25" s="9">
         <f t="shared" si="39"/>
-        <v>714.83610385153634</v>
+        <v>654.20688972309767</v>
       </c>
       <c r="IJ25" s="9">
         <f t="shared" si="39"/>
-        <v>707.68774281302092</v>
+        <v>647.66482082586674</v>
       </c>
       <c r="IK25" s="9">
         <f t="shared" si="39"/>
-        <v>700.61086538489076</v>
+        <v>641.18817261760807</v>
       </c>
       <c r="IL25" s="9">
         <f t="shared" si="39"/>
-        <v>693.60475673104179</v>
+        <v>634.77629089143204</v>
       </c>
       <c r="IM25" s="9">
         <f t="shared" si="39"/>
-        <v>686.66870916373136</v>
+        <v>628.42852798251772</v>
       </c>
       <c r="IN25" s="9">
         <f t="shared" si="39"/>
-        <v>679.80202207209402</v>
+        <v>622.14424270269251</v>
       </c>
       <c r="IO25" s="9">
         <f t="shared" si="39"/>
-        <v>673.00400185137312</v>
+        <v>615.92280027566562</v>
       </c>
       <c r="IP25" s="9">
         <f t="shared" si="39"/>
-        <v>666.27396183285941</v>
+        <v>609.76357227290896</v>
       </c>
       <c r="IQ25" s="9">
         <f t="shared" si="39"/>
-        <v>659.61122221453081</v>
+        <v>603.66593655017982</v>
       </c>
       <c r="IR25" s="9">
         <f t="shared" si="39"/>
-        <v>653.01510999238553</v>
+        <v>597.62927718467802</v>
       </c>
       <c r="IS25" s="9">
         <f t="shared" si="39"/>
-        <v>646.48495889246169</v>
+        <v>591.65298441283119</v>
       </c>
       <c r="IT25" s="9">
         <f t="shared" si="39"/>
-        <v>640.02010930353708</v>
+        <v>585.73645456870292</v>
       </c>
       <c r="IU25" s="9">
         <f t="shared" si="39"/>
-        <v>633.61990821050176</v>
+        <v>579.87909002301592</v>
       </c>
       <c r="IV25" s="9">
         <f t="shared" si="39"/>
-        <v>627.28370912839671</v>
+        <v>574.08029912278573</v>
       </c>
       <c r="IW25" s="9">
         <f t="shared" si="39"/>
-        <v>621.01087203711279</v>
+        <v>568.33949613155789</v>
       </c>
       <c r="IX25" s="9">
         <f t="shared" si="39"/>
-        <v>614.80076331674161</v>
+        <v>562.65610117024232</v>
       </c>
       <c r="IY25" s="9">
         <f t="shared" si="39"/>
-        <v>608.65275568357424</v>
+        <v>557.02954015853993</v>
       </c>
       <c r="IZ25" s="9">
         <f t="shared" si="39"/>
-        <v>602.56622812673845</v>
+        <v>551.45924475695449</v>
       </c>
       <c r="JA25" s="9">
         <f t="shared" si="39"/>
-        <v>596.54056584547106</v>
+        <v>545.94465230938499</v>
       </c>
       <c r="JB25" s="9">
         <f t="shared" si="39"/>
-        <v>590.57516018701631</v>
+        <v>540.48520578629109</v>
       </c>
       <c r="JC25" s="9">
         <f t="shared" si="39"/>
-        <v>584.66940858514613</v>
+        <v>535.08035372842812</v>
       </c>
       <c r="JD25" s="9">
         <f t="shared" si="39"/>
-        <v>578.82271449929465</v>
+        <v>529.72955019114386</v>
       </c>
       <c r="JE25" s="9">
         <f t="shared" si="39"/>
-        <v>573.03448735430175</v>
+        <v>524.43225468923242</v>
       </c>
       <c r="JF25" s="9">
         <f t="shared" si="39"/>
-        <v>567.30414248075874</v>
+        <v>519.18793214234006</v>
       </c>
       <c r="JG25" s="9">
         <f t="shared" si="39"/>
-        <v>561.63110105595115</v>
+        <v>513.9960528209167</v>
       </c>
       <c r="JH25" s="9">
         <f t="shared" si="39"/>
-        <v>556.01479004539158</v>
+        <v>508.85609229270756</v>
       </c>
       <c r="JI25" s="9">
         <f t="shared" si="39"/>
-        <v>550.45464214493768</v>
+        <v>503.7675313697805</v>
       </c>
       <c r="JJ25" s="9">
         <f t="shared" si="39"/>
-        <v>544.95009572348829</v>
+        <v>498.72985605608267</v>
       </c>
       <c r="JK25" s="9">
         <f t="shared" si="39"/>
-        <v>539.50059476625336</v>
+        <v>493.74255749552185</v>
       </c>
       <c r="JL25" s="9">
         <f t="shared" si="39"/>
-        <v>534.10558881859083</v>
+        <v>488.80513192056662</v>
       </c>
       <c r="JM25" s="9">
         <f t="shared" si="39"/>
-        <v>528.76453293040493</v>
+        <v>483.91708060136096</v>
       </c>
       <c r="JN25" s="9">
         <f t="shared" si="39"/>
-        <v>523.47688760110088</v>
+        <v>479.07790979534735</v>
       </c>
       <c r="JO25" s="9">
         <f t="shared" si="39"/>
-        <v>518.24211872508988</v>
+        <v>474.28713069739388</v>
       </c>
       <c r="JP25" s="9">
         <f t="shared" si="39"/>
-        <v>513.05969753783893</v>
+        <v>469.54425939041994</v>
       </c>
       <c r="JQ25" s="9">
         <f t="shared" si="39"/>
-        <v>507.92910056246052</v>
+        <v>464.84881679651573</v>
       </c>
       <c r="JR25" s="9">
         <f t="shared" si="39"/>
-        <v>502.84980955683591</v>
+        <v>460.20032862855055</v>
       </c>
       <c r="JS25" s="9">
         <f t="shared" si="39"/>
-        <v>497.82131146126756</v>
+        <v>455.59832534226501</v>
       </c>
       <c r="JT25" s="9">
         <f t="shared" si="39"/>
-        <v>492.84309834665487</v>
+        <v>451.04234208884236</v>
       </c>
       <c r="JU25" s="9">
         <f t="shared" si="39"/>
-        <v>487.9146673631883</v>
+        <v>446.53191866795396</v>
       </c>
       <c r="JV25" s="9">
         <f t="shared" si="39"/>
-        <v>483.03552068955639</v>
+        <v>442.06659948127441</v>
       </c>
       <c r="JW25" s="9">
         <f t="shared" si="39"/>
-        <v>478.20516548266085</v>
+        <v>437.64593348646167</v>
       </c>
       <c r="JX25" s="9">
         <f t="shared" si="39"/>
-        <v>473.42311382783424</v>
+        <v>433.26947415159702</v>
       </c>
       <c r="JY25" s="9">
         <f t="shared" si="39"/>
-        <v>468.6888826895559</v>
+        <v>428.93677941008104</v>
       </c>
       <c r="JZ25" s="9">
         <f t="shared" si="39"/>
-        <v>464.00199386266036</v>
+        <v>424.64741161598022</v>
       </c>
       <c r="KA25" s="9">
         <f t="shared" si="39"/>
-        <v>459.36197392403375</v>
+        <v>420.40093749982043</v>
       </c>
       <c r="KB25" s="9">
         <f t="shared" si="39"/>
-        <v>454.7683541847934</v>
+        <v>416.19692812482219</v>
       </c>
       <c r="KC25" s="9">
         <f t="shared" si="39"/>
-        <v>450.22067064294544</v>
+        <v>412.03495884357397</v>
       </c>
       <c r="KD25" s="9">
         <f t="shared" si="39"/>
-        <v>445.718463936516</v>
+        <v>407.91460925513826</v>
       </c>
       <c r="KE25" s="9">
         <f t="shared" si="39"/>
-        <v>441.26127929715085</v>
+        <v>403.83546316258685</v>
       </c>
       <c r="KF25" s="9">
         <f t="shared" si="39"/>
-        <v>436.84866650417933</v>
+        <v>399.797108530961</v>
       </c>
       <c r="KG25" s="9">
         <f t="shared" si="39"/>
-        <v>432.48017983913752</v>
+        <v>395.79913744565141</v>
       </c>
       <c r="KH25" s="9">
         <f t="shared" si="39"/>
-        <v>428.15537804074614</v>
+        <v>391.84114607119488</v>
       </c>
       <c r="KI25" s="9">
         <f t="shared" si="39"/>
-        <v>423.87382426033867</v>
+        <v>387.92273461048291</v>
       </c>
       <c r="KJ25" s="9">
         <f t="shared" ref="KJ25:MU25" si="40">KI25*(1+$AQ$32)</f>
-        <v>419.63508601773526</v>
+        <v>384.04350726437809</v>
       </c>
       <c r="KK25" s="9">
         <f t="shared" si="40"/>
-        <v>415.43873515755791</v>
+        <v>380.20307219173429</v>
       </c>
       <c r="KL25" s="9">
         <f t="shared" si="40"/>
-        <v>411.28434780598235</v>
+        <v>376.40104146981696</v>
       </c>
       <c r="KM25" s="9">
         <f t="shared" si="40"/>
-        <v>407.17150432792255</v>
+        <v>372.63703105511877</v>
       </c>
       <c r="KN25" s="9">
         <f t="shared" si="40"/>
-        <v>403.09978928464329</v>
+        <v>368.91066074456756</v>
       </c>
       <c r="KO25" s="9">
         <f t="shared" si="40"/>
-        <v>399.06879139179688</v>
+        <v>365.22155413712187</v>
       </c>
       <c r="KP25" s="9">
         <f t="shared" si="40"/>
-        <v>395.07810347787893</v>
+        <v>361.56933859575065</v>
       </c>
       <c r="KQ25" s="9">
         <f t="shared" si="40"/>
-        <v>391.12732244310013</v>
+        <v>357.95364520979314</v>
       </c>
       <c r="KR25" s="9">
         <f t="shared" si="40"/>
-        <v>387.21604921866913</v>
+        <v>354.37410875769518</v>
       </c>
       <c r="KS25" s="9">
         <f t="shared" si="40"/>
-        <v>383.34388872648242</v>
+        <v>350.83036767011822</v>
       </c>
       <c r="KT25" s="9">
         <f t="shared" si="40"/>
-        <v>379.51044983921759</v>
+        <v>347.32206399341703</v>
       </c>
       <c r="KU25" s="9">
         <f t="shared" si="40"/>
-        <v>375.71534534082542</v>
+        <v>343.84884335348283</v>
       </c>
       <c r="KV25" s="9">
         <f t="shared" si="40"/>
-        <v>371.95819188741717</v>
+        <v>340.41035491994802</v>
       </c>
       <c r="KW25" s="9">
         <f t="shared" si="40"/>
-        <v>368.23860996854302</v>
+        <v>337.00625137074854</v>
       </c>
       <c r="KX25" s="9">
         <f t="shared" si="40"/>
-        <v>364.55622386885756</v>
+        <v>333.63618885704108</v>
       </c>
       <c r="KY25" s="9">
         <f t="shared" si="40"/>
-        <v>360.91066163016899</v>
+        <v>330.29982696847065</v>
       </c>
       <c r="KZ25" s="9">
         <f t="shared" si="40"/>
-        <v>357.3015550138673</v>
+        <v>326.99682869878592</v>
       </c>
       <c r="LA25" s="9">
         <f t="shared" si="40"/>
-        <v>353.72853946372862</v>
+        <v>323.72686041179804</v>
       </c>
       <c r="LB25" s="9">
         <f t="shared" si="40"/>
-        <v>350.19125406909131</v>
+        <v>320.48959180768009</v>
       </c>
       <c r="LC25" s="9">
         <f t="shared" si="40"/>
-        <v>346.6893415284004</v>
+        <v>317.28469588960326</v>
       </c>
       <c r="LD25" s="9">
         <f t="shared" si="40"/>
-        <v>343.2224481131164</v>
+        <v>314.1118489307072</v>
       </c>
       <c r="LE25" s="9">
         <f t="shared" si="40"/>
-        <v>339.79022363198521</v>
+        <v>310.97073044140012</v>
       </c>
       <c r="LF25" s="9">
         <f t="shared" si="40"/>
-        <v>336.39232139566536</v>
+        <v>307.86102313698609</v>
       </c>
       <c r="LG25" s="9">
         <f t="shared" si="40"/>
-        <v>333.02839818170872</v>
+        <v>304.78241290561624</v>
       </c>
       <c r="LH25" s="9">
         <f t="shared" si="40"/>
-        <v>329.69811419989162</v>
+        <v>301.73458877656009</v>
       </c>
       <c r="LI25" s="9">
         <f t="shared" si="40"/>
-        <v>326.40113305789271</v>
+        <v>298.71724288879449</v>
       </c>
       <c r="LJ25" s="9">
         <f t="shared" si="40"/>
-        <v>323.1371217273138</v>
+        <v>295.73007045990653</v>
       </c>
       <c r="LK25" s="9">
         <f t="shared" si="40"/>
-        <v>319.90575051004066</v>
+        <v>292.77276975530748</v>
       </c>
       <c r="LL25" s="9">
         <f t="shared" si="40"/>
-        <v>316.70669300494023</v>
+        <v>289.84504205775443</v>
       </c>
       <c r="LM25" s="9">
         <f t="shared" si="40"/>
-        <v>313.5396260748908</v>
+        <v>286.94659163717688</v>
       </c>
       <c r="LN25" s="9">
         <f t="shared" si="40"/>
-        <v>310.4042298141419</v>
+        <v>284.0771257208051</v>
       </c>
       <c r="LO25" s="9">
         <f t="shared" si="40"/>
-        <v>307.30018751600051</v>
+        <v>281.23635446359702</v>
       </c>
       <c r="LP25" s="9">
         <f t="shared" si="40"/>
-        <v>304.2271856408405</v>
+        <v>278.42399091896107</v>
       </c>
       <c r="LQ25" s="9">
         <f t="shared" si="40"/>
-        <v>301.18491378443207</v>
+        <v>275.63975100977143</v>
       </c>
       <c r="LR25" s="9">
         <f t="shared" si="40"/>
-        <v>298.17306464658776</v>
+        <v>272.88335349967372</v>
       </c>
       <c r="LS25" s="9">
         <f t="shared" si="40"/>
-        <v>295.19133400012186</v>
+        <v>270.15451996467698</v>
       </c>
       <c r="LT25" s="9">
         <f t="shared" si="40"/>
-        <v>292.23942066012063</v>
+        <v>267.45297476503021</v>
       </c>
       <c r="LU25" s="9">
         <f t="shared" si="40"/>
-        <v>289.31702645351942</v>
+        <v>264.77844501737991</v>
       </c>
       <c r="LV25" s="9">
         <f t="shared" si="40"/>
-        <v>286.42385618898425</v>
+        <v>262.13066056720612</v>
       </c>
       <c r="LW25" s="9">
         <f t="shared" si="40"/>
-        <v>283.55961762709438</v>
+        <v>259.50935396153403</v>
       </c>
       <c r="LX25" s="9">
         <f t="shared" si="40"/>
-        <v>280.72402145082344</v>
+        <v>256.9142604219187</v>
       </c>
       <c r="LY25" s="9">
         <f t="shared" si="40"/>
-        <v>277.91678123631522</v>
+        <v>254.3451178176995</v>
       </c>
       <c r="LZ25" s="9">
         <f t="shared" si="40"/>
-        <v>275.13761342395208</v>
+        <v>251.80166663952249</v>
       </c>
       <c r="MA25" s="9">
         <f t="shared" si="40"/>
-        <v>272.38623728971254</v>
+        <v>249.28364997312727</v>
       </c>
       <c r="MB25" s="9">
         <f t="shared" si="40"/>
-        <v>269.66237491681539</v>
+        <v>246.79081347339599</v>
       </c>
       <c r="MC25" s="9">
         <f t="shared" si="40"/>
-        <v>266.96575116764723</v>
+        <v>244.32290533866203</v>
       </c>
       <c r="MD25" s="9">
         <f t="shared" si="40"/>
-        <v>264.29609365597076</v>
+        <v>241.87967628527539</v>
       </c>
       <c r="ME25" s="9">
         <f t="shared" si="40"/>
-        <v>261.65313271941108</v>
+        <v>239.46087952242263</v>
       </c>
       <c r="MF25" s="9">
         <f t="shared" si="40"/>
-        <v>259.03660139221694</v>
+        <v>237.0662707271984</v>
       </c>
       <c r="MG25" s="9">
         <f t="shared" si="40"/>
-        <v>256.44623537829477</v>
+        <v>234.69560801992642</v>
       </c>
       <c r="MH25" s="9">
         <f t="shared" si="40"/>
-        <v>253.88177302451183</v>
+        <v>232.34865193972715</v>
       </c>
       <c r="MI25" s="9">
         <f t="shared" si="40"/>
-        <v>251.34295529426672</v>
+        <v>230.02516542032987</v>
       </c>
       <c r="MJ25" s="9">
         <f t="shared" si="40"/>
-        <v>248.82952574132403</v>
+        <v>227.72491376612658</v>
       </c>
       <c r="MK25" s="9">
         <f t="shared" si="40"/>
-        <v>246.34123048391078</v>
+        <v>225.4476646284653</v>
       </c>
       <c r="ML25" s="9">
         <f t="shared" si="40"/>
-        <v>243.87781817907168</v>
+        <v>223.19318798218066</v>
       </c>
       <c r="MM25" s="9">
         <f t="shared" si="40"/>
-        <v>241.43903999728096</v>
+        <v>220.96125610235885</v>
       </c>
       <c r="MN25" s="9">
         <f t="shared" si="40"/>
-        <v>239.02464959730816</v>
+        <v>218.75164354133526</v>
       </c>
       <c r="MO25" s="9">
         <f t="shared" si="40"/>
-        <v>236.63440310133507</v>
+        <v>216.5641271059219</v>
       </c>
       <c r="MP25" s="9">
         <f t="shared" si="40"/>
-        <v>234.26805907032173</v>
+        <v>214.39848583486267</v>
       </c>
       <c r="MQ25" s="9">
         <f t="shared" si="40"/>
-        <v>231.9253784796185</v>
+        <v>212.25450097651404</v>
       </c>
       <c r="MR25" s="9">
         <f t="shared" si="40"/>
-        <v>229.60612469482231</v>
+        <v>210.1319559667489</v>
       </c>
       <c r="MS25" s="9">
         <f t="shared" si="40"/>
-        <v>227.31006344787409</v>
+        <v>208.0306364070814</v>
       </c>
       <c r="MT25" s="9">
         <f t="shared" si="40"/>
-        <v>225.03696281339535</v>
+        <v>205.95033004301058</v>
       </c>
       <c r="MU25" s="9">
         <f t="shared" si="40"/>
-        <v>222.78659318526138</v>
+        <v>203.89082674258049</v>
       </c>
       <c r="MV25" s="9">
         <f t="shared" ref="MV25:PH25" si="41">MU25*(1+$AQ$32)</f>
-        <v>220.55872725340876</v>
+        <v>201.85191847515469</v>
       </c>
       <c r="MW25" s="9">
         <f t="shared" si="41"/>
-        <v>218.35313998087466</v>
+        <v>199.83339929040315</v>
       </c>
       <c r="MX25" s="9">
         <f t="shared" si="41"/>
-        <v>216.16960858106592</v>
+        <v>197.83506529749911</v>
       </c>
       <c r="MY25" s="9">
         <f t="shared" si="41"/>
-        <v>214.00791249525525</v>
+        <v>195.85671464452412</v>
       </c>
       <c r="MZ25" s="9">
         <f t="shared" si="41"/>
-        <v>211.86783337030269</v>
+        <v>193.89814749807888</v>
       </c>
       <c r="NA25" s="9">
         <f t="shared" si="41"/>
-        <v>209.74915503659966</v>
+        <v>191.95916602309811</v>
       </c>
       <c r="NB25" s="9">
         <f t="shared" si="41"/>
-        <v>207.65166348623367</v>
+        <v>190.03957436286711</v>
       </c>
       <c r="NC25" s="9">
         <f t="shared" si="41"/>
-        <v>205.57514685137133</v>
+        <v>188.13917861923844</v>
       </c>
       <c r="ND25" s="9">
         <f t="shared" si="41"/>
-        <v>203.51939538285762</v>
+        <v>186.25778683304605</v>
       </c>
       <c r="NE25" s="9">
         <f t="shared" si="41"/>
-        <v>201.48420142902904</v>
+        <v>184.39520896471558</v>
       </c>
       <c r="NF25" s="9">
         <f t="shared" si="41"/>
-        <v>199.46935941473876</v>
+        <v>182.55125687506842</v>
       </c>
       <c r="NG25" s="9">
         <f t="shared" si="41"/>
-        <v>197.47466582059138</v>
+        <v>180.72574430631772</v>
       </c>
       <c r="NH25" s="9">
         <f t="shared" si="41"/>
-        <v>195.49991916238548</v>
+        <v>178.91848686325454</v>
       </c>
       <c r="NI25" s="9">
         <f t="shared" si="41"/>
-        <v>193.54491997076161</v>
+        <v>177.12930199462198</v>
       </c>
       <c r="NJ25" s="9">
         <f t="shared" si="41"/>
-        <v>191.60947077105399</v>
+        <v>175.35800897467576</v>
       </c>
       <c r="NK25" s="9">
         <f t="shared" si="41"/>
-        <v>189.69337606334346</v>
+        <v>173.60442888492901</v>
       </c>
       <c r="NL25" s="9">
         <f t="shared" si="41"/>
-        <v>187.79644230271003</v>
+        <v>171.86838459607972</v>
       </c>
       <c r="NM25" s="9">
         <f t="shared" si="41"/>
-        <v>185.91847787968294</v>
+        <v>170.14970075011891</v>
       </c>
       <c r="NN25" s="9">
         <f t="shared" si="41"/>
-        <v>184.05929310088609</v>
+        <v>168.44820374261772</v>
       </c>
       <c r="NO25" s="9">
         <f t="shared" si="41"/>
-        <v>182.21870016987722</v>
+        <v>166.76372170519153</v>
       </c>
       <c r="NP25" s="9">
         <f t="shared" si="41"/>
-        <v>180.39651316817844</v>
+        <v>165.09608448813961</v>
       </c>
       <c r="NQ25" s="9">
         <f t="shared" si="41"/>
-        <v>178.59254803649665</v>
+        <v>163.4451236432582</v>
       </c>
       <c r="NR25" s="9">
         <f t="shared" si="41"/>
-        <v>176.80662255613169</v>
+        <v>161.8106724068256</v>
       </c>
       <c r="NS25" s="9">
         <f t="shared" si="41"/>
-        <v>175.03855633057037</v>
+        <v>160.19256568275733</v>
       </c>
       <c r="NT25" s="9">
         <f t="shared" si="41"/>
-        <v>173.28817076726466</v>
+        <v>158.59064002592976</v>
       </c>
       <c r="NU25" s="9">
         <f t="shared" si="41"/>
-        <v>171.55528905959201</v>
+        <v>157.00473362567047</v>
       </c>
       <c r="NV25" s="9">
         <f t="shared" si="41"/>
-        <v>169.8397361689961</v>
+        <v>155.43468628941378</v>
       </c>
       <c r="NW25" s="9">
         <f t="shared" si="41"/>
-        <v>168.14133880730614</v>
+        <v>153.88033942651964</v>
       </c>
       <c r="NX25" s="9">
         <f t="shared" si="41"/>
-        <v>166.45992541923309</v>
+        <v>152.34153603225445</v>
       </c>
       <c r="NY25" s="9">
         <f t="shared" si="41"/>
-        <v>164.79532616504076</v>
+        <v>150.81812067193189</v>
       </c>
       <c r="NZ25" s="9">
         <f t="shared" si="41"/>
-        <v>163.14737290339036</v>
+        <v>149.30993946521258</v>
       </c>
       <c r="OA25" s="9">
         <f t="shared" si="41"/>
-        <v>161.51589917435646</v>
+        <v>147.81684007056046</v>
       </c>
       <c r="OB25" s="9">
         <f t="shared" si="41"/>
-        <v>159.90074018261291</v>
+        <v>146.33867166985485</v>
       </c>
       <c r="OC25" s="9">
         <f t="shared" si="41"/>
-        <v>158.30173278078678</v>
+        <v>144.8752849531563</v>
       </c>
       <c r="OD25" s="9">
         <f t="shared" si="41"/>
-        <v>156.7187154529789</v>
+        <v>143.42653210362474</v>
       </c>
       <c r="OE25" s="9">
         <f t="shared" si="41"/>
-        <v>155.15152829844911</v>
+        <v>141.9922667825885</v>
       </c>
       <c r="OF25" s="9">
         <f t="shared" si="41"/>
-        <v>153.60001301546461</v>
+        <v>140.57234411476261</v>
       </c>
       <c r="OG25" s="9">
         <f t="shared" si="41"/>
-        <v>152.06401288530998</v>
+        <v>139.166620673615</v>
       </c>
       <c r="OH25" s="9">
         <f t="shared" si="41"/>
-        <v>150.54337275645688</v>
+        <v>137.77495446687885</v>
       </c>
       <c r="OI25" s="9">
         <f t="shared" si="41"/>
-        <v>149.03793902889231</v>
+        <v>136.39720492221005</v>
       </c>
       <c r="OJ25" s="9">
         <f t="shared" si="41"/>
-        <v>147.54755963860339</v>
+        <v>135.03323287298795</v>
       </c>
       <c r="OK25" s="9">
         <f t="shared" si="41"/>
-        <v>146.07208404221734</v>
+        <v>133.68290054425808</v>
       </c>
       <c r="OL25" s="9">
         <f t="shared" si="41"/>
-        <v>144.61136320179517</v>
+        <v>132.34607153881549</v>
       </c>
       <c r="OM25" s="9">
         <f t="shared" si="41"/>
-        <v>143.16524956977722</v>
+        <v>131.02261082342733</v>
       </c>
       <c r="ON25" s="9">
         <f t="shared" si="41"/>
-        <v>141.73359707407946</v>
+        <v>129.71238471519305</v>
       </c>
       <c r="OO25" s="9">
         <f t="shared" si="41"/>
-        <v>140.31626110333866</v>
+        <v>128.41526086804112</v>
       </c>
       <c r="OP25" s="9">
         <f t="shared" si="41"/>
-        <v>138.91309849230527</v>
+        <v>127.1311082593607</v>
       </c>
       <c r="OQ25" s="9">
         <f t="shared" si="41"/>
-        <v>137.52396750738222</v>
+        <v>125.85979717676709</v>
       </c>
       <c r="OR25" s="9">
         <f t="shared" si="41"/>
-        <v>136.1487278323084</v>
+        <v>124.60119920499942</v>
       </c>
       <c r="OS25" s="9">
         <f t="shared" si="41"/>
-        <v>134.7872405539853</v>
+        <v>123.35518721294942</v>
       </c>
       <c r="OT25" s="9">
         <f t="shared" si="41"/>
-        <v>133.43936814844545</v>
+        <v>122.12163534081992</v>
       </c>
       <c r="OU25" s="9">
         <f t="shared" si="41"/>
-        <v>132.10497446696101</v>
+        <v>120.90041898741173</v>
       </c>
       <c r="OV25" s="9">
         <f t="shared" si="41"/>
-        <v>130.7839247222914</v>
+        <v>119.6914147975376</v>
       </c>
       <c r="OW25" s="9">
         <f t="shared" si="41"/>
-        <v>129.47608547506849</v>
+        <v>118.49450064956223</v>
       </c>
       <c r="OX25" s="9">
         <f t="shared" si="41"/>
-        <v>128.18132462031781</v>
+        <v>117.3095556430666</v>
       </c>
       <c r="OY25" s="9">
         <f t="shared" si="41"/>
-        <v>126.89951137411462</v>
+        <v>116.13646008663594</v>
       </c>
       <c r="OZ25" s="9">
         <f t="shared" si="41"/>
-        <v>125.63051626037348</v>
+        <v>114.97509548576957</v>
       </c>
       <c r="PA25" s="9">
         <f t="shared" si="41"/>
-        <v>124.37421109776975</v>
+        <v>113.82534453091188</v>
       </c>
       <c r="PB25" s="9">
         <f t="shared" si="41"/>
-        <v>123.13046898679205</v>
+        <v>112.68709108560276</v>
       </c>
       <c r="PC25" s="9">
         <f t="shared" si="41"/>
-        <v>121.89916429692413</v>
+        <v>111.56022017474673</v>
       </c>
       <c r="PD25" s="9">
         <f t="shared" si="41"/>
-        <v>120.68017265395488</v>
+        <v>110.44461797299927</v>
       </c>
       <c r="PE25" s="9">
         <f t="shared" si="41"/>
-        <v>119.47337092741533</v>
+        <v>109.34017179326928</v>
       </c>
       <c r="PF25" s="9">
         <f t="shared" si="41"/>
-        <v>118.27863721814117</v>
+        <v>108.24677007533658</v>
       </c>
       <c r="PG25" s="9">
         <f t="shared" si="41"/>
-        <v>117.09585084595976</v>
+        <v>107.16430237458322</v>
       </c>
       <c r="PH25" s="9">
         <f t="shared" si="41"/>
-        <v>115.92489233750015</v>
+        <v>106.09265935083738</v>
       </c>
     </row>
     <row r="26" spans="1:424" x14ac:dyDescent="0.2">
@@ -6601,8 +6379,7 @@
         <v>467.8</v>
       </c>
       <c r="X26" s="2">
-        <f>T26*0.94</f>
-        <v>467.65</v>
+        <v>463.6</v>
       </c>
       <c r="Y26" s="2">
         <f>U26*0.94</f>
@@ -6739,7 +6516,7 @@
       </c>
       <c r="X27" s="10">
         <f t="shared" si="43"/>
-        <v>2.307872126590397</v>
+        <v>1.6285591026747195</v>
       </c>
       <c r="Y27" s="10">
         <f t="shared" si="43"/>
@@ -6771,42 +6548,42 @@
       </c>
       <c r="AJ27" s="10">
         <f t="shared" si="44"/>
-        <v>13.329388574565485</v>
+        <v>12.611588130085615</v>
       </c>
       <c r="AK27" s="10">
         <f t="shared" si="44"/>
-        <v>11.788164517540235</v>
+        <v>10.785254003851383</v>
       </c>
       <c r="AL27" s="10">
         <f t="shared" si="44"/>
-        <v>12.409450658956256</v>
+        <v>11.355337035874312</v>
       </c>
       <c r="AM27" s="10">
         <f t="shared" si="44"/>
-        <v>13.062819745083473</v>
+        <v>11.954889561956699</v>
       </c>
     </row>
     <row r="28" spans="1:424" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
-        <v>76</v>
+      <c r="B29" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
-        <v>77</v>
+      <c r="B30" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="AP31" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS31" s="37" t="s">
-        <v>138</v>
+      <c r="AP31" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS31" s="36" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:424" x14ac:dyDescent="0.2">
@@ -6882,8 +6659,8 @@
         <v>4.0211596478902267E-2</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="46"/>
-        <v>4.0000000000000036E-2</v>
+        <f>X15/T15-1</f>
+        <v>3.4856915739268635E-2</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" si="46"/>
@@ -6912,7 +6689,7 @@
       </c>
       <c r="AJ32" s="4">
         <f t="shared" si="47"/>
-        <v>4.0048299608509197E-2</v>
+        <v>3.8827602471581457E-2</v>
       </c>
       <c r="AK32" s="4">
         <f t="shared" si="47"/>
@@ -6933,7 +6710,7 @@
         <v>-0.01</v>
       </c>
       <c r="AR32" s="7"/>
-      <c r="AS32" s="41" t="s">
+      <c r="AS32" s="40" t="s">
         <v>56</v>
       </c>
       <c r="AT32" s="11">
@@ -7022,7 +6799,7 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" si="46"/>
-        <v>0.12000000000000011</v>
+        <v>0.16562499999999991</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" si="46"/>
@@ -7050,7 +6827,7 @@
       </c>
       <c r="AJ33" s="4">
         <f t="shared" si="47"/>
-        <v>8.5550604965116239E-2</v>
+        <v>9.6067793444766014E-2</v>
       </c>
       <c r="AK33" s="4">
         <f t="shared" si="47"/>
@@ -7069,15 +6846,15 @@
       </c>
       <c r="AQ33" s="11">
         <f>WACC!C18</f>
-        <v>5.3850700241781214E-2</v>
+        <v>5.3548923082668794E-2</v>
       </c>
       <c r="AR33" s="12"/>
       <c r="AS33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AT33" s="42">
+      <c r="AT33" s="41">
         <f>WACC!C18</f>
-        <v>5.3850700241781214E-2</v>
+        <v>5.3548923082668794E-2</v>
       </c>
       <c r="AU33" s="12"/>
       <c r="AV33" s="12"/>
@@ -7162,7 +6939,7 @@
       </c>
       <c r="X34" s="4">
         <f t="shared" si="48"/>
-        <v>0.1100000000000001</v>
+        <v>3.1552897504640187E-2</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" si="48"/>
@@ -7190,7 +6967,7 @@
       </c>
       <c r="AJ34" s="4">
         <f t="shared" si="49"/>
-        <v>7.3504455245038569E-2</v>
+        <v>5.4246152288375926E-2</v>
       </c>
       <c r="AK34" s="4">
         <f t="shared" si="49"/>
@@ -7209,15 +6986,15 @@
       </c>
       <c r="AQ34" s="7">
         <f>NPV(AQ33,AI25:PH25)</f>
-        <v>93586.865214316334</v>
+        <v>86957.462356849326</v>
       </c>
       <c r="AR34" s="12"/>
       <c r="AS34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="40">
+      <c r="AT34" s="39">
         <f>NPV(AT33,AI98:PH98)</f>
-        <v>190632.20847372137</v>
+        <v>191537.47080517531</v>
       </c>
       <c r="AU34" s="12"/>
       <c r="AV34" s="12"/>
@@ -7302,7 +7079,7 @@
       </c>
       <c r="X35" s="4">
         <f t="shared" si="50"/>
-        <v>-0.54671297774044558</v>
+        <v>-0.68290634187316246</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" si="50"/>
@@ -7330,34 +7107,34 @@
       </c>
       <c r="AJ35" s="4">
         <f t="shared" si="51"/>
-        <v>-0.35180431646932164</v>
+        <v>-0.38671027987082907</v>
       </c>
       <c r="AK35" s="4">
         <f t="shared" si="51"/>
-        <v>-0.1333134927709152</v>
+        <v>-0.16191768913225646</v>
       </c>
       <c r="AL35" s="4">
         <f t="shared" si="51"/>
-        <v>3.1650146015670844E-2</v>
+        <v>3.1800483436270177E-2</v>
       </c>
       <c r="AM35" s="4">
         <f t="shared" si="51"/>
-        <v>3.1597908884270165E-2</v>
+        <v>3.1743200021671525E-2</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AQ35" s="7">
         <f>+Main!C7-Main!C8</f>
-        <v>-13356</v>
+        <v>-13985</v>
       </c>
       <c r="AR35" s="12"/>
       <c r="AS35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AT35" s="40">
+      <c r="AT35" s="39">
         <f>Main!C7-Main!C8</f>
-        <v>-13356</v>
+        <v>-13985</v>
       </c>
       <c r="AU35" s="12"/>
       <c r="AV35" s="12"/>
@@ -7442,7 +7219,7 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" ref="X36:X37" si="58">X26/T26-1</f>
-        <v>-6.0000000000000053E-2</v>
+        <v>-6.8140703517587942E-2</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" ref="Y36:Y37" si="59">Y26/U26-1</f>
@@ -7489,15 +7266,15 @@
       </c>
       <c r="AQ36" s="7">
         <f>+AQ34+AQ35</f>
-        <v>80230.865214316334</v>
+        <v>72972.462356849326</v>
       </c>
       <c r="AR36" s="12"/>
       <c r="AS36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AT36" s="40">
+      <c r="AT36" s="39">
         <f>AT34+AT35</f>
-        <v>177276.20847372137</v>
+        <v>177552.47080517531</v>
       </c>
       <c r="AU36" s="12"/>
       <c r="AV36" s="12"/>
@@ -7582,7 +7359,7 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" si="58"/>
-        <v>-0.5177797635536654</v>
+        <v>-0.65971938110849515</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" si="59"/>
@@ -7610,34 +7387,34 @@
       </c>
       <c r="AJ37" s="4">
         <f>AJ27/AI27-1</f>
-        <v>-0.31043012390353364</v>
+        <v>-0.34756412752215859</v>
       </c>
       <c r="AK37" s="4">
         <f t="shared" si="65"/>
-        <v>-0.11562601303154607</v>
+        <v>-0.14481396850230255</v>
       </c>
       <c r="AL37" s="4">
         <f t="shared" si="65"/>
-        <v>5.2704230628235482E-2</v>
+        <v>5.2857636159459265E-2</v>
       </c>
       <c r="AM37" s="4">
         <f t="shared" si="65"/>
-        <v>5.2650927432928762E-2</v>
+        <v>5.2799183695583229E-2</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AQ37" s="13">
         <f>AQ36/Main!C5</f>
-        <v>171.50676616997933</v>
+        <v>157.40393088190103</v>
       </c>
       <c r="AR37" s="12"/>
       <c r="AS37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AT37" s="43">
+      <c r="AT37" s="42">
         <f>AT36/Main!C5</f>
-        <v>378.95726480060148</v>
+        <v>382.98634772470945</v>
       </c>
       <c r="AU37" s="12"/>
       <c r="AV37" s="12"/>
@@ -7738,7 +7515,7 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" si="66"/>
-        <v>0.26036443683502503</v>
+        <v>0.22640857241617698</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" si="66"/>
@@ -7770,34 +7547,34 @@
       </c>
       <c r="AJ38" s="4">
         <f t="shared" si="67"/>
-        <v>0.26189665481243046</v>
+        <v>0.2538699277121913</v>
       </c>
       <c r="AK38" s="4">
         <f t="shared" si="67"/>
-        <v>0.25479950726255002</v>
+        <v>0.24669560009403926</v>
       </c>
       <c r="AL38" s="4">
         <f t="shared" si="67"/>
-        <v>0.25479950726255002</v>
+        <v>0.24669560009403932</v>
       </c>
       <c r="AM38" s="4">
         <f t="shared" si="67"/>
-        <v>0.25479950726255002</v>
+        <v>0.24669560009403924</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AQ38" s="6">
         <f>Main!C4</f>
-        <v>163.38</v>
+        <v>167.04</v>
       </c>
       <c r="AR38" s="7"/>
       <c r="AS38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AT38" s="44">
+      <c r="AT38" s="43">
         <f>Main!C4</f>
-        <v>163.38</v>
+        <v>167.04</v>
       </c>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
@@ -7898,7 +7675,7 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" si="68"/>
-        <v>5.4665907423260322E-2</v>
+        <v>3.4297346084418326E-2</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" si="68"/>
@@ -7930,26 +7707,26 @@
       </c>
       <c r="AJ39" s="4">
         <f t="shared" si="69"/>
-        <v>6.9571952262814304E-2</v>
+        <v>6.4773523504888977E-2</v>
       </c>
       <c r="AK39" s="4">
         <f t="shared" si="69"/>
-        <v>6.0625528726879874E-2</v>
+        <v>5.5780961230897513E-2</v>
       </c>
       <c r="AL39" s="4">
         <f t="shared" si="69"/>
-        <v>6.0625528726879839E-2</v>
+        <v>5.5780961230897576E-2</v>
       </c>
       <c r="AM39" s="4">
         <f t="shared" si="69"/>
-        <v>6.0625528726879846E-2</v>
+        <v>5.5780961230897486E-2</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AQ39" s="14">
         <f>AQ37/AQ38-1</f>
-        <v>4.9741499387803589E-2</v>
+        <v>-5.7687195390918156E-2</v>
       </c>
       <c r="AR39" s="12"/>
       <c r="AS39" s="1" t="s">
@@ -7957,7 +7734,7 @@
       </c>
       <c r="AT39" s="14">
         <f>AT37/AT38-1</f>
-        <v>1.3194838095274912</v>
+        <v>1.292782254099075</v>
       </c>
       <c r="AU39" s="12"/>
       <c r="AV39" s="12"/>
@@ -8058,7 +7835,7 @@
       </c>
       <c r="X40" s="4">
         <f t="shared" si="70"/>
-        <v>0.19</v>
+        <v>4.3092522179974654E-2</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" si="70"/>
@@ -8090,7 +7867,7 @@
       </c>
       <c r="AJ40" s="4">
         <f t="shared" si="71"/>
-        <v>0.17471888923456028</v>
+        <v>0.15632534446887764</v>
       </c>
       <c r="AK40" s="4">
         <f t="shared" si="71"/>
@@ -8233,30 +8010,42 @@
         <f>W44-W60-W62</f>
         <v>-13356</v>
       </c>
+      <c r="X43" s="9">
+        <f t="shared" ref="X43:Z43" si="73">X44-X60-X62</f>
+        <v>-13985</v>
+      </c>
+      <c r="Y43" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
       <c r="AE43" s="9">
-        <f t="shared" ref="AE43:AI43" si="73">AE44-AE60-AE62</f>
+        <f t="shared" ref="AE43:AI43" si="74">AE44-AE60-AE62</f>
         <v>-8755</v>
       </c>
       <c r="AF43" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-9719</v>
       </c>
       <c r="AG43" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-8922</v>
       </c>
       <c r="AH43" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-4169</v>
       </c>
       <c r="AI43" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-7809</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B44" s="35" t="s">
-        <v>87</v>
+      <c r="B44" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="2">
         <v>2680</v>
@@ -8320,6 +8109,9 @@
       </c>
       <c r="W44" s="2">
         <v>1112</v>
+      </c>
+      <c r="X44" s="2">
+        <v>1117</v>
       </c>
       <c r="AE44" s="2">
         <f>F44</f>
@@ -8343,8 +8135,8 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B45" s="35" t="s">
-        <v>88</v>
+      <c r="B45" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="C45" s="2">
         <v>7920</v>
@@ -8408,13 +8200,16 @@
       </c>
       <c r="W45" s="2">
         <v>15083</v>
+      </c>
+      <c r="X45" s="2">
+        <v>15320</v>
       </c>
       <c r="AE45" s="2">
         <f>F45</f>
         <v>8597</v>
       </c>
       <c r="AF45" s="2">
-        <f t="shared" ref="AF45:AF46" si="74">J45</f>
+        <f t="shared" ref="AF45:AF46" si="75">J45</f>
         <v>9497</v>
       </c>
       <c r="AG45" s="2">
@@ -8422,7 +8217,7 @@
         <v>8992</v>
       </c>
       <c r="AH45" s="2">
-        <f t="shared" ref="AH45:AH46" si="75">R45</f>
+        <f t="shared" ref="AH45:AH46" si="76">R45</f>
         <v>10653</v>
       </c>
       <c r="AI45" s="2">
@@ -8431,8 +8226,8 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B46" s="35" t="s">
-        <v>89</v>
+      <c r="B46" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C46" s="2">
         <v>1116</v>
@@ -8497,12 +8292,15 @@
       <c r="W46" s="2">
         <v>1758</v>
       </c>
+      <c r="X46" s="2">
+        <v>2016</v>
+      </c>
       <c r="AE46" s="2">
-        <f t="shared" ref="AE46:AE56" si="76">F46</f>
+        <f t="shared" ref="AE46:AE56" si="77">F46</f>
         <v>1300</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1466</v>
       </c>
       <c r="AG46" s="2">
@@ -8510,7 +8308,7 @@
         <v>1333</v>
       </c>
       <c r="AH46" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1592</v>
       </c>
       <c r="AI46" s="2">
@@ -8519,117 +8317,129 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B47" s="35" t="s">
-        <v>90</v>
+      <c r="B47" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ref="C47:V47" si="77">SUM(C44:C46)</f>
+        <f t="shared" ref="C47:V47" si="78">SUM(C44:C46)</f>
         <v>11716</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>11597</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14686</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12540</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>10876</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>11503</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14639</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12519</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>11607</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12119</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>13805</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12902</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14615</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17623</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>20309</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>20756</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>19931</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>20231</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>22576</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>21573</v>
       </c>
       <c r="W47" s="2">
         <f>SUM(W44:W46)</f>
         <v>17953</v>
       </c>
+      <c r="X47" s="2">
+        <f t="shared" ref="X47:Z47" si="79">SUM(X44:X46)</f>
+        <v>18453</v>
+      </c>
+      <c r="Y47" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
       <c r="AE47" s="2">
         <f>SUM(AE44:AE46)</f>
         <v>12540</v>
       </c>
       <c r="AF47" s="2">
-        <f t="shared" ref="AF47:AI47" si="78">SUM(AF44:AF46)</f>
+        <f t="shared" ref="AF47:AI47" si="80">SUM(AF44:AF46)</f>
         <v>12519</v>
       </c>
       <c r="AG47" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12902</v>
       </c>
       <c r="AH47" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>20756</v>
       </c>
       <c r="AI47" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>21573</v>
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B48" s="35" t="s">
-        <v>91</v>
+      <c r="B48" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="C48" s="2">
         <v>6105</v>
@@ -8694,30 +8504,33 @@
       <c r="W48" s="2">
         <v>6164</v>
       </c>
+      <c r="X48" s="2">
+        <v>6161</v>
+      </c>
       <c r="AE48" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>6095</v>
       </c>
       <c r="AF48" s="2">
-        <f t="shared" ref="AF48:AF56" si="79">J48</f>
+        <f t="shared" ref="AF48:AF56" si="81">J48</f>
         <v>6064</v>
       </c>
       <c r="AG48" s="2">
-        <f t="shared" ref="AG48:AG56" si="80">N48</f>
+        <f t="shared" ref="AG48:AG56" si="82">N48</f>
         <v>6036</v>
       </c>
       <c r="AH48" s="2">
-        <f t="shared" ref="AH48:AH56" si="81">R48</f>
+        <f t="shared" ref="AH48:AH56" si="83">R48</f>
         <v>6141</v>
       </c>
       <c r="AI48" s="2">
-        <f t="shared" ref="AI48:AI56" si="82">V48</f>
+        <f t="shared" ref="AI48:AI56" si="84">V48</f>
         <v>6164</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B49" s="35" t="s">
-        <v>92</v>
+      <c r="B49" s="34" t="s">
+        <v>91</v>
       </c>
       <c r="C49" s="2">
         <v>27320</v>
@@ -8782,30 +8595,33 @@
       <c r="W49" s="2">
         <v>33300</v>
       </c>
+      <c r="X49" s="2">
+        <v>33694</v>
+      </c>
       <c r="AE49" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>28131</v>
       </c>
       <c r="AF49" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>29240</v>
       </c>
       <c r="AG49" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>30603</v>
       </c>
       <c r="AH49" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>31557</v>
       </c>
       <c r="AI49" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>32985</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B50" s="35" t="s">
-        <v>93</v>
+      <c r="B50" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="2">
         <v>5177</v>
@@ -8870,30 +8686,33 @@
       <c r="W50" s="2">
         <v>6459</v>
       </c>
+      <c r="X50" s="2">
+        <v>6744</v>
+      </c>
       <c r="AE50" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5623</v>
       </c>
       <c r="AF50" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5912</v>
       </c>
       <c r="AG50" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>6083</v>
       </c>
       <c r="AH50" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5914</v>
       </c>
       <c r="AI50" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>6407</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B51" s="35" t="s">
-        <v>94</v>
+      <c r="B51" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="C51" s="2">
         <v>2546</v>
@@ -8958,30 +8777,33 @@
       <c r="W51" s="2">
         <v>2588</v>
       </c>
+      <c r="X51" s="2">
+        <v>2684</v>
+      </c>
       <c r="AE51" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2645</v>
       </c>
       <c r="AF51" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2544</v>
       </c>
       <c r="AG51" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>2692</v>
       </c>
       <c r="AH51" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2765</v>
       </c>
       <c r="AI51" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2505</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B52" s="35" t="s">
-        <v>95</v>
+      <c r="B52" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="C52" s="2">
         <v>379</v>
@@ -9046,30 +8868,33 @@
       <c r="W52" s="2">
         <v>1444</v>
       </c>
+      <c r="X52" s="2">
+        <v>2245</v>
+      </c>
       <c r="AE52" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>440</v>
       </c>
       <c r="AF52" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>460</v>
       </c>
       <c r="AG52" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>533</v>
       </c>
       <c r="AH52" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>780</v>
       </c>
       <c r="AI52" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1257</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B53" s="35" t="s">
-        <v>96</v>
+      <c r="B53" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="2">
         <v>-17285</v>
@@ -9134,139 +8959,146 @@
       <c r="W53" s="2">
         <v>-21285</v>
       </c>
+      <c r="X53" s="2">
+        <v>-21708</v>
+      </c>
       <c r="AE53" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-18398</v>
       </c>
       <c r="AF53" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-18687</v>
       </c>
       <c r="AG53" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-19664</v>
       </c>
       <c r="AH53" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>-20278</v>
       </c>
       <c r="AI53" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-21137</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B54" s="35" t="s">
-        <v>97</v>
+      <c r="B54" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" ref="C54:V54" si="83">SUM(C48:C53)</f>
+        <f t="shared" ref="C54:V54" si="85">SUM(C48:C53)</f>
         <v>24242</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>24404</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>24649</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>24536</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>24767</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>25172</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>25607</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>25533</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>25706</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26012</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26384</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26283</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26589</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26739</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26773</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26879</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26804</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>27244</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>27915</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>28181</v>
       </c>
       <c r="W54" s="2">
         <f>SUM(W48:W53)</f>
         <v>28670</v>
       </c>
+      <c r="X54" s="2">
+        <f>SUM(X48:X53)</f>
+        <v>29820</v>
+      </c>
       <c r="AE54" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>24536</v>
       </c>
       <c r="AF54" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>25533</v>
       </c>
       <c r="AG54" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>26283</v>
       </c>
       <c r="AH54" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>26879</v>
       </c>
       <c r="AI54" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>28181</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="35" t="s">
-        <v>98</v>
+      <c r="B55" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C55" s="2">
         <v>1879</v>
@@ -9331,30 +9163,33 @@
       <c r="W55" s="2">
         <v>2571</v>
       </c>
+      <c r="X55" s="2">
+        <v>2542</v>
+      </c>
       <c r="AE55" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1884</v>
       </c>
       <c r="AF55" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1965</v>
       </c>
       <c r="AG55" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>2236</v>
       </c>
       <c r="AH55" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2227</v>
       </c>
       <c r="AI55" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2556</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B56" s="35" t="s">
-        <v>99</v>
+      <c r="B56" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="2">
         <v>723</v>
@@ -9419,140 +9254,155 @@
       <c r="W56" s="2">
         <v>1648</v>
       </c>
+      <c r="X56" s="2">
+        <v>1655</v>
+      </c>
       <c r="AE56" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1343</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1273</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1358</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1386</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1501</v>
       </c>
     </row>
     <row r="57" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:V57" si="84">C47+C54+C55+C56</f>
+        <f t="shared" ref="C57:V57" si="86">C47+C54+C55+C56</f>
         <v>38560</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>38667</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>42009</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>40303</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>38929</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>39996</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>43572</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>41290</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>40619</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>41566</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>43741</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>42779</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>44806</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>48000</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>50661</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>51248</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>50471</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>51385</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>54411</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>53811</v>
       </c>
       <c r="W57" s="9">
         <f>W47+W54+W55+W56</f>
         <v>50842</v>
       </c>
+      <c r="X57" s="9">
+        <f t="shared" ref="X57:Z57" si="87">X47+X54+X55+X56</f>
+        <v>52470</v>
+      </c>
+      <c r="Y57" s="9">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="9">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AE57" s="9">
         <f>AE47+AE54+AE55+AE56</f>
         <v>40303</v>
       </c>
       <c r="AF57" s="9">
-        <f t="shared" ref="AF57:AI57" si="85">AF47+AF54+AF55+AF56</f>
+        <f t="shared" ref="AF57:AI57" si="88">AF47+AF54+AF55+AF56</f>
         <v>41290</v>
       </c>
       <c r="AG57" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>42779</v>
       </c>
       <c r="AH57" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>51248</v>
       </c>
       <c r="AI57" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>53811</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B58" s="35" t="s">
-        <v>101</v>
+      <c r="B58" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="C58" s="2">
         <v>6537</v>
@@ -9617,30 +9467,33 @@
       <c r="W58" s="2">
         <v>14053</v>
       </c>
+      <c r="X58" s="2">
+        <v>14891</v>
+      </c>
       <c r="AE58" s="2">
-        <f t="shared" ref="AE58:AE67" si="86">F58</f>
+        <f t="shared" ref="AE58:AE67" si="89">F58</f>
         <v>8677</v>
       </c>
       <c r="AF58" s="2">
-        <f t="shared" ref="AF58:AF65" si="87">J58</f>
+        <f t="shared" ref="AF58:AF65" si="90">J58</f>
         <v>9761</v>
       </c>
       <c r="AG58" s="2">
-        <f t="shared" ref="AG58:AG65" si="88">N58</f>
+        <f t="shared" ref="AG58:AG65" si="91">N58</f>
         <v>9920</v>
       </c>
       <c r="AH58" s="2">
-        <f t="shared" ref="AH58:AH65" si="89">R58</f>
+        <f t="shared" ref="AH58:AH65" si="92">R58</f>
         <v>12859</v>
       </c>
       <c r="AI58" s="2">
-        <f t="shared" ref="AI58:AI65" si="90">V58</f>
+        <f t="shared" ref="AI58:AI65" si="93">V58</f>
         <v>15478</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B59" s="35" t="s">
-        <v>102</v>
+      <c r="B59" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C59" s="2">
         <v>3973</v>
@@ -9705,30 +9558,33 @@
       <c r="W59" s="2">
         <v>5582</v>
       </c>
+      <c r="X59" s="2">
+        <v>5905</v>
+      </c>
       <c r="AE59" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>4094</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>4201</v>
       </c>
       <c r="AG59" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>4406</v>
       </c>
       <c r="AH59" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>6122</v>
       </c>
       <c r="AI59" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>6098</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B60" s="35" t="s">
-        <v>103</v>
+      <c r="B60" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="C60" s="2">
         <v>1729</v>
@@ -9793,139 +9649,154 @@
       <c r="W60" s="2">
         <v>1089</v>
       </c>
+      <c r="X60" s="2">
+        <v>1649</v>
+      </c>
       <c r="AE60" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>281</v>
       </c>
       <c r="AF60" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>1052</v>
       </c>
       <c r="AG60" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>161</v>
       </c>
       <c r="AH60" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1144</v>
       </c>
       <c r="AI60" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B61" s="35" t="s">
-        <v>104</v>
+      <c r="B61" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ref="C61:V61" si="91">SUM(C58:C60)</f>
+        <f t="shared" ref="C61:V61" si="94">SUM(C58:C60)</f>
         <v>12239</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>12576</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>15227</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>13052</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>12044</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>14038</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>17590</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>15014</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>13239</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>14364</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>16608</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>14487</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>14412</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>15892</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>19357</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>20125</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>18598</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>19422</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>23351</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>21747</v>
       </c>
       <c r="W61" s="2">
         <f>SUM(W58:W60)</f>
         <v>20724</v>
       </c>
+      <c r="X61" s="2">
+        <f t="shared" ref="X61:Z61" si="95">SUM(X58:X60)</f>
+        <v>22445</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
       <c r="AE61" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>13052</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>15014</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>14487</v>
       </c>
       <c r="AH61" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>20125</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>21747</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B62" s="35" t="s">
-        <v>105</v>
+      <c r="B62" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="C62" s="2">
         <v>10916</v>
@@ -9990,30 +9861,33 @@
       <c r="W62" s="2">
         <v>13379</v>
       </c>
+      <c r="X62" s="2">
+        <v>13453</v>
+      </c>
       <c r="AE62" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>11117</v>
       </c>
       <c r="AF62" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>10223</v>
       </c>
       <c r="AG62" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>11338</v>
       </c>
       <c r="AH62" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>11536</v>
       </c>
       <c r="AI62" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>13549</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B63" s="35" t="s">
-        <v>106</v>
+      <c r="B63" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="C63" s="2">
         <v>1923</v>
@@ -10078,30 +9952,33 @@
       <c r="W63" s="2">
         <v>2581</v>
       </c>
+      <c r="X63" s="2">
+        <v>2543</v>
+      </c>
       <c r="AE63" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>1924</v>
       </c>
       <c r="AF63" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2004</v>
       </c>
       <c r="AG63" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2275</v>
       </c>
       <c r="AH63" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>2218</v>
       </c>
       <c r="AI63" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>2493</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B64" s="35" t="s">
-        <v>107</v>
+      <c r="B64" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="C64" s="2">
         <v>843</v>
@@ -10166,30 +10043,33 @@
       <c r="W64" s="2">
         <v>1752</v>
       </c>
+      <c r="X64" s="2">
+        <v>1862</v>
+      </c>
       <c r="AE64" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>693</v>
       </c>
       <c r="AF64" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>972</v>
       </c>
       <c r="AG64" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1122</v>
       </c>
       <c r="AH64" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>990</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1566</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B65" s="35" t="s">
-        <v>108</v>
+      <c r="B65" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="2">
         <v>1660</v>
@@ -10254,140 +10134,155 @@
       <c r="W65" s="2">
         <v>1632</v>
       </c>
+      <c r="X65" s="2">
+        <v>1575</v>
+      </c>
       <c r="AE65" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>1866</v>
       </c>
       <c r="AF65" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>1780</v>
       </c>
       <c r="AG65" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1724</v>
       </c>
       <c r="AH65" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>1939</v>
       </c>
       <c r="AI65" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1629</v>
       </c>
     </row>
     <row r="66" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ref="C66:V66" si="92">SUM(C61:C65)</f>
+        <f t="shared" ref="C66:V66" si="96">SUM(C61:C65)</f>
         <v>27581</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>27612</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>30917</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>28652</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>27771</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>28829</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>32492</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>29993</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>29502</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>29730</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>32196</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>30946</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>33637</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>35422</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>37342</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>36808</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>35512</v>
       </c>
       <c r="T66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>36525</v>
       </c>
       <c r="U66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>40608</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>40984</v>
       </c>
       <c r="W66" s="9">
         <f>SUM(W61:W65)</f>
         <v>40068</v>
       </c>
+      <c r="X66" s="9">
+        <f t="shared" ref="X66:Z66" si="97">SUM(X61:X65)</f>
+        <v>41878</v>
+      </c>
+      <c r="Y66" s="9">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="9">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
       <c r="AE66" s="9">
         <f>SUM(AE61:AE65)</f>
         <v>28652</v>
       </c>
       <c r="AF66" s="9">
-        <f t="shared" ref="AF66:AI66" si="93">SUM(AF61:AF65)</f>
+        <f t="shared" ref="AF66:AI66" si="98">SUM(AF61:AF65)</f>
         <v>29993</v>
       </c>
       <c r="AG66" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>30946</v>
       </c>
       <c r="AH66" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>36808</v>
       </c>
       <c r="AI66" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>40984</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B67" s="35" t="s">
-        <v>110</v>
+      <c r="B67" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="C67" s="2">
         <v>10979</v>
@@ -10452,8 +10347,11 @@
       <c r="W67" s="2">
         <v>10774</v>
       </c>
+      <c r="X67" s="2">
+        <v>10592</v>
+      </c>
       <c r="AE67" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>11651</v>
       </c>
       <c r="AF67" s="2">
@@ -10476,199 +10374,211 @@
     <row r="68" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" ref="C68:V68" si="94">C66+C67</f>
+        <f t="shared" ref="C68:V68" si="99">C66+C67</f>
         <v>38560</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>38667</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>42009</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>40303</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>38929</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>39996</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>43572</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>41290</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>40619</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>41566</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>43741</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>42779</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>44806</v>
       </c>
       <c r="P68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>48000</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>50661</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>51248</v>
       </c>
       <c r="S68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>50471</v>
       </c>
       <c r="T68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>51385</v>
       </c>
       <c r="U68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>54411</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>53811</v>
       </c>
       <c r="W68" s="9">
         <f>W66+W67</f>
         <v>50842</v>
       </c>
+      <c r="X68" s="9">
+        <f t="shared" ref="X68:Z68" si="100">X66+X67</f>
+        <v>52470</v>
+      </c>
+      <c r="Y68" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
       <c r="AE68" s="9">
         <f>AE66+AE67</f>
         <v>40303</v>
       </c>
       <c r="AF68" s="9">
-        <f t="shared" ref="AF68:AI68" si="95">AF66+AF67</f>
+        <f t="shared" ref="AF68:AI68" si="101">AF66+AF67</f>
         <v>41290</v>
       </c>
       <c r="AG68" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>42779</v>
       </c>
       <c r="AH68" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>51248</v>
       </c>
       <c r="AI68" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>53811</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B71" s="38" t="s">
-        <v>114</v>
+      <c r="B71" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="C71" s="2">
         <f>C25</f>
         <v>1194</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" ref="D71:W71" si="96">D25</f>
+        <f t="shared" ref="D71:W71" si="102">D25</f>
         <v>1192</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1060</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1692</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1288</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1338</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1152</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1384</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1376</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1499</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1289</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1474</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>861</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2232</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1555</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1950</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2695</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2381</v>
       </c>
       <c r="U71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2065</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2149</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1610</v>
       </c>
       <c r="AE71" s="2">
@@ -10676,11 +10586,11 @@
         <v>5138</v>
       </c>
       <c r="AF71" s="2">
-        <f t="shared" ref="AF71:AI71" si="97">AF25</f>
+        <f t="shared" ref="AF71:AI71" si="103">AF25</f>
         <v>5162</v>
       </c>
       <c r="AG71" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>5638</v>
       </c>
       <c r="AH71" s="2">
@@ -10688,13 +10598,13 @@
         <v>6598</v>
       </c>
       <c r="AI71" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>9290</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B72" s="38" t="s">
-        <v>115</v>
+      <c r="B72" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -10729,8 +10639,8 @@
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B73" s="38" t="s">
-        <v>96</v>
+      <c r="B73" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -10750,7 +10660,7 @@
         <v>2474</v>
       </c>
       <c r="AG73" s="2">
-        <f t="shared" ref="AG73:AG82" si="98">N73</f>
+        <f t="shared" ref="AG73:AG82" si="104">N73</f>
         <v>2604</v>
       </c>
       <c r="AH73" s="2">
@@ -10761,8 +10671,8 @@
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B74" s="38" t="s">
-        <v>116</v>
+      <c r="B74" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -10782,7 +10692,7 @@
         <v>132</v>
       </c>
       <c r="AG74" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>147</v>
       </c>
       <c r="AH74" s="2">
@@ -10793,8 +10703,8 @@
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B75" s="38" t="s">
-        <v>107</v>
+      <c r="B75" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -10814,7 +10724,7 @@
         <v>322</v>
       </c>
       <c r="AG75" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>178</v>
       </c>
       <c r="AH75" s="2">
@@ -10825,8 +10735,8 @@
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B76" s="38" t="s">
-        <v>117</v>
+      <c r="B76" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -10846,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="AG76" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AH76" s="2">
@@ -10857,8 +10767,8 @@
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B77" s="38" t="s">
-        <v>136</v>
+      <c r="B77" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -10878,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="AG77" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>10</v>
       </c>
       <c r="AH77" s="2">
@@ -10889,8 +10799,8 @@
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B78" s="38" t="s">
-        <v>118</v>
+      <c r="B78" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -10910,7 +10820,7 @@
         <v>95</v>
       </c>
       <c r="AG78" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>29</v>
       </c>
       <c r="AH78" s="2">
@@ -10921,8 +10831,8 @@
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B79" s="38" t="s">
-        <v>88</v>
+      <c r="B79" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -10942,7 +10852,7 @@
         <v>-900</v>
       </c>
       <c r="AG79" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>505</v>
       </c>
       <c r="AH79" s="2">
@@ -10953,8 +10863,8 @@
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B80" s="38" t="s">
-        <v>119</v>
+      <c r="B80" s="37" t="s">
+        <v>118</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -10974,7 +10884,7 @@
         <v>-299</v>
       </c>
       <c r="AG80" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>18</v>
       </c>
       <c r="AH80" s="2">
@@ -10985,8 +10895,8 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B81" s="38" t="s">
-        <v>101</v>
+      <c r="B81" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -11006,7 +10916,7 @@
         <v>1127</v>
       </c>
       <c r="AG81" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>140</v>
       </c>
       <c r="AH81" s="2">
@@ -11017,8 +10927,8 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B82" s="38" t="s">
-        <v>120</v>
+      <c r="B82" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -11038,7 +10948,7 @@
         <v>89</v>
       </c>
       <c r="AG82" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>199</v>
       </c>
       <c r="AH82" s="2">
@@ -11051,90 +10961,90 @@
     <row r="83" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="9">
-        <f>SUM(C72:C82)</f>
+        <f t="shared" ref="C83:W83" si="105">SUM(C72:C82)</f>
         <v>0</v>
       </c>
       <c r="D83" s="9">
-        <f>SUM(D72:D82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="E83" s="9">
-        <f>SUM(E72:E82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="F83" s="9">
-        <f>SUM(F72:F82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="G83" s="9">
-        <f>SUM(G72:G82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <f>SUM(H72:H82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="I83" s="9">
-        <f>SUM(I72:I82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="J83" s="9">
-        <f>SUM(J72:J82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K83" s="9">
-        <f>SUM(K72:K82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L83" s="9">
-        <f>SUM(L72:L82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="M83" s="9">
-        <f>SUM(M72:M82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N83" s="9">
-        <f>SUM(N72:N82)</f>
+        <f t="shared" si="105"/>
         <v>7099</v>
       </c>
       <c r="O83" s="9">
-        <f>SUM(O72:O82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P83" s="9">
-        <f>SUM(P72:P82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Q83" s="9">
-        <f>SUM(Q72:Q82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="R83" s="9">
-        <f>SUM(R72:R82)</f>
+        <f t="shared" si="105"/>
         <v>1950</v>
       </c>
       <c r="S83" s="9">
-        <f>SUM(S72:S82)</f>
+        <f t="shared" si="105"/>
         <v>1139</v>
       </c>
       <c r="T83" s="9">
-        <f>SUM(T72:T82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="U83" s="9">
-        <f>SUM(U72:U82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V83" s="9">
-        <f>SUM(V72:V82)</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="W83" s="9">
-        <f>SUM(W72:W82)</f>
+        <f t="shared" si="105"/>
         <v>-1394</v>
       </c>
       <c r="AE83" s="9">
@@ -11158,71 +11068,71 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="84" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38" t="s">
+    <row r="84" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="N84" s="38">
+        <v>-3027</v>
+      </c>
+      <c r="S84" s="38">
+        <v>-540</v>
+      </c>
+      <c r="W84" s="38">
+        <v>-952</v>
+      </c>
+      <c r="AE84" s="38">
+        <v>-2533</v>
+      </c>
+      <c r="AF84" s="38">
+        <v>-3516</v>
+      </c>
+      <c r="AG84" s="2">
+        <f t="shared" ref="AG84:AG87" si="106">N84</f>
+        <v>-3027</v>
+      </c>
+      <c r="AH84" s="38">
+        <v>-2649</v>
+      </c>
+      <c r="AI84" s="38">
+        <v>-3544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="N84" s="39">
-        <v>-3027</v>
-      </c>
-      <c r="S84" s="39">
-        <v>-540</v>
-      </c>
-      <c r="W84" s="39">
-        <v>-952</v>
-      </c>
-      <c r="AE84" s="39">
-        <v>-2533</v>
-      </c>
-      <c r="AF84" s="39">
-        <v>-3516</v>
-      </c>
-      <c r="AG84" s="2">
-        <f t="shared" ref="AG84:AG87" si="99">N84</f>
-        <v>-3027</v>
-      </c>
-      <c r="AH84" s="39">
-        <v>-2649</v>
-      </c>
-      <c r="AI84" s="39">
-        <v>-3544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="N85" s="39">
+      <c r="N85" s="38">
         <v>63</v>
       </c>
-      <c r="S85" s="39">
+      <c r="S85" s="38">
         <v>12</v>
       </c>
-      <c r="W85" s="39">
+      <c r="W85" s="38">
         <v>2</v>
       </c>
-      <c r="AE85" s="39">
+      <c r="AE85" s="38">
         <v>31</v>
       </c>
-      <c r="AF85" s="39">
+      <c r="AF85" s="38">
         <v>85</v>
       </c>
       <c r="AG85" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>63</v>
       </c>
-      <c r="AH85" s="39">
+      <c r="AH85" s="38">
         <v>42</v>
       </c>
-      <c r="AI85" s="39">
+      <c r="AI85" s="38">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B86" s="38" t="s">
-        <v>124</v>
+      <c r="B86" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -11242,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="AG86" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AH86" s="2">
@@ -11252,150 +11162,150 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N87" s="39">
+    <row r="87" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="N87" s="38">
         <v>20</v>
       </c>
-      <c r="S87" s="39">
+      <c r="S87" s="38">
         <v>7</v>
       </c>
-      <c r="W87" s="39">
+      <c r="W87" s="38">
         <v>2</v>
       </c>
-      <c r="AE87" s="39">
+      <c r="AE87" s="38">
         <v>-55</v>
       </c>
-      <c r="AF87" s="39">
+      <c r="AF87" s="38">
         <v>15</v>
       </c>
-      <c r="AG87" s="39">
-        <f t="shared" si="99"/>
+      <c r="AG87" s="38">
+        <f t="shared" si="106"/>
         <v>20</v>
       </c>
-      <c r="AH87" s="39">
+      <c r="AH87" s="38">
         <v>16</v>
       </c>
-      <c r="AI87" s="39">
+      <c r="AI87" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="9">
         <f>SUM(C84:C87)</f>
         <v>0</v>
       </c>
       <c r="D88" s="9">
-        <f t="shared" ref="D88:W88" si="100">SUM(D84:D87)</f>
+        <f t="shared" ref="D88:W88" si="107">SUM(D84:D87)</f>
         <v>0</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="K88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="L88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="N88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>-2944</v>
       </c>
       <c r="O88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="R88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="S88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>-165</v>
       </c>
       <c r="T88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="U88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="V88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="W88" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>-948</v>
       </c>
       <c r="AE88" s="9">
-        <f t="shared" ref="AE88" si="101">SUM(AE84:AE87)</f>
+        <f t="shared" ref="AE88" si="108">SUM(AE84:AE87)</f>
         <v>-3075</v>
       </c>
       <c r="AF88" s="9">
-        <f t="shared" ref="AF88" si="102">SUM(AF84:AF87)</f>
+        <f t="shared" ref="AF88" si="109">SUM(AF84:AF87)</f>
         <v>-3416</v>
       </c>
       <c r="AG88" s="9">
-        <f t="shared" ref="AG88" si="103">SUM(AG84:AG87)</f>
+        <f t="shared" ref="AG88" si="110">SUM(AG84:AG87)</f>
         <v>-2944</v>
       </c>
       <c r="AH88" s="9">
-        <f t="shared" ref="AH88" si="104">SUM(AH84:AH87)</f>
+        <f t="shared" ref="AH88" si="111">SUM(AH84:AH87)</f>
         <v>-2591</v>
       </c>
       <c r="AI88" s="9">
-        <f t="shared" ref="AI88" si="105">SUM(AI84:AI87)</f>
+        <f t="shared" ref="AI88" si="112">SUM(AI84:AI87)</f>
         <v>-3154</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B89" s="38" t="s">
-        <v>127</v>
+      <c r="B89" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -11415,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="2">
-        <f t="shared" ref="AG89:AG95" si="106">N89</f>
+        <f t="shared" ref="AG89:AG95" si="113">N89</f>
         <v>0</v>
       </c>
       <c r="AH89" s="2">
@@ -11426,8 +11336,8 @@
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B90" s="38" t="s">
-        <v>137</v>
+      <c r="B90" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -11447,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AG90" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>1739</v>
       </c>
       <c r="AH90" s="2">
@@ -11458,8 +11368,8 @@
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B91" s="38" t="s">
-        <v>128</v>
+      <c r="B91" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -11479,7 +11389,7 @@
         <v>-281</v>
       </c>
       <c r="AG91" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-2069</v>
       </c>
       <c r="AH91" s="2">
@@ -11490,8 +11400,8 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B92" s="38" t="s">
-        <v>129</v>
+      <c r="B92" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -11511,7 +11421,7 @@
         <v>-1335</v>
       </c>
       <c r="AG92" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-1330</v>
       </c>
       <c r="AH92" s="2">
@@ -11522,8 +11432,8 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B93" s="38" t="s">
-        <v>130</v>
+      <c r="B93" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -11543,7 +11453,7 @@
         <v>-2124</v>
       </c>
       <c r="AG93" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-1565</v>
       </c>
       <c r="AH93" s="2">
@@ -11554,8 +11464,8 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B94" s="38" t="s">
-        <v>131</v>
+      <c r="B94" s="37" t="s">
+        <v>130</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -11575,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="AG94" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AH94" s="2">
@@ -11586,8 +11496,8 @@
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B95" s="38" t="s">
-        <v>132</v>
+      <c r="B95" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -11607,7 +11517,7 @@
         <v>96</v>
       </c>
       <c r="AG95" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>73</v>
       </c>
       <c r="AH95" s="2">
@@ -11620,86 +11530,86 @@
     <row r="96" spans="1:35" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="9">
         <f>SUM(C89:C95)</f>
         <v>0</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" ref="D96:V96" si="107">SUM(D89:D95)</f>
+        <f t="shared" ref="D96:V96" si="114">SUM(D89:D95)</f>
         <v>0</v>
       </c>
       <c r="E96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="G96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="K96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="L96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="N96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-3152</v>
       </c>
       <c r="O96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="P96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="R96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="S96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-1669</v>
       </c>
       <c r="T96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V96" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W96" s="9">
@@ -11707,19 +11617,19 @@
         <v>-2457</v>
       </c>
       <c r="AE96" s="9">
-        <f t="shared" ref="AE96" si="108">SUM(AE89:AE95)</f>
+        <f t="shared" ref="AE96" si="115">SUM(AE89:AE95)</f>
         <v>-3729</v>
       </c>
       <c r="AF96" s="9">
-        <f t="shared" ref="AF96" si="109">SUM(AF89:AF95)</f>
+        <f t="shared" ref="AF96" si="116">SUM(AF89:AF95)</f>
         <v>-3644</v>
       </c>
       <c r="AG96" s="9">
-        <f t="shared" ref="AG96" si="110">SUM(AG89:AG95)</f>
+        <f t="shared" ref="AG96" si="117">SUM(AG89:AG95)</f>
         <v>-3152</v>
       </c>
       <c r="AH96" s="9">
-        <f t="shared" ref="AH96" si="111">SUM(AH89:AH95)</f>
+        <f t="shared" ref="AH96" si="118">SUM(AH89:AH95)</f>
         <v>-2000</v>
       </c>
       <c r="AI96" s="9">
@@ -11728,221 +11638,221 @@
       </c>
     </row>
     <row r="97" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B97" s="38" t="s">
-        <v>134</v>
+      <c r="B97" s="37" t="s">
+        <v>133</v>
       </c>
       <c r="C97" s="2">
         <f>C96+C88+C83</f>
         <v>0</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" ref="D97:W97" si="112">D96+D88+D83</f>
+        <f t="shared" ref="D97:W97" si="119">D96+D88+D83</f>
         <v>0</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>1003</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>1950</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>-695</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W97" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>-4799</v>
       </c>
       <c r="AE97" s="2">
-        <f t="shared" ref="AE97" si="113">AE96+AE88+AE83</f>
+        <f t="shared" ref="AE97" si="120">AE96+AE88+AE83</f>
         <v>57</v>
       </c>
       <c r="AF97" s="2">
-        <f t="shared" ref="AF97" si="114">AF96+AF88+AF83</f>
+        <f t="shared" ref="AF97" si="121">AF96+AF88+AF83</f>
         <v>-1090</v>
       </c>
       <c r="AG97" s="2">
-        <f t="shared" ref="AG97" si="115">AG96+AG88+AG83</f>
+        <f t="shared" ref="AG97" si="122">AG96+AG88+AG83</f>
         <v>1003</v>
       </c>
       <c r="AH97" s="2">
-        <f t="shared" ref="AH97" si="116">AH96+AH88+AH83</f>
+        <f t="shared" ref="AH97" si="123">AH96+AH88+AH83</f>
         <v>5934</v>
       </c>
       <c r="AI97" s="2">
-        <f t="shared" ref="AI97" si="117">AI96+AI88+AI83</f>
+        <f t="shared" ref="AI97" si="124">AI96+AI88+AI83</f>
         <v>-2597</v>
       </c>
     </row>
     <row r="98" spans="1:424" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="9">
         <f>C83-C84</f>
         <v>0</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" ref="D98:W98" si="118">D83-D84</f>
+        <f t="shared" ref="D98:W98" si="125">D83-D84</f>
         <v>0</v>
       </c>
       <c r="E98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>10126</v>
       </c>
       <c r="O98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>1950</v>
       </c>
       <c r="S98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>1679</v>
       </c>
       <c r="T98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="U98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="V98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="W98" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>-442</v>
       </c>
       <c r="AE98" s="9">
-        <f t="shared" ref="AE98:AI98" si="119">AE83-AE84</f>
+        <f t="shared" ref="AE98:AI98" si="126">AE83-AE84</f>
         <v>9394</v>
       </c>
       <c r="AF98" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>9486</v>
       </c>
       <c r="AG98" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>10126</v>
       </c>
       <c r="AH98" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>13174</v>
       </c>
       <c r="AI98" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>12172</v>
       </c>
       <c r="AJ98" s="9">
@@ -11950,1601 +11860,1601 @@
         <v>12050.28</v>
       </c>
       <c r="AK98" s="9">
-        <f t="shared" ref="AK98:CV98" si="120">AJ98*(1+$AQ$32)</f>
+        <f t="shared" ref="AK98:CV98" si="127">AJ98*(1+$AQ$32)</f>
         <v>11929.7772</v>
       </c>
       <c r="AL98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11810.479428000001</v>
       </c>
       <c r="AM98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11692.374633720001</v>
       </c>
       <c r="AN98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11575.4508873828</v>
       </c>
       <c r="AO98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11459.696378508972</v>
       </c>
       <c r="AP98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11345.099414723882</v>
       </c>
       <c r="AQ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11231.648420576643</v>
       </c>
       <c r="AR98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11119.331936370876</v>
       </c>
       <c r="AS98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>11008.138617007167</v>
       </c>
       <c r="AT98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10898.057230837096</v>
       </c>
       <c r="AU98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10789.076658528724</v>
       </c>
       <c r="AV98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10681.185891943436</v>
       </c>
       <c r="AW98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10574.374033024002</v>
       </c>
       <c r="AX98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10468.630292693762</v>
       </c>
       <c r="AY98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10363.943989766825</v>
       </c>
       <c r="AZ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10260.304549869157</v>
       </c>
       <c r="BA98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10157.701504370465</v>
       </c>
       <c r="BB98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>10056.124489326759</v>
       </c>
       <c r="BC98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9955.5632444334915</v>
       </c>
       <c r="BD98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9856.0076119891564</v>
       </c>
       <c r="BE98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9757.4475358692653</v>
       </c>
       <c r="BF98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9659.873060510572</v>
       </c>
       <c r="BG98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9563.2743299054655</v>
       </c>
       <c r="BH98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9467.6415866064108</v>
       </c>
       <c r="BI98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9372.9651707403464</v>
       </c>
       <c r="BJ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9279.2355190329436</v>
       </c>
       <c r="BK98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9186.443163842614</v>
       </c>
       <c r="BL98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9094.578732204187</v>
       </c>
       <c r="BM98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>9003.6329448821452</v>
       </c>
       <c r="BN98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8913.5966154333237</v>
       </c>
       <c r="BO98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8824.4606492789899</v>
       </c>
       <c r="BP98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8736.2160427862</v>
       </c>
       <c r="BQ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8648.8538823583385</v>
       </c>
       <c r="BR98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8562.3653435347551</v>
       </c>
       <c r="BS98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8476.7416900994067</v>
       </c>
       <c r="BT98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8391.9742731984134</v>
       </c>
       <c r="BU98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8308.0545304664283</v>
       </c>
       <c r="BV98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8224.9739851617633</v>
       </c>
       <c r="BW98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8142.7242453101453</v>
       </c>
       <c r="BX98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>8061.2970028570435</v>
       </c>
       <c r="BY98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7980.6840328284734</v>
       </c>
       <c r="BZ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7900.8771925001884</v>
       </c>
       <c r="CA98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7821.8684205751861</v>
       </c>
       <c r="CB98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7743.6497363694343</v>
       </c>
       <c r="CC98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7666.2132390057395</v>
       </c>
       <c r="CD98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7589.5511066156823</v>
       </c>
       <c r="CE98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7513.6555955495251</v>
       </c>
       <c r="CF98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7438.5190395940299</v>
       </c>
       <c r="CG98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7364.1338491980896</v>
       </c>
       <c r="CH98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7290.492510706109</v>
       </c>
       <c r="CI98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7217.587585599048</v>
       </c>
       <c r="CJ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7145.4117097430571</v>
       </c>
       <c r="CK98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7073.9575926456264</v>
       </c>
       <c r="CL98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>7003.21801671917</v>
       </c>
       <c r="CM98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6933.1858365519784</v>
       </c>
       <c r="CN98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6863.8539781864583</v>
       </c>
       <c r="CO98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6795.2154384045934</v>
       </c>
       <c r="CP98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6727.2632840205479</v>
       </c>
       <c r="CQ98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6659.990651180342</v>
       </c>
       <c r="CR98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6593.3907446685389</v>
       </c>
       <c r="CS98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6527.4568372218537</v>
       </c>
       <c r="CT98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6462.182268849635</v>
       </c>
       <c r="CU98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6397.5604461611383</v>
       </c>
       <c r="CV98" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>6333.5848416995268</v>
       </c>
       <c r="CW98" s="9">
-        <f t="shared" ref="CW98:FH98" si="121">CV98*(1+$AQ$32)</f>
+        <f t="shared" ref="CW98:FH98" si="128">CV98*(1+$AQ$32)</f>
         <v>6270.248993282531</v>
       </c>
       <c r="CX98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>6207.5465033497057</v>
       </c>
       <c r="CY98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>6145.4710383162083</v>
       </c>
       <c r="CZ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>6084.0163279330463</v>
       </c>
       <c r="DA98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>6023.1761646537161</v>
       </c>
       <c r="DB98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5962.9444030071791</v>
       </c>
       <c r="DC98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5903.3149589771074</v>
       </c>
       <c r="DD98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5844.2818093873366</v>
       </c>
       <c r="DE98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5785.8389912934636</v>
       </c>
       <c r="DF98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5727.9806013805292</v>
       </c>
       <c r="DG98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5670.7007953667235</v>
       </c>
       <c r="DH98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5613.9937874130565</v>
       </c>
       <c r="DI98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5557.8538495389257</v>
       </c>
       <c r="DJ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5502.275311043536</v>
       </c>
       <c r="DK98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5447.2525579331004</v>
       </c>
       <c r="DL98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5392.7800323537695</v>
       </c>
       <c r="DM98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5338.8522320302318</v>
       </c>
       <c r="DN98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5285.4637097099294</v>
       </c>
       <c r="DO98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5232.6090726128305</v>
       </c>
       <c r="DP98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5180.2829818867021</v>
       </c>
       <c r="DQ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5128.4801520678348</v>
       </c>
       <c r="DR98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5077.1953505471565</v>
       </c>
       <c r="DS98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>5026.4233970416853</v>
       </c>
       <c r="DT98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4976.1591630712683</v>
       </c>
       <c r="DU98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4926.3975714405551</v>
       </c>
       <c r="DV98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4877.1335957261499</v>
       </c>
       <c r="DW98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4828.3622597688882</v>
       </c>
       <c r="DX98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4780.0786371711993</v>
       </c>
       <c r="DY98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4732.2778507994872</v>
       </c>
       <c r="DZ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4684.9550722914919</v>
       </c>
       <c r="EA98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4638.1055215685765</v>
       </c>
       <c r="EB98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4591.7244663528909</v>
       </c>
       <c r="EC98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4545.8072216893615</v>
       </c>
       <c r="ED98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4500.3491494724676</v>
       </c>
       <c r="EE98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4455.345657977743</v>
       </c>
       <c r="EF98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4410.792201397966</v>
       </c>
       <c r="EG98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4366.684279383986</v>
       </c>
       <c r="EH98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4323.0174365901457</v>
       </c>
       <c r="EI98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4279.7872622242439</v>
       </c>
       <c r="EJ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4236.9893896020012</v>
       </c>
       <c r="EK98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4194.6194957059815</v>
       </c>
       <c r="EL98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4152.673300748922</v>
       </c>
       <c r="EM98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4111.1465677414326</v>
       </c>
       <c r="EN98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4070.0351020640182</v>
       </c>
       <c r="EO98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>4029.3347510433782</v>
       </c>
       <c r="EP98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3989.0414035329445</v>
       </c>
       <c r="EQ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3949.1509894976152</v>
       </c>
       <c r="ER98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3909.6594796026388</v>
       </c>
       <c r="ES98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3870.5628848066126</v>
       </c>
       <c r="ET98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3831.8572559585464</v>
       </c>
       <c r="EU98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3793.538683398961</v>
       </c>
       <c r="EV98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3755.6032965649715</v>
       </c>
       <c r="EW98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3718.0472635993219</v>
       </c>
       <c r="EX98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3680.8667909633286</v>
       </c>
       <c r="EY98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3644.0581230536955</v>
       </c>
       <c r="EZ98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3607.6175418231583</v>
       </c>
       <c r="FA98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3571.5413664049265</v>
       </c>
       <c r="FB98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3535.8259527408773</v>
       </c>
       <c r="FC98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3500.4676932134685</v>
       </c>
       <c r="FD98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3465.4630162813337</v>
       </c>
       <c r="FE98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3430.8083861185205</v>
       </c>
       <c r="FF98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3396.5003022573351</v>
       </c>
       <c r="FG98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3362.5352992347616</v>
       </c>
       <c r="FH98" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>3328.9099462424138</v>
       </c>
       <c r="FI98" s="9">
-        <f t="shared" ref="FI98:HT98" si="122">FH98*(1+$AQ$32)</f>
+        <f t="shared" ref="FI98:HT98" si="129">FH98*(1+$AQ$32)</f>
         <v>3295.6208467799897</v>
       </c>
       <c r="FJ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3262.6646383121897</v>
       </c>
       <c r="FK98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3230.0379919290676</v>
       </c>
       <c r="FL98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3197.737612009777</v>
       </c>
       <c r="FM98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3165.7602358896793</v>
       </c>
       <c r="FN98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3134.1026335307824</v>
       </c>
       <c r="FO98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3102.7616071954744</v>
       </c>
       <c r="FP98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3071.7339911235194</v>
       </c>
       <c r="FQ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3041.0166512122842</v>
       </c>
       <c r="FR98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3010.6064847001612</v>
       </c>
       <c r="FS98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2980.5004198531597</v>
       </c>
       <c r="FT98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2950.6954156546281</v>
       </c>
       <c r="FU98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2921.1884614980818</v>
       </c>
       <c r="FV98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2891.9765768831007</v>
       </c>
       <c r="FW98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2863.0568111142697</v>
       </c>
       <c r="FX98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2834.4262430031272</v>
       </c>
       <c r="FY98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2806.0819805730957</v>
       </c>
       <c r="FZ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2778.0211607673646</v>
       </c>
       <c r="GA98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2750.2409491596909</v>
       </c>
       <c r="GB98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2722.7385396680938</v>
       </c>
       <c r="GC98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2695.511154271413</v>
       </c>
       <c r="GD98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2668.5560427286987</v>
       </c>
       <c r="GE98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2641.8704823014118</v>
       </c>
       <c r="GF98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2615.4517774783976</v>
       </c>
       <c r="GG98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2589.2972597036137</v>
       </c>
       <c r="GH98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2563.4042871065776</v>
       </c>
       <c r="GI98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2537.7702442355117</v>
       </c>
       <c r="GJ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2512.3925417931564</v>
       </c>
       <c r="GK98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2487.2686163752246</v>
       </c>
       <c r="GL98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2462.3959302114722</v>
       </c>
       <c r="GM98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2437.7719709093576</v>
       </c>
       <c r="GN98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2413.3942512002641</v>
       </c>
       <c r="GO98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2389.2603086882614</v>
       </c>
       <c r="GP98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2365.3677056013789</v>
       </c>
       <c r="GQ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2341.7140285453652</v>
       </c>
       <c r="GR98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2318.2968882599116</v>
       </c>
       <c r="GS98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2295.1139193773124</v>
       </c>
       <c r="GT98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2272.1627801835393</v>
       </c>
       <c r="GU98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2249.4411523817039</v>
       </c>
       <c r="GV98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2226.9467408578867</v>
       </c>
       <c r="GW98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2204.6772734493079</v>
       </c>
       <c r="GX98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2182.6305007148148</v>
       </c>
       <c r="GY98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2160.8041957076666</v>
       </c>
       <c r="GZ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2139.1961537505899</v>
       </c>
       <c r="HA98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2117.8041922130842</v>
       </c>
       <c r="HB98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2096.6261502909533</v>
       </c>
       <c r="HC98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2075.6598887880436</v>
       </c>
       <c r="HD98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2054.9032899001631</v>
       </c>
       <c r="HE98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2034.3542570011614</v>
       </c>
       <c r="HF98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>2014.0107144311498</v>
       </c>
       <c r="HG98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1993.8706072868383</v>
       </c>
       <c r="HH98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1973.9319012139699</v>
       </c>
       <c r="HI98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1954.1925822018302</v>
       </c>
       <c r="HJ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1934.6506563798118</v>
       </c>
       <c r="HK98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1915.3041498160137</v>
       </c>
       <c r="HL98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1896.1511083178536</v>
       </c>
       <c r="HM98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1877.1895972346751</v>
       </c>
       <c r="HN98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1858.4177012623284</v>
       </c>
       <c r="HO98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1839.8335242497051</v>
       </c>
       <c r="HP98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1821.435189007208</v>
       </c>
       <c r="HQ98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1803.2208371171359</v>
       </c>
       <c r="HR98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1785.1886287459645</v>
       </c>
       <c r="HS98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1767.3367424585049</v>
       </c>
       <c r="HT98" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1749.6633750339199</v>
       </c>
       <c r="HU98" s="9">
-        <f t="shared" ref="HU98:KF98" si="123">HT98*(1+$AQ$32)</f>
+        <f t="shared" ref="HU98:KF98" si="130">HT98*(1+$AQ$32)</f>
         <v>1732.1667412835807</v>
       </c>
       <c r="HV98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1714.845073870745</v>
       </c>
       <c r="HW98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1697.6966231320375</v>
       </c>
       <c r="HX98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1680.7196569007172</v>
       </c>
       <c r="HY98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1663.91246033171</v>
       </c>
       <c r="HZ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1647.2733357283928</v>
       </c>
       <c r="IA98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1630.8006023711089</v>
       </c>
       <c r="IB98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1614.4925963473977</v>
       </c>
       <c r="IC98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1598.3476703839237</v>
       </c>
       <c r="ID98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1582.3641936800846</v>
       </c>
       <c r="IE98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1566.5405517432837</v>
       </c>
       <c r="IF98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1550.8751462258508</v>
       </c>
       <c r="IG98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1535.3663947635923</v>
       </c>
       <c r="IH98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1520.0127308159563</v>
       </c>
       <c r="II98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1504.8126035077967</v>
       </c>
       <c r="IJ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1489.7644774727187</v>
       </c>
       <c r="IK98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1474.8668326979914</v>
       </c>
       <c r="IL98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1460.1181643710115</v>
       </c>
       <c r="IM98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1445.5169827273014</v>
       </c>
       <c r="IN98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1431.0618129000284</v>
       </c>
       <c r="IO98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1416.7511947710282</v>
       </c>
       <c r="IP98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1402.583682823318</v>
       </c>
       <c r="IQ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1388.5578459950848</v>
       </c>
       <c r="IR98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1374.6722675351339</v>
       </c>
       <c r="IS98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1360.9255448597826</v>
       </c>
       <c r="IT98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1347.3162894111847</v>
       </c>
       <c r="IU98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1333.8431265170727</v>
       </c>
       <c r="IV98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1320.5046952519019</v>
       </c>
       <c r="IW98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1307.2996482993829</v>
       </c>
       <c r="IX98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1294.226651816389</v>
       </c>
       <c r="IY98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1281.2843852982251</v>
       </c>
       <c r="IZ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1268.4715414452428</v>
       </c>
       <c r="JA98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1255.7868260307903</v>
       </c>
       <c r="JB98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1243.2289577704823</v>
       </c>
       <c r="JC98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1230.7966681927776</v>
       </c>
       <c r="JD98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1218.4887015108498</v>
       </c>
       <c r="JE98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1206.3038144957413</v>
       </c>
       <c r="JF98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1194.240776350784</v>
       </c>
       <c r="JG98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1182.2983685872762</v>
       </c>
       <c r="JH98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1170.4753849014035</v>
       </c>
       <c r="JI98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1158.7706310523895</v>
       </c>
       <c r="JJ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1147.1829247418657</v>
       </c>
       <c r="JK98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1135.7110954944471</v>
       </c>
       <c r="JL98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1124.3539845395026</v>
       </c>
       <c r="JM98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1113.1104446941076</v>
       </c>
       <c r="JN98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1101.9793402471666</v>
       </c>
       <c r="JO98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1090.9595468446951</v>
       </c>
       <c r="JP98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1080.0499513762481</v>
       </c>
       <c r="JQ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1069.2494518624856</v>
       </c>
       <c r="JR98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1058.5569573438606</v>
       </c>
       <c r="JS98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1047.9713877704221</v>
       </c>
       <c r="JT98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1037.4916738927179</v>
       </c>
       <c r="JU98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1027.1167571537908</v>
       </c>
       <c r="JV98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1016.8455895822528</v>
       </c>
       <c r="JW98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>1006.6771336864304</v>
       </c>
       <c r="JX98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>996.610362349566</v>
       </c>
       <c r="JY98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>986.64425872607035</v>
       </c>
       <c r="JZ98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>976.77781613880961</v>
       </c>
       <c r="KA98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>967.01003797742146</v>
       </c>
       <c r="KB98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>957.33993759764724</v>
       </c>
       <c r="KC98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>947.76653822167077</v>
       </c>
       <c r="KD98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>938.28887283945403</v>
       </c>
       <c r="KE98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>928.90598411105952</v>
       </c>
       <c r="KF98" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>919.61692426994887</v>
       </c>
       <c r="KG98" s="9">
-        <f t="shared" ref="KG98:MR98" si="124">KF98*(1+$AQ$32)</f>
+        <f t="shared" ref="KG98:MR98" si="131">KF98*(1+$AQ$32)</f>
         <v>910.42075502724936</v>
       </c>
       <c r="KH98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>901.31654747697689</v>
       </c>
       <c r="KI98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>892.30338200220717</v>
       </c>
       <c r="KJ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>883.38034818218512</v>
       </c>
       <c r="KK98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>874.54654470036326</v>
       </c>
       <c r="KL98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>865.8010792533596</v>
       </c>
       <c r="KM98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>857.14306846082604</v>
       </c>
       <c r="KN98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>848.57163777621781</v>
       </c>
       <c r="KO98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>840.08592139845564</v>
       </c>
       <c r="KP98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>831.68506218447112</v>
       </c>
       <c r="KQ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>823.36821156262636</v>
       </c>
       <c r="KR98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>815.13452944700009</v>
       </c>
       <c r="KS98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>806.98318415253004</v>
       </c>
       <c r="KT98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>798.9133523110047</v>
       </c>
       <c r="KU98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>790.92421878789469</v>
       </c>
       <c r="KV98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>783.01497660001576</v>
       </c>
       <c r="KW98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>775.18482683401555</v>
       </c>
       <c r="KX98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>767.4329785656754</v>
       </c>
       <c r="KY98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>759.75864878001869</v>
       </c>
       <c r="KZ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>752.1610622922185</v>
       </c>
       <c r="LA98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>744.63945166929636</v>
       </c>
       <c r="LB98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>737.19305715260339</v>
       </c>
       <c r="LC98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>729.82112658107735</v>
       </c>
       <c r="LD98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>722.52291531526657</v>
       </c>
       <c r="LE98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>715.29768616211391</v>
       </c>
       <c r="LF98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>708.14470930049276</v>
       </c>
       <c r="LG98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>701.06326220748781</v>
       </c>
       <c r="LH98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>694.05262958541289</v>
       </c>
       <c r="LI98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>687.11210328955872</v>
       </c>
       <c r="LJ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>680.24098225666307</v>
       </c>
       <c r="LK98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>673.43857243409639</v>
       </c>
       <c r="LL98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>666.70418670975539</v>
       </c>
       <c r="LM98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>660.03714484265788</v>
       </c>
       <c r="LN98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>653.4367733942313</v>
       </c>
       <c r="LO98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>646.90240566028899</v>
       </c>
       <c r="LP98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>640.43338160368614</v>
       </c>
       <c r="LQ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>634.02904778764923</v>
       </c>
       <c r="LR98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>627.68875730977277</v>
       </c>
       <c r="LS98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>621.41186973667504</v>
       </c>
       <c r="LT98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>615.19775103930829</v>
       </c>
       <c r="LU98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>609.04577352891522</v>
       </c>
       <c r="LV98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>602.95531579362603</v>
       </c>
       <c r="LW98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>596.92576263568981</v>
       </c>
       <c r="LX98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>590.95650500933289</v>
       </c>
       <c r="LY98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>585.04693995923958</v>
       </c>
       <c r="LZ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>579.1964705596472</v>
       </c>
       <c r="MA98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>573.40450585405074</v>
       </c>
       <c r="MB98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>567.67046079551028</v>
       </c>
       <c r="MC98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>561.99375618755516</v>
       </c>
       <c r="MD98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>556.37381862567963</v>
       </c>
       <c r="ME98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>550.81008043942279</v>
       </c>
       <c r="MF98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>545.3019796350286</v>
       </c>
       <c r="MG98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>539.8489598386783</v>
       </c>
       <c r="MH98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>534.45047024029157</v>
       </c>
       <c r="MI98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>529.10596553788866</v>
       </c>
       <c r="MJ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>523.81490588250972</v>
       </c>
       <c r="MK98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>518.5767568236846</v>
       </c>
       <c r="ML98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>513.39098925544772</v>
       </c>
       <c r="MM98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>508.25707936289325</v>
       </c>
       <c r="MN98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>503.17450856926433</v>
       </c>
       <c r="MO98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>498.14276348357168</v>
       </c>
       <c r="MP98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>493.16133584873597</v>
       </c>
       <c r="MQ98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>488.22972249024861</v>
       </c>
       <c r="MR98" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>483.34742526534609</v>
       </c>
       <c r="MS98" s="9">
-        <f t="shared" ref="MS98:PD98" si="125">MR98*(1+$AQ$32)</f>
+        <f t="shared" ref="MS98:PD98" si="132">MR98*(1+$AQ$32)</f>
         <v>478.51395101269264</v>
       </c>
       <c r="MT98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>473.72881150256569</v>
       </c>
       <c r="MU98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>468.99152338754004</v>
       </c>
       <c r="MV98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>464.30160815366463</v>
       </c>
       <c r="MW98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>459.65859207212799</v>
       </c>
       <c r="MX98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>455.06200615140671</v>
       </c>
       <c r="MY98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>450.51138608989265</v>
       </c>
       <c r="MZ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>446.00627222899374</v>
       </c>
       <c r="NA98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>441.5462095067038</v>
       </c>
       <c r="NB98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>437.13074741163678</v>
       </c>
       <c r="NC98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>432.75943993752043</v>
       </c>
       <c r="ND98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>428.43184553814524</v>
       </c>
       <c r="NE98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>424.14752708276376</v>
       </c>
       <c r="NF98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>419.90605181193609</v>
       </c>
       <c r="NG98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>415.70699129381671</v>
       </c>
       <c r="NH98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>411.54992138087852</v>
       </c>
       <c r="NI98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>407.43442216706973</v>
       </c>
       <c r="NJ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>403.36007794539904</v>
       </c>
       <c r="NK98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>399.32647716594505</v>
       </c>
       <c r="NL98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>395.33321239428562</v>
       </c>
       <c r="NM98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>391.37988027034277</v>
       </c>
       <c r="NN98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>387.46608146763936</v>
       </c>
       <c r="NO98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>383.59142065296294</v>
       </c>
       <c r="NP98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>379.75550644643329</v>
       </c>
       <c r="NQ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>375.95795138196894</v>
       </c>
       <c r="NR98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>372.19837186814925</v>
       </c>
       <c r="NS98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>368.47638814946777</v>
       </c>
       <c r="NT98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>364.79162426797308</v>
       </c>
       <c r="NU98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>361.14370802529334</v>
       </c>
       <c r="NV98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>357.53227094504041</v>
       </c>
       <c r="NW98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>353.95694823559</v>
       </c>
       <c r="NX98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>350.41737875323412</v>
       </c>
       <c r="NY98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>346.91320496570177</v>
       </c>
       <c r="NZ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>343.44407291604472</v>
       </c>
       <c r="OA98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>340.00963218688429</v>
       </c>
       <c r="OB98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>336.60953586501546</v>
       </c>
       <c r="OC98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>333.24344050636529</v>
       </c>
       <c r="OD98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>329.91100610130161</v>
       </c>
       <c r="OE98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>326.61189604028857</v>
       </c>
       <c r="OF98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>323.34577707988569</v>
       </c>
       <c r="OG98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>320.11231930908684</v>
       </c>
       <c r="OH98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>316.91119611599595</v>
       </c>
       <c r="OI98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>313.74208415483599</v>
       </c>
       <c r="OJ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>310.60466331328763</v>
       </c>
       <c r="OK98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>307.49861668015473</v>
       </c>
       <c r="OL98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>304.4236305133532</v>
       </c>
       <c r="OM98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>301.37939420821965</v>
       </c>
       <c r="ON98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>298.36560026613745</v>
       </c>
       <c r="OO98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>295.38194426347604</v>
       </c>
       <c r="OP98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>292.42812482084128</v>
       </c>
       <c r="OQ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>289.50384357263289</v>
       </c>
       <c r="OR98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>286.60880513690654</v>
       </c>
       <c r="OS98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>283.74271708553749</v>
       </c>
       <c r="OT98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>280.9052899146821</v>
       </c>
       <c r="OU98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>278.09623701553528</v>
       </c>
       <c r="OV98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>275.31527464537993</v>
       </c>
       <c r="OW98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>272.56212189892614</v>
       </c>
       <c r="OX98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>269.83650067993688</v>
       </c>
       <c r="OY98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>267.13813567313753</v>
       </c>
       <c r="OZ98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>264.46675431640614</v>
       </c>
       <c r="PA98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>261.82208677324206</v>
       </c>
       <c r="PB98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>259.20386590550964</v>
       </c>
       <c r="PC98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>256.61182724645454</v>
       </c>
       <c r="PD98" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>254.04570897399</v>
       </c>
       <c r="PE98" s="9">
-        <f t="shared" ref="PE98:PH98" si="126">PD98*(1+$AQ$32)</f>
+        <f t="shared" ref="PE98:PH98" si="133">PD98*(1+$AQ$32)</f>
         <v>251.5052518842501</v>
       </c>
       <c r="PF98" s="9">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>248.99019936540759</v>
       </c>
       <c r="PG98" s="9">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>246.5002973717535</v>
       </c>
       <c r="PH98" s="9">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>244.03529439803597</v>
       </c>
     </row>
     <row r="100" spans="1:424" x14ac:dyDescent="0.2">
-      <c r="B100" s="38" t="s">
-        <v>139</v>
+      <c r="B100" s="37" t="s">
+        <v>138</v>
       </c>
       <c r="AF100" s="4">
         <f>AF98/AE98-1</f>
         <v>9.7934852033212394E-3</v>
       </c>
       <c r="AG100" s="4">
-        <f t="shared" ref="AG100:AI100" si="127">AG98/AF98-1</f>
+        <f t="shared" ref="AG100:AI100" si="134">AG98/AF98-1</f>
         <v>6.7467847353995358E-2</v>
       </c>
       <c r="AH100" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.30100730792020536</v>
       </c>
       <c r="AI100" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-7.6058903901624397E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:Z37">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13577,7 +13487,7 @@
       </c>
       <c r="C3" s="2">
         <f>Main!C8</f>
-        <v>14468</v>
+        <v>15102</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -13586,7 +13496,7 @@
       </c>
       <c r="C4" s="2">
         <f>Main!C6</f>
-        <v>76429.164000000004</v>
+        <v>77439.744000000006</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -13595,7 +13505,7 @@
       </c>
       <c r="C5" s="2">
         <f>+C3+C4</f>
-        <v>90897.164000000004</v>
+        <v>92541.744000000006</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -13604,7 +13514,7 @@
       </c>
       <c r="C6" s="3">
         <f>C3/C5</f>
-        <v>0.15916888232068493</v>
+        <v>0.16319121887307417</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -13613,7 +13523,7 @@
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.84083111767931507</v>
+        <v>0.8368087811269258</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -13624,8 +13534,8 @@
         <f>AVERAGE(DCF!AE40:AI40)</f>
         <v>0.14310662837354385</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>74</v>
+      <c r="D9" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -13635,8 +13545,8 @@
       <c r="C10" s="2">
         <v>421</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>75</v>
+      <c r="D10" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -13645,7 +13555,7 @@
       </c>
       <c r="C11" s="3">
         <f>(C10*(1-C9))/C3</f>
-        <v>2.4934483650451898E-2</v>
+        <v>2.3887704241473847E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
@@ -13661,7 +13571,7 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -13694,7 +13604,7 @@
       </c>
       <c r="C18" s="3">
         <f>(C7*C16)+(C6*C11)*(1-C9)</f>
-        <v>5.3850700241781214E-2</v>
+        <v>5.3548923082668794E-2</v>
       </c>
     </row>
   </sheetData>
